--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -523,7202 +523,7202 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45946.54620178986</v>
+        <v>45658.5</v>
       </c>
       <c r="B4" t="n">
-        <v>4.976026989518842</v>
+        <v>5.046698247022404</v>
       </c>
       <c r="C4" t="n">
-        <v>59.86100322826609</v>
+        <v>60.42188590984272</v>
       </c>
       <c r="D4" t="n">
-        <v>495.1196156381044</v>
+        <v>502.8385406308179</v>
       </c>
       <c r="E4" t="n">
-        <v>1489.742899316703</v>
+        <v>1509.894405639453</v>
       </c>
       <c r="F4" t="n">
-        <v>11.98856578792003</v>
+        <v>11.95634606535714</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45946.5463175306</v>
+        <v>45658.50011574074</v>
       </c>
       <c r="B5" t="n">
-        <v>4.950686720049887</v>
+        <v>5.048962313210549</v>
       </c>
       <c r="C5" t="n">
-        <v>60.62650068204878</v>
+        <v>60.41448080045513</v>
       </c>
       <c r="D5" t="n">
-        <v>497.927043334071</v>
+        <v>506.0327359241863</v>
       </c>
       <c r="E5" t="n">
-        <v>1525.715268381053</v>
+        <v>1512.972565186277</v>
       </c>
       <c r="F5" t="n">
-        <v>12.06768831495051</v>
+        <v>12.18917736705989</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45946.54643327135</v>
+        <v>45658.50023148148</v>
       </c>
       <c r="B6" t="n">
-        <v>5.134628524081382</v>
+        <v>5.354222144417025</v>
       </c>
       <c r="C6" t="n">
-        <v>60.53806213214438</v>
+        <v>61.01160865009443</v>
       </c>
       <c r="D6" t="n">
-        <v>510.9835059367978</v>
+        <v>509.9044253444196</v>
       </c>
       <c r="E6" t="n">
-        <v>1546.610934710874</v>
+        <v>1531.337176337639</v>
       </c>
       <c r="F6" t="n">
-        <v>12.23484988988595</v>
+        <v>12.22964672425064</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45946.54654901208</v>
+        <v>45658.50034722222</v>
       </c>
       <c r="B7" t="n">
-        <v>5.148159516225762</v>
+        <v>5.223173177014914</v>
       </c>
       <c r="C7" t="n">
-        <v>62.60529438662829</v>
+        <v>62.30805241266496</v>
       </c>
       <c r="D7" t="n">
-        <v>520.247294619584</v>
+        <v>518.3448753640652</v>
       </c>
       <c r="E7" t="n">
-        <v>1553.809973443643</v>
+        <v>1565.093788173549</v>
       </c>
       <c r="F7" t="n">
-        <v>12.34803972064344</v>
+        <v>12.38955677400634</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45946.54666475282</v>
+        <v>45658.50046296296</v>
       </c>
       <c r="B8" t="n">
-        <v>5.3812280131315</v>
+        <v>5.167783770419895</v>
       </c>
       <c r="C8" t="n">
-        <v>62.90066706159477</v>
+        <v>62.73844060428596</v>
       </c>
       <c r="D8" t="n">
-        <v>525.4625186837674</v>
+        <v>529.5438770163296</v>
       </c>
       <c r="E8" t="n">
-        <v>1587.780657144172</v>
+        <v>1571.219252173374</v>
       </c>
       <c r="F8" t="n">
-        <v>12.51762223431566</v>
+        <v>12.55939482936198</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45946.54678049356</v>
+        <v>45658.5005787037</v>
       </c>
       <c r="B9" t="n">
-        <v>5.1800185730165</v>
+        <v>5.361989247028184</v>
       </c>
       <c r="C9" t="n">
-        <v>63.79303402516752</v>
+        <v>63.08596413200716</v>
       </c>
       <c r="D9" t="n">
-        <v>540.3174303836576</v>
+        <v>524.3244006019016</v>
       </c>
       <c r="E9" t="n">
-        <v>1575.952903867327</v>
+        <v>1584.012655222843</v>
       </c>
       <c r="F9" t="n">
-        <v>12.66564512504808</v>
+        <v>12.75363819905064</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45946.54689623431</v>
+        <v>45658.50069444445</v>
       </c>
       <c r="B10" t="n">
-        <v>5.446838566515676</v>
+        <v>5.46043972347434</v>
       </c>
       <c r="C10" t="n">
-        <v>64.30280048258132</v>
+        <v>64.048107437515</v>
       </c>
       <c r="D10" t="n">
-        <v>544.4869998217953</v>
+        <v>554.9408002247344</v>
       </c>
       <c r="E10" t="n">
-        <v>1603.89388012085</v>
+        <v>1597.889170379115</v>
       </c>
       <c r="F10" t="n">
-        <v>12.91931708665569</v>
+        <v>12.83904297305605</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45946.54701197505</v>
+        <v>45658.50081018519</v>
       </c>
       <c r="B11" t="n">
-        <v>5.401752267965787</v>
+        <v>5.591838845519792</v>
       </c>
       <c r="C11" t="n">
-        <v>64.351181769736</v>
+        <v>65.55950321338146</v>
       </c>
       <c r="D11" t="n">
-        <v>553.9520586510916</v>
+        <v>553.1106732009443</v>
       </c>
       <c r="E11" t="n">
-        <v>1619.690731824046</v>
+        <v>1608.950525126702</v>
       </c>
       <c r="F11" t="n">
-        <v>12.8681549482401</v>
+        <v>12.94958677146408</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45946.54712771578</v>
+        <v>45658.50092592592</v>
       </c>
       <c r="B12" t="n">
-        <v>5.487908304940294</v>
+        <v>5.556198833215475</v>
       </c>
       <c r="C12" t="n">
-        <v>65.96680490846134</v>
+        <v>65.82893544371406</v>
       </c>
       <c r="D12" t="n">
-        <v>556.2518043391025</v>
+        <v>561.4497168883229</v>
       </c>
       <c r="E12" t="n">
-        <v>1658.045170981524</v>
+        <v>1614.651430568655</v>
       </c>
       <c r="F12" t="n">
-        <v>13.00458762811706</v>
+        <v>13.09975618778727</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45946.54724345653</v>
+        <v>45658.50104166667</v>
       </c>
       <c r="B13" t="n">
-        <v>5.617846934437178</v>
+        <v>5.70179363084718</v>
       </c>
       <c r="C13" t="n">
-        <v>66.30137553961575</v>
+        <v>66.15573767652697</v>
       </c>
       <c r="D13" t="n">
-        <v>554.0968147694991</v>
+        <v>565.1510233788588</v>
       </c>
       <c r="E13" t="n">
-        <v>1651.416566971747</v>
+        <v>1654.270684674996</v>
       </c>
       <c r="F13" t="n">
-        <v>13.21325106304585</v>
+        <v>13.18664178259691</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45946.54735919727</v>
+        <v>45658.50115740741</v>
       </c>
       <c r="B14" t="n">
-        <v>5.784907451038872</v>
+        <v>5.733857978371507</v>
       </c>
       <c r="C14" t="n">
-        <v>66.90781074220386</v>
+        <v>66.98746290448302</v>
       </c>
       <c r="D14" t="n">
-        <v>571.3307084040556</v>
+        <v>565.0713814776205</v>
       </c>
       <c r="E14" t="n">
-        <v>1643.934085217702</v>
+        <v>1665.529441844797</v>
       </c>
       <c r="F14" t="n">
-        <v>13.45760482914495</v>
+        <v>13.33137179325754</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45946.54747493801</v>
+        <v>45658.50127314815</v>
       </c>
       <c r="B15" t="n">
-        <v>5.802021124394436</v>
+        <v>5.684651226220245</v>
       </c>
       <c r="C15" t="n">
-        <v>67.37973980232633</v>
+        <v>66.74509701389145</v>
       </c>
       <c r="D15" t="n">
-        <v>576.3446299617749</v>
+        <v>580.5272226099806</v>
       </c>
       <c r="E15" t="n">
-        <v>1693.78875264456</v>
+        <v>1701.404800490264</v>
       </c>
       <c r="F15" t="n">
-        <v>13.53791695707345</v>
+        <v>13.48060506135953</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45946.54759067875</v>
+        <v>45658.50138888889</v>
       </c>
       <c r="B16" t="n">
-        <v>5.698117486724551</v>
+        <v>5.686475233403822</v>
       </c>
       <c r="C16" t="n">
-        <v>67.77930327679508</v>
+        <v>68.5013759196458</v>
       </c>
       <c r="D16" t="n">
-        <v>582.0034931119582</v>
+        <v>584.0366480312081</v>
       </c>
       <c r="E16" t="n">
-        <v>1702.130487929956</v>
+        <v>1697.392940888662</v>
       </c>
       <c r="F16" t="n">
-        <v>13.62275932030394</v>
+        <v>13.67390836421554</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45946.54770641949</v>
+        <v>45658.50150462963</v>
       </c>
       <c r="B17" t="n">
-        <v>5.97384049729724</v>
+        <v>5.902595304546387</v>
       </c>
       <c r="C17" t="n">
-        <v>68.24835177515148</v>
+        <v>69.05379741520763</v>
       </c>
       <c r="D17" t="n">
-        <v>580.1399662580841</v>
+        <v>595.3937612969065</v>
       </c>
       <c r="E17" t="n">
-        <v>1720.179616898491</v>
+        <v>1718.052413420507</v>
       </c>
       <c r="F17" t="n">
-        <v>13.77820458122454</v>
+        <v>13.64364695036947</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45946.54782216023</v>
+        <v>45658.50162037037</v>
       </c>
       <c r="B18" t="n">
-        <v>5.853375355489848</v>
+        <v>5.747240817238167</v>
       </c>
       <c r="C18" t="n">
-        <v>68.82198346756611</v>
+        <v>69.42370579116562</v>
       </c>
       <c r="D18" t="n">
-        <v>597.4061103167411</v>
+        <v>599.8468225932961</v>
       </c>
       <c r="E18" t="n">
-        <v>1746.278195628031</v>
+        <v>1717.299142799766</v>
       </c>
       <c r="F18" t="n">
-        <v>13.87872818768089</v>
+        <v>13.8755742791253</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45946.54793790097</v>
+        <v>45658.50173611111</v>
       </c>
       <c r="B19" t="n">
-        <v>5.961924463981495</v>
+        <v>6.184936027462082</v>
       </c>
       <c r="C19" t="n">
-        <v>70.30133028949693</v>
+        <v>70.27126735721231</v>
       </c>
       <c r="D19" t="n">
-        <v>601.3158318115736</v>
+        <v>605.1335971431332</v>
       </c>
       <c r="E19" t="n">
-        <v>1741.644522243579</v>
+        <v>1742.339281441562</v>
       </c>
       <c r="F19" t="n">
-        <v>14.01978435864238</v>
+        <v>14.0252682548723</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45946.54805364172</v>
+        <v>45658.50185185186</v>
       </c>
       <c r="B20" t="n">
-        <v>6.114273270204815</v>
+        <v>6.120690175920363</v>
       </c>
       <c r="C20" t="n">
-        <v>70.71215151084445</v>
+        <v>69.75067955256912</v>
       </c>
       <c r="D20" t="n">
-        <v>612.8555209828822</v>
+        <v>598.6676294680708</v>
       </c>
       <c r="E20" t="n">
-        <v>1769.896770855298</v>
+        <v>1760.802139493416</v>
       </c>
       <c r="F20" t="n">
-        <v>14.11811158511977</v>
+        <v>14.18028563900264</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45946.54816938245</v>
+        <v>45658.50196759259</v>
       </c>
       <c r="B21" t="n">
-        <v>5.953685332250541</v>
+        <v>6.049800701184678</v>
       </c>
       <c r="C21" t="n">
-        <v>70.13936153099593</v>
+        <v>71.51975139994596</v>
       </c>
       <c r="D21" t="n">
-        <v>603.9185024826905</v>
+        <v>610.7989024641041</v>
       </c>
       <c r="E21" t="n">
-        <v>1789.164705331697</v>
+        <v>1777.266206776123</v>
       </c>
       <c r="F21" t="n">
-        <v>14.26206882852566</v>
+        <v>14.20051204232243</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45946.54828512319</v>
+        <v>45658.50208333333</v>
       </c>
       <c r="B22" t="n">
-        <v>6.223289980727257</v>
+        <v>6.071449784251526</v>
       </c>
       <c r="C22" t="n">
-        <v>71.83930567376053</v>
+        <v>72.64234486914135</v>
       </c>
       <c r="D22" t="n">
-        <v>616.2019512455608</v>
+        <v>605.0109989766441</v>
       </c>
       <c r="E22" t="n">
-        <v>1787.730390244287</v>
+        <v>1802.882238621627</v>
       </c>
       <c r="F22" t="n">
-        <v>14.36898506350327</v>
+        <v>14.35865143547796</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45946.54840086393</v>
+        <v>45658.50219907407</v>
       </c>
       <c r="B23" t="n">
-        <v>6.158729346615659</v>
+        <v>6.163704147411987</v>
       </c>
       <c r="C23" t="n">
-        <v>72.16080898482885</v>
+        <v>72.33752842028552</v>
       </c>
       <c r="D23" t="n">
-        <v>620.9932219886927</v>
+        <v>622.2520587391977</v>
       </c>
       <c r="E23" t="n">
-        <v>1797.130399021867</v>
+        <v>1789.904318907566</v>
       </c>
       <c r="F23" t="n">
-        <v>14.46621321749984</v>
+        <v>14.45130658813673</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45946.54851660468</v>
+        <v>45658.50231481482</v>
       </c>
       <c r="B24" t="n">
-        <v>6.268325633535437</v>
+        <v>6.258066997683413</v>
       </c>
       <c r="C24" t="n">
-        <v>73.61586833987259</v>
+        <v>72.88530284039635</v>
       </c>
       <c r="D24" t="n">
-        <v>621.2770910919868</v>
+        <v>628.5080581190596</v>
       </c>
       <c r="E24" t="n">
-        <v>1811.735596857389</v>
+        <v>1821.102675437779</v>
       </c>
       <c r="F24" t="n">
-        <v>14.54987108920849</v>
+        <v>14.48778874899264</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45946.54863234542</v>
+        <v>45658.50243055556</v>
       </c>
       <c r="B25" t="n">
-        <v>6.18604956180717</v>
+        <v>6.38071903734319</v>
       </c>
       <c r="C25" t="n">
-        <v>73.90159607315292</v>
+        <v>73.08833684887395</v>
       </c>
       <c r="D25" t="n">
-        <v>637.1519484533596</v>
+        <v>629.5681295686522</v>
       </c>
       <c r="E25" t="n">
-        <v>1830.789531762999</v>
+        <v>1849.716036887859</v>
       </c>
       <c r="F25" t="n">
-        <v>14.65821394525467</v>
+        <v>14.75589800012031</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45946.54874808616</v>
+        <v>45658.50254629629</v>
       </c>
       <c r="B26" t="n">
-        <v>6.380322201532498</v>
+        <v>6.483681034512554</v>
       </c>
       <c r="C26" t="n">
-        <v>73.51271619472799</v>
+        <v>74.45943766473009</v>
       </c>
       <c r="D26" t="n">
-        <v>642.0048215025575</v>
+        <v>640.8224281034073</v>
       </c>
       <c r="E26" t="n">
-        <v>1856.66386065093</v>
+        <v>1868.009004741631</v>
       </c>
       <c r="F26" t="n">
-        <v>14.73335404284793</v>
+        <v>14.86811628689077</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45946.5488638269</v>
+        <v>45658.50266203703</v>
       </c>
       <c r="B27" t="n">
-        <v>6.572382818488906</v>
+        <v>6.501986863670968</v>
       </c>
       <c r="C27" t="n">
-        <v>75.22342800752267</v>
+        <v>74.14795582321157</v>
       </c>
       <c r="D27" t="n">
-        <v>653.5126806413069</v>
+        <v>643.9264933848067</v>
       </c>
       <c r="E27" t="n">
-        <v>1862.627346952419</v>
+        <v>1877.266237591049</v>
       </c>
       <c r="F27" t="n">
-        <v>14.98327900008008</v>
+        <v>14.96018759525728</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45946.54897956764</v>
+        <v>45658.50277777778</v>
       </c>
       <c r="B28" t="n">
-        <v>6.549403531487231</v>
+        <v>6.574849599337125</v>
       </c>
       <c r="C28" t="n">
-        <v>74.19952901639044</v>
+        <v>75.00051678567601</v>
       </c>
       <c r="D28" t="n">
-        <v>654.2972380350516</v>
+        <v>653.5145527962436</v>
       </c>
       <c r="E28" t="n">
-        <v>1875.416952283538</v>
+        <v>1870.692053225017</v>
       </c>
       <c r="F28" t="n">
-        <v>15.09764443921258</v>
+        <v>14.97332567280185</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45946.54909530838</v>
+        <v>45658.50289351852</v>
       </c>
       <c r="B29" t="n">
-        <v>6.436954964598716</v>
+        <v>6.702668252432533</v>
       </c>
       <c r="C29" t="n">
-        <v>75.18903464072403</v>
+        <v>75.12112333729145</v>
       </c>
       <c r="D29" t="n">
-        <v>658.5565296445925</v>
+        <v>654.8242956102208</v>
       </c>
       <c r="E29" t="n">
-        <v>1887.697825767194</v>
+        <v>1894.728593301552</v>
       </c>
       <c r="F29" t="n">
-        <v>15.04985373952408</v>
+        <v>15.07742486857914</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45946.54921104912</v>
+        <v>45658.50300925926</v>
       </c>
       <c r="B30" t="n">
-        <v>6.643064563751938</v>
+        <v>6.66892766946111</v>
       </c>
       <c r="C30" t="n">
-        <v>75.89012640791321</v>
+        <v>75.79468672117856</v>
       </c>
       <c r="D30" t="n">
-        <v>653.0557072491353</v>
+        <v>662.7077719048784</v>
       </c>
       <c r="E30" t="n">
-        <v>1899.267971024927</v>
+        <v>1904.74451925266</v>
       </c>
       <c r="F30" t="n">
-        <v>15.06724254691555</v>
+        <v>15.19654478652695</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45946.54932678986</v>
+        <v>45658.503125</v>
       </c>
       <c r="B31" t="n">
-        <v>6.529203438185217</v>
+        <v>6.395406550475095</v>
       </c>
       <c r="C31" t="n">
-        <v>75.48990712612726</v>
+        <v>75.94168366856576</v>
       </c>
       <c r="D31" t="n">
-        <v>661.3798437574923</v>
+        <v>660.5365294037645</v>
       </c>
       <c r="E31" t="n">
-        <v>1900.204289731381</v>
+        <v>1903.604113920873</v>
       </c>
       <c r="F31" t="n">
-        <v>15.24313679332948</v>
+        <v>15.19020056759438</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45946.5494425306</v>
+        <v>45658.50324074074</v>
       </c>
       <c r="B32" t="n">
-        <v>6.475282622507978</v>
+        <v>6.682009658228445</v>
       </c>
       <c r="C32" t="n">
-        <v>76.19087982335887</v>
+        <v>76.12402343307924</v>
       </c>
       <c r="D32" t="n">
-        <v>664.3740305288193</v>
+        <v>672.6135189575948</v>
       </c>
       <c r="E32" t="n">
-        <v>1923.262693054617</v>
+        <v>1927.957630836702</v>
       </c>
       <c r="F32" t="n">
-        <v>15.34341292208149</v>
+        <v>15.25466808081911</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45946.54955827134</v>
+        <v>45658.50335648148</v>
       </c>
       <c r="B33" t="n">
-        <v>6.701247253698845</v>
+        <v>6.685185785495904</v>
       </c>
       <c r="C33" t="n">
-        <v>76.69280508589219</v>
+        <v>77.09269217773056</v>
       </c>
       <c r="D33" t="n">
-        <v>658.9402703174731</v>
+        <v>674.2989929827691</v>
       </c>
       <c r="E33" t="n">
-        <v>1931.362489268799</v>
+        <v>1948.326993657799</v>
       </c>
       <c r="F33" t="n">
-        <v>15.39552003606568</v>
+        <v>15.50197930387225</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45946.54967401208</v>
+        <v>45658.50347222222</v>
       </c>
       <c r="B34" t="n">
-        <v>6.880200490275572</v>
+        <v>6.697014102827556</v>
       </c>
       <c r="C34" t="n">
-        <v>77.79593786709793</v>
+        <v>77.6457539829848</v>
       </c>
       <c r="D34" t="n">
-        <v>670.146000755452</v>
+        <v>669.5800765644726</v>
       </c>
       <c r="E34" t="n">
-        <v>1925.883051017135</v>
+        <v>1927.769426399437</v>
       </c>
       <c r="F34" t="n">
-        <v>15.5294507509201</v>
+        <v>15.41613102667926</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45946.54978975283</v>
+        <v>45658.50358796296</v>
       </c>
       <c r="B35" t="n">
-        <v>6.903722967947501</v>
+        <v>6.776552941922961</v>
       </c>
       <c r="C35" t="n">
-        <v>77.6568724350777</v>
+        <v>77.73185454141368</v>
       </c>
       <c r="D35" t="n">
-        <v>676.4104658685484</v>
+        <v>678.806775204313</v>
       </c>
       <c r="E35" t="n">
-        <v>1933.338059560848</v>
+        <v>1930.041471513871</v>
       </c>
       <c r="F35" t="n">
-        <v>15.57987970943474</v>
+        <v>15.52140454821205</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45946.54990549356</v>
+        <v>45658.5037037037</v>
       </c>
       <c r="B36" t="n">
-        <v>6.658961878845578</v>
+        <v>6.589933449242791</v>
       </c>
       <c r="C36" t="n">
-        <v>77.61187848764446</v>
+        <v>78.03831979273228</v>
       </c>
       <c r="D36" t="n">
-        <v>676.2249947306924</v>
+        <v>683.0403334953282</v>
       </c>
       <c r="E36" t="n">
-        <v>1968.470585785873</v>
+        <v>1952.929572836028</v>
       </c>
       <c r="F36" t="n">
-        <v>15.54459065564475</v>
+        <v>15.59517801486683</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45946.5500212343</v>
+        <v>45658.50381944444</v>
       </c>
       <c r="B37" t="n">
-        <v>6.960612283265786</v>
+        <v>6.869580513947944</v>
       </c>
       <c r="C37" t="n">
-        <v>78.21358387249435</v>
+        <v>78.23138775514109</v>
       </c>
       <c r="D37" t="n">
-        <v>675.7344343603401</v>
+        <v>683.5586437447798</v>
       </c>
       <c r="E37" t="n">
-        <v>1953.528672038575</v>
+        <v>1944.143627862252</v>
       </c>
       <c r="F37" t="n">
-        <v>15.69676077031434</v>
+        <v>15.66486865587082</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45946.55013697505</v>
+        <v>45658.50393518519</v>
       </c>
       <c r="B38" t="n">
-        <v>6.7362813741615</v>
+        <v>6.782150136274589</v>
       </c>
       <c r="C38" t="n">
-        <v>78.82193626339746</v>
+        <v>78.18173304613089</v>
       </c>
       <c r="D38" t="n">
-        <v>695.9289487798982</v>
+        <v>687.107789161721</v>
       </c>
       <c r="E38" t="n">
-        <v>1968.578836977286</v>
+        <v>1973.479626120724</v>
       </c>
       <c r="F38" t="n">
-        <v>15.74613488119675</v>
+        <v>15.70388584586846</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45946.55025271579</v>
+        <v>45658.50405092593</v>
       </c>
       <c r="B39" t="n">
-        <v>6.791158566290919</v>
+        <v>6.787115044442097</v>
       </c>
       <c r="C39" t="n">
-        <v>78.22093850253965</v>
+        <v>79.81214176609653</v>
       </c>
       <c r="D39" t="n">
-        <v>683.3416537072817</v>
+        <v>694.4946103965899</v>
       </c>
       <c r="E39" t="n">
-        <v>1979.144632366537</v>
+        <v>1949.928029401435</v>
       </c>
       <c r="F39" t="n">
-        <v>15.76555574433121</v>
+        <v>15.64873482579097</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45946.55036845653</v>
+        <v>45658.50416666667</v>
       </c>
       <c r="B40" t="n">
-        <v>6.956313287390077</v>
+        <v>6.996341473210716</v>
       </c>
       <c r="C40" t="n">
-        <v>78.47438131217989</v>
+        <v>79.00073877715381</v>
       </c>
       <c r="D40" t="n">
-        <v>686.6315483591579</v>
+        <v>690.7541440053058</v>
       </c>
       <c r="E40" t="n">
-        <v>1969.89779525802</v>
+        <v>1988.75899911786</v>
       </c>
       <c r="F40" t="n">
-        <v>15.82187403501165</v>
+        <v>15.78720097840916</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45946.55048419727</v>
+        <v>45658.5042824074</v>
       </c>
       <c r="B41" t="n">
-        <v>7.050664601169462</v>
+        <v>6.872004854323927</v>
       </c>
       <c r="C41" t="n">
-        <v>78.7691278074023</v>
+        <v>79.57231482731498</v>
       </c>
       <c r="D41" t="n">
-        <v>691.0413351489545</v>
+        <v>698.3474923423379</v>
       </c>
       <c r="E41" t="n">
-        <v>1976.510370956604</v>
+        <v>1990.052004413654</v>
       </c>
       <c r="F41" t="n">
-        <v>15.75187340526733</v>
+        <v>15.87111538292965</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45946.55059993801</v>
+        <v>45658.50439814815</v>
       </c>
       <c r="B42" t="n">
-        <v>6.89653357002826</v>
+        <v>6.946553636418067</v>
       </c>
       <c r="C42" t="n">
-        <v>79.47121333090399</v>
+        <v>80.16346237631015</v>
       </c>
       <c r="D42" t="n">
-        <v>687.4992353611618</v>
+        <v>684.6858359482092</v>
       </c>
       <c r="E42" t="n">
-        <v>1990.729657678293</v>
+        <v>1988.239776290559</v>
       </c>
       <c r="F42" t="n">
-        <v>15.89605787240185</v>
+        <v>15.8695900006422</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45946.55071567875</v>
+        <v>45658.50451388889</v>
       </c>
       <c r="B43" t="n">
-        <v>7.0304030436336</v>
+        <v>7.02752867910462</v>
       </c>
       <c r="C43" t="n">
-        <v>79.6619684018716</v>
+        <v>80.05217705781897</v>
       </c>
       <c r="D43" t="n">
-        <v>690.8133433898942</v>
+        <v>692.8186793653459</v>
       </c>
       <c r="E43" t="n">
-        <v>1984.719267296613</v>
+        <v>1995.78394901981</v>
       </c>
       <c r="F43" t="n">
-        <v>16.03805851696115</v>
+        <v>15.92755685240707</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45946.55083141949</v>
+        <v>45658.50462962963</v>
       </c>
       <c r="B44" t="n">
-        <v>7.069547886559029</v>
+        <v>6.777224394068136</v>
       </c>
       <c r="C44" t="n">
-        <v>79.60818067758682</v>
+        <v>79.7546762473887</v>
       </c>
       <c r="D44" t="n">
-        <v>687.5900389343226</v>
+        <v>698.3122109920037</v>
       </c>
       <c r="E44" t="n">
-        <v>1992.719964539862</v>
+        <v>1980.087211845839</v>
       </c>
       <c r="F44" t="n">
-        <v>15.91051486037228</v>
+        <v>15.91025255083441</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45946.55094716023</v>
+        <v>45658.50474537037</v>
       </c>
       <c r="B45" t="n">
-        <v>6.754330038922119</v>
+        <v>6.995697853197271</v>
       </c>
       <c r="C45" t="n">
-        <v>79.72358244740893</v>
+        <v>79.69139287742875</v>
       </c>
       <c r="D45" t="n">
-        <v>696.4520376085477</v>
+        <v>705.262568220783</v>
       </c>
       <c r="E45" t="n">
-        <v>2003.410108322179</v>
+        <v>2006.438184140932</v>
       </c>
       <c r="F45" t="n">
-        <v>15.9673080441754</v>
+        <v>15.9583649193714</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45946.55106290097</v>
+        <v>45658.50486111111</v>
       </c>
       <c r="B46" t="n">
-        <v>7.007394477834099</v>
+        <v>7.219922062362548</v>
       </c>
       <c r="C46" t="n">
-        <v>79.59225191722793</v>
+        <v>79.24813112384378</v>
       </c>
       <c r="D46" t="n">
-        <v>698.052427377611</v>
+        <v>706.4492804040426</v>
       </c>
       <c r="E46" t="n">
-        <v>1999.640029849415</v>
+        <v>1979.62559489459</v>
       </c>
       <c r="F46" t="n">
-        <v>15.90323484825785</v>
+        <v>15.90626320619236</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45946.55117864171</v>
+        <v>45658.50497685185</v>
       </c>
       <c r="B47" t="n">
-        <v>6.908709013010134</v>
+        <v>7.132044288161169</v>
       </c>
       <c r="C47" t="n">
-        <v>80.34458438655152</v>
+        <v>79.85659933734472</v>
       </c>
       <c r="D47" t="n">
-        <v>699.629269393545</v>
+        <v>699.2478703506688</v>
       </c>
       <c r="E47" t="n">
-        <v>1997.416278030993</v>
+        <v>2001.433772105144</v>
       </c>
       <c r="F47" t="n">
-        <v>15.96397618640613</v>
+        <v>15.97546429422686</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45946.55129438245</v>
+        <v>45658.50509259259</v>
       </c>
       <c r="B48" t="n">
-        <v>7.062952649549783</v>
+        <v>6.985507215356662</v>
       </c>
       <c r="C48" t="n">
-        <v>80.13055560425161</v>
+        <v>80.72656082004656</v>
       </c>
       <c r="D48" t="n">
-        <v>696.8214581953855</v>
+        <v>703.747501986144</v>
       </c>
       <c r="E48" t="n">
-        <v>1992.47137855937</v>
+        <v>1995.341767399853</v>
       </c>
       <c r="F48" t="n">
-        <v>16.11574809322544</v>
+        <v>15.98130297609346</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45946.5514101232</v>
+        <v>45658.50520833334</v>
       </c>
       <c r="B49" t="n">
-        <v>6.733730449326511</v>
+        <v>7.093484111390231</v>
       </c>
       <c r="C49" t="n">
-        <v>80.1087072371883</v>
+        <v>81.20414272190287</v>
       </c>
       <c r="D49" t="n">
-        <v>709.4440569460394</v>
+        <v>692.841640822773</v>
       </c>
       <c r="E49" t="n">
-        <v>2009.673202051731</v>
+        <v>1987.585181520088</v>
       </c>
       <c r="F49" t="n">
-        <v>16.02811072616637</v>
+        <v>15.99032335316805</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45946.55152586394</v>
+        <v>45658.50532407407</v>
       </c>
       <c r="B50" t="n">
-        <v>7.166085351554963</v>
+        <v>7.119951418428732</v>
       </c>
       <c r="C50" t="n">
-        <v>81.22446074519578</v>
+        <v>79.14601700224591</v>
       </c>
       <c r="D50" t="n">
-        <v>696.5597331204174</v>
+        <v>704.6597386133217</v>
       </c>
       <c r="E50" t="n">
-        <v>2016.541778718732</v>
+        <v>1992.549302611106</v>
       </c>
       <c r="F50" t="n">
-        <v>16.00185717293439</v>
+        <v>15.95494175594502</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45946.55164160467</v>
+        <v>45658.50543981481</v>
       </c>
       <c r="B51" t="n">
-        <v>6.973146013500822</v>
+        <v>7.194330021587087</v>
       </c>
       <c r="C51" t="n">
-        <v>79.98201162159258</v>
+        <v>79.77845099390842</v>
       </c>
       <c r="D51" t="n">
-        <v>696.2066766966519</v>
+        <v>703.3518599651015</v>
       </c>
       <c r="E51" t="n">
-        <v>1996.634322199326</v>
+        <v>1998.02068342643</v>
       </c>
       <c r="F51" t="n">
-        <v>16.04936254150305</v>
+        <v>16.06692814426852</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>45946.55175734542</v>
+        <v>45658.50555555556</v>
       </c>
       <c r="B52" t="n">
-        <v>7.023865262862457</v>
+        <v>7.096569173816269</v>
       </c>
       <c r="C52" t="n">
-        <v>80.15040870357367</v>
+        <v>79.44545752026271</v>
       </c>
       <c r="D52" t="n">
-        <v>701.5474156769308</v>
+        <v>693.622717154268</v>
       </c>
       <c r="E52" t="n">
-        <v>1981.140671784249</v>
+        <v>2008.165256351176</v>
       </c>
       <c r="F52" t="n">
-        <v>15.95829831440713</v>
+        <v>15.92993555588148</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>45946.55187308616</v>
+        <v>45658.5056712963</v>
       </c>
       <c r="B53" t="n">
-        <v>7.0442362309574</v>
+        <v>6.987280987353511</v>
       </c>
       <c r="C53" t="n">
-        <v>79.76557379113635</v>
+        <v>79.42354011488544</v>
       </c>
       <c r="D53" t="n">
-        <v>690.6368963414367</v>
+        <v>697.8620797442046</v>
       </c>
       <c r="E53" t="n">
-        <v>1970.73320646992</v>
+        <v>1971.76017299312</v>
       </c>
       <c r="F53" t="n">
-        <v>15.8902742208955</v>
+        <v>15.88827312766088</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>45946.5519888269</v>
+        <v>45658.50578703704</v>
       </c>
       <c r="B54" t="n">
-        <v>6.996270188825402</v>
+        <v>6.948491635672561</v>
       </c>
       <c r="C54" t="n">
-        <v>79.59813348934257</v>
+        <v>79.35978018121143</v>
       </c>
       <c r="D54" t="n">
-        <v>703.0897189531792</v>
+        <v>698.8359582645011</v>
       </c>
       <c r="E54" t="n">
-        <v>1994.867358928027</v>
+        <v>1988.352852973397</v>
       </c>
       <c r="F54" t="n">
-        <v>15.78228425137647</v>
+        <v>16.02797278634559</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>45946.55210456764</v>
+        <v>45658.50590277778</v>
       </c>
       <c r="B55" t="n">
-        <v>6.987512101479928</v>
+        <v>6.946653537425577</v>
       </c>
       <c r="C55" t="n">
-        <v>80.12732804893628</v>
+        <v>79.49442028338818</v>
       </c>
       <c r="D55" t="n">
-        <v>692.8074679825496</v>
+        <v>694.4223878075221</v>
       </c>
       <c r="E55" t="n">
-        <v>1992.09761002982</v>
+        <v>1993.176448807508</v>
       </c>
       <c r="F55" t="n">
-        <v>15.93552461833267</v>
+        <v>15.9809202922614</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>45946.55222030838</v>
+        <v>45658.50601851852</v>
       </c>
       <c r="B56" t="n">
-        <v>6.763633867009614</v>
+        <v>6.844646900789673</v>
       </c>
       <c r="C56" t="n">
-        <v>79.70248831073343</v>
+        <v>79.7737813426702</v>
       </c>
       <c r="D56" t="n">
-        <v>689.2999106645884</v>
+        <v>699.0158279732599</v>
       </c>
       <c r="E56" t="n">
-        <v>1984.605219197209</v>
+        <v>2001.464519224764</v>
       </c>
       <c r="F56" t="n">
-        <v>15.83753387953481</v>
+        <v>15.94141359345206</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>45946.55233604912</v>
+        <v>45658.50613425926</v>
       </c>
       <c r="B57" t="n">
-        <v>7.127695752265713</v>
+        <v>6.721395186119302</v>
       </c>
       <c r="C57" t="n">
-        <v>78.94888195313602</v>
+        <v>79.88226312654415</v>
       </c>
       <c r="D57" t="n">
-        <v>684.4869984800758</v>
+        <v>698.1992243392936</v>
       </c>
       <c r="E57" t="n">
-        <v>1970.115246230185</v>
+        <v>1982.88611711791</v>
       </c>
       <c r="F57" t="n">
-        <v>15.87753785323293</v>
+        <v>15.90277028130581</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>45946.55245178986</v>
+        <v>45658.50625</v>
       </c>
       <c r="B58" t="n">
-        <v>6.957893287401097</v>
+        <v>6.786936555697197</v>
       </c>
       <c r="C58" t="n">
-        <v>79.4342332801359</v>
+        <v>79.29782003592399</v>
       </c>
       <c r="D58" t="n">
-        <v>689.5930912328056</v>
+        <v>688.8189829719512</v>
       </c>
       <c r="E58" t="n">
-        <v>1969.857663638991</v>
+        <v>1964.059542564552</v>
       </c>
       <c r="F58" t="n">
-        <v>15.6641300701935</v>
+        <v>15.65197110682974</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>45946.55256753061</v>
+        <v>45658.50636574074</v>
       </c>
       <c r="B59" t="n">
-        <v>6.861586684107451</v>
+        <v>6.776988201373278</v>
       </c>
       <c r="C59" t="n">
-        <v>78.57390294963361</v>
+        <v>79.10891284955832</v>
       </c>
       <c r="D59" t="n">
-        <v>690.5657029619503</v>
+        <v>678.5856385276194</v>
       </c>
       <c r="E59" t="n">
-        <v>1962.825225915391</v>
+        <v>1965.083928580313</v>
       </c>
       <c r="F59" t="n">
-        <v>15.76341311121816</v>
+        <v>15.73522274224647</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>45946.55268327134</v>
+        <v>45658.50648148148</v>
       </c>
       <c r="B60" t="n">
-        <v>6.729268921591943</v>
+        <v>6.874662041673294</v>
       </c>
       <c r="C60" t="n">
-        <v>78.55542716283965</v>
+        <v>77.98082977749698</v>
       </c>
       <c r="D60" t="n">
-        <v>682.6568382699412</v>
+        <v>682.962100827076</v>
       </c>
       <c r="E60" t="n">
-        <v>1970.871875010808</v>
+        <v>1958.884275043452</v>
       </c>
       <c r="F60" t="n">
-        <v>15.6656221373281</v>
+        <v>15.62186187602288</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>45946.55279901208</v>
+        <v>45658.50659722222</v>
       </c>
       <c r="B61" t="n">
-        <v>6.875035108553345</v>
+        <v>6.951772508759475</v>
       </c>
       <c r="C61" t="n">
-        <v>77.89989177616164</v>
+        <v>78.53378124670971</v>
       </c>
       <c r="D61" t="n">
-        <v>684.3749223212832</v>
+        <v>682.991123878898</v>
       </c>
       <c r="E61" t="n">
-        <v>1954.110305096072</v>
+        <v>1955.152244858399</v>
       </c>
       <c r="F61" t="n">
-        <v>15.67497580166885</v>
+        <v>15.59030126106016</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>45946.55291475282</v>
+        <v>45658.50671296296</v>
       </c>
       <c r="B62" t="n">
-        <v>6.890129829923978</v>
+        <v>6.717881938738267</v>
       </c>
       <c r="C62" t="n">
-        <v>77.85518269039216</v>
+        <v>77.88061838531338</v>
       </c>
       <c r="D62" t="n">
-        <v>678.298478619075</v>
+        <v>676.9962687229611</v>
       </c>
       <c r="E62" t="n">
-        <v>1955.560414536467</v>
+        <v>1960.217330117777</v>
       </c>
       <c r="F62" t="n">
-        <v>15.52505162928</v>
+        <v>15.63780381160403</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>45946.55303049357</v>
+        <v>45658.50682870371</v>
       </c>
       <c r="B63" t="n">
-        <v>6.768141003203333</v>
+        <v>6.926744547038363</v>
       </c>
       <c r="C63" t="n">
-        <v>77.82915656142366</v>
+        <v>78.63310269870433</v>
       </c>
       <c r="D63" t="n">
-        <v>675.9212896560881</v>
+        <v>662.9181124520221</v>
       </c>
       <c r="E63" t="n">
-        <v>1959.258840309298</v>
+        <v>1928.887087205004</v>
       </c>
       <c r="F63" t="n">
-        <v>15.40593939247372</v>
+        <v>15.49246665182624</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>45946.55314623431</v>
+        <v>45658.50694444445</v>
       </c>
       <c r="B64" t="n">
-        <v>6.646054956633598</v>
+        <v>6.79153055847585</v>
       </c>
       <c r="C64" t="n">
-        <v>77.81411102612637</v>
+        <v>77.09903623408697</v>
       </c>
       <c r="D64" t="n">
-        <v>671.3513424947615</v>
+        <v>666.90488568442</v>
       </c>
       <c r="E64" t="n">
-        <v>1945.740583363274</v>
+        <v>1929.855717861938</v>
       </c>
       <c r="F64" t="n">
-        <v>15.39526473007022</v>
+        <v>15.41055985203143</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>45946.55326197504</v>
+        <v>45658.50706018518</v>
       </c>
       <c r="B65" t="n">
-        <v>6.559743602108252</v>
+        <v>6.74472877628294</v>
       </c>
       <c r="C65" t="n">
-        <v>76.82861421123853</v>
+        <v>76.23690308374506</v>
       </c>
       <c r="D65" t="n">
-        <v>666.0739475443097</v>
+        <v>676.0916428347097</v>
       </c>
       <c r="E65" t="n">
-        <v>1921.930419714413</v>
+        <v>1925.070395535247</v>
       </c>
       <c r="F65" t="n">
-        <v>15.28131670814283</v>
+        <v>15.34748258206382</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>45946.55337771578</v>
+        <v>45658.50717592592</v>
       </c>
       <c r="B66" t="n">
-        <v>6.769690451431712</v>
+        <v>6.523034006844487</v>
       </c>
       <c r="C66" t="n">
-        <v>75.76159167156386</v>
+        <v>76.10400604055376</v>
       </c>
       <c r="D66" t="n">
-        <v>657.9488274238876</v>
+        <v>658.3887062789776</v>
       </c>
       <c r="E66" t="n">
-        <v>1914.800162086719</v>
+        <v>1924.339528556314</v>
       </c>
       <c r="F66" t="n">
-        <v>15.31303651522034</v>
+        <v>15.27456369007529</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>45946.55349345653</v>
+        <v>45658.50729166667</v>
       </c>
       <c r="B67" t="n">
-        <v>6.733487636358749</v>
+        <v>6.402097760791897</v>
       </c>
       <c r="C67" t="n">
-        <v>76.19723921370968</v>
+        <v>75.82290213666873</v>
       </c>
       <c r="D67" t="n">
-        <v>659.0934818947699</v>
+        <v>653.2855198247141</v>
       </c>
       <c r="E67" t="n">
-        <v>1917.333859307838</v>
+        <v>1927.010415429914</v>
       </c>
       <c r="F67" t="n">
-        <v>15.21177625601602</v>
+        <v>15.20379828287131</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>45946.55360919727</v>
+        <v>45658.50740740741</v>
       </c>
       <c r="B68" t="n">
-        <v>6.578992633701396</v>
+        <v>6.70555010437144</v>
       </c>
       <c r="C68" t="n">
-        <v>75.90753190083973</v>
+        <v>76.33428379129897</v>
       </c>
       <c r="D68" t="n">
-        <v>659.3816431564933</v>
+        <v>657.0596861075569</v>
       </c>
       <c r="E68" t="n">
-        <v>1889.178102112124</v>
+        <v>1898.657029256946</v>
       </c>
       <c r="F68" t="n">
-        <v>15.15577017405582</v>
+        <v>15.13153432511048</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>45946.55372493801</v>
+        <v>45658.50752314815</v>
       </c>
       <c r="B69" t="n">
-        <v>6.456065192112335</v>
+        <v>6.616971174520769</v>
       </c>
       <c r="C69" t="n">
-        <v>75.65463143750804</v>
+        <v>76.28524029531937</v>
       </c>
       <c r="D69" t="n">
-        <v>656.2738351479128</v>
+        <v>658.9445483423842</v>
       </c>
       <c r="E69" t="n">
-        <v>1879.176326045155</v>
+        <v>1897.341094756634</v>
       </c>
       <c r="F69" t="n">
-        <v>15.03600096534695</v>
+        <v>15.02529538392503</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>45946.55384067875</v>
+        <v>45658.50763888889</v>
       </c>
       <c r="B70" t="n">
-        <v>6.605594562444253</v>
+        <v>6.248982329668289</v>
       </c>
       <c r="C70" t="n">
-        <v>74.86508129895256</v>
+        <v>74.74367635938886</v>
       </c>
       <c r="D70" t="n">
-        <v>643.4106070537862</v>
+        <v>646.7910716526728</v>
       </c>
       <c r="E70" t="n">
-        <v>1856.841218752765</v>
+        <v>1867.821969264609</v>
       </c>
       <c r="F70" t="n">
-        <v>14.93135336845223</v>
+        <v>14.91033008118483</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>45946.55395641949</v>
+        <v>45658.50775462963</v>
       </c>
       <c r="B71" t="n">
-        <v>6.415196154229286</v>
+        <v>6.384207505531662</v>
       </c>
       <c r="C71" t="n">
-        <v>74.35178087760967</v>
+        <v>74.62559965067332</v>
       </c>
       <c r="D71" t="n">
-        <v>635.5751755682439</v>
+        <v>637.5616933541571</v>
       </c>
       <c r="E71" t="n">
-        <v>1850.343935213663</v>
+        <v>1867.495219546029</v>
       </c>
       <c r="F71" t="n">
-        <v>14.82508380072364</v>
+        <v>14.94319530039965</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>45946.55407216023</v>
+        <v>45658.50787037037</v>
       </c>
       <c r="B72" t="n">
-        <v>6.288776733658892</v>
+        <v>6.309721732097674</v>
       </c>
       <c r="C72" t="n">
-        <v>74.11251782916023</v>
+        <v>73.98890587802676</v>
       </c>
       <c r="D72" t="n">
-        <v>633.0493793190734</v>
+        <v>633.197920898405</v>
       </c>
       <c r="E72" t="n">
-        <v>1838.368372663995</v>
+        <v>1844.457531530629</v>
       </c>
       <c r="F72" t="n">
-        <v>14.63234929607016</v>
+        <v>14.85193970498853</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>45946.55418790097</v>
+        <v>45658.50798611111</v>
       </c>
       <c r="B73" t="n">
-        <v>6.358729172714634</v>
+        <v>6.287877786456117</v>
       </c>
       <c r="C73" t="n">
-        <v>73.10032201147095</v>
+        <v>73.21266996222489</v>
       </c>
       <c r="D73" t="n">
-        <v>631.7194518675223</v>
+        <v>635.889308527749</v>
       </c>
       <c r="E73" t="n">
-        <v>1826.291490687822</v>
+        <v>1835.695458546142</v>
       </c>
       <c r="F73" t="n">
-        <v>14.60148925869674</v>
+        <v>14.67405972314622</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>45946.55430364171</v>
+        <v>45658.50810185185</v>
       </c>
       <c r="B74" t="n">
-        <v>6.318368152980989</v>
+        <v>6.278366325268761</v>
       </c>
       <c r="C74" t="n">
-        <v>72.53940363666183</v>
+        <v>72.6158797740927</v>
       </c>
       <c r="D74" t="n">
-        <v>628.7949402484992</v>
+        <v>631.4764297749508</v>
       </c>
       <c r="E74" t="n">
-        <v>1825.255820470232</v>
+        <v>1819.193269210102</v>
       </c>
       <c r="F74" t="n">
-        <v>14.52809872056006</v>
+        <v>14.57803852968476</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>45946.55441938245</v>
+        <v>45658.50821759259</v>
       </c>
       <c r="B75" t="n">
-        <v>6.450343981628654</v>
+        <v>6.209713507650755</v>
       </c>
       <c r="C75" t="n">
-        <v>72.78535220804451</v>
+        <v>71.6554365556529</v>
       </c>
       <c r="D75" t="n">
-        <v>623.7767424167539</v>
+        <v>616.7913906550433</v>
       </c>
       <c r="E75" t="n">
-        <v>1810.06372737887</v>
+        <v>1801.851991169479</v>
       </c>
       <c r="F75" t="n">
-        <v>14.49156915709765</v>
+        <v>14.42852757035126</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>45946.55453512319</v>
+        <v>45658.50833333333</v>
       </c>
       <c r="B76" t="n">
-        <v>6.169480908330801</v>
+        <v>6.236336801500295</v>
       </c>
       <c r="C76" t="n">
-        <v>71.34233450158844</v>
+        <v>71.43556289029249</v>
       </c>
       <c r="D76" t="n">
-        <v>615.936484741885</v>
+        <v>611.181029777498</v>
       </c>
       <c r="E76" t="n">
-        <v>1778.00802466014</v>
+        <v>1793.280991711923</v>
       </c>
       <c r="F76" t="n">
-        <v>14.32668886271159</v>
+        <v>14.24776465955104</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>45946.55465086394</v>
+        <v>45658.50844907408</v>
       </c>
       <c r="B77" t="n">
-        <v>6.020249550260032</v>
+        <v>6.07318565082527</v>
       </c>
       <c r="C77" t="n">
-        <v>70.60181955133824</v>
+        <v>71.12005264625174</v>
       </c>
       <c r="D77" t="n">
-        <v>611.5653727408526</v>
+        <v>617.4973299986819</v>
       </c>
       <c r="E77" t="n">
-        <v>1778.773659219535</v>
+        <v>1768.574501039494</v>
       </c>
       <c r="F77" t="n">
-        <v>14.25240526060242</v>
+        <v>14.25253345010293</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>45946.55476660468</v>
+        <v>45658.50856481482</v>
       </c>
       <c r="B78" t="n">
-        <v>6.092477294274698</v>
+        <v>5.988880086375181</v>
       </c>
       <c r="C78" t="n">
-        <v>71.03081875399242</v>
+        <v>70.98866074237174</v>
       </c>
       <c r="D78" t="n">
-        <v>596.4644258498074</v>
+        <v>608.5728582101824</v>
       </c>
       <c r="E78" t="n">
-        <v>1771.646710033133</v>
+        <v>1765.527538662705</v>
       </c>
       <c r="F78" t="n">
-        <v>14.03187050316956</v>
+        <v>14.11927026176808</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>45946.55488234542</v>
+        <v>45658.50868055555</v>
       </c>
       <c r="B79" t="n">
-        <v>6.135032474866779</v>
+        <v>5.974072502296204</v>
       </c>
       <c r="C79" t="n">
-        <v>69.67178796221344</v>
+        <v>70.39615626461804</v>
       </c>
       <c r="D79" t="n">
-        <v>599.148278651566</v>
+        <v>604.707450859458</v>
       </c>
       <c r="E79" t="n">
-        <v>1739.990621716513</v>
+        <v>1744.577986600112</v>
       </c>
       <c r="F79" t="n">
-        <v>14.01422749403947</v>
+        <v>13.98016953071335</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>45946.55499808615</v>
+        <v>45658.50879629629</v>
       </c>
       <c r="B80" t="n">
-        <v>5.958514640828898</v>
+        <v>5.755984399077144</v>
       </c>
       <c r="C80" t="n">
-        <v>68.90164556397305</v>
+        <v>68.66094000701349</v>
       </c>
       <c r="D80" t="n">
-        <v>587.1917154314201</v>
+        <v>588.6105290032768</v>
       </c>
       <c r="E80" t="n">
-        <v>1725.905534344637</v>
+        <v>1736.982505313651</v>
       </c>
       <c r="F80" t="n">
-        <v>13.84909158055405</v>
+        <v>13.81407442850219</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>45946.5551138269</v>
+        <v>45658.50891203704</v>
       </c>
       <c r="B81" t="n">
-        <v>5.904116017979073</v>
+        <v>5.877635474872611</v>
       </c>
       <c r="C81" t="n">
-        <v>68.92100450571539</v>
+        <v>68.51384535397338</v>
       </c>
       <c r="D81" t="n">
-        <v>579.3872530577769</v>
+        <v>584.4621492053121</v>
       </c>
       <c r="E81" t="n">
-        <v>1721.092951247697</v>
+        <v>1713.530917449897</v>
       </c>
       <c r="F81" t="n">
-        <v>13.74093248099367</v>
+        <v>13.73496917601514</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>45946.55522956764</v>
+        <v>45658.50902777778</v>
       </c>
       <c r="B82" t="n">
-        <v>5.779418934244511</v>
+        <v>5.807418197887695</v>
       </c>
       <c r="C82" t="n">
-        <v>68.99473118170452</v>
+        <v>68.20944668728568</v>
       </c>
       <c r="D82" t="n">
-        <v>570.6441928779687</v>
+        <v>574.5957519910343</v>
       </c>
       <c r="E82" t="n">
-        <v>1691.117186898223</v>
+        <v>1712.876156258443</v>
       </c>
       <c r="F82" t="n">
-        <v>13.6352309006209</v>
+        <v>13.58761115527766</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>45946.55534530838</v>
+        <v>45658.50914351852</v>
       </c>
       <c r="B83" t="n">
-        <v>5.805213351824311</v>
+        <v>5.704793078853663</v>
       </c>
       <c r="C83" t="n">
-        <v>67.03859015993429</v>
+        <v>67.63211026889266</v>
       </c>
       <c r="D83" t="n">
-        <v>579.2502208261561</v>
+        <v>569.8823306960143</v>
       </c>
       <c r="E83" t="n">
-        <v>1681.430318332769</v>
+        <v>1675.627340472694</v>
       </c>
       <c r="F83" t="n">
-        <v>13.47139472588233</v>
+        <v>13.51205594186138</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>45946.55546104912</v>
+        <v>45658.50925925926</v>
       </c>
       <c r="B84" t="n">
-        <v>5.752087014289921</v>
+        <v>5.623709792214096</v>
       </c>
       <c r="C84" t="n">
-        <v>67.45586657588889</v>
+        <v>66.75781788168804</v>
       </c>
       <c r="D84" t="n">
-        <v>569.0178500778405</v>
+        <v>562.0478883666267</v>
       </c>
       <c r="E84" t="n">
-        <v>1667.608767109894</v>
+        <v>1658.314063664597</v>
       </c>
       <c r="F84" t="n">
-        <v>13.4113568260116</v>
+        <v>13.3461728296095</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>45946.55557678986</v>
+        <v>45658.509375</v>
       </c>
       <c r="B85" t="n">
-        <v>5.663165891592074</v>
+        <v>5.565107566771434</v>
       </c>
       <c r="C85" t="n">
-        <v>66.4557299418975</v>
+        <v>66.38583942929768</v>
       </c>
       <c r="D85" t="n">
-        <v>562.8237034004406</v>
+        <v>562.5533133559957</v>
       </c>
       <c r="E85" t="n">
-        <v>1667.461804095761</v>
+        <v>1656.039475820612</v>
       </c>
       <c r="F85" t="n">
-        <v>13.10385823012941</v>
+        <v>13.22972062267998</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>45946.5556925306</v>
+        <v>45658.50949074074</v>
       </c>
       <c r="B86" t="n">
-        <v>5.563383854652156</v>
+        <v>5.542424407181657</v>
       </c>
       <c r="C86" t="n">
-        <v>65.23481267843533</v>
+        <v>65.45723180170195</v>
       </c>
       <c r="D86" t="n">
-        <v>549.5333579322512</v>
+        <v>554.4840451207226</v>
       </c>
       <c r="E86" t="n">
-        <v>1628.807497666213</v>
+        <v>1636.691934526818</v>
       </c>
       <c r="F86" t="n">
-        <v>13.10681041042468</v>
+        <v>13.13476891403539</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>45946.55580827134</v>
+        <v>45658.50960648148</v>
       </c>
       <c r="B87" t="n">
-        <v>5.433709456528596</v>
+        <v>5.407914099670371</v>
       </c>
       <c r="C87" t="n">
-        <v>64.44833969160135</v>
+        <v>65.31243088177273</v>
       </c>
       <c r="D87" t="n">
-        <v>539.5675282438491</v>
+        <v>555.6547817343931</v>
       </c>
       <c r="E87" t="n">
-        <v>1604.640428709525</v>
+        <v>1629.898244278254</v>
       </c>
       <c r="F87" t="n">
-        <v>13.03350560197082</v>
+        <v>12.97849460794036</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>45946.55592401209</v>
+        <v>45658.50972222222</v>
       </c>
       <c r="B88" t="n">
-        <v>5.558263670689927</v>
+        <v>5.288867523934304</v>
       </c>
       <c r="C88" t="n">
-        <v>63.45710734315227</v>
+        <v>64.39150028523686</v>
       </c>
       <c r="D88" t="n">
-        <v>544.8385564767128</v>
+        <v>539.5269267602138</v>
       </c>
       <c r="E88" t="n">
-        <v>1616.28847231639</v>
+        <v>1580.758622341434</v>
       </c>
       <c r="F88" t="n">
-        <v>12.81325562698748</v>
+        <v>12.76319338560256</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>45946.55603975282</v>
+        <v>45658.50983796296</v>
       </c>
       <c r="B89" t="n">
-        <v>5.170197465463154</v>
+        <v>5.317877727346656</v>
       </c>
       <c r="C89" t="n">
-        <v>63.18625316922366</v>
+        <v>62.54206681609135</v>
       </c>
       <c r="D89" t="n">
-        <v>533.5792285711135</v>
+        <v>531.5220619634202</v>
       </c>
       <c r="E89" t="n">
-        <v>1580.044313306315</v>
+        <v>1568.110852153767</v>
       </c>
       <c r="F89" t="n">
-        <v>12.63351963595567</v>
+        <v>12.75158191280203</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>45946.55615549356</v>
+        <v>45658.5099537037</v>
       </c>
       <c r="B90" t="n">
-        <v>5.321135192666654</v>
+        <v>5.271521148703522</v>
       </c>
       <c r="C90" t="n">
-        <v>62.17049856376763</v>
+        <v>63.10985203355479</v>
       </c>
       <c r="D90" t="n">
-        <v>524.721479318553</v>
+        <v>528.3531858838321</v>
       </c>
       <c r="E90" t="n">
-        <v>1562.894183300527</v>
+        <v>1564.440765263709</v>
       </c>
       <c r="F90" t="n">
-        <v>12.56129551473028</v>
+        <v>12.56324995199783</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>45946.55627123431</v>
+        <v>45658.51006944444</v>
       </c>
       <c r="B91" t="n">
-        <v>5.133579221758522</v>
+        <v>5.148763726877104</v>
       </c>
       <c r="C91" t="n">
-        <v>61.23139649339392</v>
+        <v>62.14851954721752</v>
       </c>
       <c r="D91" t="n">
-        <v>524.807226655852</v>
+        <v>517.9568687591062</v>
       </c>
       <c r="E91" t="n">
-        <v>1538.417672762605</v>
+        <v>1550.320528498988</v>
       </c>
       <c r="F91" t="n">
-        <v>12.32848855944995</v>
+        <v>12.32716876950381</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>45946.55638697505</v>
+        <v>45658.51018518519</v>
       </c>
       <c r="B92" t="n">
-        <v>5.007172983461532</v>
+        <v>5.217919976091257</v>
       </c>
       <c r="C92" t="n">
-        <v>62.22453410888895</v>
+        <v>60.78899008844304</v>
       </c>
       <c r="D92" t="n">
-        <v>513.1420070641421</v>
+        <v>509.0655576796356</v>
       </c>
       <c r="E92" t="n">
-        <v>1530.943957953416</v>
+        <v>1536.390564181581</v>
       </c>
       <c r="F92" t="n">
-        <v>12.23125371137836</v>
+        <v>12.2300200177313</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>45946.55650271579</v>
+        <v>45658.51030092593</v>
       </c>
       <c r="B93" t="n">
-        <v>5.046859608445565</v>
+        <v>4.976373218708939</v>
       </c>
       <c r="C93" t="n">
-        <v>59.37342500286866</v>
+        <v>61.17142588813225</v>
       </c>
       <c r="D93" t="n">
-        <v>510.078896571015</v>
+        <v>495.4239317858709</v>
       </c>
       <c r="E93" t="n">
-        <v>1500.937561544401</v>
+        <v>1513.145082891269</v>
       </c>
       <c r="F93" t="n">
-        <v>12.18251022689203</v>
+        <v>12.04007041963639</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>45946.55661845653</v>
+        <v>45658.51041666666</v>
       </c>
       <c r="B94" t="n">
-        <v>5.057161640344197</v>
+        <v>4.978568665294001</v>
       </c>
       <c r="C94" t="n">
-        <v>59.77570971639197</v>
+        <v>60.56941069868073</v>
       </c>
       <c r="D94" t="n">
-        <v>495.3424604504246</v>
+        <v>498.2662203528974</v>
       </c>
       <c r="E94" t="n">
-        <v>1489.097314684929</v>
+        <v>1490.787274892548</v>
       </c>
       <c r="F94" t="n">
-        <v>11.9947977786537</v>
+        <v>12.05147716476955</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>45946.55673419727</v>
+        <v>45658.51053240741</v>
       </c>
       <c r="B95" t="n">
-        <v>4.961967043963304</v>
+        <v>4.877867994952933</v>
       </c>
       <c r="C95" t="n">
-        <v>58.68357097199354</v>
+        <v>58.63342922619242</v>
       </c>
       <c r="D95" t="n">
-        <v>497.0974307848602</v>
+        <v>492.8116913429628</v>
       </c>
       <c r="E95" t="n">
-        <v>1480.243242728328</v>
+        <v>1469.942306351779</v>
       </c>
       <c r="F95" t="n">
-        <v>11.84443546633189</v>
+        <v>11.91695761096476</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>45946.55684993801</v>
+        <v>45658.51064814815</v>
       </c>
       <c r="B96" t="n">
-        <v>4.682667521231947</v>
+        <v>4.588607555587273</v>
       </c>
       <c r="C96" t="n">
-        <v>58.22768729763287</v>
+        <v>57.97742413449961</v>
       </c>
       <c r="D96" t="n">
-        <v>494.3360332538915</v>
+        <v>473.2829582496042</v>
       </c>
       <c r="E96" t="n">
-        <v>1458.005918167743</v>
+        <v>1449.755233653766</v>
       </c>
       <c r="F96" t="n">
-        <v>11.64940799841545</v>
+        <v>11.78387840691957</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>45946.55696567875</v>
+        <v>45658.51076388889</v>
       </c>
       <c r="B97" t="n">
-        <v>4.782366068678272</v>
+        <v>4.717808074556141</v>
       </c>
       <c r="C97" t="n">
-        <v>58.27314147695364</v>
+        <v>56.68718156932913</v>
       </c>
       <c r="D97" t="n">
-        <v>473.357378499834</v>
+        <v>479.0902153880514</v>
       </c>
       <c r="E97" t="n">
-        <v>1431.550815190593</v>
+        <v>1441.412628026389</v>
       </c>
       <c r="F97" t="n">
-        <v>11.55323583473395</v>
+        <v>11.6322932369452</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>45946.55708141949</v>
+        <v>45658.51087962963</v>
       </c>
       <c r="B98" t="n">
-        <v>4.740762257834882</v>
+        <v>4.637219025971204</v>
       </c>
       <c r="C98" t="n">
-        <v>57.1861121987072</v>
+        <v>57.0027943842548</v>
       </c>
       <c r="D98" t="n">
-        <v>480.9890348230489</v>
+        <v>463.8555134377873</v>
       </c>
       <c r="E98" t="n">
-        <v>1402.665505513809</v>
+        <v>1433.477464665234</v>
       </c>
       <c r="F98" t="n">
-        <v>11.36577301647194</v>
+        <v>11.37322949002247</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>45946.55719716023</v>
+        <v>45658.51099537037</v>
       </c>
       <c r="B99" t="n">
-        <v>4.614813851527529</v>
+        <v>4.605678850239031</v>
       </c>
       <c r="C99" t="n">
-        <v>56.09123939427703</v>
+        <v>56.137444337212</v>
       </c>
       <c r="D99" t="n">
-        <v>453.1619722467458</v>
+        <v>464.6342548987724</v>
       </c>
       <c r="E99" t="n">
-        <v>1407.222300650926</v>
+        <v>1423.888903518311</v>
       </c>
       <c r="F99" t="n">
-        <v>11.23751087283725</v>
+        <v>11.239929738821</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>45946.55731290097</v>
+        <v>45658.51111111111</v>
       </c>
       <c r="B100" t="n">
-        <v>4.461481223925411</v>
+        <v>4.664769714377802</v>
       </c>
       <c r="C100" t="n">
-        <v>54.67748370257689</v>
+        <v>55.14763621527185</v>
       </c>
       <c r="D100" t="n">
-        <v>454.9766004606924</v>
+        <v>459.8556708237964</v>
       </c>
       <c r="E100" t="n">
-        <v>1382.014423713726</v>
+        <v>1397.004613423377</v>
       </c>
       <c r="F100" t="n">
-        <v>11.11018988711207</v>
+        <v>11.23044958687973</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>45946.55742864171</v>
+        <v>45658.51122685185</v>
       </c>
       <c r="B101" t="n">
-        <v>4.687742214974873</v>
+        <v>4.521066673818757</v>
       </c>
       <c r="C101" t="n">
-        <v>54.75516596097945</v>
+        <v>54.99352451042776</v>
       </c>
       <c r="D101" t="n">
-        <v>446.233427852172</v>
+        <v>447.5833592702965</v>
       </c>
       <c r="E101" t="n">
-        <v>1379.650727315151</v>
+        <v>1361.151286015642</v>
       </c>
       <c r="F101" t="n">
-        <v>11.0996019173589</v>
+        <v>11.00591983550514</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>45946.55754438246</v>
+        <v>45658.5113425926</v>
       </c>
       <c r="B102" t="n">
-        <v>4.510934548289001</v>
+        <v>4.348272771598856</v>
       </c>
       <c r="C102" t="n">
-        <v>54.43765779775366</v>
+        <v>53.72534279654899</v>
       </c>
       <c r="D102" t="n">
-        <v>438.9259948044894</v>
+        <v>437.8895643224764</v>
       </c>
       <c r="E102" t="n">
-        <v>1357.976986132467</v>
+        <v>1374.375961372215</v>
       </c>
       <c r="F102" t="n">
-        <v>10.93903371717557</v>
+        <v>10.85265696209003</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>45946.5576601232</v>
+        <v>45658.51145833333</v>
       </c>
       <c r="B103" t="n">
-        <v>4.219743564592403</v>
+        <v>4.37603300791374</v>
       </c>
       <c r="C103" t="n">
-        <v>53.64128037327072</v>
+        <v>53.96527912102691</v>
       </c>
       <c r="D103" t="n">
-        <v>438.1349377809598</v>
+        <v>434.1412926810352</v>
       </c>
       <c r="E103" t="n">
-        <v>1331.79454310631</v>
+        <v>1338.568725740803</v>
       </c>
       <c r="F103" t="n">
-        <v>10.70345407610098</v>
+        <v>10.70613227030119</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>45946.55777586393</v>
+        <v>45658.51157407407</v>
       </c>
       <c r="B104" t="n">
-        <v>4.35946100454639</v>
+        <v>4.278119882542245</v>
       </c>
       <c r="C104" t="n">
-        <v>53.40139722772946</v>
+        <v>52.95701281552717</v>
       </c>
       <c r="D104" t="n">
-        <v>425.1121037802174</v>
+        <v>429.9485818523391</v>
       </c>
       <c r="E104" t="n">
-        <v>1332.771415707156</v>
+        <v>1337.19589888067</v>
       </c>
       <c r="F104" t="n">
-        <v>10.66279393432034</v>
+        <v>10.57252021010195</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>45946.55789160467</v>
+        <v>45658.51168981481</v>
       </c>
       <c r="B105" t="n">
-        <v>4.229690734643998</v>
+        <v>4.258556879750741</v>
       </c>
       <c r="C105" t="n">
-        <v>52.85050158175405</v>
+        <v>52.48947623590055</v>
       </c>
       <c r="D105" t="n">
-        <v>426.1889114946328</v>
+        <v>415.0113748731066</v>
       </c>
       <c r="E105" t="n">
-        <v>1287.064226536965</v>
+        <v>1312.343930201203</v>
       </c>
       <c r="F105" t="n">
-        <v>10.46065428286334</v>
+        <v>10.41191811153998</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>45946.55800734542</v>
+        <v>45658.51180555556</v>
       </c>
       <c r="B106" t="n">
-        <v>4.298319424005869</v>
+        <v>4.334115892437761</v>
       </c>
       <c r="C106" t="n">
-        <v>51.76694049651272</v>
+        <v>52.27634893281278</v>
       </c>
       <c r="D106" t="n">
-        <v>413.6949621681978</v>
+        <v>415.8247013708913</v>
       </c>
       <c r="E106" t="n">
-        <v>1289.813728668174</v>
+        <v>1290.291337991946</v>
       </c>
       <c r="F106" t="n">
-        <v>10.33834187726345</v>
+        <v>10.36546941662387</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>45946.55812308616</v>
+        <v>45658.5119212963</v>
       </c>
       <c r="B107" t="n">
-        <v>4.077950003221062</v>
+        <v>3.946001668951469</v>
       </c>
       <c r="C107" t="n">
-        <v>50.48744350916409</v>
+        <v>50.93479642059575</v>
       </c>
       <c r="D107" t="n">
-        <v>413.8047514627922</v>
+        <v>398.9027414760722</v>
       </c>
       <c r="E107" t="n">
-        <v>1266.587059699353</v>
+        <v>1270.164187892718</v>
       </c>
       <c r="F107" t="n">
-        <v>10.21315988534132</v>
+        <v>10.15682589124592</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>45946.5582388269</v>
+        <v>45658.51203703704</v>
       </c>
       <c r="B108" t="n">
-        <v>3.828003424654356</v>
+        <v>4.053825915855269</v>
       </c>
       <c r="C108" t="n">
-        <v>50.17289701000642</v>
+        <v>50.34831933270384</v>
       </c>
       <c r="D108" t="n">
-        <v>406.1531104307831</v>
+        <v>398.5610307694446</v>
       </c>
       <c r="E108" t="n">
-        <v>1248.539497899813</v>
+        <v>1277.820831105173</v>
       </c>
       <c r="F108" t="n">
-        <v>10.01488874648866</v>
+        <v>10.10081409977233</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>45946.55835456764</v>
+        <v>45658.51215277778</v>
       </c>
       <c r="B109" t="n">
-        <v>4.099316835932886</v>
+        <v>4.094315529830836</v>
       </c>
       <c r="C109" t="n">
-        <v>50.467445080841</v>
+        <v>50.31995049229969</v>
       </c>
       <c r="D109" t="n">
-        <v>390.7083778516468</v>
+        <v>396.5042997175124</v>
       </c>
       <c r="E109" t="n">
-        <v>1236.7824233311</v>
+        <v>1254.387752047511</v>
       </c>
       <c r="F109" t="n">
-        <v>10.05086275007102</v>
+        <v>9.93814485383907</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>45946.55847030838</v>
+        <v>45658.51226851852</v>
       </c>
       <c r="B110" t="n">
-        <v>3.874380560600371</v>
+        <v>4.023583250120058</v>
       </c>
       <c r="C110" t="n">
-        <v>49.94431873073163</v>
+        <v>48.9453691998452</v>
       </c>
       <c r="D110" t="n">
-        <v>390.0703570839843</v>
+        <v>390.5410430922155</v>
       </c>
       <c r="E110" t="n">
-        <v>1217.739133433113</v>
+        <v>1238.396383309436</v>
       </c>
       <c r="F110" t="n">
-        <v>9.868418920629697</v>
+        <v>9.902955475718969</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>45946.55858604912</v>
+        <v>45658.51238425926</v>
       </c>
       <c r="B111" t="n">
-        <v>3.625221492796471</v>
+        <v>3.906246047158962</v>
       </c>
       <c r="C111" t="n">
-        <v>49.23634317838825</v>
+        <v>48.61662163502265</v>
       </c>
       <c r="D111" t="n">
-        <v>386.6872090710608</v>
+        <v>393.0783899174513</v>
       </c>
       <c r="E111" t="n">
-        <v>1202.848121850554</v>
+        <v>1226.05103091279</v>
       </c>
       <c r="F111" t="n">
-        <v>9.746706110721512</v>
+        <v>9.714107205830773</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>45946.55870178986</v>
+        <v>45658.5125</v>
       </c>
       <c r="B112" t="n">
-        <v>3.95677456037482</v>
+        <v>3.678073841784307</v>
       </c>
       <c r="C112" t="n">
-        <v>47.78332268802171</v>
+        <v>48.44770713557256</v>
       </c>
       <c r="D112" t="n">
-        <v>380.1920090623575</v>
+        <v>379.762908707724</v>
       </c>
       <c r="E112" t="n">
-        <v>1208.144934625363</v>
+        <v>1214.017910888694</v>
       </c>
       <c r="F112" t="n">
-        <v>9.639133732637898</v>
+        <v>9.651653651621325</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>45946.5588175306</v>
+        <v>45658.51261574074</v>
       </c>
       <c r="B113" t="n">
-        <v>3.837937148289805</v>
+        <v>3.819091463640032</v>
       </c>
       <c r="C113" t="n">
-        <v>47.69615222135449</v>
+        <v>47.68030494362493</v>
       </c>
       <c r="D113" t="n">
-        <v>374.9404731860453</v>
+        <v>373.6140709865613</v>
       </c>
       <c r="E113" t="n">
-        <v>1182.151207102664</v>
+        <v>1193.336648297008</v>
       </c>
       <c r="F113" t="n">
-        <v>9.498902237484815</v>
+        <v>9.405640943600934</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>45946.55893327134</v>
+        <v>45658.51273148148</v>
       </c>
       <c r="B114" t="n">
-        <v>3.654619759065259</v>
+        <v>3.585684056220342</v>
       </c>
       <c r="C114" t="n">
-        <v>46.76356981867914</v>
+        <v>46.94491956656598</v>
       </c>
       <c r="D114" t="n">
-        <v>376.7236563363628</v>
+        <v>371.6897683611639</v>
       </c>
       <c r="E114" t="n">
-        <v>1180.296751677818</v>
+        <v>1166.724326661678</v>
       </c>
       <c r="F114" t="n">
-        <v>9.458591231908439</v>
+        <v>9.451476505173028</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>45946.55904901208</v>
+        <v>45658.51284722222</v>
       </c>
       <c r="B115" t="n">
-        <v>3.739987079259736</v>
+        <v>3.599598205845387</v>
       </c>
       <c r="C115" t="n">
-        <v>46.9635213910307</v>
+        <v>46.57123227574488</v>
       </c>
       <c r="D115" t="n">
-        <v>359.2514497171132</v>
+        <v>362.8238237724256</v>
       </c>
       <c r="E115" t="n">
-        <v>1169.181964247619</v>
+        <v>1155.996037688928</v>
       </c>
       <c r="F115" t="n">
-        <v>9.29925990707495</v>
+        <v>9.232276540939564</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>45946.55916475283</v>
+        <v>45658.51296296297</v>
       </c>
       <c r="B116" t="n">
-        <v>3.548103085052471</v>
+        <v>3.552661463278325</v>
       </c>
       <c r="C116" t="n">
-        <v>45.65032736781071</v>
+        <v>45.95160212299191</v>
       </c>
       <c r="D116" t="n">
-        <v>357.0182883946085</v>
+        <v>355.2710321413697</v>
       </c>
       <c r="E116" t="n">
-        <v>1136.40168365258</v>
+        <v>1144.033054899061</v>
       </c>
       <c r="F116" t="n">
-        <v>9.214421906430125</v>
+        <v>9.24069748025598</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>45946.55928049357</v>
+        <v>45658.51307870371</v>
       </c>
       <c r="B117" t="n">
-        <v>3.603148713730521</v>
+        <v>3.438892781274628</v>
       </c>
       <c r="C117" t="n">
-        <v>45.72444763967999</v>
+        <v>44.88456327909422</v>
       </c>
       <c r="D117" t="n">
-        <v>358.0110989943582</v>
+        <v>357.6321291885207</v>
       </c>
       <c r="E117" t="n">
-        <v>1143.423938534289</v>
+        <v>1133.231961182922</v>
       </c>
       <c r="F117" t="n">
-        <v>9.069256056344008</v>
+        <v>9.051319895714904</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>45946.5593962343</v>
+        <v>45658.51319444444</v>
       </c>
       <c r="B118" t="n">
-        <v>3.353741630494969</v>
+        <v>3.513494838668665</v>
       </c>
       <c r="C118" t="n">
-        <v>44.18178445189729</v>
+        <v>45.22305424025465</v>
       </c>
       <c r="D118" t="n">
-        <v>362.0587219214854</v>
+        <v>344.7485815672517</v>
       </c>
       <c r="E118" t="n">
-        <v>1116.35295685916</v>
+        <v>1111.951800669171</v>
       </c>
       <c r="F118" t="n">
-        <v>9.026300783246016</v>
+        <v>8.949968750690735</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>45946.55951197504</v>
+        <v>45658.51331018518</v>
       </c>
       <c r="B119" t="n">
-        <v>3.479306974555848</v>
+        <v>3.438825289535748</v>
       </c>
       <c r="C119" t="n">
-        <v>44.76042023146368</v>
+        <v>44.64607882687995</v>
       </c>
       <c r="D119" t="n">
-        <v>338.9541035091281</v>
+        <v>343.0693938230753</v>
       </c>
       <c r="E119" t="n">
-        <v>1100.944879173345</v>
+        <v>1117.052377905831</v>
       </c>
       <c r="F119" t="n">
-        <v>8.872525119269342</v>
+        <v>8.939521477188125</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>45946.55962771579</v>
+        <v>45658.51342592593</v>
       </c>
       <c r="B120" t="n">
-        <v>3.313988941245325</v>
+        <v>3.227992087679518</v>
       </c>
       <c r="C120" t="n">
-        <v>44.57337992910777</v>
+        <v>42.93688653737217</v>
       </c>
       <c r="D120" t="n">
-        <v>331.8521681822681</v>
+        <v>341.417419509901</v>
       </c>
       <c r="E120" t="n">
-        <v>1102.314790765504</v>
+        <v>1109.084849140025</v>
       </c>
       <c r="F120" t="n">
-        <v>8.811399739318718</v>
+        <v>8.779080575076247</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>45946.55974345653</v>
+        <v>45658.51354166667</v>
       </c>
       <c r="B121" t="n">
-        <v>3.300170784799219</v>
+        <v>3.238423828247155</v>
       </c>
       <c r="C121" t="n">
-        <v>43.78117070105513</v>
+        <v>43.21289109617642</v>
       </c>
       <c r="D121" t="n">
-        <v>339.3776742993406</v>
+        <v>340.0142688429423</v>
       </c>
       <c r="E121" t="n">
-        <v>1091.577801034078</v>
+        <v>1079.896629056453</v>
       </c>
       <c r="F121" t="n">
-        <v>8.733335273274379</v>
+        <v>8.801395077581455</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>45946.55985919727</v>
+        <v>45658.51365740741</v>
       </c>
       <c r="B122" t="n">
-        <v>3.052255772005002</v>
+        <v>3.350700031109127</v>
       </c>
       <c r="C122" t="n">
-        <v>42.02415352160942</v>
+        <v>43.14203730198064</v>
       </c>
       <c r="D122" t="n">
-        <v>327.4036114840512</v>
+        <v>332.9345382807335</v>
       </c>
       <c r="E122" t="n">
-        <v>1075.617729050304</v>
+        <v>1075.131620130379</v>
       </c>
       <c r="F122" t="n">
-        <v>8.742689967817974</v>
+        <v>8.600252028567407</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>45946.55997493801</v>
+        <v>45658.51377314814</v>
       </c>
       <c r="B123" t="n">
-        <v>3.333649314064941</v>
+        <v>3.167837852170637</v>
       </c>
       <c r="C123" t="n">
-        <v>42.696822353023</v>
+        <v>42.95835876503541</v>
       </c>
       <c r="D123" t="n">
-        <v>330.4078163099445</v>
+        <v>326.3407569700186</v>
       </c>
       <c r="E123" t="n">
-        <v>1072.169730467758</v>
+        <v>1070.085606943726</v>
       </c>
       <c r="F123" t="n">
-        <v>8.515981755055201</v>
+        <v>8.522660481854803</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>45946.56009067875</v>
+        <v>45658.51388888889</v>
       </c>
       <c r="B124" t="n">
-        <v>3.203386079040464</v>
+        <v>3.219624609479402</v>
       </c>
       <c r="C124" t="n">
-        <v>43.06024840663515</v>
+        <v>42.71037987641781</v>
       </c>
       <c r="D124" t="n">
-        <v>317.6507748822346</v>
+        <v>324.2104958975268</v>
       </c>
       <c r="E124" t="n">
-        <v>1068.508934615533</v>
+        <v>1058.942203836952</v>
       </c>
       <c r="F124" t="n">
-        <v>8.464776879123514</v>
+        <v>8.493130833498668</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>45946.56020641949</v>
+        <v>45658.51400462963</v>
       </c>
       <c r="B125" t="n">
-        <v>3.34893746436908</v>
+        <v>3.245395595149434</v>
       </c>
       <c r="C125" t="n">
-        <v>42.01536698569866</v>
+        <v>42.79858847998169</v>
       </c>
       <c r="D125" t="n">
-        <v>326.3041749198933</v>
+        <v>325.4257419383379</v>
       </c>
       <c r="E125" t="n">
-        <v>1046.231163659097</v>
+        <v>1039.916810935405</v>
       </c>
       <c r="F125" t="n">
-        <v>8.436644262735959</v>
+        <v>8.390772564275357</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>45946.56032216023</v>
+        <v>45658.51412037037</v>
       </c>
       <c r="B126" t="n">
-        <v>3.226229950629153</v>
+        <v>3.202443532213476</v>
       </c>
       <c r="C126" t="n">
-        <v>42.08984078571223</v>
+        <v>42.10519037729664</v>
       </c>
       <c r="D126" t="n">
-        <v>325.8818416210162</v>
+        <v>324.7685788638537</v>
       </c>
       <c r="E126" t="n">
-        <v>1038.311351332607</v>
+        <v>1051.733550085634</v>
       </c>
       <c r="F126" t="n">
-        <v>8.382088417863844</v>
+        <v>8.356359195311676</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>45946.56043790097</v>
+        <v>45658.51423611111</v>
       </c>
       <c r="B127" t="n">
-        <v>3.019278375725364</v>
+        <v>3.040855564243657</v>
       </c>
       <c r="C127" t="n">
-        <v>41.27254179433312</v>
+        <v>42.20910274703686</v>
       </c>
       <c r="D127" t="n">
-        <v>325.3810125182649</v>
+        <v>311.9140950405712</v>
       </c>
       <c r="E127" t="n">
-        <v>1028.588676111311</v>
+        <v>1055.540174437041</v>
       </c>
       <c r="F127" t="n">
-        <v>8.328642760109011</v>
+        <v>8.293027621672428</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>45946.56055364171</v>
+        <v>45658.51435185185</v>
       </c>
       <c r="B128" t="n">
-        <v>3.167414040902115</v>
+        <v>3.225798506419005</v>
       </c>
       <c r="C128" t="n">
-        <v>40.90080514873517</v>
+        <v>41.20849286055908</v>
       </c>
       <c r="D128" t="n">
-        <v>307.2887420879716</v>
+        <v>313.2979595986459</v>
       </c>
       <c r="E128" t="n">
-        <v>1045.077337081241</v>
+        <v>1021.316005929967</v>
       </c>
       <c r="F128" t="n">
-        <v>8.328597876797582</v>
+        <v>8.208162724732492</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>45946.56066938245</v>
+        <v>45658.51446759259</v>
       </c>
       <c r="B129" t="n">
-        <v>3.187653764141453</v>
+        <v>3.157400050265015</v>
       </c>
       <c r="C129" t="n">
-        <v>40.11756131773487</v>
+        <v>40.35608380077358</v>
       </c>
       <c r="D129" t="n">
-        <v>303.4678794284984</v>
+        <v>311.1705969856871</v>
       </c>
       <c r="E129" t="n">
-        <v>1031.569635447157</v>
+        <v>1037.061582459433</v>
       </c>
       <c r="F129" t="n">
-        <v>8.291762687116863</v>
+        <v>8.198270025477893</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>45946.5607851232</v>
+        <v>45658.51458333333</v>
       </c>
       <c r="B130" t="n">
-        <v>3.023039259193891</v>
+        <v>3.125591417474816</v>
       </c>
       <c r="C130" t="n">
-        <v>41.48003541146931</v>
+        <v>40.55451005529577</v>
       </c>
       <c r="D130" t="n">
-        <v>307.1134037818206</v>
+        <v>303.6619576720756</v>
       </c>
       <c r="E130" t="n">
-        <v>1008.006440065114</v>
+        <v>1015.29277527283</v>
       </c>
       <c r="F130" t="n">
-        <v>8.237646648140206</v>
+        <v>8.236527251790342</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>45946.56090086394</v>
+        <v>45658.51469907408</v>
       </c>
       <c r="B131" t="n">
-        <v>3.165977467894379</v>
+        <v>3.146234300283716</v>
       </c>
       <c r="C131" t="n">
-        <v>40.04391983040315</v>
+        <v>40.68108703705128</v>
       </c>
       <c r="D131" t="n">
-        <v>305.862859395806</v>
+        <v>309.1321369506658</v>
       </c>
       <c r="E131" t="n">
-        <v>1003.683607774924</v>
+        <v>1008.344892214231</v>
       </c>
       <c r="F131" t="n">
-        <v>8.150100896154239</v>
+        <v>8.16643916175507</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>45946.56101660468</v>
+        <v>45658.51481481481</v>
       </c>
       <c r="B132" t="n">
-        <v>3.180537038628804</v>
+        <v>2.986026011532666</v>
       </c>
       <c r="C132" t="n">
-        <v>40.5388302801753</v>
+        <v>40.36595973519739</v>
       </c>
       <c r="D132" t="n">
-        <v>306.6075226458344</v>
+        <v>300.7213785072714</v>
       </c>
       <c r="E132" t="n">
-        <v>1032.143984493191</v>
+        <v>1004.501311473012</v>
       </c>
       <c r="F132" t="n">
-        <v>8.119917062218649</v>
+        <v>8.063976683871838</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>45946.56113234541</v>
+        <v>45658.51493055555</v>
       </c>
       <c r="B133" t="n">
-        <v>2.918383596462747</v>
+        <v>3.082293258038717</v>
       </c>
       <c r="C133" t="n">
-        <v>40.47347894829428</v>
+        <v>40.42027069204383</v>
       </c>
       <c r="D133" t="n">
-        <v>306.0703444907162</v>
+        <v>305.856245117497</v>
       </c>
       <c r="E133" t="n">
-        <v>1003.076697755482</v>
+        <v>988.3035094087118</v>
       </c>
       <c r="F133" t="n">
-        <v>8.114415710155008</v>
+        <v>8.060370353364609</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>45946.56124808616</v>
+        <v>45658.5150462963</v>
       </c>
       <c r="B134" t="n">
-        <v>3.136368053303719</v>
+        <v>2.866152827243526</v>
       </c>
       <c r="C134" t="n">
-        <v>39.78626369289</v>
+        <v>39.79560093582047</v>
       </c>
       <c r="D134" t="n">
-        <v>297.8893777867298</v>
+        <v>304.3900108273327</v>
       </c>
       <c r="E134" t="n">
-        <v>1029.974155834827</v>
+        <v>1014.475167921411</v>
       </c>
       <c r="F134" t="n">
-        <v>8.073656824528957</v>
+        <v>8.030384056170202</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>45946.5613638269</v>
+        <v>45658.51516203704</v>
       </c>
       <c r="B135" t="n">
-        <v>2.906770376872523</v>
+        <v>3.140159078520215</v>
       </c>
       <c r="C135" t="n">
-        <v>40.00310694988868</v>
+        <v>39.37331723832409</v>
       </c>
       <c r="D135" t="n">
-        <v>291.4095313401021</v>
+        <v>306.1685854492615</v>
       </c>
       <c r="E135" t="n">
-        <v>989.8728502016015</v>
+        <v>1019.8410872032</v>
       </c>
       <c r="F135" t="n">
-        <v>8.139668449583633</v>
+        <v>8.005115602747077</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>45946.56147956764</v>
+        <v>45658.51527777778</v>
       </c>
       <c r="B136" t="n">
-        <v>2.845422788364745</v>
+        <v>3.138955845971676</v>
       </c>
       <c r="C136" t="n">
-        <v>40.19346912054652</v>
+        <v>40.09044658685406</v>
       </c>
       <c r="D136" t="n">
-        <v>297.455231883536</v>
+        <v>296.3102610886239</v>
       </c>
       <c r="E136" t="n">
-        <v>1018.001620004086</v>
+        <v>1000.49863918114</v>
       </c>
       <c r="F136" t="n">
-        <v>7.90320727847181</v>
+        <v>7.988608834774183</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>45946.56159530838</v>
+        <v>45658.51539351852</v>
       </c>
       <c r="B137" t="n">
-        <v>3.117907352770483</v>
+        <v>3.007317826867565</v>
       </c>
       <c r="C137" t="n">
-        <v>39.63655836698683</v>
+        <v>40.36536118077099</v>
       </c>
       <c r="D137" t="n">
-        <v>294.4840142342132</v>
+        <v>296.4115987805163</v>
       </c>
       <c r="E137" t="n">
-        <v>1012.621218898907</v>
+        <v>1000.69304604239</v>
       </c>
       <c r="F137" t="n">
-        <v>8.033028480865703</v>
+        <v>8.035140176952154</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>45946.56171104912</v>
+        <v>45658.51550925926</v>
       </c>
       <c r="B138" t="n">
-        <v>2.856829074260724</v>
+        <v>2.917516331523156</v>
       </c>
       <c r="C138" t="n">
-        <v>40.3874935300665</v>
+        <v>40.6205654429749</v>
       </c>
       <c r="D138" t="n">
-        <v>302.6348547429571</v>
+        <v>290.4098518144615</v>
       </c>
       <c r="E138" t="n">
-        <v>998.6121264634846</v>
+        <v>994.3077140153074</v>
       </c>
       <c r="F138" t="n">
-        <v>7.947556369407489</v>
+        <v>7.976769486275174</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>45946.56182678986</v>
+        <v>45658.515625</v>
       </c>
       <c r="B139" t="n">
-        <v>3.084618581300266</v>
+        <v>2.927924272691734</v>
       </c>
       <c r="C139" t="n">
-        <v>40.69641395826721</v>
+        <v>39.84284997078122</v>
       </c>
       <c r="D139" t="n">
-        <v>300.8474432132996</v>
+        <v>292.9203502844563</v>
       </c>
       <c r="E139" t="n">
-        <v>1002.451495302994</v>
+        <v>992.8583109275392</v>
       </c>
       <c r="F139" t="n">
-        <v>7.967862684889197</v>
+        <v>8.001428730670453</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>45946.5619425306</v>
+        <v>45658.51574074074</v>
       </c>
       <c r="B140" t="n">
-        <v>2.875422862815189</v>
+        <v>2.937819271125087</v>
       </c>
       <c r="C140" t="n">
-        <v>39.88875054878348</v>
+        <v>38.97007448341618</v>
       </c>
       <c r="D140" t="n">
-        <v>288.3236975535622</v>
+        <v>303.8562043689789</v>
       </c>
       <c r="E140" t="n">
-        <v>997.6201037646595</v>
+        <v>984.0348109744449</v>
       </c>
       <c r="F140" t="n">
-        <v>8.041478048491948</v>
+        <v>7.968466167374411</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>45946.56205827135</v>
+        <v>45658.51585648148</v>
       </c>
       <c r="B141" t="n">
-        <v>2.919014093548664</v>
+        <v>3.008260557780253</v>
       </c>
       <c r="C141" t="n">
-        <v>40.3195190512787</v>
+        <v>39.5988021986913</v>
       </c>
       <c r="D141" t="n">
-        <v>300.978841666286</v>
+        <v>301.8353088110095</v>
       </c>
       <c r="E141" t="n">
-        <v>1016.760082959616</v>
+        <v>1011.526285513701</v>
       </c>
       <c r="F141" t="n">
-        <v>7.999214184548888</v>
+        <v>8.130741864062953</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>45946.56217401208</v>
+        <v>45658.51597222222</v>
       </c>
       <c r="B142" t="n">
-        <v>3.038438748417246</v>
+        <v>3.004248909804423</v>
       </c>
       <c r="C142" t="n">
-        <v>39.59143262218613</v>
+        <v>40.03555127799988</v>
       </c>
       <c r="D142" t="n">
-        <v>297.9985067696997</v>
+        <v>297.7226568731472</v>
       </c>
       <c r="E142" t="n">
-        <v>1013.494076336683</v>
+        <v>1011.844658450372</v>
       </c>
       <c r="F142" t="n">
-        <v>8.048627401753533</v>
+        <v>8.106022798714003</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>45946.56228975282</v>
+        <v>45658.51608796296</v>
       </c>
       <c r="B143" t="n">
-        <v>3.159271800419427</v>
+        <v>2.834299746808531</v>
       </c>
       <c r="C143" t="n">
-        <v>40.34303680547367</v>
+        <v>39.85089432485414</v>
       </c>
       <c r="D143" t="n">
-        <v>303.0438697073344</v>
+        <v>307.8950529092401</v>
       </c>
       <c r="E143" t="n">
-        <v>1025.384217965445</v>
+        <v>1011.450511019036</v>
       </c>
       <c r="F143" t="n">
-        <v>8.063653459095772</v>
+        <v>8.050314289367851</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>45946.56240549356</v>
+        <v>45658.5162037037</v>
       </c>
       <c r="B144" t="n">
-        <v>3.141363405641566</v>
+        <v>3.102916508300921</v>
       </c>
       <c r="C144" t="n">
-        <v>40.88262108265792</v>
+        <v>40.20631390177704</v>
       </c>
       <c r="D144" t="n">
-        <v>308.4140469834732</v>
+        <v>303.7768882443317</v>
       </c>
       <c r="E144" t="n">
-        <v>1004.192131746046</v>
+        <v>1008.595421414041</v>
       </c>
       <c r="F144" t="n">
-        <v>8.014959388433951</v>
+        <v>8.083991870745578</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>45946.56252123431</v>
+        <v>45658.51631944445</v>
       </c>
       <c r="B145" t="n">
-        <v>3.215133422885947</v>
+        <v>2.812240219086789</v>
       </c>
       <c r="C145" t="n">
-        <v>40.12819017240993</v>
+        <v>39.3819482975933</v>
       </c>
       <c r="D145" t="n">
-        <v>308.2629134602511</v>
+        <v>311.4668889070652</v>
       </c>
       <c r="E145" t="n">
-        <v>1005.101724612818</v>
+        <v>1018.908560530032</v>
       </c>
       <c r="F145" t="n">
-        <v>8.125809585227319</v>
+        <v>8.146574569653341</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>45946.56263697505</v>
+        <v>45658.51643518519</v>
       </c>
       <c r="B146" t="n">
-        <v>3.135085554224212</v>
+        <v>3.120083631362566</v>
       </c>
       <c r="C146" t="n">
-        <v>39.77734695817758</v>
+        <v>41.44213604871489</v>
       </c>
       <c r="D146" t="n">
-        <v>305.0078362693142</v>
+        <v>311.7263497457915</v>
       </c>
       <c r="E146" t="n">
-        <v>1019.48196840431</v>
+        <v>1015.623043232397</v>
       </c>
       <c r="F146" t="n">
-        <v>8.151155773718628</v>
+        <v>8.185411556489839</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>45946.56275271578</v>
+        <v>45658.51655092592</v>
       </c>
       <c r="B147" t="n">
-        <v>2.988124389625374</v>
+        <v>3.023723459546956</v>
       </c>
       <c r="C147" t="n">
-        <v>40.41990002521131</v>
+        <v>40.20593194211039</v>
       </c>
       <c r="D147" t="n">
-        <v>307.7770844514318</v>
+        <v>306.7558209514082</v>
       </c>
       <c r="E147" t="n">
-        <v>1010.154109052939</v>
+        <v>1015.799006155638</v>
       </c>
       <c r="F147" t="n">
-        <v>8.215529190693553</v>
+        <v>8.222863919550063</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>45946.56286845653</v>
+        <v>45658.51666666667</v>
       </c>
       <c r="B148" t="n">
-        <v>3.203644546340423</v>
+        <v>3.234207517201034</v>
       </c>
       <c r="C148" t="n">
-        <v>40.68789983213858</v>
+        <v>41.17708547428561</v>
       </c>
       <c r="D148" t="n">
-        <v>315.0952900856356</v>
+        <v>311.9100146649324</v>
       </c>
       <c r="E148" t="n">
-        <v>1023.792852163532</v>
+        <v>1025.964970944831</v>
       </c>
       <c r="F148" t="n">
-        <v>8.190807286200286</v>
+        <v>8.193498836595609</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>45946.56298419727</v>
+        <v>45658.51678240741</v>
       </c>
       <c r="B149" t="n">
-        <v>3.060416656293696</v>
+        <v>3.116862427673132</v>
       </c>
       <c r="C149" t="n">
-        <v>40.84362424732151</v>
+        <v>42.38513371287991</v>
       </c>
       <c r="D149" t="n">
-        <v>320.0091525603767</v>
+        <v>305.7475552004488</v>
       </c>
       <c r="E149" t="n">
-        <v>1038.084004817894</v>
+        <v>1044.942612570561</v>
       </c>
       <c r="F149" t="n">
-        <v>8.189843641755816</v>
+        <v>8.276445404265456</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>45946.56309993801</v>
+        <v>45658.51689814815</v>
       </c>
       <c r="B150" t="n">
-        <v>3.11695605442286</v>
+        <v>3.199467296288401</v>
       </c>
       <c r="C150" t="n">
-        <v>40.81404682289139</v>
+        <v>41.20358349249769</v>
       </c>
       <c r="D150" t="n">
-        <v>317.1651016422987</v>
+        <v>317.9273557383347</v>
       </c>
       <c r="E150" t="n">
-        <v>1016.350725283066</v>
+        <v>1026.062515558147</v>
       </c>
       <c r="F150" t="n">
-        <v>8.312835287067726</v>
+        <v>8.266707467799064</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>45946.56321567875</v>
+        <v>45658.51701388889</v>
       </c>
       <c r="B151" t="n">
-        <v>3.174337550288423</v>
+        <v>3.298603890201716</v>
       </c>
       <c r="C151" t="n">
-        <v>42.70046689949499</v>
+        <v>41.48001117909412</v>
       </c>
       <c r="D151" t="n">
-        <v>316.8804458778017</v>
+        <v>320.5807794160176</v>
       </c>
       <c r="E151" t="n">
-        <v>1057.386870082334</v>
+        <v>1063.121768084146</v>
       </c>
       <c r="F151" t="n">
-        <v>8.432856634476167</v>
+        <v>8.427251115604202</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>45946.56333141949</v>
+        <v>45658.51712962963</v>
       </c>
       <c r="B152" t="n">
-        <v>3.119897761229551</v>
+        <v>3.200850025521631</v>
       </c>
       <c r="C152" t="n">
-        <v>42.25563989564105</v>
+        <v>42.27155635096588</v>
       </c>
       <c r="D152" t="n">
-        <v>323.5468094055482</v>
+        <v>329.8688837565363</v>
       </c>
       <c r="E152" t="n">
-        <v>1082.972277711919</v>
+        <v>1048.753541865346</v>
       </c>
       <c r="F152" t="n">
-        <v>8.476303467239353</v>
+        <v>8.426225108027884</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>45946.56344716023</v>
+        <v>45658.51724537037</v>
       </c>
       <c r="B153" t="n">
-        <v>3.191138461130999</v>
+        <v>3.223681830335765</v>
       </c>
       <c r="C153" t="n">
-        <v>42.93784822057994</v>
+        <v>41.98770024586505</v>
       </c>
       <c r="D153" t="n">
-        <v>320.0386557878796</v>
+        <v>322.3961417799015</v>
       </c>
       <c r="E153" t="n">
-        <v>1050.589327741297</v>
+        <v>1062.868834394271</v>
       </c>
       <c r="F153" t="n">
-        <v>8.42236118228112</v>
+        <v>8.471579633330204</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>45946.56356290097</v>
+        <v>45658.51736111111</v>
       </c>
       <c r="B154" t="n">
-        <v>3.51182088931759</v>
+        <v>3.379020434046476</v>
       </c>
       <c r="C154" t="n">
-        <v>42.86857923816539</v>
+        <v>42.88158377818605</v>
       </c>
       <c r="D154" t="n">
-        <v>328.0392297966106</v>
+        <v>329.6299453270535</v>
       </c>
       <c r="E154" t="n">
-        <v>1064.257440351094</v>
+        <v>1073.368280841498</v>
       </c>
       <c r="F154" t="n">
-        <v>8.618441291009715</v>
+        <v>8.545220679899417</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>45946.56367864172</v>
+        <v>45658.51747685186</v>
       </c>
       <c r="B155" t="n">
-        <v>3.515296468215571</v>
+        <v>3.46241383912305</v>
       </c>
       <c r="C155" t="n">
-        <v>43.19272907529706</v>
+        <v>41.90540543572174</v>
       </c>
       <c r="D155" t="n">
-        <v>339.5252332185888</v>
+        <v>333.1517234840632</v>
       </c>
       <c r="E155" t="n">
-        <v>1089.822177595811</v>
+        <v>1057.671557328193</v>
       </c>
       <c r="F155" t="n">
-        <v>8.646673442652867</v>
+        <v>8.614473997685911</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>45946.56379438245</v>
+        <v>45658.51759259259</v>
       </c>
       <c r="B156" t="n">
-        <v>3.214039276313437</v>
+        <v>3.467662090814398</v>
       </c>
       <c r="C156" t="n">
-        <v>44.28047218646861</v>
+        <v>44.66263477798501</v>
       </c>
       <c r="D156" t="n">
-        <v>327.9336183849094</v>
+        <v>335.5461210947431</v>
       </c>
       <c r="E156" t="n">
-        <v>1095.226669171683</v>
+        <v>1091.48012909256</v>
       </c>
       <c r="F156" t="n">
-        <v>8.741245180382222</v>
+        <v>8.696959985096971</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>45946.56391012319</v>
+        <v>45658.51770833333</v>
       </c>
       <c r="B157" t="n">
-        <v>3.327423763329261</v>
+        <v>3.490072714634549</v>
       </c>
       <c r="C157" t="n">
-        <v>44.26401588055704</v>
+        <v>43.4594975049853</v>
       </c>
       <c r="D157" t="n">
-        <v>334.7334263829731</v>
+        <v>340.2991381916327</v>
       </c>
       <c r="E157" t="n">
-        <v>1086.148406277721</v>
+        <v>1102.780098953307</v>
       </c>
       <c r="F157" t="n">
-        <v>8.772013688584499</v>
+        <v>8.703381796033439</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>45946.56402586393</v>
+        <v>45658.51782407407</v>
       </c>
       <c r="B158" t="n">
-        <v>3.643128479371251</v>
+        <v>3.309485957075514</v>
       </c>
       <c r="C158" t="n">
-        <v>44.53254322711067</v>
+        <v>44.58580032664446</v>
       </c>
       <c r="D158" t="n">
-        <v>343.6519549361421</v>
+        <v>344.7040989918157</v>
       </c>
       <c r="E158" t="n">
-        <v>1097.831218182024</v>
+        <v>1105.042154547212</v>
       </c>
       <c r="F158" t="n">
-        <v>8.872356161871535</v>
+        <v>8.862654462147637</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>45946.56414160468</v>
+        <v>45658.51793981482</v>
       </c>
       <c r="B159" t="n">
-        <v>3.511060621618721</v>
+        <v>3.516636121554013</v>
       </c>
       <c r="C159" t="n">
-        <v>44.88042625001663</v>
+        <v>45.32420891949944</v>
       </c>
       <c r="D159" t="n">
-        <v>355.8168640335134</v>
+        <v>347.1427473079736</v>
       </c>
       <c r="E159" t="n">
-        <v>1127.633359924425</v>
+        <v>1126.24075680227</v>
       </c>
       <c r="F159" t="n">
-        <v>8.923216116019232</v>
+        <v>8.97122225507791</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>45946.56425734542</v>
+        <v>45658.51805555556</v>
       </c>
       <c r="B160" t="n">
-        <v>3.571983337751222</v>
+        <v>3.377761496447045</v>
       </c>
       <c r="C160" t="n">
-        <v>44.81000924048256</v>
+        <v>45.99487254349133</v>
       </c>
       <c r="D160" t="n">
-        <v>361.7085078185545</v>
+        <v>341.7833586790102</v>
       </c>
       <c r="E160" t="n">
-        <v>1137.500100849957</v>
+        <v>1131.303547359295</v>
       </c>
       <c r="F160" t="n">
-        <v>9.038770675128537</v>
+        <v>9.016365115565153</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>45946.56437308616</v>
+        <v>45658.51817129629</v>
       </c>
       <c r="B161" t="n">
-        <v>3.707293650065664</v>
+        <v>3.39610087815191</v>
       </c>
       <c r="C161" t="n">
-        <v>45.97327200697882</v>
+        <v>44.77934847013993</v>
       </c>
       <c r="D161" t="n">
-        <v>352.0384463062002</v>
+        <v>360.1126978921767</v>
       </c>
       <c r="E161" t="n">
-        <v>1147.240563255897</v>
+        <v>1144.06418811881</v>
       </c>
       <c r="F161" t="n">
-        <v>9.230469859928037</v>
+        <v>9.174761141613308</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>45946.5644888269</v>
+        <v>45658.51828703703</v>
       </c>
       <c r="B162" t="n">
-        <v>3.67432234965714</v>
+        <v>3.498356461242407</v>
       </c>
       <c r="C162" t="n">
-        <v>45.9699495105212</v>
+        <v>46.56342995481614</v>
       </c>
       <c r="D162" t="n">
-        <v>363.5312600553254</v>
+        <v>360.143097024698</v>
       </c>
       <c r="E162" t="n">
-        <v>1167.729103764062</v>
+        <v>1144.617957723938</v>
       </c>
       <c r="F162" t="n">
-        <v>9.239186950980981</v>
+        <v>9.217893444806602</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>45946.56460456764</v>
+        <v>45658.51840277778</v>
       </c>
       <c r="B163" t="n">
-        <v>3.534414482913099</v>
+        <v>3.785572511588694</v>
       </c>
       <c r="C163" t="n">
-        <v>46.91474652707362</v>
+        <v>47.38485198964247</v>
       </c>
       <c r="D163" t="n">
-        <v>371.2023509040955</v>
+        <v>369.8912937585463</v>
       </c>
       <c r="E163" t="n">
-        <v>1175.55020072728</v>
+        <v>1173.847600975535</v>
       </c>
       <c r="F163" t="n">
-        <v>9.304267620195789</v>
+        <v>9.298263001818107</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>45946.56472030838</v>
+        <v>45658.51851851852</v>
       </c>
       <c r="B164" t="n">
-        <v>3.841753498096324</v>
+        <v>3.677892764856187</v>
       </c>
       <c r="C164" t="n">
-        <v>47.55149582779317</v>
+        <v>47.52837995769899</v>
       </c>
       <c r="D164" t="n">
-        <v>367.0966755403904</v>
+        <v>383.1527313612502</v>
       </c>
       <c r="E164" t="n">
-        <v>1176.428591269812</v>
+        <v>1181.732430987591</v>
       </c>
       <c r="F164" t="n">
-        <v>9.601692233948038</v>
+        <v>9.484999715166234</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>45946.56483604912</v>
+        <v>45658.51863425926</v>
       </c>
       <c r="B165" t="n">
-        <v>3.792447334202768</v>
+        <v>3.922538567419292</v>
       </c>
       <c r="C165" t="n">
-        <v>48.79021739181914</v>
+        <v>48.29501732076168</v>
       </c>
       <c r="D165" t="n">
-        <v>382.688725347272</v>
+        <v>384.043461711811</v>
       </c>
       <c r="E165" t="n">
-        <v>1188.126553421922</v>
+        <v>1210.933896828881</v>
       </c>
       <c r="F165" t="n">
-        <v>9.558913033259094</v>
+        <v>9.560302662957472</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>45946.56495178986</v>
+        <v>45658.51875</v>
       </c>
       <c r="B166" t="n">
-        <v>3.832161560736134</v>
+        <v>3.837346852852779</v>
       </c>
       <c r="C166" t="n">
-        <v>48.39794596455961</v>
+        <v>49.5538223702082</v>
       </c>
       <c r="D166" t="n">
-        <v>381.6323593252746</v>
+        <v>383.5458628387299</v>
       </c>
       <c r="E166" t="n">
-        <v>1214.888566929473</v>
+        <v>1199.48233896586</v>
       </c>
       <c r="F166" t="n">
-        <v>9.72493607061692</v>
+        <v>9.75225152342662</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>45946.5650675306</v>
+        <v>45658.51886574074</v>
       </c>
       <c r="B167" t="n">
-        <v>4.028932868994417</v>
+        <v>3.874605505281245</v>
       </c>
       <c r="C167" t="n">
-        <v>49.19173309723926</v>
+        <v>49.38694169171599</v>
       </c>
       <c r="D167" t="n">
-        <v>390.4786653536555</v>
+        <v>385.6784699834572</v>
       </c>
       <c r="E167" t="n">
-        <v>1224.474391783488</v>
+        <v>1228.256283988591</v>
       </c>
       <c r="F167" t="n">
-        <v>9.853197972506461</v>
+        <v>9.827062784945213</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>45946.56518327134</v>
+        <v>45658.51898148148</v>
       </c>
       <c r="B168" t="n">
-        <v>3.902294817436052</v>
+        <v>3.838230802401757</v>
       </c>
       <c r="C168" t="n">
-        <v>50.19367853465763</v>
+        <v>49.65864167807418</v>
       </c>
       <c r="D168" t="n">
-        <v>398.5956560716465</v>
+        <v>395.7982668581158</v>
       </c>
       <c r="E168" t="n">
-        <v>1247.100617965724</v>
+        <v>1241.071956963122</v>
       </c>
       <c r="F168" t="n">
-        <v>9.961986355761169</v>
+        <v>9.976289140953988</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>45946.56529901208</v>
+        <v>45658.51909722222</v>
       </c>
       <c r="B169" t="n">
-        <v>4.201524807569063</v>
+        <v>3.945971181317804</v>
       </c>
       <c r="C169" t="n">
-        <v>50.78988011995806</v>
+        <v>49.88911719196172</v>
       </c>
       <c r="D169" t="n">
-        <v>398.8682027292242</v>
+        <v>393.1005415378719</v>
       </c>
       <c r="E169" t="n">
-        <v>1275.773571415335</v>
+        <v>1252.425232466526</v>
       </c>
       <c r="F169" t="n">
-        <v>10.00589107419299</v>
+        <v>10.02818841516387</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>45946.56541475283</v>
+        <v>45658.51921296296</v>
       </c>
       <c r="B170" t="n">
-        <v>3.928074385382364</v>
+        <v>4.028500038765851</v>
       </c>
       <c r="C170" t="n">
-        <v>51.10627262208317</v>
+        <v>49.81641570328588</v>
       </c>
       <c r="D170" t="n">
-        <v>403.4470043775848</v>
+        <v>404.4980469269244</v>
       </c>
       <c r="E170" t="n">
-        <v>1268.456450547246</v>
+        <v>1258.855916788575</v>
       </c>
       <c r="F170" t="n">
-        <v>10.19319211902102</v>
+        <v>10.2892817915558</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>45946.56553049356</v>
+        <v>45658.5193287037</v>
       </c>
       <c r="B171" t="n">
-        <v>4.257340279017622</v>
+        <v>4.092945541184265</v>
       </c>
       <c r="C171" t="n">
-        <v>51.42106594211331</v>
+        <v>51.49691200493282</v>
       </c>
       <c r="D171" t="n">
-        <v>417.9514015539966</v>
+        <v>423.3690597086373</v>
       </c>
       <c r="E171" t="n">
-        <v>1291.379881779698</v>
+        <v>1275.353231250952</v>
       </c>
       <c r="F171" t="n">
-        <v>10.329455073912</v>
+        <v>10.26162758360068</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>45946.5656462343</v>
+        <v>45658.51944444444</v>
       </c>
       <c r="B172" t="n">
-        <v>4.249332238630859</v>
+        <v>4.303853994846096</v>
       </c>
       <c r="C172" t="n">
-        <v>51.49972491714318</v>
+        <v>51.36750296385179</v>
       </c>
       <c r="D172" t="n">
-        <v>423.5356760305233</v>
+        <v>417.1087947046474</v>
       </c>
       <c r="E172" t="n">
-        <v>1312.763449625211</v>
+        <v>1294.606695918007</v>
       </c>
       <c r="F172" t="n">
-        <v>10.51718665056547</v>
+        <v>10.42879412966957</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>45946.56576197505</v>
+        <v>45658.51956018519</v>
       </c>
       <c r="B173" t="n">
-        <v>4.218590491331898</v>
+        <v>4.437051468466374</v>
       </c>
       <c r="C173" t="n">
-        <v>52.75365720166162</v>
+        <v>51.91782319665857</v>
       </c>
       <c r="D173" t="n">
-        <v>425.2789111631667</v>
+        <v>428.9156732356734</v>
       </c>
       <c r="E173" t="n">
-        <v>1317.919273025803</v>
+        <v>1322.120245159055</v>
       </c>
       <c r="F173" t="n">
-        <v>10.62329104504595</v>
+        <v>10.61303909490272</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>45946.56587771579</v>
+        <v>45658.51967592593</v>
       </c>
       <c r="B174" t="n">
-        <v>4.271712875654262</v>
+        <v>4.517169191185199</v>
       </c>
       <c r="C174" t="n">
-        <v>53.34997115203854</v>
+        <v>52.79519072177354</v>
       </c>
       <c r="D174" t="n">
-        <v>437.0333961687351</v>
+        <v>432.6841065552942</v>
       </c>
       <c r="E174" t="n">
-        <v>1340.857665500159</v>
+        <v>1337.60421189617</v>
       </c>
       <c r="F174" t="n">
-        <v>10.70172123177691</v>
+        <v>10.7374500869794</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>45946.56599345653</v>
+        <v>45658.51979166667</v>
       </c>
       <c r="B175" t="n">
-        <v>4.411557222838431</v>
+        <v>4.349518437909474</v>
       </c>
       <c r="C175" t="n">
-        <v>54.20307006327761</v>
+        <v>53.55430786055743</v>
       </c>
       <c r="D175" t="n">
-        <v>452.6322881094943</v>
+        <v>442.4072868090092</v>
       </c>
       <c r="E175" t="n">
-        <v>1354.770361790235</v>
+        <v>1356.852752611617</v>
       </c>
       <c r="F175" t="n">
-        <v>10.81759224329275</v>
+        <v>10.8961732582085</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>45946.56610919727</v>
+        <v>45658.5199074074</v>
       </c>
       <c r="B176" t="n">
-        <v>4.587778025502967</v>
+        <v>4.361537843552214</v>
       </c>
       <c r="C176" t="n">
-        <v>55.44145275732467</v>
+        <v>54.64399754811499</v>
       </c>
       <c r="D176" t="n">
-        <v>445.9344609830649</v>
+        <v>453.3007449328423</v>
       </c>
       <c r="E176" t="n">
-        <v>1367.814501668971</v>
+        <v>1372.851253886749</v>
       </c>
       <c r="F176" t="n">
-        <v>10.95286159901798</v>
+        <v>11.02672690630542</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>45946.56622493801</v>
+        <v>45658.52002314815</v>
       </c>
       <c r="B177" t="n">
-        <v>4.497622951054471</v>
+        <v>4.384651517389933</v>
       </c>
       <c r="C177" t="n">
-        <v>55.70822651953115</v>
+        <v>55.95320820527477</v>
       </c>
       <c r="D177" t="n">
-        <v>455.2111778987464</v>
+        <v>457.5869484891652</v>
       </c>
       <c r="E177" t="n">
-        <v>1383.186527066652</v>
+        <v>1385.864294251227</v>
       </c>
       <c r="F177" t="n">
-        <v>11.08220011095783</v>
+        <v>11.09407949778223</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>45946.56634067875</v>
+        <v>45658.52013888889</v>
       </c>
       <c r="B178" t="n">
-        <v>4.707861048896536</v>
+        <v>4.575741738177756</v>
       </c>
       <c r="C178" t="n">
-        <v>56.65193979332881</v>
+        <v>55.78631388779738</v>
       </c>
       <c r="D178" t="n">
-        <v>460.4412688619457</v>
+        <v>457.9023983874637</v>
       </c>
       <c r="E178" t="n">
-        <v>1416.791565418388</v>
+        <v>1400.67004961915</v>
       </c>
       <c r="F178" t="n">
-        <v>11.25685386780406</v>
+        <v>11.30428454836882</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>45946.56645641949</v>
+        <v>45658.52025462963</v>
       </c>
       <c r="B179" t="n">
-        <v>4.728529826001354</v>
+        <v>4.722992625036877</v>
       </c>
       <c r="C179" t="n">
-        <v>57.2740372002938</v>
+        <v>57.10468769289862</v>
       </c>
       <c r="D179" t="n">
-        <v>474.0266700560864</v>
+        <v>467.7198263575363</v>
       </c>
       <c r="E179" t="n">
-        <v>1408.590975260654</v>
+        <v>1421.18993893743</v>
       </c>
       <c r="F179" t="n">
-        <v>11.33143598471021</v>
+        <v>11.38632192493568</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>45946.56657216023</v>
+        <v>45658.52037037037</v>
       </c>
       <c r="B180" t="n">
-        <v>4.812819567451731</v>
+        <v>4.796147449475841</v>
       </c>
       <c r="C180" t="n">
-        <v>57.90633917713839</v>
+        <v>57.11907851218661</v>
       </c>
       <c r="D180" t="n">
-        <v>480.4736327205821</v>
+        <v>471.8672059330017</v>
       </c>
       <c r="E180" t="n">
-        <v>1444.589492554598</v>
+        <v>1444.490378666183</v>
       </c>
       <c r="F180" t="n">
-        <v>11.54415467281979</v>
+        <v>11.59467831508563</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>45946.56668790097</v>
+        <v>45658.52048611111</v>
       </c>
       <c r="B181" t="n">
-        <v>4.845382690043536</v>
+        <v>4.70007985647758</v>
       </c>
       <c r="C181" t="n">
-        <v>59.08771518719603</v>
+        <v>58.12709857507306</v>
       </c>
       <c r="D181" t="n">
-        <v>474.1601508716869</v>
+        <v>477.8631664332205</v>
       </c>
       <c r="E181" t="n">
-        <v>1458.090299651073</v>
+        <v>1474.050354523216</v>
       </c>
       <c r="F181" t="n">
-        <v>11.47510287526014</v>
+        <v>11.64256456560829</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>45946.56680364171</v>
+        <v>45658.52060185185</v>
       </c>
       <c r="B182" t="n">
-        <v>4.905620781595664</v>
+        <v>4.940970999200387</v>
       </c>
       <c r="C182" t="n">
-        <v>58.38517729248078</v>
+        <v>58.37684048830366</v>
       </c>
       <c r="D182" t="n">
-        <v>495.4146431540266</v>
+        <v>492.7667556954652</v>
       </c>
       <c r="E182" t="n">
-        <v>1458.934534141034</v>
+        <v>1465.767186684857</v>
       </c>
       <c r="F182" t="n">
-        <v>11.81572196460324</v>
+        <v>11.62802083402821</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>45946.56691938245</v>
+        <v>45658.52071759259</v>
       </c>
       <c r="B183" t="n">
-        <v>5.088545262975028</v>
+        <v>5.13334904959489</v>
       </c>
       <c r="C183" t="n">
-        <v>59.37826467760263</v>
+        <v>58.95202962095259</v>
       </c>
       <c r="D183" t="n">
-        <v>492.566839808597</v>
+        <v>492.2481050135054</v>
       </c>
       <c r="E183" t="n">
-        <v>1484.408598360538</v>
+        <v>1491.109646559929</v>
       </c>
       <c r="F183" t="n">
-        <v>11.87412915216468</v>
+        <v>11.90856417282884</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>45946.5670351232</v>
+        <v>45658.52083333334</v>
       </c>
       <c r="B184" t="n">
-        <v>5.229717782807382</v>
+        <v>5.06637236671116</v>
       </c>
       <c r="C184" t="n">
-        <v>60.98586169893241</v>
+        <v>60.69998198274747</v>
       </c>
       <c r="D184" t="n">
-        <v>508.2706834745992</v>
+        <v>502.2888949733708</v>
       </c>
       <c r="E184" t="n">
-        <v>1495.129074869243</v>
+        <v>1505.557839836723</v>
       </c>
       <c r="F184" t="n">
-        <v>12.11435863728024</v>
+        <v>12.10184439819122</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>45946.56715086394</v>
+        <v>45658.52094907407</v>
       </c>
       <c r="B185" t="n">
-        <v>4.964899854029505</v>
+        <v>5.14876522156193</v>
       </c>
       <c r="C185" t="n">
-        <v>61.41733789832686</v>
+        <v>60.43886606969357</v>
       </c>
       <c r="D185" t="n">
-        <v>508.16333061274</v>
+        <v>507.7494417448394</v>
       </c>
       <c r="E185" t="n">
-        <v>1520.690304835458</v>
+        <v>1533.856805565032</v>
       </c>
       <c r="F185" t="n">
-        <v>12.27658374265165</v>
+        <v>12.25809741543886</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>45946.56726660467</v>
+        <v>45658.52106481481</v>
       </c>
       <c r="B186" t="n">
-        <v>5.169785495118356</v>
+        <v>5.178738500457484</v>
       </c>
       <c r="C186" t="n">
-        <v>62.05574149590313</v>
+        <v>61.54572091728182</v>
       </c>
       <c r="D186" t="n">
-        <v>515.3806528500002</v>
+        <v>521.2426306264757</v>
       </c>
       <c r="E186" t="n">
-        <v>1558.133162965025</v>
+        <v>1541.435304453191</v>
       </c>
       <c r="F186" t="n">
-        <v>12.38220113801802</v>
+        <v>12.35698325251004</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>45946.56738234542</v>
+        <v>45658.52118055556</v>
       </c>
       <c r="B187" t="n">
-        <v>5.117873188302248</v>
+        <v>5.253232048055072</v>
       </c>
       <c r="C187" t="n">
-        <v>61.94013799004475</v>
+        <v>62.09475535865707</v>
       </c>
       <c r="D187" t="n">
-        <v>519.5607633176273</v>
+        <v>530.4943460204672</v>
       </c>
       <c r="E187" t="n">
-        <v>1557.660341456805</v>
+        <v>1573.995158331731</v>
       </c>
       <c r="F187" t="n">
-        <v>12.39517493492783</v>
+        <v>12.51792496202685</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>45946.56749808616</v>
+        <v>45658.5212962963</v>
       </c>
       <c r="B188" t="n">
-        <v>5.194904630809707</v>
+        <v>5.467320434848688</v>
       </c>
       <c r="C188" t="n">
-        <v>63.08915740387537</v>
+        <v>63.71587519923662</v>
       </c>
       <c r="D188" t="n">
-        <v>533.8656512714924</v>
+        <v>522.9974796620864</v>
       </c>
       <c r="E188" t="n">
-        <v>1580.377505376257</v>
+        <v>1587.591286454619</v>
       </c>
       <c r="F188" t="n">
-        <v>12.62618166729249</v>
+        <v>12.60402013975207</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>45946.5676138269</v>
+        <v>45658.52141203704</v>
       </c>
       <c r="B189" t="n">
-        <v>5.429499365923385</v>
+        <v>5.271019643078246</v>
       </c>
       <c r="C189" t="n">
-        <v>64.32547259999657</v>
+        <v>63.02619531994971</v>
       </c>
       <c r="D189" t="n">
-        <v>535.3210220740682</v>
+        <v>529.0963871285677</v>
       </c>
       <c r="E189" t="n">
-        <v>1614.098921774886</v>
+        <v>1593.725796638757</v>
       </c>
       <c r="F189" t="n">
-        <v>12.72915582323643</v>
+        <v>12.81045347161231</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>45946.56772956764</v>
+        <v>45658.52152777778</v>
       </c>
       <c r="B190" t="n">
-        <v>5.423545152273067</v>
+        <v>5.436520665212475</v>
       </c>
       <c r="C190" t="n">
-        <v>64.82832637098841</v>
+        <v>64.28347111122342</v>
       </c>
       <c r="D190" t="n">
-        <v>554.9485682297905</v>
+        <v>537.7179272458957</v>
       </c>
       <c r="E190" t="n">
-        <v>1600.300226400188</v>
+        <v>1607.088098963811</v>
       </c>
       <c r="F190" t="n">
-        <v>12.82628353701658</v>
+        <v>12.96206290511134</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>45946.56784530838</v>
+        <v>45658.52164351852</v>
       </c>
       <c r="B191" t="n">
-        <v>5.563674269136966</v>
+        <v>5.53315818868886</v>
       </c>
       <c r="C191" t="n">
-        <v>65.37008754227061</v>
+        <v>65.09420087919561</v>
       </c>
       <c r="D191" t="n">
-        <v>551.7969548444579</v>
+        <v>550.38718778192</v>
       </c>
       <c r="E191" t="n">
-        <v>1622.287874704228</v>
+        <v>1629.490540366146</v>
       </c>
       <c r="F191" t="n">
-        <v>13.06095104788795</v>
+        <v>13.06448489541863</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>45946.56796104912</v>
+        <v>45658.52175925926</v>
       </c>
       <c r="B192" t="n">
-        <v>5.595047438944249</v>
+        <v>5.572221800611164</v>
       </c>
       <c r="C192" t="n">
-        <v>65.95169248497542</v>
+        <v>65.60859542921806</v>
       </c>
       <c r="D192" t="n">
-        <v>561.5268108487545</v>
+        <v>563.3735715373613</v>
       </c>
       <c r="E192" t="n">
-        <v>1649.45304792819</v>
+        <v>1634.024253856522</v>
       </c>
       <c r="F192" t="n">
-        <v>13.25223475432297</v>
+        <v>13.16431647292592</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>45946.56807678986</v>
+        <v>45658.521875</v>
       </c>
       <c r="B193" t="n">
-        <v>5.603072395095333</v>
+        <v>5.5968241301739</v>
       </c>
       <c r="C193" t="n">
-        <v>66.97882075970712</v>
+        <v>66.43664322292841</v>
       </c>
       <c r="D193" t="n">
-        <v>560.1428193930559</v>
+        <v>565.1462528677571</v>
       </c>
       <c r="E193" t="n">
-        <v>1649.482562700393</v>
+        <v>1668.68168593702</v>
       </c>
       <c r="F193" t="n">
-        <v>13.29169778838644</v>
+        <v>13.17852936365065</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>45946.56819253061</v>
+        <v>45658.52199074074</v>
       </c>
       <c r="B194" t="n">
-        <v>5.630176340997141</v>
+        <v>5.668475707364407</v>
       </c>
       <c r="C194" t="n">
-        <v>67.50710006095576</v>
+        <v>67.10768070338466</v>
       </c>
       <c r="D194" t="n">
-        <v>565.8098442817715</v>
+        <v>581.7798317173288</v>
       </c>
       <c r="E194" t="n">
-        <v>1665.359078908202</v>
+        <v>1683.389066697968</v>
       </c>
       <c r="F194" t="n">
-        <v>13.33115470179101</v>
+        <v>13.47631714510623</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>45946.56830827134</v>
+        <v>45658.52210648148</v>
       </c>
       <c r="B195" t="n">
-        <v>5.756380031877057</v>
+        <v>5.743491446740754</v>
       </c>
       <c r="C195" t="n">
-        <v>67.81637196448466</v>
+        <v>68.43329861595885</v>
       </c>
       <c r="D195" t="n">
-        <v>584.2558115991197</v>
+        <v>584.0733881248354</v>
       </c>
       <c r="E195" t="n">
-        <v>1696.588314591753</v>
+        <v>1722.343156769889</v>
       </c>
       <c r="F195" t="n">
-        <v>13.52800853470985</v>
+        <v>13.53407877949274</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>45946.56842401208</v>
+        <v>45658.52222222222</v>
       </c>
       <c r="B196" t="n">
-        <v>5.681952941607771</v>
+        <v>5.965064217818176</v>
       </c>
       <c r="C196" t="n">
-        <v>67.92017610795739</v>
+        <v>69.28686151195225</v>
       </c>
       <c r="D196" t="n">
-        <v>576.1377998911049</v>
+        <v>592.1219046717944</v>
       </c>
       <c r="E196" t="n">
-        <v>1700.408569681046</v>
+        <v>1713.968388213751</v>
       </c>
       <c r="F196" t="n">
-        <v>13.71772352732987</v>
+        <v>13.69544721265469</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>45946.56853975282</v>
+        <v>45658.52233796296</v>
       </c>
       <c r="B197" t="n">
-        <v>5.886602471407871</v>
+        <v>6.08012288434516</v>
       </c>
       <c r="C197" t="n">
-        <v>69.5881403675476</v>
+        <v>69.37801273550937</v>
       </c>
       <c r="D197" t="n">
-        <v>590.2816912094013</v>
+        <v>591.6921444602631</v>
       </c>
       <c r="E197" t="n">
-        <v>1710.824220989025</v>
+        <v>1729.992769311332</v>
       </c>
       <c r="F197" t="n">
-        <v>13.81297184258859</v>
+        <v>13.85149611811859</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>45946.56865549357</v>
+        <v>45658.52245370371</v>
       </c>
       <c r="B198" t="n">
-        <v>6.143680276452153</v>
+        <v>5.911594026741412</v>
       </c>
       <c r="C198" t="n">
-        <v>69.52401943119916</v>
+        <v>69.46580680958748</v>
       </c>
       <c r="D198" t="n">
-        <v>605.1558230085628</v>
+        <v>599.3825684753671</v>
       </c>
       <c r="E198" t="n">
-        <v>1744.448546815509</v>
+        <v>1746.931662998748</v>
       </c>
       <c r="F198" t="n">
-        <v>13.88650667462561</v>
+        <v>13.94046025043285</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>45946.56877123431</v>
+        <v>45658.52256944445</v>
       </c>
       <c r="B199" t="n">
-        <v>5.967141637876619</v>
+        <v>5.829310917682398</v>
       </c>
       <c r="C199" t="n">
-        <v>70.43099230063272</v>
+        <v>70.42341792780401</v>
       </c>
       <c r="D199" t="n">
-        <v>604.9853359707901</v>
+        <v>607.6209341503643</v>
       </c>
       <c r="E199" t="n">
-        <v>1757.640280443223</v>
+        <v>1765.516868202356</v>
       </c>
       <c r="F199" t="n">
-        <v>14.08601221384082</v>
+        <v>14.09293896680639</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>45946.56888697504</v>
+        <v>45658.52268518518</v>
       </c>
       <c r="B200" t="n">
-        <v>6.060804838959487</v>
+        <v>6.117788156678089</v>
       </c>
       <c r="C200" t="n">
-        <v>71.36842114176834</v>
+        <v>71.23817143660118</v>
       </c>
       <c r="D200" t="n">
-        <v>612.0471782430486</v>
+        <v>607.1635516419442</v>
       </c>
       <c r="E200" t="n">
-        <v>1769.680664964228</v>
+        <v>1786.855162193249</v>
       </c>
       <c r="F200" t="n">
-        <v>14.22709636865142</v>
+        <v>14.12652888446201</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>45946.56900271578</v>
+        <v>45658.52280092592</v>
       </c>
       <c r="B201" t="n">
-        <v>6.265969067431457</v>
+        <v>6.324200946008977</v>
       </c>
       <c r="C201" t="n">
-        <v>71.76842756766197</v>
+        <v>70.99044602714399</v>
       </c>
       <c r="D201" t="n">
-        <v>614.4722830945523</v>
+        <v>614.7483112526696</v>
       </c>
       <c r="E201" t="n">
-        <v>1792.74821183199</v>
+        <v>1764.272119400926</v>
       </c>
       <c r="F201" t="n">
-        <v>14.34160700634698</v>
+        <v>14.34171203570317</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>45946.56911845653</v>
+        <v>45658.52291666667</v>
       </c>
       <c r="B202" t="n">
-        <v>6.126057333099896</v>
+        <v>6.130792005635536</v>
       </c>
       <c r="C202" t="n">
-        <v>71.88520534251623</v>
+        <v>72.51367284218749</v>
       </c>
       <c r="D202" t="n">
-        <v>619.0175205970305</v>
+        <v>621.2346975634438</v>
       </c>
       <c r="E202" t="n">
-        <v>1798.71090408067</v>
+        <v>1797.807841055491</v>
       </c>
       <c r="F202" t="n">
-        <v>14.35899265168702</v>
+        <v>14.3468036834186</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>45946.56923419727</v>
+        <v>45658.52303240741</v>
       </c>
       <c r="B203" t="n">
-        <v>6.323022951887779</v>
+        <v>6.239667681425574</v>
       </c>
       <c r="C203" t="n">
-        <v>72.12785670546319</v>
+        <v>73.34693540712018</v>
       </c>
       <c r="D203" t="n">
-        <v>624.0290884850831</v>
+        <v>620.6355259108216</v>
       </c>
       <c r="E203" t="n">
-        <v>1805.129027305903</v>
+        <v>1816.115187223029</v>
       </c>
       <c r="F203" t="n">
-        <v>14.51562737878802</v>
+        <v>14.47003623101727</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>45946.56934993801</v>
+        <v>45658.52314814815</v>
       </c>
       <c r="B204" t="n">
-        <v>6.276396596020479</v>
+        <v>6.402313011642454</v>
       </c>
       <c r="C204" t="n">
-        <v>72.64020195745252</v>
+        <v>72.44994143836227</v>
       </c>
       <c r="D204" t="n">
-        <v>635.417836832888</v>
+        <v>620.3576443585212</v>
       </c>
       <c r="E204" t="n">
-        <v>1823.493726819891</v>
+        <v>1824.520959710291</v>
       </c>
       <c r="F204" t="n">
-        <v>14.60753687866264</v>
+        <v>14.60128745167928</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>45946.56946567875</v>
+        <v>45658.52326388889</v>
       </c>
       <c r="B205" t="n">
-        <v>6.392323573401264</v>
+        <v>6.301522721752622</v>
       </c>
       <c r="C205" t="n">
-        <v>73.53408115395325</v>
+        <v>73.18068230108564</v>
       </c>
       <c r="D205" t="n">
-        <v>641.9647057100337</v>
+        <v>639.2607823123096</v>
       </c>
       <c r="E205" t="n">
-        <v>1842.408771025272</v>
+        <v>1852.195581201627</v>
       </c>
       <c r="F205" t="n">
-        <v>14.65900970861441</v>
+        <v>14.81937426583467</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>45946.56958141949</v>
+        <v>45658.52337962963</v>
       </c>
       <c r="B206" t="n">
-        <v>6.517115513557634</v>
+        <v>6.382884555949304</v>
       </c>
       <c r="C206" t="n">
-        <v>73.67090925434685</v>
+        <v>74.60898302789644</v>
       </c>
       <c r="D206" t="n">
-        <v>647.9170910733936</v>
+        <v>644.1181410638411</v>
       </c>
       <c r="E206" t="n">
-        <v>1842.41262326973</v>
+        <v>1844.559476731428</v>
       </c>
       <c r="F206" t="n">
-        <v>14.95125973720985</v>
+        <v>14.79363451918913</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>45946.56969716023</v>
+        <v>45658.52349537037</v>
       </c>
       <c r="B207" t="n">
-        <v>6.629894452186818</v>
+        <v>6.420277839374582</v>
       </c>
       <c r="C207" t="n">
-        <v>75.02677867032183</v>
+        <v>74.89167803554196</v>
       </c>
       <c r="D207" t="n">
-        <v>645.3709919777392</v>
+        <v>647.7559271120645</v>
       </c>
       <c r="E207" t="n">
-        <v>1866.671858827507</v>
+        <v>1870.35209178189</v>
       </c>
       <c r="F207" t="n">
-        <v>14.95247757122681</v>
+        <v>14.88006859597239</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>45946.56981290097</v>
+        <v>45658.52361111111</v>
       </c>
       <c r="B208" t="n">
-        <v>6.615036004209945</v>
+        <v>6.582879535156945</v>
       </c>
       <c r="C208" t="n">
-        <v>75.29033719439697</v>
+        <v>74.74915082727865</v>
       </c>
       <c r="D208" t="n">
-        <v>655.4348185364341</v>
+        <v>652.5424866711775</v>
       </c>
       <c r="E208" t="n">
-        <v>1878.534645383899</v>
+        <v>1885.557854889988</v>
       </c>
       <c r="F208" t="n">
-        <v>15.08809575386823</v>
+        <v>15.01236423886498</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>45946.56992864171</v>
+        <v>45658.52372685185</v>
       </c>
       <c r="B209" t="n">
-        <v>6.372633093954124</v>
+        <v>6.477118373461739</v>
       </c>
       <c r="C209" t="n">
-        <v>75.14184515281893</v>
+        <v>76.11435779554591</v>
       </c>
       <c r="D209" t="n">
-        <v>654.8330825702463</v>
+        <v>658.5985633498145</v>
       </c>
       <c r="E209" t="n">
-        <v>1886.853124198005</v>
+        <v>1889.987245870417</v>
       </c>
       <c r="F209" t="n">
-        <v>15.15109166623763</v>
+        <v>15.10072087738926</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>45946.57004438245</v>
+        <v>45658.52384259259</v>
       </c>
       <c r="B210" t="n">
-        <v>6.566324226256971</v>
+        <v>6.466425633739043</v>
       </c>
       <c r="C210" t="n">
-        <v>75.82069409127905</v>
+        <v>76.03483175655212</v>
       </c>
       <c r="D210" t="n">
-        <v>666.9498618756243</v>
+        <v>653.7224603733027</v>
       </c>
       <c r="E210" t="n">
-        <v>1888.313059841278</v>
+        <v>1915.441897889068</v>
       </c>
       <c r="F210" t="n">
-        <v>15.19145065047158</v>
+        <v>15.16108756827782</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>45946.57016012319</v>
+        <v>45658.52395833333</v>
       </c>
       <c r="B211" t="n">
-        <v>6.678533723691658</v>
+        <v>6.589956857314353</v>
       </c>
       <c r="C211" t="n">
-        <v>76.8196067891102</v>
+        <v>76.82229559206155</v>
       </c>
       <c r="D211" t="n">
-        <v>665.4820203949025</v>
+        <v>667.4774591453133</v>
       </c>
       <c r="E211" t="n">
-        <v>1911.818163655543</v>
+        <v>1903.575519307261</v>
       </c>
       <c r="F211" t="n">
-        <v>15.28482357606258</v>
+        <v>15.33401860216366</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>45946.57027586394</v>
+        <v>45658.52407407408</v>
       </c>
       <c r="B212" t="n">
-        <v>6.685741382991861</v>
+        <v>6.519332453107221</v>
       </c>
       <c r="C212" t="n">
-        <v>76.51115956025485</v>
+        <v>76.77748416123379</v>
       </c>
       <c r="D212" t="n">
-        <v>674.0096075600419</v>
+        <v>661.2651082700411</v>
       </c>
       <c r="E212" t="n">
-        <v>1918.391537633147</v>
+        <v>1917.969644665101</v>
       </c>
       <c r="F212" t="n">
-        <v>15.28179441728255</v>
+        <v>15.35938817393745</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>45946.57039160468</v>
+        <v>45658.52418981482</v>
       </c>
       <c r="B213" t="n">
-        <v>6.580788783686244</v>
+        <v>6.635638455611192</v>
       </c>
       <c r="C213" t="n">
-        <v>76.91093246877983</v>
+        <v>76.9045588096261</v>
       </c>
       <c r="D213" t="n">
-        <v>665.9705601521734</v>
+        <v>671.3566704875985</v>
       </c>
       <c r="E213" t="n">
-        <v>1913.58869548486</v>
+        <v>1912.098128797839</v>
       </c>
       <c r="F213" t="n">
-        <v>15.48032060687276</v>
+        <v>15.44111959975588</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>45946.57050734542</v>
+        <v>45658.52430555555</v>
       </c>
       <c r="B214" t="n">
-        <v>6.701370486922057</v>
+        <v>6.848331741783952</v>
       </c>
       <c r="C214" t="n">
-        <v>77.04280469146963</v>
+        <v>77.37314668306648</v>
       </c>
       <c r="D214" t="n">
-        <v>676.5549052237949</v>
+        <v>683.2594411541335</v>
       </c>
       <c r="E214" t="n">
-        <v>1939.661399468819</v>
+        <v>1946.977119706606</v>
       </c>
       <c r="F214" t="n">
-        <v>15.53962106725745</v>
+        <v>15.43919912160425</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>45946.57062308615</v>
+        <v>45658.52442129629</v>
       </c>
       <c r="B215" t="n">
-        <v>6.723621350812167</v>
+        <v>6.923100798231093</v>
       </c>
       <c r="C215" t="n">
-        <v>77.65904182434134</v>
+        <v>78.10997671042131</v>
       </c>
       <c r="D215" t="n">
-        <v>678.3008609715007</v>
+        <v>679.6894272748978</v>
       </c>
       <c r="E215" t="n">
-        <v>1949.28965093548</v>
+        <v>1954.105656253183</v>
       </c>
       <c r="F215" t="n">
-        <v>15.51139116063055</v>
+        <v>15.51962811695819</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>45946.5707388269</v>
+        <v>45658.52453703704</v>
       </c>
       <c r="B216" t="n">
-        <v>6.612434193927964</v>
+        <v>6.774744689645634</v>
       </c>
       <c r="C216" t="n">
-        <v>78.69516168504619</v>
+        <v>78.25326392047813</v>
       </c>
       <c r="D216" t="n">
-        <v>681.3961731296104</v>
+        <v>680.5462198336114</v>
       </c>
       <c r="E216" t="n">
-        <v>1946.509805284656</v>
+        <v>1958.457423486679</v>
       </c>
       <c r="F216" t="n">
-        <v>15.62627381529193</v>
+        <v>15.72932178209396</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>45946.57085456764</v>
+        <v>45658.52465277778</v>
       </c>
       <c r="B217" t="n">
-        <v>6.832718102649647</v>
+        <v>6.878489253009564</v>
       </c>
       <c r="C217" t="n">
-        <v>78.80415288884321</v>
+        <v>77.78571907118314</v>
       </c>
       <c r="D217" t="n">
-        <v>676.5167067037989</v>
+        <v>681.6737318754668</v>
       </c>
       <c r="E217" t="n">
-        <v>1970.341839395635</v>
+        <v>1962.418657187598</v>
       </c>
       <c r="F217" t="n">
-        <v>15.68771814739162</v>
+        <v>15.6281724034275</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>45946.57097030838</v>
+        <v>45658.52476851852</v>
       </c>
       <c r="B218" t="n">
-        <v>6.865024786192499</v>
+        <v>7.057476593251189</v>
       </c>
       <c r="C218" t="n">
-        <v>78.98313582953986</v>
+        <v>78.12644023262581</v>
       </c>
       <c r="D218" t="n">
-        <v>690.6462592629567</v>
+        <v>689.4532096285942</v>
       </c>
       <c r="E218" t="n">
-        <v>1987.175005786527</v>
+        <v>1972.986519934052</v>
       </c>
       <c r="F218" t="n">
-        <v>15.74601044312892</v>
+        <v>15.76033427712182</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>45946.57108604912</v>
+        <v>45658.52488425926</v>
       </c>
       <c r="B219" t="n">
-        <v>7.097784980534214</v>
+        <v>6.8283852840609</v>
       </c>
       <c r="C219" t="n">
-        <v>78.50827137752319</v>
+        <v>78.9606731927867</v>
       </c>
       <c r="D219" t="n">
-        <v>684.0980488216377</v>
+        <v>696.3509889543732</v>
       </c>
       <c r="E219" t="n">
-        <v>1976.645645807122</v>
+        <v>1983.128722444096</v>
       </c>
       <c r="F219" t="n">
-        <v>15.76882421463572</v>
+        <v>15.90065544188887</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>45946.57120178986</v>
+        <v>45658.525</v>
       </c>
       <c r="B220" t="n">
-        <v>6.997958250502564</v>
+        <v>6.925878871708637</v>
       </c>
       <c r="C220" t="n">
-        <v>78.72525621074155</v>
+        <v>79.27260407390854</v>
       </c>
       <c r="D220" t="n">
-        <v>699.3887509392246</v>
+        <v>683.6342748589344</v>
       </c>
       <c r="E220" t="n">
-        <v>1978.104672528621</v>
+        <v>1959.698955906814</v>
       </c>
       <c r="F220" t="n">
-        <v>15.76333700716863</v>
+        <v>15.84393383954982</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>45946.5713175306</v>
+        <v>45658.52511574074</v>
       </c>
       <c r="B221" t="n">
-        <v>7.131200929335297</v>
+        <v>6.966604040386169</v>
       </c>
       <c r="C221" t="n">
-        <v>79.22849383823593</v>
+        <v>79.85061649681845</v>
       </c>
       <c r="D221" t="n">
-        <v>694.7668151079027</v>
+        <v>689.7703201071201</v>
       </c>
       <c r="E221" t="n">
-        <v>1989.899520049369</v>
+        <v>1996.715154334745</v>
       </c>
       <c r="F221" t="n">
-        <v>15.85059180611615</v>
+        <v>15.79884583515544</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>45946.57143327134</v>
+        <v>45658.52523148148</v>
       </c>
       <c r="B222" t="n">
-        <v>7.000846700361555</v>
+        <v>7.015746248632059</v>
       </c>
       <c r="C222" t="n">
-        <v>79.70421615730335</v>
+        <v>79.57397103997066</v>
       </c>
       <c r="D222" t="n">
-        <v>701.1084362382805</v>
+        <v>695.9070646954112</v>
       </c>
       <c r="E222" t="n">
-        <v>2012.134898615737</v>
+        <v>1996.123478303733</v>
       </c>
       <c r="F222" t="n">
-        <v>15.83800812898796</v>
+        <v>15.94355518785695</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>45946.57154901209</v>
+        <v>45658.52534722222</v>
       </c>
       <c r="B223" t="n">
-        <v>6.911575752968688</v>
+        <v>7.061466383595338</v>
       </c>
       <c r="C223" t="n">
-        <v>79.65872126929243</v>
+        <v>79.48924577006282</v>
       </c>
       <c r="D223" t="n">
-        <v>689.58649932483</v>
+        <v>698.4239572025139</v>
       </c>
       <c r="E223" t="n">
-        <v>1986.963391968349</v>
+        <v>1981.380228571145</v>
       </c>
       <c r="F223" t="n">
-        <v>15.99681945193105</v>
+        <v>15.93700301852151</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>45946.57166475282</v>
+        <v>45658.52546296296</v>
       </c>
       <c r="B224" t="n">
-        <v>7.060738396726486</v>
+        <v>7.188259497786708</v>
       </c>
       <c r="C224" t="n">
-        <v>80.24998344683998</v>
+        <v>80.29710842586934</v>
       </c>
       <c r="D224" t="n">
-        <v>702.9170657469067</v>
+        <v>701.3278987824973</v>
       </c>
       <c r="E224" t="n">
-        <v>1997.06800999567</v>
+        <v>2006.158376888814</v>
       </c>
       <c r="F224" t="n">
-        <v>15.94740475874513</v>
+        <v>15.99151435755278</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>45946.57178049356</v>
+        <v>45658.5255787037</v>
       </c>
       <c r="B225" t="n">
-        <v>7.040833385832072</v>
+        <v>6.76797472704672</v>
       </c>
       <c r="C225" t="n">
-        <v>80.05679539336502</v>
+        <v>79.53349534820921</v>
       </c>
       <c r="D225" t="n">
-        <v>692.981782311172</v>
+        <v>699.3514571426601</v>
       </c>
       <c r="E225" t="n">
-        <v>2004.605412266294</v>
+        <v>1996.425765717827</v>
       </c>
       <c r="F225" t="n">
-        <v>15.96172520666421</v>
+        <v>15.97536951953585</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>45946.57189623431</v>
+        <v>45658.52569444444</v>
       </c>
       <c r="B226" t="n">
-        <v>7.080643820784206</v>
+        <v>6.870575312864815</v>
       </c>
       <c r="C226" t="n">
-        <v>79.43677902811885</v>
+        <v>80.3680954958529</v>
       </c>
       <c r="D226" t="n">
-        <v>698.8624891003886</v>
+        <v>706.2966360849092</v>
       </c>
       <c r="E226" t="n">
-        <v>1991.807156360077</v>
+        <v>1987.199805343251</v>
       </c>
       <c r="F226" t="n">
-        <v>16.00215853568566</v>
+        <v>15.97687182564659</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>45946.57201197505</v>
+        <v>45658.52581018519</v>
       </c>
       <c r="B227" t="n">
-        <v>7.120091028047915</v>
+        <v>7.077095564218054</v>
       </c>
       <c r="C227" t="n">
-        <v>78.97767642421258</v>
+        <v>80.10180197642936</v>
       </c>
       <c r="D227" t="n">
-        <v>707.008065054765</v>
+        <v>690.4161088213511</v>
       </c>
       <c r="E227" t="n">
-        <v>1995.538986117579</v>
+        <v>1990.223253561502</v>
       </c>
       <c r="F227" t="n">
-        <v>16.02097132413418</v>
+        <v>16.00855391785267</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>45946.57212771579</v>
+        <v>45658.52592592593</v>
       </c>
       <c r="B228" t="n">
-        <v>7.10755331379526</v>
+        <v>7.027289572720808</v>
       </c>
       <c r="C228" t="n">
-        <v>80.20997854174526</v>
+        <v>79.67241236767182</v>
       </c>
       <c r="D228" t="n">
-        <v>702.9264567636803</v>
+        <v>702.9158609459205</v>
       </c>
       <c r="E228" t="n">
-        <v>1996.238014983599</v>
+        <v>1996.640863176882</v>
       </c>
       <c r="F228" t="n">
-        <v>16.00374974699816</v>
+        <v>16.07389496291749</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>45946.57224345653</v>
+        <v>45658.52604166666</v>
       </c>
       <c r="B229" t="n">
-        <v>7.108349406169415</v>
+        <v>6.873502225787147</v>
       </c>
       <c r="C229" t="n">
-        <v>80.78559408103679</v>
+        <v>79.23524822009698</v>
       </c>
       <c r="D229" t="n">
-        <v>705.8106749670955</v>
+        <v>697.2724134993892</v>
       </c>
       <c r="E229" t="n">
-        <v>2019.119767943489</v>
+        <v>2011.139745902801</v>
       </c>
       <c r="F229" t="n">
-        <v>16.00038123241561</v>
+        <v>16.04455001046031</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>45946.57235919727</v>
+        <v>45658.52615740741</v>
       </c>
       <c r="B230" t="n">
-        <v>6.962220299700341</v>
+        <v>6.869862104366051</v>
       </c>
       <c r="C230" t="n">
-        <v>80.70384841148719</v>
+        <v>79.67895806355894</v>
       </c>
       <c r="D230" t="n">
-        <v>700.5454572619894</v>
+        <v>702.0259773951751</v>
       </c>
       <c r="E230" t="n">
-        <v>1987.781974434202</v>
+        <v>1996.048804001798</v>
       </c>
       <c r="F230" t="n">
-        <v>16.00737685873265</v>
+        <v>15.99214872639414</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>45946.57247493801</v>
+        <v>45658.52627314815</v>
       </c>
       <c r="B231" t="n">
-        <v>6.941936487346841</v>
+        <v>6.84240780914076</v>
       </c>
       <c r="C231" t="n">
-        <v>80.22006098652408</v>
+        <v>79.71791796411401</v>
       </c>
       <c r="D231" t="n">
-        <v>697.339858516602</v>
+        <v>693.0704569902414</v>
       </c>
       <c r="E231" t="n">
-        <v>2002.714865033955</v>
+        <v>1989.300964593138</v>
       </c>
       <c r="F231" t="n">
-        <v>15.93792292672171</v>
+        <v>15.98603485204656</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>45946.57259067875</v>
+        <v>45658.52638888889</v>
       </c>
       <c r="B232" t="n">
-        <v>7.062808890321876</v>
+        <v>6.946134291925876</v>
       </c>
       <c r="C232" t="n">
-        <v>79.43781585956366</v>
+        <v>79.88660392618446</v>
       </c>
       <c r="D232" t="n">
-        <v>703.3836441059821</v>
+        <v>696.8407078808675</v>
       </c>
       <c r="E232" t="n">
-        <v>1980.767239593309</v>
+        <v>1980.935388294636</v>
       </c>
       <c r="F232" t="n">
-        <v>16.00123451411184</v>
+        <v>15.86910603924371</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>45946.57270641949</v>
+        <v>45658.52650462963</v>
       </c>
       <c r="B233" t="n">
-        <v>7.028326683936978</v>
+        <v>6.910985970846914</v>
       </c>
       <c r="C233" t="n">
-        <v>79.47613442737079</v>
+        <v>79.63724904237019</v>
       </c>
       <c r="D233" t="n">
-        <v>692.5272440554764</v>
+        <v>697.7988573778528</v>
       </c>
       <c r="E233" t="n">
-        <v>1988.35364484452</v>
+        <v>1978.398166610722</v>
       </c>
       <c r="F233" t="n">
-        <v>15.99525230727098</v>
+        <v>15.82497794241271</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>45946.57282216023</v>
+        <v>45658.52662037037</v>
       </c>
       <c r="B234" t="n">
-        <v>6.860438423312721</v>
+        <v>6.985973857807618</v>
       </c>
       <c r="C234" t="n">
-        <v>79.90568430052076</v>
+        <v>79.79198177633604</v>
       </c>
       <c r="D234" t="n">
-        <v>694.6103086881703</v>
+        <v>694.3748403709142</v>
       </c>
       <c r="E234" t="n">
-        <v>1988.039656528934</v>
+        <v>1995.597584060434</v>
       </c>
       <c r="F234" t="n">
-        <v>15.91549219951833</v>
+        <v>15.88071575105391</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>45946.57293790097</v>
+        <v>45658.52673611111</v>
       </c>
       <c r="B235" t="n">
-        <v>6.946274669851626</v>
+        <v>6.987544542408967</v>
       </c>
       <c r="C235" t="n">
-        <v>79.25381358896398</v>
+        <v>78.40881124078403</v>
       </c>
       <c r="D235" t="n">
-        <v>691.2805708897396</v>
+        <v>695.8758019490413</v>
       </c>
       <c r="E235" t="n">
-        <v>1978.563187752992</v>
+        <v>1982.935160808307</v>
       </c>
       <c r="F235" t="n">
-        <v>15.95144355268443</v>
+        <v>15.85173246053915</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>45946.57305364171</v>
+        <v>45658.52685185185</v>
       </c>
       <c r="B236" t="n">
-        <v>6.868149911084763</v>
+        <v>6.953412029786088</v>
       </c>
       <c r="C236" t="n">
-        <v>80.0052788313765</v>
+        <v>79.63400186631604</v>
       </c>
       <c r="D236" t="n">
-        <v>684.6996883545427</v>
+        <v>693.4501622284896</v>
       </c>
       <c r="E236" t="n">
-        <v>1977.490430342737</v>
+        <v>1987.740866108744</v>
       </c>
       <c r="F236" t="n">
-        <v>15.82836543490317</v>
+        <v>15.87218573092422</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>45946.57316938246</v>
+        <v>45658.5269675926</v>
       </c>
       <c r="B237" t="n">
-        <v>6.908684536803928</v>
+        <v>6.913873661488525</v>
       </c>
       <c r="C237" t="n">
-        <v>78.79276122397337</v>
+        <v>78.94878761347758</v>
       </c>
       <c r="D237" t="n">
-        <v>693.0676931145117</v>
+        <v>697.9024062545119</v>
       </c>
       <c r="E237" t="n">
-        <v>2001.433883207527</v>
+        <v>1974.255778116113</v>
       </c>
       <c r="F237" t="n">
-        <v>15.78880852394509</v>
+        <v>15.77741339469267</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>45946.5732851232</v>
+        <v>45658.52708333333</v>
       </c>
       <c r="B238" t="n">
-        <v>6.895113536372704</v>
+        <v>6.770829834212715</v>
       </c>
       <c r="C238" t="n">
-        <v>79.06559215151857</v>
+        <v>79.68441299071499</v>
       </c>
       <c r="D238" t="n">
-        <v>690.0486428964612</v>
+        <v>688.5007981240673</v>
       </c>
       <c r="E238" t="n">
-        <v>1968.730677991951</v>
+        <v>1986.046000471803</v>
       </c>
       <c r="F238" t="n">
-        <v>15.84652737001521</v>
+        <v>15.81048707977724</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>45946.57340086393</v>
+        <v>45658.52719907407</v>
       </c>
       <c r="B239" t="n">
-        <v>6.845017326277816</v>
+        <v>6.95757523784955</v>
       </c>
       <c r="C239" t="n">
-        <v>78.58658875969255</v>
+        <v>78.68077343472982</v>
       </c>
       <c r="D239" t="n">
-        <v>674.6542476490475</v>
+        <v>696.9976842166939</v>
       </c>
       <c r="E239" t="n">
-        <v>1981.252288574056</v>
+        <v>1962.072647514512</v>
       </c>
       <c r="F239" t="n">
-        <v>15.74271763564341</v>
+        <v>15.76067183511744</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>45946.57351660467</v>
+        <v>45658.52731481481</v>
       </c>
       <c r="B240" t="n">
-        <v>6.819442624615625</v>
+        <v>6.912501410342146</v>
       </c>
       <c r="C240" t="n">
-        <v>77.68766427060282</v>
+        <v>77.22954802299483</v>
       </c>
       <c r="D240" t="n">
-        <v>679.9854424642887</v>
+        <v>681.0255679824583</v>
       </c>
       <c r="E240" t="n">
-        <v>1940.476225811721</v>
+        <v>1952.524184349259</v>
       </c>
       <c r="F240" t="n">
-        <v>15.64370320094226</v>
+        <v>15.62556352773094</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>45946.57363234542</v>
+        <v>45658.52743055556</v>
       </c>
       <c r="B241" t="n">
-        <v>6.774416112559136</v>
+        <v>6.699913420795959</v>
       </c>
       <c r="C241" t="n">
-        <v>77.24293939431479</v>
+        <v>77.86315089178119</v>
       </c>
       <c r="D241" t="n">
-        <v>685.24515913041</v>
+        <v>675.0219306154127</v>
       </c>
       <c r="E241" t="n">
-        <v>1960.175340481069</v>
+        <v>1951.748799366725</v>
       </c>
       <c r="F241" t="n">
-        <v>15.54742642190094</v>
+        <v>15.71042309404921</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>45946.57374808616</v>
+        <v>45658.5275462963</v>
       </c>
       <c r="B242" t="n">
-        <v>6.824222158402923</v>
+        <v>6.824230838971704</v>
       </c>
       <c r="C242" t="n">
-        <v>77.80403024777172</v>
+        <v>77.88691143170392</v>
       </c>
       <c r="D242" t="n">
-        <v>685.2905974826726</v>
+        <v>674.9512065546523</v>
       </c>
       <c r="E242" t="n">
-        <v>1946.629842592268</v>
+        <v>1940.584322254648</v>
       </c>
       <c r="F242" t="n">
-        <v>15.47868068245053</v>
+        <v>15.43040970679595</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>45946.5738638269</v>
+        <v>45658.52766203704</v>
       </c>
       <c r="B243" t="n">
-        <v>6.695430830248101</v>
+        <v>6.59201094974405</v>
       </c>
       <c r="C243" t="n">
-        <v>77.23434445875171</v>
+        <v>77.30859930012677</v>
       </c>
       <c r="D243" t="n">
-        <v>677.1280860497191</v>
+        <v>673.7883052176679</v>
       </c>
       <c r="E243" t="n">
-        <v>1931.515155769705</v>
+        <v>1947.327512861766</v>
       </c>
       <c r="F243" t="n">
-        <v>15.4672424754897</v>
+        <v>15.48171217381565</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>45946.57397956764</v>
+        <v>45658.52777777778</v>
       </c>
       <c r="B244" t="n">
-        <v>6.994674510648113</v>
+        <v>6.675898682108648</v>
       </c>
       <c r="C244" t="n">
-        <v>77.15949471606982</v>
+        <v>77.25354965656885</v>
       </c>
       <c r="D244" t="n">
-        <v>669.4106653755351</v>
+        <v>674.1033807016072</v>
       </c>
       <c r="E244" t="n">
-        <v>1948.420306972623</v>
+        <v>1924.408832083572</v>
       </c>
       <c r="F244" t="n">
-        <v>15.47140980228696</v>
+        <v>15.41067569341378</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>45946.57409530838</v>
+        <v>45658.52789351852</v>
       </c>
       <c r="B245" t="n">
-        <v>6.522276476769701</v>
+        <v>6.627945520116126</v>
       </c>
       <c r="C245" t="n">
-        <v>76.61652722707629</v>
+        <v>76.70505901731605</v>
       </c>
       <c r="D245" t="n">
-        <v>656.8194973057662</v>
+        <v>665.9677363781975</v>
       </c>
       <c r="E245" t="n">
-        <v>1908.654484295074</v>
+        <v>1937.749186758575</v>
       </c>
       <c r="F245" t="n">
-        <v>15.30955131693304</v>
+        <v>15.34361495886826</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>45946.57421104912</v>
+        <v>45658.52800925926</v>
       </c>
       <c r="B246" t="n">
-        <v>6.779023017097167</v>
+        <v>6.637265020532949</v>
       </c>
       <c r="C246" t="n">
-        <v>76.49675965860361</v>
+        <v>76.48979827634804</v>
       </c>
       <c r="D246" t="n">
-        <v>656.2122352521357</v>
+        <v>658.4224096557185</v>
       </c>
       <c r="E246" t="n">
-        <v>1907.795401690273</v>
+        <v>1911.883945119489</v>
       </c>
       <c r="F246" t="n">
-        <v>15.28861015482456</v>
+        <v>15.21838082043499</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>45946.57432678986</v>
+        <v>45658.528125</v>
       </c>
       <c r="B247" t="n">
-        <v>6.589160779933839</v>
+        <v>6.715877109527058</v>
       </c>
       <c r="C247" t="n">
-        <v>76.35433234491602</v>
+        <v>76.66789998270811</v>
       </c>
       <c r="D247" t="n">
-        <v>660.0854647438882</v>
+        <v>653.9633936127035</v>
       </c>
       <c r="E247" t="n">
-        <v>1901.253651713622</v>
+        <v>1884.172100915348</v>
       </c>
       <c r="F247" t="n">
-        <v>15.18601941172079</v>
+        <v>15.15744290746416</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>45946.5744425306</v>
+        <v>45658.52824074074</v>
       </c>
       <c r="B248" t="n">
-        <v>6.351485615309387</v>
+        <v>6.542176834647473</v>
       </c>
       <c r="C248" t="n">
-        <v>75.11454471235773</v>
+        <v>75.65691150836564</v>
       </c>
       <c r="D248" t="n">
-        <v>658.2835741540595</v>
+        <v>651.6248780556186</v>
       </c>
       <c r="E248" t="n">
-        <v>1887.148095471448</v>
+        <v>1899.202533456141</v>
       </c>
       <c r="F248" t="n">
-        <v>15.09228626311151</v>
+        <v>15.06257235626323</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>45946.57455827134</v>
+        <v>45658.52835648148</v>
       </c>
       <c r="B249" t="n">
-        <v>6.480834328029793</v>
+        <v>6.608618343324727</v>
       </c>
       <c r="C249" t="n">
-        <v>74.94978037590535</v>
+        <v>74.69830476218411</v>
       </c>
       <c r="D249" t="n">
-        <v>651.3378714636373</v>
+        <v>655.8939281675918</v>
       </c>
       <c r="E249" t="n">
-        <v>1859.475326337764</v>
+        <v>1885.583705734507</v>
       </c>
       <c r="F249" t="n">
-        <v>14.96923974723639</v>
+        <v>14.9669699999215</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>45946.57467401208</v>
+        <v>45658.52847222222</v>
       </c>
       <c r="B250" t="n">
-        <v>6.363222249012381</v>
+        <v>6.356666619179523</v>
       </c>
       <c r="C250" t="n">
-        <v>74.88861195507195</v>
+        <v>74.12604753914802</v>
       </c>
       <c r="D250" t="n">
-        <v>633.3341027249414</v>
+        <v>651.5962654079865</v>
       </c>
       <c r="E250" t="n">
-        <v>1855.872079613379</v>
+        <v>1858.297177401337</v>
       </c>
       <c r="F250" t="n">
-        <v>14.89699846864119</v>
+        <v>14.86215352744768</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>45946.57478975283</v>
+        <v>45658.52858796297</v>
       </c>
       <c r="B251" t="n">
-        <v>6.361949075364357</v>
+        <v>6.270302810484499</v>
       </c>
       <c r="C251" t="n">
-        <v>74.00320836977404</v>
+        <v>74.25569243645707</v>
       </c>
       <c r="D251" t="n">
-        <v>645.7753829669101</v>
+        <v>635.6520898712887</v>
       </c>
       <c r="E251" t="n">
-        <v>1862.000287033602</v>
+        <v>1838.800034916134</v>
       </c>
       <c r="F251" t="n">
-        <v>14.76487156900587</v>
+        <v>14.78682631834972</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>45946.57490549357</v>
+        <v>45658.52870370371</v>
       </c>
       <c r="B252" t="n">
-        <v>6.288113846071655</v>
+        <v>6.43193525927414</v>
       </c>
       <c r="C252" t="n">
-        <v>72.76794653508526</v>
+        <v>73.91749844508915</v>
       </c>
       <c r="D252" t="n">
-        <v>627.3904750343614</v>
+        <v>642.1596904823912</v>
       </c>
       <c r="E252" t="n">
-        <v>1846.583821970363</v>
+        <v>1834.999958330334</v>
       </c>
       <c r="F252" t="n">
-        <v>14.67865508081341</v>
+        <v>14.6735476184851</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>45946.5750212343</v>
+        <v>45658.52881944444</v>
       </c>
       <c r="B253" t="n">
-        <v>6.325171682912412</v>
+        <v>6.27456486963642</v>
       </c>
       <c r="C253" t="n">
-        <v>73.23354662149957</v>
+        <v>72.59611921000911</v>
       </c>
       <c r="D253" t="n">
-        <v>637.9938948453641</v>
+        <v>626.14984111615</v>
       </c>
       <c r="E253" t="n">
-        <v>1820.22941376417</v>
+        <v>1814.66774107835</v>
       </c>
       <c r="F253" t="n">
-        <v>14.58096602701124</v>
+        <v>14.56131815733905</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>45946.57513697504</v>
+        <v>45658.52893518518</v>
       </c>
       <c r="B254" t="n">
-        <v>6.065274143123157</v>
+        <v>6.229847300414891</v>
       </c>
       <c r="C254" t="n">
-        <v>71.82384164984317</v>
+        <v>72.42334687520267</v>
       </c>
       <c r="D254" t="n">
-        <v>630.700637601656</v>
+        <v>629.8270894697874</v>
       </c>
       <c r="E254" t="n">
-        <v>1807.133967454537</v>
+        <v>1819.823297771245</v>
       </c>
       <c r="F254" t="n">
-        <v>14.40311148162519</v>
+        <v>14.4500063348516</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>45946.57525271579</v>
+        <v>45658.52905092593</v>
       </c>
       <c r="B255" t="n">
-        <v>6.003277266744492</v>
+        <v>6.167980481911807</v>
       </c>
       <c r="C255" t="n">
-        <v>71.70225615027132</v>
+        <v>71.72420143184328</v>
       </c>
       <c r="D255" t="n">
-        <v>624.2063652781836</v>
+        <v>632.4144467227397</v>
       </c>
       <c r="E255" t="n">
-        <v>1809.036013940947</v>
+        <v>1795.04608780209</v>
       </c>
       <c r="F255" t="n">
-        <v>14.42746627018139</v>
+        <v>14.38905176969848</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>45946.57536845653</v>
+        <v>45658.52916666667</v>
       </c>
       <c r="B256" t="n">
-        <v>6.11944430887013</v>
+        <v>6.068285208313792</v>
       </c>
       <c r="C256" t="n">
-        <v>71.79204677543999</v>
+        <v>71.28619259568481</v>
       </c>
       <c r="D256" t="n">
-        <v>607.1199096397025</v>
+        <v>613.4634266358815</v>
       </c>
       <c r="E256" t="n">
-        <v>1786.819549916307</v>
+        <v>1772.477902663279</v>
       </c>
       <c r="F256" t="n">
-        <v>14.35802916839984</v>
+        <v>14.24996490244312</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>45946.57548419727</v>
+        <v>45658.52928240741</v>
       </c>
       <c r="B257" t="n">
-        <v>6.186933064567435</v>
+        <v>6.132665308376864</v>
       </c>
       <c r="C257" t="n">
-        <v>70.93633192027981</v>
+        <v>70.93075125350325</v>
       </c>
       <c r="D257" t="n">
-        <v>606.1432622314148</v>
+        <v>608.9473877535062</v>
       </c>
       <c r="E257" t="n">
-        <v>1779.071886083512</v>
+        <v>1754.861046177775</v>
       </c>
       <c r="F257" t="n">
-        <v>14.12553712130778</v>
+        <v>14.07669431989548</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>45946.57559993801</v>
+        <v>45658.52939814814</v>
       </c>
       <c r="B258" t="n">
-        <v>6.190306214034528</v>
+        <v>5.837916245467824</v>
       </c>
       <c r="C258" t="n">
-        <v>69.40445247498991</v>
+        <v>70.82277327339334</v>
       </c>
       <c r="D258" t="n">
-        <v>597.1179442254247</v>
+        <v>606.5540746327976</v>
       </c>
       <c r="E258" t="n">
-        <v>1772.957406977862</v>
+        <v>1762.200059348648</v>
       </c>
       <c r="F258" t="n">
-        <v>14.09899706877076</v>
+        <v>13.99868838320664</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>45946.57571567875</v>
+        <v>45658.52951388889</v>
       </c>
       <c r="B259" t="n">
-        <v>6.008655027011242</v>
+        <v>5.921289370960524</v>
       </c>
       <c r="C259" t="n">
-        <v>69.02956608997073</v>
+        <v>69.32541107165272</v>
       </c>
       <c r="D259" t="n">
-        <v>591.0720049093673</v>
+        <v>601.8467479847133</v>
       </c>
       <c r="E259" t="n">
-        <v>1734.997011918022</v>
+        <v>1749.118395730321</v>
       </c>
       <c r="F259" t="n">
-        <v>14.02630732868616</v>
+        <v>13.84322211511992</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>45946.57583141949</v>
+        <v>45658.52962962963</v>
       </c>
       <c r="B260" t="n">
-        <v>6.017285806494919</v>
+        <v>6.021868617443891</v>
       </c>
       <c r="C260" t="n">
-        <v>68.4747241579053</v>
+        <v>69.137178700728</v>
       </c>
       <c r="D260" t="n">
-        <v>587.0015865120628</v>
+        <v>598.1794798924527</v>
       </c>
       <c r="E260" t="n">
-        <v>1724.57973781302</v>
+        <v>1715.498467777613</v>
       </c>
       <c r="F260" t="n">
-        <v>13.75111420869133</v>
+        <v>13.80969055291293</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>45946.57594716023</v>
+        <v>45658.52974537037</v>
       </c>
       <c r="B261" t="n">
-        <v>5.830130961207383</v>
+        <v>5.945703842378013</v>
       </c>
       <c r="C261" t="n">
-        <v>68.18711865355472</v>
+        <v>68.73597162738558</v>
       </c>
       <c r="D261" t="n">
-        <v>584.6363657052574</v>
+        <v>589.7058416641723</v>
       </c>
       <c r="E261" t="n">
-        <v>1702.719988999149</v>
+        <v>1700.452711091094</v>
       </c>
       <c r="F261" t="n">
-        <v>13.61713871176046</v>
+        <v>13.72901784618864</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>45946.57606290097</v>
+        <v>45658.52986111111</v>
       </c>
       <c r="B262" t="n">
-        <v>5.883794807544444</v>
+        <v>5.820613400629079</v>
       </c>
       <c r="C262" t="n">
-        <v>67.35021914451605</v>
+        <v>67.68986861508283</v>
       </c>
       <c r="D262" t="n">
-        <v>576.0160271829602</v>
+        <v>573.9714305036985</v>
       </c>
       <c r="E262" t="n">
-        <v>1689.358497884057</v>
+        <v>1713.144604151155</v>
       </c>
       <c r="F262" t="n">
-        <v>13.57635973143455</v>
+        <v>13.52504152049102</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>45946.57617864171</v>
+        <v>45658.52997685185</v>
       </c>
       <c r="B263" t="n">
-        <v>5.807466416855829</v>
+        <v>5.660605123053104</v>
       </c>
       <c r="C263" t="n">
-        <v>67.61394280068581</v>
+        <v>67.12088092741521</v>
       </c>
       <c r="D263" t="n">
-        <v>577.0985491084551</v>
+        <v>573.0269844810707</v>
       </c>
       <c r="E263" t="n">
-        <v>1670.864917563384</v>
+        <v>1684.601380042225</v>
       </c>
       <c r="F263" t="n">
-        <v>13.46265320251366</v>
+        <v>13.42871816809816</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>45946.57629438245</v>
+        <v>45658.53009259259</v>
       </c>
       <c r="B264" t="n">
-        <v>5.580412019511484</v>
+        <v>5.583889244661238</v>
       </c>
       <c r="C264" t="n">
-        <v>66.26401877556712</v>
+        <v>67.07195798835063</v>
       </c>
       <c r="D264" t="n">
-        <v>559.5805915160419</v>
+        <v>562.4934289146955</v>
       </c>
       <c r="E264" t="n">
-        <v>1656.395136303111</v>
+        <v>1671.452560405442</v>
       </c>
       <c r="F264" t="n">
-        <v>13.3280522083722</v>
+        <v>13.25359663742841</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>45946.5764101232</v>
+        <v>45658.53020833333</v>
       </c>
       <c r="B265" t="n">
-        <v>5.562942250690809</v>
+        <v>5.555068926724728</v>
       </c>
       <c r="C265" t="n">
-        <v>65.99955846662252</v>
+        <v>66.02211440059251</v>
       </c>
       <c r="D265" t="n">
-        <v>567.8127575998125</v>
+        <v>559.5683569117297</v>
       </c>
       <c r="E265" t="n">
-        <v>1651.057083114318</v>
+        <v>1648.732509597429</v>
       </c>
       <c r="F265" t="n">
-        <v>13.14127718311581</v>
+        <v>13.17610619075584</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>45946.57652586394</v>
+        <v>45658.53032407408</v>
       </c>
       <c r="B266" t="n">
-        <v>5.632535292748149</v>
+        <v>5.405969561106678</v>
       </c>
       <c r="C266" t="n">
-        <v>64.83233140608742</v>
+        <v>64.39572515283825</v>
       </c>
       <c r="D266" t="n">
-        <v>558.8300418576789</v>
+        <v>546.7216390742242</v>
       </c>
       <c r="E266" t="n">
-        <v>1632.0794168615</v>
+        <v>1630.201599452582</v>
       </c>
       <c r="F266" t="n">
-        <v>12.97755299248877</v>
+        <v>12.96399842038323</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>45946.57664160468</v>
+        <v>45658.53043981481</v>
       </c>
       <c r="B267" t="n">
-        <v>5.557351337809155</v>
+        <v>5.527970924903025</v>
       </c>
       <c r="C267" t="n">
-        <v>63.62007798236885</v>
+        <v>63.84041021859084</v>
       </c>
       <c r="D267" t="n">
-        <v>542.9994825180748</v>
+        <v>546.6714791102737</v>
       </c>
       <c r="E267" t="n">
-        <v>1589.666200259094</v>
+        <v>1605.371983256304</v>
       </c>
       <c r="F267" t="n">
-        <v>12.82683279804304</v>
+        <v>12.94079519573718</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>45946.57675734541</v>
+        <v>45658.53055555555</v>
       </c>
       <c r="B268" t="n">
-        <v>5.502557599721769</v>
+        <v>5.362962900939479</v>
       </c>
       <c r="C268" t="n">
-        <v>62.7139628410082</v>
+        <v>63.57429745549922</v>
       </c>
       <c r="D268" t="n">
-        <v>541.4881989853685</v>
+        <v>533.1735315519725</v>
       </c>
       <c r="E268" t="n">
-        <v>1586.155660256611</v>
+        <v>1594.823960508766</v>
       </c>
       <c r="F268" t="n">
-        <v>12.79056990497473</v>
+        <v>12.79552974475605</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>45946.57687308616</v>
+        <v>45658.5306712963</v>
       </c>
       <c r="B269" t="n">
-        <v>5.340569413533947</v>
+        <v>5.498028047443268</v>
       </c>
       <c r="C269" t="n">
-        <v>63.37352166082684</v>
+        <v>63.46460688067766</v>
       </c>
       <c r="D269" t="n">
-        <v>522.5352927772328</v>
+        <v>532.6894354308156</v>
       </c>
       <c r="E269" t="n">
-        <v>1568.238384225938</v>
+        <v>1572.401422324772</v>
       </c>
       <c r="F269" t="n">
-        <v>12.60372421355673</v>
+        <v>12.69354283823093</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>45946.5769888269</v>
+        <v>45658.53078703704</v>
       </c>
       <c r="B270" t="n">
-        <v>5.382724763686435</v>
+        <v>5.190899497761227</v>
       </c>
       <c r="C270" t="n">
-        <v>61.88704396525406</v>
+        <v>62.67443946563055</v>
       </c>
       <c r="D270" t="n">
-        <v>513.9347985038105</v>
+        <v>530.4436239375922</v>
       </c>
       <c r="E270" t="n">
-        <v>1553.656139077659</v>
+        <v>1563.291155381662</v>
       </c>
       <c r="F270" t="n">
-        <v>12.57233288414114</v>
+        <v>12.43954583765018</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>45946.57710456764</v>
+        <v>45658.53090277778</v>
       </c>
       <c r="B271" t="n">
-        <v>5.175656891121066</v>
+        <v>5.187586639637788</v>
       </c>
       <c r="C271" t="n">
-        <v>61.99338560380058</v>
+        <v>61.08351336636188</v>
       </c>
       <c r="D271" t="n">
-        <v>521.8878042130647</v>
+        <v>517.0221768561984</v>
       </c>
       <c r="E271" t="n">
-        <v>1549.610822131279</v>
+        <v>1541.122231572891</v>
       </c>
       <c r="F271" t="n">
-        <v>12.34348942072347</v>
+        <v>12.27033373204468</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>45946.57722030838</v>
+        <v>45658.53101851852</v>
       </c>
       <c r="B272" t="n">
-        <v>5.173761946626874</v>
+        <v>5.174088925137926</v>
       </c>
       <c r="C272" t="n">
-        <v>60.50088130291671</v>
+        <v>60.05522338676962</v>
       </c>
       <c r="D272" t="n">
-        <v>509.2106182294073</v>
+        <v>507.1574856874897</v>
       </c>
       <c r="E272" t="n">
-        <v>1523.435942522122</v>
+        <v>1520.344986737593</v>
       </c>
       <c r="F272" t="n">
-        <v>12.28716489688103</v>
+        <v>12.16071272935991</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>45946.57733604912</v>
+        <v>45658.53113425926</v>
       </c>
       <c r="B273" t="n">
-        <v>4.988540944391151</v>
+        <v>4.981846468402234</v>
       </c>
       <c r="C273" t="n">
-        <v>59.73454794560631</v>
+        <v>60.84964410003354</v>
       </c>
       <c r="D273" t="n">
-        <v>500.0866246843798</v>
+        <v>504.0634221713515</v>
       </c>
       <c r="E273" t="n">
-        <v>1504.567993133504</v>
+        <v>1515.289691797418</v>
       </c>
       <c r="F273" t="n">
-        <v>12.01514803530227</v>
+        <v>12.00856831373541</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>45946.57745178986</v>
+        <v>45658.53125</v>
       </c>
       <c r="B274" t="n">
-        <v>4.838177670733805</v>
+        <v>5.045391502930889</v>
       </c>
       <c r="C274" t="n">
-        <v>58.52445627901751</v>
+        <v>60.04943000565893</v>
       </c>
       <c r="D274" t="n">
-        <v>497.9740357317485</v>
+        <v>492.0898592483892</v>
       </c>
       <c r="E274" t="n">
-        <v>1492.470251454255</v>
+        <v>1496.621536968424</v>
       </c>
       <c r="F274" t="n">
-        <v>11.97295897401282</v>
+        <v>11.85920274100338</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>45946.5775675306</v>
+        <v>45658.53136574074</v>
       </c>
       <c r="B275" t="n">
-        <v>4.861003197112211</v>
+        <v>4.785437771802699</v>
       </c>
       <c r="C275" t="n">
-        <v>58.91825746044709</v>
+        <v>59.78921100419453</v>
       </c>
       <c r="D275" t="n">
-        <v>491.3847474809515</v>
+        <v>479.7643351407496</v>
       </c>
       <c r="E275" t="n">
-        <v>1457.479714378524</v>
+        <v>1468.981060416356</v>
       </c>
       <c r="F275" t="n">
-        <v>11.70288823055968</v>
+        <v>11.76464913932456</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>45946.57768327135</v>
+        <v>45658.53148148148</v>
       </c>
       <c r="B276" t="n">
-        <v>4.79611936685815</v>
+        <v>4.882021151248461</v>
       </c>
       <c r="C276" t="n">
-        <v>57.72605899848963</v>
+        <v>58.75355065925205</v>
       </c>
       <c r="D276" t="n">
-        <v>484.3398947471009</v>
+        <v>490.1724382123328</v>
       </c>
       <c r="E276" t="n">
-        <v>1465.321460714752</v>
+        <v>1442.551552392157</v>
       </c>
       <c r="F276" t="n">
-        <v>11.5997794553447</v>
+        <v>11.58108858184292</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>45946.57779901208</v>
+        <v>45658.53159722222</v>
       </c>
       <c r="B277" t="n">
-        <v>4.726007876370782</v>
+        <v>4.823350771692875</v>
       </c>
       <c r="C277" t="n">
-        <v>56.76543153332362</v>
+        <v>57.00849570824523</v>
       </c>
       <c r="D277" t="n">
-        <v>469.0256373397826</v>
+        <v>476.1260681866167</v>
       </c>
       <c r="E277" t="n">
-        <v>1441.834244470616</v>
+        <v>1443.459370183077</v>
       </c>
       <c r="F277" t="n">
-        <v>11.54822577105178</v>
+        <v>11.49279824040696</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>45946.57791475282</v>
+        <v>45658.53171296296</v>
       </c>
       <c r="B278" t="n">
-        <v>4.601975998078806</v>
+        <v>4.599071147025816</v>
       </c>
       <c r="C278" t="n">
-        <v>56.79488865531862</v>
+        <v>57.08751234997744</v>
       </c>
       <c r="D278" t="n">
-        <v>465.7300555578858</v>
+        <v>474.3695476196148</v>
       </c>
       <c r="E278" t="n">
-        <v>1408.308624817712</v>
+        <v>1410.635298401643</v>
       </c>
       <c r="F278" t="n">
-        <v>11.42713512951087</v>
+        <v>11.36990639838082</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>45946.57803049356</v>
+        <v>45658.5318287037</v>
       </c>
       <c r="B279" t="n">
-        <v>4.667453529592235</v>
+        <v>4.633953908287317</v>
       </c>
       <c r="C279" t="n">
-        <v>55.52401239946703</v>
+        <v>55.94623151089775</v>
       </c>
       <c r="D279" t="n">
-        <v>454.9255412345018</v>
+        <v>467.2623344808417</v>
       </c>
       <c r="E279" t="n">
-        <v>1383.750046180756</v>
+        <v>1394.775816798531</v>
       </c>
       <c r="F279" t="n">
-        <v>11.10529191500527</v>
+        <v>11.16392205949276</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>45946.57814623431</v>
+        <v>45658.53194444445</v>
       </c>
       <c r="B280" t="n">
-        <v>4.58963685347355</v>
+        <v>4.422190592252845</v>
       </c>
       <c r="C280" t="n">
-        <v>55.16977713649909</v>
+        <v>55.13073441915374</v>
       </c>
       <c r="D280" t="n">
-        <v>454.4687692315415</v>
+        <v>450.4920178820643</v>
       </c>
       <c r="E280" t="n">
-        <v>1372.823404267147</v>
+        <v>1387.886792034292</v>
       </c>
       <c r="F280" t="n">
-        <v>11.11640772611112</v>
+        <v>11.04537514474363</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>45946.57826197505</v>
+        <v>45658.53206018519</v>
       </c>
       <c r="B281" t="n">
-        <v>4.311694531609818</v>
+        <v>4.544244464413046</v>
       </c>
       <c r="C281" t="n">
-        <v>55.00448947926719</v>
+        <v>53.91829900628808</v>
       </c>
       <c r="D281" t="n">
-        <v>443.1826490317034</v>
+        <v>442.031718870109</v>
       </c>
       <c r="E281" t="n">
-        <v>1354.011222999694</v>
+        <v>1379.172098152252</v>
       </c>
       <c r="F281" t="n">
-        <v>10.88291278412082</v>
+        <v>10.89232596108624</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>45946.57837771578</v>
+        <v>45658.53217592592</v>
       </c>
       <c r="B282" t="n">
-        <v>4.504166152662338</v>
+        <v>4.446992592905123</v>
       </c>
       <c r="C282" t="n">
-        <v>54.01773800359416</v>
+        <v>54.25740857531981</v>
       </c>
       <c r="D282" t="n">
-        <v>438.1867914590715</v>
+        <v>438.5527816208722</v>
       </c>
       <c r="E282" t="n">
-        <v>1351.02397802464</v>
+        <v>1351.61244012004</v>
       </c>
       <c r="F282" t="n">
-        <v>10.81321913562616</v>
+        <v>10.85894626787416</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>45946.57849345653</v>
+        <v>45658.53229166667</v>
       </c>
       <c r="B283" t="n">
-        <v>4.297817331180966</v>
+        <v>4.336436224573442</v>
       </c>
       <c r="C283" t="n">
-        <v>52.44545368296688</v>
+        <v>53.86862007540083</v>
       </c>
       <c r="D283" t="n">
-        <v>437.6589255065775</v>
+        <v>434.5120082854034</v>
       </c>
       <c r="E283" t="n">
-        <v>1327.738052738463</v>
+        <v>1312.931948224392</v>
       </c>
       <c r="F283" t="n">
-        <v>10.58976854265109</v>
+        <v>10.67560220378986</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>45946.57860919727</v>
+        <v>45658.53240740741</v>
       </c>
       <c r="B284" t="n">
-        <v>4.239552864672647</v>
+        <v>4.419678247743732</v>
       </c>
       <c r="C284" t="n">
-        <v>52.21626046122518</v>
+        <v>52.15949943290214</v>
       </c>
       <c r="D284" t="n">
-        <v>426.3449781279179</v>
+        <v>427.0974656101498</v>
       </c>
       <c r="E284" t="n">
-        <v>1299.46775126873</v>
+        <v>1311.615628919644</v>
       </c>
       <c r="F284" t="n">
-        <v>10.56336554626534</v>
+        <v>10.45985539502042</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>45946.57872493801</v>
+        <v>45658.53252314815</v>
       </c>
       <c r="B285" t="n">
-        <v>4.220979800172041</v>
+        <v>4.23282569039652</v>
       </c>
       <c r="C285" t="n">
-        <v>51.51471272091488</v>
+        <v>51.52472723250892</v>
       </c>
       <c r="D285" t="n">
-        <v>426.1155432825917</v>
+        <v>429.4610819625831</v>
       </c>
       <c r="E285" t="n">
-        <v>1301.81959952812</v>
+        <v>1300.253307429826</v>
       </c>
       <c r="F285" t="n">
-        <v>10.40866164183595</v>
+        <v>10.46971956749829</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>45946.57884067875</v>
+        <v>45658.53263888889</v>
       </c>
       <c r="B286" t="n">
-        <v>4.060849551675896</v>
+        <v>4.153595523520254</v>
       </c>
       <c r="C286" t="n">
-        <v>51.36662659144126</v>
+        <v>52.16270199008697</v>
       </c>
       <c r="D286" t="n">
-        <v>408.6893910258277</v>
+        <v>415.1094301471522</v>
       </c>
       <c r="E286" t="n">
-        <v>1285.609899620692</v>
+        <v>1292.108026015489</v>
       </c>
       <c r="F286" t="n">
-        <v>10.26251647752615</v>
+        <v>10.25958263423338</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>45946.57895641949</v>
+        <v>45658.53275462963</v>
       </c>
       <c r="B287" t="n">
-        <v>4.040784587940189</v>
+        <v>4.162541603702928</v>
       </c>
       <c r="C287" t="n">
-        <v>50.93610361920437</v>
+        <v>50.68151794506429</v>
       </c>
       <c r="D287" t="n">
-        <v>411.8186743673591</v>
+        <v>400.4416996361506</v>
       </c>
       <c r="E287" t="n">
-        <v>1277.272394045441</v>
+        <v>1274.313022108445</v>
       </c>
       <c r="F287" t="n">
-        <v>10.21946862572761</v>
+        <v>10.21331822233542</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>45946.57907216023</v>
+        <v>45658.53287037037</v>
       </c>
       <c r="B288" t="n">
-        <v>3.997721376106205</v>
+        <v>4.047479028606043</v>
       </c>
       <c r="C288" t="n">
-        <v>49.54615581329043</v>
+        <v>49.26528367623098</v>
       </c>
       <c r="D288" t="n">
-        <v>405.0601101607211</v>
+        <v>402.6837217865992</v>
       </c>
       <c r="E288" t="n">
-        <v>1247.091112978317</v>
+        <v>1253.07995080219</v>
       </c>
       <c r="F288" t="n">
-        <v>9.995478947979324</v>
+        <v>9.979951672503843</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>45946.57918790097</v>
+        <v>45658.53298611111</v>
       </c>
       <c r="B289" t="n">
-        <v>4.048436175885384</v>
+        <v>4.089002721630599</v>
       </c>
       <c r="C289" t="n">
-        <v>49.93560636283454</v>
+        <v>48.5931314292174</v>
       </c>
       <c r="D289" t="n">
-        <v>392.0288001095491</v>
+        <v>393.3863187569565</v>
       </c>
       <c r="E289" t="n">
-        <v>1256.862904305638</v>
+        <v>1243.245312631044</v>
       </c>
       <c r="F289" t="n">
-        <v>9.846973806278696</v>
+        <v>9.934864013631977</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>45946.57930364172</v>
+        <v>45658.53310185186</v>
       </c>
       <c r="B290" t="n">
-        <v>3.821677096915359</v>
+        <v>4.049846937334081</v>
       </c>
       <c r="C290" t="n">
-        <v>48.7265447423978</v>
+        <v>48.91757943264712</v>
       </c>
       <c r="D290" t="n">
-        <v>386.9314979574467</v>
+        <v>385.905472099721</v>
       </c>
       <c r="E290" t="n">
-        <v>1217.710545853882</v>
+        <v>1218.12548676094</v>
       </c>
       <c r="F290" t="n">
-        <v>9.804281600001939</v>
+        <v>9.797596316241394</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>45946.57941938245</v>
+        <v>45658.53321759259</v>
       </c>
       <c r="B291" t="n">
-        <v>3.849193349662017</v>
+        <v>4.020772936893479</v>
       </c>
       <c r="C291" t="n">
-        <v>48.42145882828442</v>
+        <v>49.10686037253029</v>
       </c>
       <c r="D291" t="n">
-        <v>383.2086987218843</v>
+        <v>376.6894879616406</v>
       </c>
       <c r="E291" t="n">
-        <v>1199.710639631459</v>
+        <v>1211.191394701032</v>
       </c>
       <c r="F291" t="n">
-        <v>9.706888082401017</v>
+        <v>9.634525595867251</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>45946.57953512319</v>
+        <v>45658.53333333333</v>
       </c>
       <c r="B292" t="n">
-        <v>3.637585240699809</v>
+        <v>3.754710213222706</v>
       </c>
       <c r="C292" t="n">
-        <v>47.25235667206888</v>
+        <v>47.63652421586157</v>
       </c>
       <c r="D292" t="n">
-        <v>373.9644140280258</v>
+        <v>377.9143343378456</v>
       </c>
       <c r="E292" t="n">
-        <v>1214.130449672307</v>
+        <v>1205.38212307169</v>
       </c>
       <c r="F292" t="n">
-        <v>9.498776687801092</v>
+        <v>9.590947030966245</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>45946.57965086393</v>
+        <v>45658.53344907407</v>
       </c>
       <c r="B293" t="n">
-        <v>3.724492936474765</v>
+        <v>3.639061699976157</v>
       </c>
       <c r="C293" t="n">
-        <v>47.53019082687152</v>
+        <v>47.53847182917697</v>
       </c>
       <c r="D293" t="n">
-        <v>371.3277131224722</v>
+        <v>374.1807037089574</v>
       </c>
       <c r="E293" t="n">
-        <v>1172.351010032305</v>
+        <v>1195.999011406202</v>
       </c>
       <c r="F293" t="n">
-        <v>9.38300504302947</v>
+        <v>9.510783986810354</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>45946.57976660468</v>
+        <v>45658.53356481482</v>
       </c>
       <c r="B294" t="n">
-        <v>3.529870454364772</v>
+        <v>3.479421733281189</v>
       </c>
       <c r="C294" t="n">
-        <v>46.5902432953049</v>
+        <v>47.35730394314496</v>
       </c>
       <c r="D294" t="n">
-        <v>363.4197243655922</v>
+        <v>377.9710986279484</v>
       </c>
       <c r="E294" t="n">
-        <v>1167.964544547743</v>
+        <v>1151.515070926072</v>
       </c>
       <c r="F294" t="n">
-        <v>9.316135964793084</v>
+        <v>9.383914055166933</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>45946.57988234542</v>
+        <v>45658.53368055556</v>
       </c>
       <c r="B295" t="n">
-        <v>3.739540151776915</v>
+        <v>3.463019553335589</v>
       </c>
       <c r="C295" t="n">
-        <v>45.88629446296551</v>
+        <v>46.10275707399622</v>
       </c>
       <c r="D295" t="n">
-        <v>358.1178544085556</v>
+        <v>358.2397768133223</v>
       </c>
       <c r="E295" t="n">
-        <v>1152.451126762843</v>
+        <v>1142.041194333787</v>
       </c>
       <c r="F295" t="n">
-        <v>9.292747991116924</v>
+        <v>9.24737469551464</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>45946.57999808616</v>
+        <v>45658.53379629629</v>
       </c>
       <c r="B296" t="n">
-        <v>3.628758945128506</v>
+        <v>3.460578667473141</v>
       </c>
       <c r="C296" t="n">
-        <v>46.25414549991065</v>
+        <v>44.80483026690376</v>
       </c>
       <c r="D296" t="n">
-        <v>351.2735059826678</v>
+        <v>360.3136891105684</v>
       </c>
       <c r="E296" t="n">
-        <v>1154.648380818988</v>
+        <v>1142.799165500689</v>
       </c>
       <c r="F296" t="n">
-        <v>9.110953248324019</v>
+        <v>9.146680763595599</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>45946.5801138269</v>
+        <v>45658.53391203703</v>
       </c>
       <c r="B297" t="n">
-        <v>3.539095508231365</v>
+        <v>3.534441061176004</v>
       </c>
       <c r="C297" t="n">
-        <v>44.92121645245926</v>
+        <v>45.17402581286088</v>
       </c>
       <c r="D297" t="n">
-        <v>347.2541244380721</v>
+        <v>354.1163492925861</v>
       </c>
       <c r="E297" t="n">
-        <v>1133.860325220444</v>
+        <v>1136.70283586948</v>
       </c>
       <c r="F297" t="n">
-        <v>8.934908767726991</v>
+        <v>9.126867266070509</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>45946.58022956764</v>
+        <v>45658.53402777778</v>
       </c>
       <c r="B298" t="n">
-        <v>3.204061224241219</v>
+        <v>3.357014997233313</v>
       </c>
       <c r="C298" t="n">
-        <v>45.01145972117261</v>
+        <v>44.84344648203455</v>
       </c>
       <c r="D298" t="n">
-        <v>352.0462682588834</v>
+        <v>349.567349598554</v>
       </c>
       <c r="E298" t="n">
-        <v>1135.17491054012</v>
+        <v>1118.048075828316</v>
       </c>
       <c r="F298" t="n">
-        <v>9.023202650035786</v>
+        <v>8.947579500285006</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>45946.58034530838</v>
+        <v>45658.53414351852</v>
       </c>
       <c r="B299" t="n">
-        <v>3.334776364779926</v>
+        <v>3.382791250585838</v>
       </c>
       <c r="C299" t="n">
-        <v>43.71074998929372</v>
+        <v>44.4878708728475</v>
       </c>
       <c r="D299" t="n">
-        <v>338.000604771086</v>
+        <v>335.0010309196219</v>
       </c>
       <c r="E299" t="n">
-        <v>1103.544026041301</v>
+        <v>1094.413990446623</v>
       </c>
       <c r="F299" t="n">
-        <v>8.808592431966048</v>
+        <v>8.769668564239463</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>45946.58046104912</v>
+        <v>45658.53425925926</v>
       </c>
       <c r="B300" t="n">
-        <v>3.468431200322645</v>
+        <v>3.385168748254872</v>
       </c>
       <c r="C300" t="n">
-        <v>43.91056896215831</v>
+        <v>43.98672120440534</v>
       </c>
       <c r="D300" t="n">
-        <v>340.7526434950547</v>
+        <v>336.9925633496446</v>
       </c>
       <c r="E300" t="n">
-        <v>1095.378476756891</v>
+        <v>1108.325098128853</v>
       </c>
       <c r="F300" t="n">
-        <v>8.865221751118135</v>
+        <v>8.853738771341725</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>45946.58057678986</v>
+        <v>45658.534375</v>
       </c>
       <c r="B301" t="n">
-        <v>3.175646093910431</v>
+        <v>3.227953716464926</v>
       </c>
       <c r="C301" t="n">
-        <v>42.54194345717985</v>
+        <v>42.63423559572954</v>
       </c>
       <c r="D301" t="n">
-        <v>331.2607233486291</v>
+        <v>340.1400087141037</v>
       </c>
       <c r="E301" t="n">
-        <v>1066.031662045293</v>
+        <v>1079.100541601683</v>
       </c>
       <c r="F301" t="n">
-        <v>8.669093329008549</v>
+        <v>8.585424506616466</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>45946.5806925306</v>
+        <v>45658.53449074074</v>
       </c>
       <c r="B302" t="n">
-        <v>3.332392349391478</v>
+        <v>3.240357771701313</v>
       </c>
       <c r="C302" t="n">
-        <v>42.79327302383336</v>
+        <v>42.7797277608616</v>
       </c>
       <c r="D302" t="n">
-        <v>331.139400035413</v>
+        <v>330.0478937402476</v>
       </c>
       <c r="E302" t="n">
-        <v>1072.623238365077</v>
+        <v>1064.928247168365</v>
       </c>
       <c r="F302" t="n">
-        <v>8.652313538532878</v>
+        <v>8.549204433382446</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>45946.58080827134</v>
+        <v>45658.53460648148</v>
       </c>
       <c r="B303" t="n">
-        <v>3.232898671829756</v>
+        <v>3.209412698839441</v>
       </c>
       <c r="C303" t="n">
-        <v>43.16701372629566</v>
+        <v>43.3820207107359</v>
       </c>
       <c r="D303" t="n">
-        <v>318.4972786960128</v>
+        <v>323.8656147588973</v>
       </c>
       <c r="E303" t="n">
-        <v>1077.797658215772</v>
+        <v>1079.382093839576</v>
       </c>
       <c r="F303" t="n">
-        <v>8.616869668116921</v>
+        <v>8.485369735065431</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>45946.58092401208</v>
+        <v>45658.53472222222</v>
       </c>
       <c r="B304" t="n">
-        <v>3.218903251050427</v>
+        <v>3.143040437636129</v>
       </c>
       <c r="C304" t="n">
-        <v>41.86803802829294</v>
+        <v>42.98480484053155</v>
       </c>
       <c r="D304" t="n">
-        <v>327.5833002410824</v>
+        <v>322.6002197575642</v>
       </c>
       <c r="E304" t="n">
-        <v>1050.953148148194</v>
+        <v>1064.602061927075</v>
       </c>
       <c r="F304" t="n">
-        <v>8.562513875841201</v>
+        <v>8.443597424650079</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>45946.58103975283</v>
+        <v>45658.53483796296</v>
       </c>
       <c r="B305" t="n">
-        <v>3.285255985329973</v>
+        <v>3.296003824783121</v>
       </c>
       <c r="C305" t="n">
-        <v>41.87775042960376</v>
+        <v>41.83461616551114</v>
       </c>
       <c r="D305" t="n">
-        <v>322.5036442374361</v>
+        <v>323.4375643403032</v>
       </c>
       <c r="E305" t="n">
-        <v>1060.489177062144</v>
+        <v>1033.609165212048</v>
       </c>
       <c r="F305" t="n">
-        <v>8.326251352115113</v>
+        <v>8.386209243476202</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>45946.58115549356</v>
+        <v>45658.5349537037</v>
       </c>
       <c r="B306" t="n">
-        <v>3.195824226408403</v>
+        <v>3.329390190135119</v>
       </c>
       <c r="C306" t="n">
-        <v>41.15892053223944</v>
+        <v>41.90027802081264</v>
       </c>
       <c r="D306" t="n">
-        <v>317.8034043436914</v>
+        <v>313.7120337188178</v>
       </c>
       <c r="E306" t="n">
-        <v>1066.087883526936</v>
+        <v>1043.921059005554</v>
       </c>
       <c r="F306" t="n">
-        <v>8.324216904095149</v>
+        <v>8.366235913771213</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>45946.5812712343</v>
+        <v>45658.53506944444</v>
       </c>
       <c r="B307" t="n">
-        <v>3.231371186012397</v>
+        <v>3.188464292411236</v>
       </c>
       <c r="C307" t="n">
-        <v>41.08605173904007</v>
+        <v>41.19182828851123</v>
       </c>
       <c r="D307" t="n">
-        <v>317.3602599099202</v>
+        <v>313.3177775815089</v>
       </c>
       <c r="E307" t="n">
-        <v>1029.834635670113</v>
+        <v>1041.370743072468</v>
       </c>
       <c r="F307" t="n">
-        <v>8.288796321122588</v>
+        <v>8.327479371043632</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>45946.58138697505</v>
+        <v>45658.53518518519</v>
       </c>
       <c r="B308" t="n">
-        <v>3.082984764232799</v>
+        <v>3.015871851043386</v>
       </c>
       <c r="C308" t="n">
-        <v>41.13487510619244</v>
+        <v>41.66016203239167</v>
       </c>
       <c r="D308" t="n">
-        <v>310.8604376606471</v>
+        <v>308.1980072869464</v>
       </c>
       <c r="E308" t="n">
-        <v>1053.219888869361</v>
+        <v>1032.737040458126</v>
       </c>
       <c r="F308" t="n">
-        <v>8.253043400649522</v>
+        <v>8.164461774890301</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>45946.58150271579</v>
+        <v>45658.53530092593</v>
       </c>
       <c r="B309" t="n">
-        <v>3.270938929999563</v>
+        <v>3.115342777738187</v>
       </c>
       <c r="C309" t="n">
-        <v>40.59927467773494</v>
+        <v>41.09012372290645</v>
       </c>
       <c r="D309" t="n">
-        <v>305.6416384626089</v>
+        <v>311.2770908542736</v>
       </c>
       <c r="E309" t="n">
-        <v>1027.95274723626</v>
+        <v>1019.420557648658</v>
       </c>
       <c r="F309" t="n">
-        <v>8.16289475028905</v>
+        <v>8.20698305883711</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>45946.58161845653</v>
+        <v>45658.53541666667</v>
       </c>
       <c r="B310" t="n">
-        <v>3.082603037369625</v>
+        <v>3.121778616800624</v>
       </c>
       <c r="C310" t="n">
-        <v>41.17070700049499</v>
+        <v>41.55603278515841</v>
       </c>
       <c r="D310" t="n">
-        <v>309.2124855250261</v>
+        <v>315.0710178660158</v>
       </c>
       <c r="E310" t="n">
-        <v>1037.832566919346</v>
+        <v>1009.794526779614</v>
       </c>
       <c r="F310" t="n">
-        <v>8.19672892603675</v>
+        <v>8.178491750680264</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>45946.58173419727</v>
+        <v>45658.5355324074</v>
       </c>
       <c r="B311" t="n">
-        <v>2.936820669388944</v>
+        <v>2.963241826527493</v>
       </c>
       <c r="C311" t="n">
-        <v>41.52593430663052</v>
+        <v>40.75175767191107</v>
       </c>
       <c r="D311" t="n">
-        <v>297.3746332730337</v>
+        <v>307.6535685024625</v>
       </c>
       <c r="E311" t="n">
-        <v>1022.735721634974</v>
+        <v>1007.992397223555</v>
       </c>
       <c r="F311" t="n">
-        <v>8.114778705714659</v>
+        <v>8.125242222616547</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>45946.58184993801</v>
+        <v>45658.53564814815</v>
       </c>
       <c r="B312" t="n">
-        <v>3.088741780213762</v>
+        <v>3.080524170964028</v>
       </c>
       <c r="C312" t="n">
-        <v>40.94481709827469</v>
+        <v>40.48355494860387</v>
       </c>
       <c r="D312" t="n">
-        <v>308.0509878463552</v>
+        <v>306.0783588354682</v>
       </c>
       <c r="E312" t="n">
-        <v>988.2899267825503</v>
+        <v>1019.012947073614</v>
       </c>
       <c r="F312" t="n">
-        <v>8.026353115386071</v>
+        <v>8.070947252944226</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>45946.58196567875</v>
+        <v>45658.53576388889</v>
       </c>
       <c r="B313" t="n">
-        <v>3.186804399636524</v>
+        <v>2.998644880014949</v>
       </c>
       <c r="C313" t="n">
-        <v>40.55986843680961</v>
+        <v>39.91160800865826</v>
       </c>
       <c r="D313" t="n">
-        <v>306.5550440964964</v>
+        <v>305.9850502345898</v>
       </c>
       <c r="E313" t="n">
-        <v>999.6187546019137</v>
+        <v>1004.175625009335</v>
       </c>
       <c r="F313" t="n">
-        <v>8.093241549299652</v>
+        <v>8.078864119357187</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>45946.58208141949</v>
+        <v>45658.53587962963</v>
       </c>
       <c r="B314" t="n">
-        <v>2.995653399903307</v>
+        <v>3.117516477962788</v>
       </c>
       <c r="C314" t="n">
-        <v>40.68798320218812</v>
+        <v>40.00739729002476</v>
       </c>
       <c r="D314" t="n">
-        <v>299.9379283923384</v>
+        <v>291.5970219696207</v>
       </c>
       <c r="E314" t="n">
-        <v>1011.697156036805</v>
+        <v>994.9571819888718</v>
       </c>
       <c r="F314" t="n">
-        <v>7.88654998310921</v>
+        <v>8.074351684493374</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>45946.58219716023</v>
+        <v>45658.53599537037</v>
       </c>
       <c r="B315" t="n">
-        <v>2.925735855290127</v>
+        <v>3.049836632948374</v>
       </c>
       <c r="C315" t="n">
-        <v>39.92257776952775</v>
+        <v>40.42782229535943</v>
       </c>
       <c r="D315" t="n">
-        <v>302.0095142538863</v>
+        <v>306.1234528837949</v>
       </c>
       <c r="E315" t="n">
-        <v>986.5080478811193</v>
+        <v>1004.924089394421</v>
       </c>
       <c r="F315" t="n">
-        <v>7.99635526631653</v>
+        <v>8.049428878564573</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
-        <v>45946.58231290097</v>
+        <v>45658.53611111111</v>
       </c>
       <c r="B316" t="n">
-        <v>3.02798220755815</v>
+        <v>2.984826553123622</v>
       </c>
       <c r="C316" t="n">
-        <v>40.05128216640858</v>
+        <v>39.79244741463718</v>
       </c>
       <c r="D316" t="n">
-        <v>299.2025272140709</v>
+        <v>291.8930640082961</v>
       </c>
       <c r="E316" t="n">
-        <v>1009.8217880892</v>
+        <v>1000.133953117196</v>
       </c>
       <c r="F316" t="n">
-        <v>8.011299232783289</v>
+        <v>7.998632031136627</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>45946.58242864171</v>
+        <v>45658.53622685185</v>
       </c>
       <c r="B317" t="n">
-        <v>3.092554728365563</v>
+        <v>2.848381358412632</v>
       </c>
       <c r="C317" t="n">
-        <v>39.97343454507711</v>
+        <v>39.75521348597077</v>
       </c>
       <c r="D317" t="n">
-        <v>302.9928487911312</v>
+        <v>298.7011222490317</v>
       </c>
       <c r="E317" t="n">
-        <v>994.2178153076626</v>
+        <v>1004.990495568999</v>
       </c>
       <c r="F317" t="n">
-        <v>8.044235713529782</v>
+        <v>7.945923281155033</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>45946.58254438245</v>
+        <v>45658.53634259259</v>
       </c>
       <c r="B318" t="n">
-        <v>2.997679796867994</v>
+        <v>2.949351589410229</v>
       </c>
       <c r="C318" t="n">
-        <v>40.14607130952032</v>
+        <v>39.94111771628969</v>
       </c>
       <c r="D318" t="n">
-        <v>297.6039186379439</v>
+        <v>305.5071351191842</v>
       </c>
       <c r="E318" t="n">
-        <v>1002.946582667345</v>
+        <v>1015.767907706322</v>
       </c>
       <c r="F318" t="n">
-        <v>7.952656628850219</v>
+        <v>7.957452310556095</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>45946.5826601232</v>
+        <v>45658.53645833334</v>
       </c>
       <c r="B319" t="n">
-        <v>2.926189749128668</v>
+        <v>2.896572607741978</v>
       </c>
       <c r="C319" t="n">
-        <v>40.41110145822219</v>
+        <v>40.03315296977229</v>
       </c>
       <c r="D319" t="n">
-        <v>294.5409912990266</v>
+        <v>303.6363568002504</v>
       </c>
       <c r="E319" t="n">
-        <v>994.0354560016578</v>
+        <v>1000.058656322636</v>
       </c>
       <c r="F319" t="n">
-        <v>7.957015682262881</v>
+        <v>8.029660231036859</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>45946.58277586394</v>
+        <v>45658.53657407407</v>
       </c>
       <c r="B320" t="n">
-        <v>2.948548593813199</v>
+        <v>3.19008067998816</v>
       </c>
       <c r="C320" t="n">
-        <v>40.04605628231575</v>
+        <v>40.42179588828521</v>
       </c>
       <c r="D320" t="n">
-        <v>295.4280577702727</v>
+        <v>316.0653167118236</v>
       </c>
       <c r="E320" t="n">
-        <v>1001.069725245972</v>
+        <v>992.7540480088093</v>
       </c>
       <c r="F320" t="n">
-        <v>7.930541124265049</v>
+        <v>7.965082724722546</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>45946.58289160467</v>
+        <v>45658.53668981481</v>
       </c>
       <c r="B321" t="n">
-        <v>2.911933506625668</v>
+        <v>2.872247214664078</v>
       </c>
       <c r="C321" t="n">
-        <v>40.20751702772377</v>
+        <v>39.58072514717013</v>
       </c>
       <c r="D321" t="n">
-        <v>302.6675766478672</v>
+        <v>307.4321945198577</v>
       </c>
       <c r="E321" t="n">
-        <v>1012.645397839851</v>
+        <v>1003.429903402917</v>
       </c>
       <c r="F321" t="n">
-        <v>8.026569266194032</v>
+        <v>8.00541469267784</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>45946.58300734542</v>
+        <v>45658.53680555556</v>
       </c>
       <c r="B322" t="n">
-        <v>3.055708789860614</v>
+        <v>2.980106919161641</v>
       </c>
       <c r="C322" t="n">
-        <v>40.42860143062832</v>
+        <v>39.97193647633143</v>
       </c>
       <c r="D322" t="n">
-        <v>304.5419305412076</v>
+        <v>301.0930978244885</v>
       </c>
       <c r="E322" t="n">
-        <v>995.9811259460467</v>
+        <v>998.0467812510575</v>
       </c>
       <c r="F322" t="n">
-        <v>8.021930295702608</v>
+        <v>8.007886261527528</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>45946.58312308616</v>
+        <v>45658.5369212963</v>
       </c>
       <c r="B323" t="n">
-        <v>2.985461312277514</v>
+        <v>3.111482785339305</v>
       </c>
       <c r="C323" t="n">
-        <v>39.62017877039784</v>
+        <v>40.95604736309471</v>
       </c>
       <c r="D323" t="n">
-        <v>303.3522266310093</v>
+        <v>310.404650000008</v>
       </c>
       <c r="E323" t="n">
-        <v>1015.270273778942</v>
+        <v>1005.973550531427</v>
       </c>
       <c r="F323" t="n">
-        <v>8.010772275147318</v>
+        <v>8.177757177014183</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
-        <v>45946.5832388269</v>
+        <v>45658.53703703704</v>
       </c>
       <c r="B324" t="n">
-        <v>3.089808191161256</v>
+        <v>3.02634817020105</v>
       </c>
       <c r="C324" t="n">
-        <v>39.55385622079027</v>
+        <v>39.93821282104204</v>
       </c>
       <c r="D324" t="n">
-        <v>310.0091181183219</v>
+        <v>306.2946932431859</v>
       </c>
       <c r="E324" t="n">
-        <v>994.186060763849</v>
+        <v>1002.692170287857</v>
       </c>
       <c r="F324" t="n">
-        <v>8.122948010631047</v>
+        <v>8.064590885475901</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
-        <v>45946.58335456764</v>
+        <v>45658.53715277778</v>
       </c>
       <c r="B325" t="n">
-        <v>3.104668674183219</v>
+        <v>2.917215246688358</v>
       </c>
       <c r="C325" t="n">
-        <v>41.1888321182718</v>
+        <v>40.02672840684684</v>
       </c>
       <c r="D325" t="n">
-        <v>310.5578898401395</v>
+        <v>303.2838119412586</v>
       </c>
       <c r="E325" t="n">
-        <v>1015.821153700159</v>
+        <v>1011.925689430304</v>
       </c>
       <c r="F325" t="n">
-        <v>8.063667524340946</v>
+        <v>8.155713277079261</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
-        <v>45946.58347030838</v>
+        <v>45658.53726851852</v>
       </c>
       <c r="B326" t="n">
-        <v>3.021748137298882</v>
+        <v>3.038318483583288</v>
       </c>
       <c r="C326" t="n">
-        <v>40.06789159445659</v>
+        <v>41.41577496351088</v>
       </c>
       <c r="D326" t="n">
-        <v>310.1593064227634</v>
+        <v>306.9929013606394</v>
       </c>
       <c r="E326" t="n">
-        <v>1021.665948384036</v>
+        <v>1023.28112896761</v>
       </c>
       <c r="F326" t="n">
-        <v>8.139908974196681</v>
+        <v>8.164893820350631</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
-        <v>45946.58358604912</v>
+        <v>45658.53738425926</v>
       </c>
       <c r="B327" t="n">
-        <v>3.223976767184746</v>
+        <v>3.225556486863443</v>
       </c>
       <c r="C327" t="n">
-        <v>41.21529643422915</v>
+        <v>41.06160300529615</v>
       </c>
       <c r="D327" t="n">
-        <v>307.5959935812606</v>
+        <v>299.0883986623793</v>
       </c>
       <c r="E327" t="n">
-        <v>1028.88440870598</v>
+        <v>1016.821510384651</v>
       </c>
       <c r="F327" t="n">
-        <v>8.198791722021834</v>
+        <v>8.105340254933488</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
-        <v>45946.58370178986</v>
+        <v>45658.5375</v>
       </c>
       <c r="B328" t="n">
-        <v>3.281962271252311</v>
+        <v>3.134383599013401</v>
       </c>
       <c r="C328" t="n">
-        <v>40.91069134995028</v>
+        <v>41.63857668279673</v>
       </c>
       <c r="D328" t="n">
-        <v>309.7173986572304</v>
+        <v>312.1235506586499</v>
       </c>
       <c r="E328" t="n">
-        <v>1034.131695464622</v>
+        <v>1022.273641669407</v>
       </c>
       <c r="F328" t="n">
-        <v>8.249445931699986</v>
+        <v>8.214648037685645</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
-        <v>45946.58381753061</v>
+        <v>45658.53761574074</v>
       </c>
       <c r="B329" t="n">
-        <v>3.223956872513079</v>
+        <v>3.111987290809216</v>
       </c>
       <c r="C329" t="n">
-        <v>41.3017829708262</v>
+        <v>41.83407770306417</v>
       </c>
       <c r="D329" t="n">
-        <v>318.3938832712423</v>
+        <v>316.5649463751097</v>
       </c>
       <c r="E329" t="n">
-        <v>1032.410111831265</v>
+        <v>1024.510678084228</v>
       </c>
       <c r="F329" t="n">
-        <v>8.303984904944132</v>
+        <v>8.324089219366407</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
-        <v>45946.58393327134</v>
+        <v>45658.53773148148</v>
       </c>
       <c r="B330" t="n">
-        <v>3.204299875395898</v>
+        <v>3.164607384879259</v>
       </c>
       <c r="C330" t="n">
-        <v>42.27800989895939</v>
+        <v>41.74083614070634</v>
       </c>
       <c r="D330" t="n">
-        <v>313.2233505919868</v>
+        <v>317.1108510156656</v>
       </c>
       <c r="E330" t="n">
-        <v>1057.861054551195</v>
+        <v>1033.880342193896</v>
       </c>
       <c r="F330" t="n">
-        <v>8.375014745981355</v>
+        <v>8.380611376746144</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
-        <v>45946.58404901208</v>
+        <v>45658.53784722222</v>
       </c>
       <c r="B331" t="n">
-        <v>3.136543583991257</v>
+        <v>3.206812156939954</v>
       </c>
       <c r="C331" t="n">
-        <v>42.23398836805134</v>
+        <v>40.9927086505104</v>
       </c>
       <c r="D331" t="n">
-        <v>325.2079811828067</v>
+        <v>323.5002150552023</v>
       </c>
       <c r="E331" t="n">
-        <v>1049.239036313618</v>
+        <v>1047.372654021134</v>
       </c>
       <c r="F331" t="n">
-        <v>8.390909743993145</v>
+        <v>8.425209913155891</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
-        <v>45946.58416475282</v>
+        <v>45658.53796296296</v>
       </c>
       <c r="B332" t="n">
-        <v>3.283943287341907</v>
+        <v>3.280150913053602</v>
       </c>
       <c r="C332" t="n">
-        <v>42.74359203610159</v>
+        <v>42.53674687345071</v>
       </c>
       <c r="D332" t="n">
-        <v>316.0560007812219</v>
+        <v>321.4157123391776</v>
       </c>
       <c r="E332" t="n">
-        <v>1065.436429454176</v>
+        <v>1072.286141862065</v>
       </c>
       <c r="F332" t="n">
-        <v>8.470419450346158</v>
+        <v>8.523733472151317</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
-        <v>45946.58428049357</v>
+        <v>45658.53807870371</v>
       </c>
       <c r="B333" t="n">
-        <v>3.349838644813798</v>
+        <v>3.13320243294576</v>
       </c>
       <c r="C333" t="n">
-        <v>43.14607087898306</v>
+        <v>42.16202232832563</v>
       </c>
       <c r="D333" t="n">
-        <v>334.0716566228689</v>
+        <v>327.1776904659197</v>
       </c>
       <c r="E333" t="n">
-        <v>1070.092342464689</v>
+        <v>1072.644090185644</v>
       </c>
       <c r="F333" t="n">
-        <v>8.523395904763333</v>
+        <v>8.557568950947939</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
-        <v>45946.58439623431</v>
+        <v>45658.53819444445</v>
       </c>
       <c r="B334" t="n">
-        <v>3.187401490759488</v>
+        <v>3.28506385506364</v>
       </c>
       <c r="C334" t="n">
-        <v>43.34147682419335</v>
+        <v>43.52516347145357</v>
       </c>
       <c r="D334" t="n">
-        <v>334.1976783372745</v>
+        <v>326.2548443954659</v>
       </c>
       <c r="E334" t="n">
-        <v>1072.411443155964</v>
+        <v>1072.961314000953</v>
       </c>
       <c r="F334" t="n">
-        <v>8.534472330310912</v>
+        <v>8.601583724954951</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
-        <v>45946.58451197504</v>
+        <v>45658.53831018518</v>
       </c>
       <c r="B335" t="n">
-        <v>3.303176901993703</v>
+        <v>3.36477856718547</v>
       </c>
       <c r="C335" t="n">
-        <v>43.2186904135974</v>
+        <v>43.1197505636559</v>
       </c>
       <c r="D335" t="n">
-        <v>329.9519556379324</v>
+        <v>327.8254070312685</v>
       </c>
       <c r="E335" t="n">
-        <v>1077.438347408988</v>
+        <v>1100.88167359446</v>
       </c>
       <c r="F335" t="n">
-        <v>8.651837443753919</v>
+        <v>8.668386006603678</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
-        <v>45946.58462771578</v>
+        <v>45658.53842592592</v>
       </c>
       <c r="B336" t="n">
-        <v>3.286501859040883</v>
+        <v>3.315247772945256</v>
       </c>
       <c r="C336" t="n">
-        <v>43.37375924715537</v>
+        <v>43.56955331259172</v>
       </c>
       <c r="D336" t="n">
-        <v>340.6943079225013</v>
+        <v>335.9314596369583</v>
       </c>
       <c r="E336" t="n">
-        <v>1104.071149089378</v>
+        <v>1081.711719928302</v>
       </c>
       <c r="F336" t="n">
-        <v>8.703723184659738</v>
+        <v>8.783102951446981</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
-        <v>45946.58474345653</v>
+        <v>45658.53854166667</v>
       </c>
       <c r="B337" t="n">
-        <v>3.335163486225376</v>
+        <v>3.302857879062794</v>
       </c>
       <c r="C337" t="n">
-        <v>43.17292966466098</v>
+        <v>44.00321175422928</v>
       </c>
       <c r="D337" t="n">
-        <v>358.736912391653</v>
+        <v>340.9141514095642</v>
       </c>
       <c r="E337" t="n">
-        <v>1116.996190091472</v>
+        <v>1095.543882749315</v>
       </c>
       <c r="F337" t="n">
-        <v>8.864742166868371</v>
+        <v>8.862514687157441</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
-        <v>45946.58485919727</v>
+        <v>45658.53865740741</v>
       </c>
       <c r="B338" t="n">
-        <v>3.49838300705094</v>
+        <v>3.336350868046802</v>
       </c>
       <c r="C338" t="n">
-        <v>44.08419435215073</v>
+        <v>44.36451310841337</v>
       </c>
       <c r="D338" t="n">
-        <v>354.4674313803289</v>
+        <v>345.6263717932953</v>
       </c>
       <c r="E338" t="n">
-        <v>1129.930648788959</v>
+        <v>1106.443286464006</v>
       </c>
       <c r="F338" t="n">
-        <v>9.008127913456265</v>
+        <v>8.989736716492166</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
-        <v>45946.58497493801</v>
+        <v>45658.53877314815</v>
       </c>
       <c r="B339" t="n">
-        <v>3.399952666695356</v>
+        <v>3.650789863526001</v>
       </c>
       <c r="C339" t="n">
-        <v>44.84361710268914</v>
+        <v>45.73588545671514</v>
       </c>
       <c r="D339" t="n">
-        <v>350.5544189771032</v>
+        <v>347.8402522395263</v>
       </c>
       <c r="E339" t="n">
-        <v>1136.488854037162</v>
+        <v>1127.726129049562</v>
       </c>
       <c r="F339" t="n">
-        <v>8.989178324958482</v>
+        <v>8.981419044241344</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
-        <v>45946.58509067875</v>
+        <v>45658.53888888889</v>
       </c>
       <c r="B340" t="n">
-        <v>3.557057602314981</v>
+        <v>3.624015929533138</v>
       </c>
       <c r="C340" t="n">
-        <v>45.413323309557</v>
+        <v>46.34481784069543</v>
       </c>
       <c r="D340" t="n">
-        <v>352.9363338582739</v>
+        <v>356.1901265766236</v>
       </c>
       <c r="E340" t="n">
-        <v>1140.978023585657</v>
+        <v>1138.749348492613</v>
       </c>
       <c r="F340" t="n">
-        <v>9.136708753600903</v>
+        <v>8.964671250606891</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
-        <v>45946.58520641949</v>
+        <v>45658.53900462963</v>
       </c>
       <c r="B341" t="n">
-        <v>3.611774736471722</v>
+        <v>3.71532145241201</v>
       </c>
       <c r="C341" t="n">
-        <v>46.25638761207759</v>
+        <v>45.94499858421869</v>
       </c>
       <c r="D341" t="n">
-        <v>361.4348770101823</v>
+        <v>366.6772319264135</v>
       </c>
       <c r="E341" t="n">
-        <v>1136.819308040895</v>
+        <v>1150.082487096904</v>
       </c>
       <c r="F341" t="n">
-        <v>9.218206797658953</v>
+        <v>9.144944532586303</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
-        <v>45946.58532216023</v>
+        <v>45658.53912037037</v>
       </c>
       <c r="B342" t="n">
-        <v>3.675935489193554</v>
+        <v>3.672294480716517</v>
       </c>
       <c r="C342" t="n">
-        <v>47.0265982352913</v>
+        <v>47.29951934201921</v>
       </c>
       <c r="D342" t="n">
-        <v>371.8245563714435</v>
+        <v>373.0773570290306</v>
       </c>
       <c r="E342" t="n">
-        <v>1161.907058633254</v>
+        <v>1165.536216321925</v>
       </c>
       <c r="F342" t="n">
-        <v>9.314349846663777</v>
+        <v>9.263264923788878</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
-        <v>45946.58543790097</v>
+        <v>45658.53923611111</v>
       </c>
       <c r="B343" t="n">
-        <v>3.729393194370636</v>
+        <v>3.678026950094629</v>
       </c>
       <c r="C343" t="n">
-        <v>47.19446156756662</v>
+        <v>47.83717200124482</v>
       </c>
       <c r="D343" t="n">
-        <v>370.6806711057551</v>
+        <v>374.243784435675</v>
       </c>
       <c r="E343" t="n">
-        <v>1182.763110667552</v>
+        <v>1174.129590265367</v>
       </c>
       <c r="F343" t="n">
-        <v>9.466673688701976</v>
+        <v>9.421622763908461</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
-        <v>45946.58555364171</v>
+        <v>45658.53935185185</v>
       </c>
       <c r="B344" t="n">
-        <v>3.754684974870532</v>
+        <v>3.7689235065282</v>
       </c>
       <c r="C344" t="n">
-        <v>48.21848362996107</v>
+        <v>47.55738251515233</v>
       </c>
       <c r="D344" t="n">
-        <v>381.2531011567294</v>
+        <v>377.5661302219639</v>
       </c>
       <c r="E344" t="n">
-        <v>1192.661352253934</v>
+        <v>1177.627012450529</v>
       </c>
       <c r="F344" t="n">
-        <v>9.45114034820844</v>
+        <v>9.533087456673467</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
-        <v>45946.58566938245</v>
+        <v>45658.53946759259</v>
       </c>
       <c r="B345" t="n">
-        <v>3.989482960328198</v>
+        <v>3.866920631900743</v>
       </c>
       <c r="C345" t="n">
-        <v>48.09867506428628</v>
+        <v>47.67716503022633</v>
       </c>
       <c r="D345" t="n">
-        <v>377.1601641127511</v>
+        <v>388.99940091766</v>
       </c>
       <c r="E345" t="n">
-        <v>1212.273935997791</v>
+        <v>1195.752995235553</v>
       </c>
       <c r="F345" t="n">
-        <v>9.649679149806989</v>
+        <v>9.635377810914891</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
-        <v>45946.58578512319</v>
+        <v>45658.53958333333</v>
       </c>
       <c r="B346" t="n">
-        <v>4.009986618488626</v>
+        <v>3.784863488256964</v>
       </c>
       <c r="C346" t="n">
-        <v>48.18205579423177</v>
+        <v>47.9120165042569</v>
       </c>
       <c r="D346" t="n">
-        <v>389.4534281855955</v>
+        <v>380.0998829814358</v>
       </c>
       <c r="E346" t="n">
-        <v>1210.923715644995</v>
+        <v>1228.15333503306</v>
       </c>
       <c r="F346" t="n">
-        <v>9.742368311543231</v>
+        <v>9.715259387290013</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
-        <v>45946.58590086394</v>
+        <v>45658.53969907408</v>
       </c>
       <c r="B347" t="n">
-        <v>3.948853108413527</v>
+        <v>4.004967010196787</v>
       </c>
       <c r="C347" t="n">
-        <v>48.69427932471081</v>
+        <v>50.16976951915058</v>
       </c>
       <c r="D347" t="n">
-        <v>392.4858261314141</v>
+        <v>381.0324651136523</v>
       </c>
       <c r="E347" t="n">
-        <v>1241.149515195574</v>
+        <v>1228.733924024069</v>
       </c>
       <c r="F347" t="n">
-        <v>9.900037786367511</v>
+        <v>9.934373365319045</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
-        <v>45946.58601660468</v>
+        <v>45658.53981481482</v>
       </c>
       <c r="B348" t="n">
-        <v>3.870752593002017</v>
+        <v>4.000052712427859</v>
       </c>
       <c r="C348" t="n">
-        <v>50.1674233445126</v>
+        <v>49.97841089680658</v>
       </c>
       <c r="D348" t="n">
-        <v>403.9129396853092</v>
+        <v>408.1037937245002</v>
       </c>
       <c r="E348" t="n">
-        <v>1234.008809476519</v>
+        <v>1256.251830828776</v>
       </c>
       <c r="F348" t="n">
-        <v>9.9429553355978</v>
+        <v>9.973212710583038</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
-        <v>45946.58613234542</v>
+        <v>45658.53993055555</v>
       </c>
       <c r="B349" t="n">
-        <v>4.050651686097329</v>
+        <v>3.929508068111403</v>
       </c>
       <c r="C349" t="n">
-        <v>50.28237883799244</v>
+        <v>51.30939440491224</v>
       </c>
       <c r="D349" t="n">
-        <v>411.6832729490355</v>
+        <v>400.0394419355794</v>
       </c>
       <c r="E349" t="n">
-        <v>1262.199140078587</v>
+        <v>1269.976079949712</v>
       </c>
       <c r="F349" t="n">
-        <v>10.17104844245062</v>
+        <v>10.15484034413895</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
-        <v>45946.58624808615</v>
+        <v>45658.54004629629</v>
       </c>
       <c r="B350" t="n">
-        <v>4.183498303997513</v>
+        <v>4.181411968683265</v>
       </c>
       <c r="C350" t="n">
-        <v>51.32362108968911</v>
+        <v>51.48836318785295</v>
       </c>
       <c r="D350" t="n">
-        <v>426.6040535795186</v>
+        <v>418.5845898425334</v>
       </c>
       <c r="E350" t="n">
-        <v>1294.267286389075</v>
+        <v>1269.816644531758</v>
       </c>
       <c r="F350" t="n">
-        <v>10.27226283703506</v>
+        <v>10.13274670103778</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
-        <v>45946.5863638269</v>
+        <v>45658.54016203704</v>
       </c>
       <c r="B351" t="n">
-        <v>4.363820484112257</v>
+        <v>4.155463863681951</v>
       </c>
       <c r="C351" t="n">
-        <v>52.41212050889393</v>
+        <v>51.23394879921711</v>
       </c>
       <c r="D351" t="n">
-        <v>420.1624999904704</v>
+        <v>415.9205371107957</v>
       </c>
       <c r="E351" t="n">
-        <v>1298.313483121731</v>
+        <v>1286.786641424547</v>
       </c>
       <c r="F351" t="n">
-        <v>10.38713769346332</v>
+        <v>10.37704033895078</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
-        <v>45946.58647956764</v>
+        <v>45658.54027777778</v>
       </c>
       <c r="B352" t="n">
-        <v>4.295453278345888</v>
+        <v>4.159564540187712</v>
       </c>
       <c r="C352" t="n">
-        <v>52.70531669976011</v>
+        <v>53.62085022010842</v>
       </c>
       <c r="D352" t="n">
-        <v>427.2559677404522</v>
+        <v>420.5570178608052</v>
       </c>
       <c r="E352" t="n">
-        <v>1318.268769172414</v>
+        <v>1296.760262593087</v>
       </c>
       <c r="F352" t="n">
-        <v>10.44803951145535</v>
+        <v>10.55940696193776</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
-        <v>45946.58659530838</v>
+        <v>45658.54039351852</v>
       </c>
       <c r="B353" t="n">
-        <v>4.420227173705372</v>
+        <v>4.135231153944345</v>
       </c>
       <c r="C353" t="n">
-        <v>53.35022819363266</v>
+        <v>53.64939797301355</v>
       </c>
       <c r="D353" t="n">
-        <v>428.5136687626326</v>
+        <v>423.2307270415451</v>
       </c>
       <c r="E353" t="n">
-        <v>1341.83768146072</v>
+        <v>1316.574657357617</v>
       </c>
       <c r="F353" t="n">
-        <v>10.67058390302517</v>
+        <v>10.63171802443647</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
-        <v>45946.58671104912</v>
+        <v>45658.54050925926</v>
       </c>
       <c r="B354" t="n">
-        <v>4.301735981671014</v>
+        <v>4.288609333317174</v>
       </c>
       <c r="C354" t="n">
-        <v>54.13694009132531</v>
+        <v>54.06972487351023</v>
       </c>
       <c r="D354" t="n">
-        <v>437.0262892171415</v>
+        <v>439.5700993640056</v>
       </c>
       <c r="E354" t="n">
-        <v>1344.17935816704</v>
+        <v>1332.628752780166</v>
       </c>
       <c r="F354" t="n">
-        <v>10.68085383858616</v>
+        <v>10.75600514858375</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
-        <v>45946.58682678986</v>
+        <v>45658.540625</v>
       </c>
       <c r="B355" t="n">
-        <v>4.5592321465876</v>
+        <v>4.331736666757286</v>
       </c>
       <c r="C355" t="n">
-        <v>53.82855779048841</v>
+        <v>54.1636118115529</v>
       </c>
       <c r="D355" t="n">
-        <v>448.7653229292635</v>
+        <v>446.2256577619601</v>
       </c>
       <c r="E355" t="n">
-        <v>1383.807152927711</v>
+        <v>1358.117397967578</v>
       </c>
       <c r="F355" t="n">
-        <v>10.95024392879234</v>
+        <v>10.87683696456263</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
-        <v>45946.5869425306</v>
+        <v>45658.54074074074</v>
       </c>
       <c r="B356" t="n">
-        <v>4.49430369817841</v>
+        <v>4.397409675931259</v>
       </c>
       <c r="C356" t="n">
-        <v>54.50111979568626</v>
+        <v>54.69059155916712</v>
       </c>
       <c r="D356" t="n">
-        <v>452.1721789239236</v>
+        <v>451.2934024781875</v>
       </c>
       <c r="E356" t="n">
-        <v>1377.961155804614</v>
+        <v>1368.43838840304</v>
       </c>
       <c r="F356" t="n">
-        <v>11.12122602459176</v>
+        <v>11.09082501185692</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
-        <v>45946.58705827134</v>
+        <v>45658.54085648148</v>
       </c>
       <c r="B357" t="n">
-        <v>4.635710616577345</v>
+        <v>4.567689721838949</v>
       </c>
       <c r="C357" t="n">
-        <v>56.09759729541982</v>
+        <v>56.06557990932406</v>
       </c>
       <c r="D357" t="n">
-        <v>451.7045556998772</v>
+        <v>460.8304486079805</v>
       </c>
       <c r="E357" t="n">
-        <v>1394.237288080046</v>
+        <v>1366.137041971931</v>
       </c>
       <c r="F357" t="n">
-        <v>11.2112292925562</v>
+        <v>11.1859133505104</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
-        <v>45946.58717401209</v>
+        <v>45658.54097222222</v>
       </c>
       <c r="B358" t="n">
-        <v>4.65550610682615</v>
+        <v>4.593591407819637</v>
       </c>
       <c r="C358" t="n">
-        <v>56.2381433152816</v>
+        <v>56.57896145256016</v>
       </c>
       <c r="D358" t="n">
-        <v>461.4059513949846</v>
+        <v>470.5522453354196</v>
       </c>
       <c r="E358" t="n">
-        <v>1425.023095530842</v>
+        <v>1411.003508573835</v>
       </c>
       <c r="F358" t="n">
-        <v>11.29896860078315</v>
+        <v>11.318712868913</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
-        <v>45946.58728975282</v>
+        <v>45658.54108796296</v>
       </c>
       <c r="B359" t="n">
-        <v>4.848598653066126</v>
+        <v>4.805642486980251</v>
       </c>
       <c r="C359" t="n">
-        <v>57.53105952261139</v>
+        <v>57.48886879576403</v>
       </c>
       <c r="D359" t="n">
-        <v>474.0356097400887</v>
+        <v>472.9391181885086</v>
       </c>
       <c r="E359" t="n">
-        <v>1426.261471217242</v>
+        <v>1422.912397962292</v>
       </c>
       <c r="F359" t="n">
-        <v>11.46982991599082</v>
+        <v>11.43466292495388</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
-        <v>45946.58740549356</v>
+        <v>45658.5412037037</v>
       </c>
       <c r="B360" t="n">
-        <v>4.761576704943299</v>
+        <v>4.634458578461449</v>
       </c>
       <c r="C360" t="n">
-        <v>58.06315730217151</v>
+        <v>57.98786566964009</v>
       </c>
       <c r="D360" t="n">
-        <v>475.0628169319934</v>
+        <v>480.834658088091</v>
       </c>
       <c r="E360" t="n">
-        <v>1436.648761403413</v>
+        <v>1448.146003516179</v>
       </c>
       <c r="F360" t="n">
-        <v>11.58970079712812</v>
+        <v>11.63961101229323</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
-        <v>45946.58752123431</v>
+        <v>45658.54131944444</v>
       </c>
       <c r="B361" t="n">
-        <v>4.900035704085595</v>
+        <v>4.820567705158708</v>
       </c>
       <c r="C361" t="n">
-        <v>58.62069935228728</v>
+        <v>58.90861382621788</v>
       </c>
       <c r="D361" t="n">
-        <v>489.8537166596776</v>
+        <v>487.6621002977131</v>
       </c>
       <c r="E361" t="n">
-        <v>1471.60515120576</v>
+        <v>1484.893480992797</v>
       </c>
       <c r="F361" t="n">
-        <v>11.64312029566605</v>
+        <v>11.75193175334187</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
-        <v>45946.58763697505</v>
+        <v>45658.54143518519</v>
       </c>
       <c r="B362" t="n">
-        <v>5.024009464383645</v>
+        <v>4.989256331900671</v>
       </c>
       <c r="C362" t="n">
-        <v>59.4542677031033</v>
+        <v>59.32662565138735</v>
       </c>
       <c r="D362" t="n">
-        <v>485.3014926230087</v>
+        <v>492.6690644822671</v>
       </c>
       <c r="E362" t="n">
-        <v>1494.377958799002</v>
+        <v>1481.64242219905</v>
       </c>
       <c r="F362" t="n">
-        <v>11.92127717036109</v>
+        <v>11.86613096202348</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
-        <v>45946.58775271579</v>
+        <v>45658.54155092593</v>
       </c>
       <c r="B363" t="n">
-        <v>4.90706398803487</v>
+        <v>5.088138117960233</v>
       </c>
       <c r="C363" t="n">
-        <v>59.7800746736281</v>
+        <v>59.84633070040696</v>
       </c>
       <c r="D363" t="n">
-        <v>493.3192452904763</v>
+        <v>497.3786253195554</v>
       </c>
       <c r="E363" t="n">
-        <v>1501.136325789052</v>
+        <v>1507.056314410986</v>
       </c>
       <c r="F363" t="n">
-        <v>11.94635230173948</v>
+        <v>11.99230827624863</v>
       </c>
     </row>
   </sheetData>

--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -526,19 +526,19 @@
         <v>45658.5</v>
       </c>
       <c r="B4" t="n">
-        <v>5.046698247022404</v>
+        <v>5.053196584197562</v>
       </c>
       <c r="C4" t="n">
-        <v>60.42188590984272</v>
+        <v>58.94662854463079</v>
       </c>
       <c r="D4" t="n">
-        <v>502.8385406308179</v>
+        <v>497.0910009730628</v>
       </c>
       <c r="E4" t="n">
-        <v>1509.894405639453</v>
+        <v>1510.129125155742</v>
       </c>
       <c r="F4" t="n">
-        <v>11.95634606535714</v>
+        <v>12.06493359063854</v>
       </c>
     </row>
     <row r="5">
@@ -546,19 +546,19 @@
         <v>45658.50011574074</v>
       </c>
       <c r="B5" t="n">
-        <v>5.048962313210549</v>
+        <v>5.115849594242131</v>
       </c>
       <c r="C5" t="n">
-        <v>60.41448080045513</v>
+        <v>60.74343525336927</v>
       </c>
       <c r="D5" t="n">
-        <v>506.0327359241863</v>
+        <v>507.3078406988644</v>
       </c>
       <c r="E5" t="n">
-        <v>1512.972565186277</v>
+        <v>1497.231874188451</v>
       </c>
       <c r="F5" t="n">
-        <v>12.18917736705989</v>
+        <v>12.14622047960187</v>
       </c>
     </row>
     <row r="6">
@@ -566,19 +566,19 @@
         <v>45658.50023148148</v>
       </c>
       <c r="B6" t="n">
-        <v>5.354222144417025</v>
+        <v>5.021514973521976</v>
       </c>
       <c r="C6" t="n">
-        <v>61.01160865009443</v>
+        <v>61.4062501965</v>
       </c>
       <c r="D6" t="n">
-        <v>509.9044253444196</v>
+        <v>521.1264245647494</v>
       </c>
       <c r="E6" t="n">
-        <v>1531.337176337639</v>
+        <v>1531.690145309588</v>
       </c>
       <c r="F6" t="n">
-        <v>12.22964672425064</v>
+        <v>12.25216243761399</v>
       </c>
     </row>
     <row r="7">
@@ -586,19 +586,19 @@
         <v>45658.50034722222</v>
       </c>
       <c r="B7" t="n">
-        <v>5.223173177014914</v>
+        <v>5.108561058569031</v>
       </c>
       <c r="C7" t="n">
-        <v>62.30805241266496</v>
+        <v>61.50947099120939</v>
       </c>
       <c r="D7" t="n">
-        <v>518.3448753640652</v>
+        <v>529.7490769919131</v>
       </c>
       <c r="E7" t="n">
-        <v>1565.093788173549</v>
+        <v>1543.449701889032</v>
       </c>
       <c r="F7" t="n">
-        <v>12.38955677400634</v>
+        <v>12.36060237669706</v>
       </c>
     </row>
     <row r="8">
@@ -606,19 +606,19 @@
         <v>45658.50046296296</v>
       </c>
       <c r="B8" t="n">
-        <v>5.167783770419895</v>
+        <v>5.161886207567504</v>
       </c>
       <c r="C8" t="n">
-        <v>62.73844060428596</v>
+        <v>61.71605861238867</v>
       </c>
       <c r="D8" t="n">
-        <v>529.5438770163296</v>
+        <v>531.9754322571223</v>
       </c>
       <c r="E8" t="n">
-        <v>1571.219252173374</v>
+        <v>1553.790907744316</v>
       </c>
       <c r="F8" t="n">
-        <v>12.55939482936198</v>
+        <v>12.59673624232384</v>
       </c>
     </row>
     <row r="9">
@@ -626,19 +626,19 @@
         <v>45658.5005787037</v>
       </c>
       <c r="B9" t="n">
-        <v>5.361989247028184</v>
+        <v>5.31627473899819</v>
       </c>
       <c r="C9" t="n">
-        <v>63.08596413200716</v>
+        <v>63.07122088530102</v>
       </c>
       <c r="D9" t="n">
-        <v>524.3244006019016</v>
+        <v>536.7485959430527</v>
       </c>
       <c r="E9" t="n">
-        <v>1584.012655222843</v>
+        <v>1579.63041465511</v>
       </c>
       <c r="F9" t="n">
-        <v>12.75363819905064</v>
+        <v>12.6940600434106</v>
       </c>
     </row>
     <row r="10">
@@ -646,19 +646,19 @@
         <v>45658.50069444445</v>
       </c>
       <c r="B10" t="n">
-        <v>5.46043972347434</v>
+        <v>5.567796356347893</v>
       </c>
       <c r="C10" t="n">
-        <v>64.048107437515</v>
+        <v>63.43655216536913</v>
       </c>
       <c r="D10" t="n">
-        <v>554.9408002247344</v>
+        <v>539.4160396607396</v>
       </c>
       <c r="E10" t="n">
-        <v>1597.889170379115</v>
+        <v>1598.303865239308</v>
       </c>
       <c r="F10" t="n">
-        <v>12.83904297305605</v>
+        <v>12.79392347722466</v>
       </c>
     </row>
     <row r="11">
@@ -666,19 +666,19 @@
         <v>45658.50081018519</v>
       </c>
       <c r="B11" t="n">
-        <v>5.591838845519792</v>
+        <v>5.231106771570639</v>
       </c>
       <c r="C11" t="n">
-        <v>65.55950321338146</v>
+        <v>65.05460362690353</v>
       </c>
       <c r="D11" t="n">
-        <v>553.1106732009443</v>
+        <v>547.5282913189847</v>
       </c>
       <c r="E11" t="n">
-        <v>1608.950525126702</v>
+        <v>1627.835165423005</v>
       </c>
       <c r="F11" t="n">
-        <v>12.94958677146408</v>
+        <v>12.96055669686384</v>
       </c>
     </row>
     <row r="12">
@@ -686,19 +686,19 @@
         <v>45658.50092592592</v>
       </c>
       <c r="B12" t="n">
-        <v>5.556198833215475</v>
+        <v>5.625031353095972</v>
       </c>
       <c r="C12" t="n">
-        <v>65.82893544371406</v>
+        <v>65.68870762836836</v>
       </c>
       <c r="D12" t="n">
-        <v>561.4497168883229</v>
+        <v>557.1153125140061</v>
       </c>
       <c r="E12" t="n">
-        <v>1614.651430568655</v>
+        <v>1637.587948821918</v>
       </c>
       <c r="F12" t="n">
-        <v>13.09975618778727</v>
+        <v>13.10266746306287</v>
       </c>
     </row>
     <row r="13">
@@ -706,19 +706,19 @@
         <v>45658.50104166667</v>
       </c>
       <c r="B13" t="n">
-        <v>5.70179363084718</v>
+        <v>5.647075690420557</v>
       </c>
       <c r="C13" t="n">
-        <v>66.15573767652697</v>
+        <v>66.47381828439887</v>
       </c>
       <c r="D13" t="n">
-        <v>565.1510233788588</v>
+        <v>560.3906472629169</v>
       </c>
       <c r="E13" t="n">
-        <v>1654.270684674996</v>
+        <v>1648.442217558291</v>
       </c>
       <c r="F13" t="n">
-        <v>13.18664178259691</v>
+        <v>13.24783777410611</v>
       </c>
     </row>
     <row r="14">
@@ -726,19 +726,19 @@
         <v>45658.50115740741</v>
       </c>
       <c r="B14" t="n">
-        <v>5.733857978371507</v>
+        <v>5.674852706974235</v>
       </c>
       <c r="C14" t="n">
-        <v>66.98746290448302</v>
+        <v>66.45706344379644</v>
       </c>
       <c r="D14" t="n">
-        <v>565.0713814776205</v>
+        <v>571.2432502291949</v>
       </c>
       <c r="E14" t="n">
-        <v>1665.529441844797</v>
+        <v>1673.03648246849</v>
       </c>
       <c r="F14" t="n">
-        <v>13.33137179325754</v>
+        <v>13.37104832316355</v>
       </c>
     </row>
     <row r="15">
@@ -746,19 +746,19 @@
         <v>45658.50127314815</v>
       </c>
       <c r="B15" t="n">
-        <v>5.684651226220245</v>
+        <v>5.539104636399476</v>
       </c>
       <c r="C15" t="n">
-        <v>66.74509701389145</v>
+        <v>68.07435355562056</v>
       </c>
       <c r="D15" t="n">
-        <v>580.5272226099806</v>
+        <v>574.4294495481893</v>
       </c>
       <c r="E15" t="n">
-        <v>1701.404800490264</v>
+        <v>1702.285870515069</v>
       </c>
       <c r="F15" t="n">
-        <v>13.48060506135953</v>
+        <v>13.4638727498162</v>
       </c>
     </row>
     <row r="16">
@@ -766,19 +766,19 @@
         <v>45658.50138888889</v>
       </c>
       <c r="B16" t="n">
-        <v>5.686475233403822</v>
+        <v>5.768997376039397</v>
       </c>
       <c r="C16" t="n">
-        <v>68.5013759196458</v>
+        <v>67.82457864418387</v>
       </c>
       <c r="D16" t="n">
-        <v>584.0366480312081</v>
+        <v>578.4941467855659</v>
       </c>
       <c r="E16" t="n">
-        <v>1697.392940888662</v>
+        <v>1717.212628436303</v>
       </c>
       <c r="F16" t="n">
-        <v>13.67390836421554</v>
+        <v>13.65975503817298</v>
       </c>
     </row>
     <row r="17">
@@ -786,19 +786,19 @@
         <v>45658.50150462963</v>
       </c>
       <c r="B17" t="n">
-        <v>5.902595304546387</v>
+        <v>5.805795781812968</v>
       </c>
       <c r="C17" t="n">
-        <v>69.05379741520763</v>
+        <v>68.80325950126588</v>
       </c>
       <c r="D17" t="n">
-        <v>595.3937612969065</v>
+        <v>593.3018718041218</v>
       </c>
       <c r="E17" t="n">
-        <v>1718.052413420507</v>
+        <v>1741.555338624975</v>
       </c>
       <c r="F17" t="n">
-        <v>13.64364695036947</v>
+        <v>13.76757122274523</v>
       </c>
     </row>
     <row r="18">
@@ -806,19 +806,19 @@
         <v>45658.50162037037</v>
       </c>
       <c r="B18" t="n">
-        <v>5.747240817238167</v>
+        <v>5.818480236555576</v>
       </c>
       <c r="C18" t="n">
-        <v>69.42370579116562</v>
+        <v>69.78523274102893</v>
       </c>
       <c r="D18" t="n">
-        <v>599.8468225932961</v>
+        <v>601.4145806735023</v>
       </c>
       <c r="E18" t="n">
-        <v>1717.299142799766</v>
+        <v>1737.318727026737</v>
       </c>
       <c r="F18" t="n">
-        <v>13.8755742791253</v>
+        <v>13.83104413074979</v>
       </c>
     </row>
     <row r="19">
@@ -826,19 +826,19 @@
         <v>45658.50173611111</v>
       </c>
       <c r="B19" t="n">
-        <v>6.184936027462082</v>
+        <v>6.084311138214987</v>
       </c>
       <c r="C19" t="n">
-        <v>70.27126735721231</v>
+        <v>70.07426033036269</v>
       </c>
       <c r="D19" t="n">
-        <v>605.1335971431332</v>
+        <v>613.1052529357036</v>
       </c>
       <c r="E19" t="n">
-        <v>1742.339281441562</v>
+        <v>1751.48607206452</v>
       </c>
       <c r="F19" t="n">
-        <v>14.0252682548723</v>
+        <v>14.03857305027724</v>
       </c>
     </row>
     <row r="20">
@@ -846,19 +846,19 @@
         <v>45658.50185185186</v>
       </c>
       <c r="B20" t="n">
-        <v>6.120690175920363</v>
+        <v>6.115724225733154</v>
       </c>
       <c r="C20" t="n">
-        <v>69.75067955256912</v>
+        <v>70.14517711498208</v>
       </c>
       <c r="D20" t="n">
-        <v>598.6676294680708</v>
+        <v>602.8839109062208</v>
       </c>
       <c r="E20" t="n">
-        <v>1760.802139493416</v>
+        <v>1764.570438605212</v>
       </c>
       <c r="F20" t="n">
-        <v>14.18028563900264</v>
+        <v>14.13004083304087</v>
       </c>
     </row>
     <row r="21">
@@ -866,19 +866,19 @@
         <v>45658.50196759259</v>
       </c>
       <c r="B21" t="n">
-        <v>6.049800701184678</v>
+        <v>5.905542638786635</v>
       </c>
       <c r="C21" t="n">
-        <v>71.51975139994596</v>
+        <v>70.04848456607655</v>
       </c>
       <c r="D21" t="n">
-        <v>610.7989024641041</v>
+        <v>617.1494253971657</v>
       </c>
       <c r="E21" t="n">
-        <v>1777.266206776123</v>
+        <v>1770.515396764799</v>
       </c>
       <c r="F21" t="n">
-        <v>14.20051204232243</v>
+        <v>14.30161886879628</v>
       </c>
     </row>
     <row r="22">
@@ -886,19 +886,19 @@
         <v>45658.50208333333</v>
       </c>
       <c r="B22" t="n">
-        <v>6.071449784251526</v>
+        <v>6.19696567124976</v>
       </c>
       <c r="C22" t="n">
-        <v>72.64234486914135</v>
+        <v>71.90153901138625</v>
       </c>
       <c r="D22" t="n">
-        <v>605.0109989766441</v>
+        <v>618.8172001955804</v>
       </c>
       <c r="E22" t="n">
-        <v>1802.882238621627</v>
+        <v>1804.474844896057</v>
       </c>
       <c r="F22" t="n">
-        <v>14.35865143547796</v>
+        <v>14.30691724524833</v>
       </c>
     </row>
     <row r="23">
@@ -906,19 +906,19 @@
         <v>45658.50219907407</v>
       </c>
       <c r="B23" t="n">
-        <v>6.163704147411987</v>
+        <v>6.385349111029938</v>
       </c>
       <c r="C23" t="n">
-        <v>72.33752842028552</v>
+        <v>71.44468887709576</v>
       </c>
       <c r="D23" t="n">
-        <v>622.2520587391977</v>
+        <v>625.9630100050865</v>
       </c>
       <c r="E23" t="n">
-        <v>1789.904318907566</v>
+        <v>1809.353806371346</v>
       </c>
       <c r="F23" t="n">
-        <v>14.45130658813673</v>
+        <v>14.43559233350124</v>
       </c>
     </row>
     <row r="24">
@@ -926,19 +926,19 @@
         <v>45658.50231481482</v>
       </c>
       <c r="B24" t="n">
-        <v>6.258066997683413</v>
+        <v>6.260248967712901</v>
       </c>
       <c r="C24" t="n">
-        <v>72.88530284039635</v>
+        <v>72.81055177753906</v>
       </c>
       <c r="D24" t="n">
-        <v>628.5080581190596</v>
+        <v>628.8141102212966</v>
       </c>
       <c r="E24" t="n">
-        <v>1821.102675437779</v>
+        <v>1822.777295307209</v>
       </c>
       <c r="F24" t="n">
-        <v>14.48778874899264</v>
+        <v>14.5481568406204</v>
       </c>
     </row>
     <row r="25">
@@ -946,19 +946,19 @@
         <v>45658.50243055556</v>
       </c>
       <c r="B25" t="n">
-        <v>6.38071903734319</v>
+        <v>6.251290961307753</v>
       </c>
       <c r="C25" t="n">
-        <v>73.08833684887395</v>
+        <v>73.36976183292997</v>
       </c>
       <c r="D25" t="n">
-        <v>629.5681295686522</v>
+        <v>634.6737251916725</v>
       </c>
       <c r="E25" t="n">
-        <v>1849.716036887859</v>
+        <v>1844.815012687688</v>
       </c>
       <c r="F25" t="n">
-        <v>14.75589800012031</v>
+        <v>14.72115618852255</v>
       </c>
     </row>
     <row r="26">
@@ -966,19 +966,19 @@
         <v>45658.50254629629</v>
       </c>
       <c r="B26" t="n">
-        <v>6.483681034512554</v>
+        <v>6.472929694900882</v>
       </c>
       <c r="C26" t="n">
-        <v>74.45943766473009</v>
+        <v>74.08790314368584</v>
       </c>
       <c r="D26" t="n">
-        <v>640.8224281034073</v>
+        <v>635.2391463315743</v>
       </c>
       <c r="E26" t="n">
-        <v>1868.009004741631</v>
+        <v>1859.966595796164</v>
       </c>
       <c r="F26" t="n">
-        <v>14.86811628689077</v>
+        <v>14.73084143119939</v>
       </c>
     </row>
     <row r="27">
@@ -986,19 +986,19 @@
         <v>45658.50266203703</v>
       </c>
       <c r="B27" t="n">
-        <v>6.501986863670968</v>
+        <v>6.550014461669285</v>
       </c>
       <c r="C27" t="n">
-        <v>74.14795582321157</v>
+        <v>75.2772575959029</v>
       </c>
       <c r="D27" t="n">
-        <v>643.9264933848067</v>
+        <v>638.1419788126334</v>
       </c>
       <c r="E27" t="n">
-        <v>1877.266237591049</v>
+        <v>1860.676380891182</v>
       </c>
       <c r="F27" t="n">
-        <v>14.96018759525728</v>
+        <v>14.9554381216559</v>
       </c>
     </row>
     <row r="28">
@@ -1006,19 +1006,19 @@
         <v>45658.50277777778</v>
       </c>
       <c r="B28" t="n">
-        <v>6.574849599337125</v>
+        <v>6.472346745415505</v>
       </c>
       <c r="C28" t="n">
-        <v>75.00051678567601</v>
+        <v>74.97140143379104</v>
       </c>
       <c r="D28" t="n">
-        <v>653.5145527962436</v>
+        <v>657.4153596078584</v>
       </c>
       <c r="E28" t="n">
-        <v>1870.692053225017</v>
+        <v>1870.760419663485</v>
       </c>
       <c r="F28" t="n">
-        <v>14.97332567280185</v>
+        <v>15.04813582617656</v>
       </c>
     </row>
     <row r="29">
@@ -1026,19 +1026,19 @@
         <v>45658.50289351852</v>
       </c>
       <c r="B29" t="n">
-        <v>6.702668252432533</v>
+        <v>6.474738025611498</v>
       </c>
       <c r="C29" t="n">
-        <v>75.12112333729145</v>
+        <v>75.63144151024905</v>
       </c>
       <c r="D29" t="n">
-        <v>654.8242956102208</v>
+        <v>653.3209720003957</v>
       </c>
       <c r="E29" t="n">
-        <v>1894.728593301552</v>
+        <v>1886.865517350534</v>
       </c>
       <c r="F29" t="n">
-        <v>15.07742486857914</v>
+        <v>15.04045299981722</v>
       </c>
     </row>
     <row r="30">
@@ -1046,19 +1046,19 @@
         <v>45658.50300925926</v>
       </c>
       <c r="B30" t="n">
-        <v>6.66892766946111</v>
+        <v>6.457794141208705</v>
       </c>
       <c r="C30" t="n">
-        <v>75.79468672117856</v>
+        <v>75.32555997315092</v>
       </c>
       <c r="D30" t="n">
-        <v>662.7077719048784</v>
+        <v>657.0457430946768</v>
       </c>
       <c r="E30" t="n">
-        <v>1904.74451925266</v>
+        <v>1909.635056100619</v>
       </c>
       <c r="F30" t="n">
-        <v>15.19654478652695</v>
+        <v>15.31622318483891</v>
       </c>
     </row>
     <row r="31">
@@ -1066,19 +1066,19 @@
         <v>45658.503125</v>
       </c>
       <c r="B31" t="n">
-        <v>6.395406550475095</v>
+        <v>6.631020001526912</v>
       </c>
       <c r="C31" t="n">
-        <v>75.94168366856576</v>
+        <v>76.2345188664862</v>
       </c>
       <c r="D31" t="n">
-        <v>660.5365294037645</v>
+        <v>663.7174133857618</v>
       </c>
       <c r="E31" t="n">
-        <v>1903.604113920873</v>
+        <v>1921.942330651546</v>
       </c>
       <c r="F31" t="n">
-        <v>15.19020056759438</v>
+        <v>15.2124209341606</v>
       </c>
     </row>
     <row r="32">
@@ -1086,19 +1086,19 @@
         <v>45658.50324074074</v>
       </c>
       <c r="B32" t="n">
-        <v>6.682009658228445</v>
+        <v>6.801373367149144</v>
       </c>
       <c r="C32" t="n">
-        <v>76.12402343307924</v>
+        <v>76.72571955184539</v>
       </c>
       <c r="D32" t="n">
-        <v>672.6135189575948</v>
+        <v>669.8469049165568</v>
       </c>
       <c r="E32" t="n">
-        <v>1927.957630836702</v>
+        <v>1905.870413082587</v>
       </c>
       <c r="F32" t="n">
-        <v>15.25466808081911</v>
+        <v>15.33953326125821</v>
       </c>
     </row>
     <row r="33">
@@ -1106,19 +1106,19 @@
         <v>45658.50335648148</v>
       </c>
       <c r="B33" t="n">
-        <v>6.685185785495904</v>
+        <v>6.777536659198431</v>
       </c>
       <c r="C33" t="n">
-        <v>77.09269217773056</v>
+        <v>76.30297596389697</v>
       </c>
       <c r="D33" t="n">
-        <v>674.2989929827691</v>
+        <v>680.4512596019077</v>
       </c>
       <c r="E33" t="n">
-        <v>1948.326993657799</v>
+        <v>1917.802696492978</v>
       </c>
       <c r="F33" t="n">
-        <v>15.50197930387225</v>
+        <v>15.39725776330833</v>
       </c>
     </row>
     <row r="34">
@@ -1126,19 +1126,19 @@
         <v>45658.50347222222</v>
       </c>
       <c r="B34" t="n">
-        <v>6.697014102827556</v>
+        <v>6.786547074930115</v>
       </c>
       <c r="C34" t="n">
-        <v>77.6457539829848</v>
+        <v>77.6827390882935</v>
       </c>
       <c r="D34" t="n">
-        <v>669.5800765644726</v>
+        <v>673.6602460284205</v>
       </c>
       <c r="E34" t="n">
-        <v>1927.769426399437</v>
+        <v>1933.756457609976</v>
       </c>
       <c r="F34" t="n">
-        <v>15.41613102667926</v>
+        <v>15.39584499418468</v>
       </c>
     </row>
     <row r="35">
@@ -1146,19 +1146,19 @@
         <v>45658.50358796296</v>
       </c>
       <c r="B35" t="n">
-        <v>6.776552941922961</v>
+        <v>6.754223106236092</v>
       </c>
       <c r="C35" t="n">
-        <v>77.73185454141368</v>
+        <v>77.11571947134128</v>
       </c>
       <c r="D35" t="n">
-        <v>678.806775204313</v>
+        <v>678.2518000400256</v>
       </c>
       <c r="E35" t="n">
-        <v>1930.041471513871</v>
+        <v>1932.302772126643</v>
       </c>
       <c r="F35" t="n">
-        <v>15.52140454821205</v>
+        <v>15.5635379493748</v>
       </c>
     </row>
     <row r="36">
@@ -1166,19 +1166,19 @@
         <v>45658.5037037037</v>
       </c>
       <c r="B36" t="n">
-        <v>6.589933449242791</v>
+        <v>6.76742492080225</v>
       </c>
       <c r="C36" t="n">
-        <v>78.03831979273228</v>
+        <v>79.29624230550078</v>
       </c>
       <c r="D36" t="n">
-        <v>683.0403334953282</v>
+        <v>683.7654057927887</v>
       </c>
       <c r="E36" t="n">
-        <v>1952.929572836028</v>
+        <v>1950.900561037009</v>
       </c>
       <c r="F36" t="n">
-        <v>15.59517801486683</v>
+        <v>15.70630285697175</v>
       </c>
     </row>
     <row r="37">
@@ -1186,19 +1186,19 @@
         <v>45658.50381944444</v>
       </c>
       <c r="B37" t="n">
-        <v>6.869580513947944</v>
+        <v>6.864599565441059</v>
       </c>
       <c r="C37" t="n">
-        <v>78.23138775514109</v>
+        <v>78.54931552462709</v>
       </c>
       <c r="D37" t="n">
-        <v>683.5586437447798</v>
+        <v>680.344532195914</v>
       </c>
       <c r="E37" t="n">
-        <v>1944.143627862252</v>
+        <v>1989.483952247565</v>
       </c>
       <c r="F37" t="n">
-        <v>15.66486865587082</v>
+        <v>15.69697914231815</v>
       </c>
     </row>
     <row r="38">
@@ -1206,19 +1206,19 @@
         <v>45658.50393518519</v>
       </c>
       <c r="B38" t="n">
-        <v>6.782150136274589</v>
+        <v>6.888936203231933</v>
       </c>
       <c r="C38" t="n">
-        <v>78.18173304613089</v>
+        <v>78.23870894353918</v>
       </c>
       <c r="D38" t="n">
-        <v>687.107789161721</v>
+        <v>693.5299337864515</v>
       </c>
       <c r="E38" t="n">
-        <v>1973.479626120724</v>
+        <v>1959.471647759076</v>
       </c>
       <c r="F38" t="n">
-        <v>15.70388584586846</v>
+        <v>15.64615167314168</v>
       </c>
     </row>
     <row r="39">
@@ -1226,19 +1226,19 @@
         <v>45658.50405092593</v>
       </c>
       <c r="B39" t="n">
-        <v>6.787115044442097</v>
+        <v>6.746217484439428</v>
       </c>
       <c r="C39" t="n">
-        <v>79.81214176609653</v>
+        <v>78.66396888145327</v>
       </c>
       <c r="D39" t="n">
-        <v>694.4946103965899</v>
+        <v>681.46354113616</v>
       </c>
       <c r="E39" t="n">
-        <v>1949.928029401435</v>
+        <v>1964.230719116988</v>
       </c>
       <c r="F39" t="n">
-        <v>15.64873482579097</v>
+        <v>15.81916736560066</v>
       </c>
     </row>
     <row r="40">
@@ -1246,19 +1246,19 @@
         <v>45658.50416666667</v>
       </c>
       <c r="B40" t="n">
-        <v>6.996341473210716</v>
+        <v>7.005755246076982</v>
       </c>
       <c r="C40" t="n">
-        <v>79.00073877715381</v>
+        <v>79.68911950368557</v>
       </c>
       <c r="D40" t="n">
-        <v>690.7541440053058</v>
+        <v>695.3542089691978</v>
       </c>
       <c r="E40" t="n">
-        <v>1988.75899911786</v>
+        <v>1975.756479155581</v>
       </c>
       <c r="F40" t="n">
-        <v>15.78720097840916</v>
+        <v>15.7300913373828</v>
       </c>
     </row>
     <row r="41">
@@ -1266,19 +1266,19 @@
         <v>45658.5042824074</v>
       </c>
       <c r="B41" t="n">
-        <v>6.872004854323927</v>
+        <v>6.901315102161197</v>
       </c>
       <c r="C41" t="n">
-        <v>79.57231482731498</v>
+        <v>79.54947428383356</v>
       </c>
       <c r="D41" t="n">
-        <v>698.3474923423379</v>
+        <v>686.0222610383291</v>
       </c>
       <c r="E41" t="n">
-        <v>1990.052004413654</v>
+        <v>1983.677444257018</v>
       </c>
       <c r="F41" t="n">
-        <v>15.87111538292965</v>
+        <v>15.79224171656195</v>
       </c>
     </row>
     <row r="42">
@@ -1286,19 +1286,19 @@
         <v>45658.50439814815</v>
       </c>
       <c r="B42" t="n">
-        <v>6.946553636418067</v>
+        <v>6.932135940399338</v>
       </c>
       <c r="C42" t="n">
-        <v>80.16346237631015</v>
+        <v>79.2324467361596</v>
       </c>
       <c r="D42" t="n">
-        <v>684.6858359482092</v>
+        <v>694.5657803203864</v>
       </c>
       <c r="E42" t="n">
-        <v>1988.239776290559</v>
+        <v>1978.531407382877</v>
       </c>
       <c r="F42" t="n">
-        <v>15.8695900006422</v>
+        <v>15.86078522404334</v>
       </c>
     </row>
     <row r="43">
@@ -1306,19 +1306,19 @@
         <v>45658.50451388889</v>
       </c>
       <c r="B43" t="n">
-        <v>7.02752867910462</v>
+        <v>7.035911604658977</v>
       </c>
       <c r="C43" t="n">
-        <v>80.05217705781897</v>
+        <v>80.89553562389536</v>
       </c>
       <c r="D43" t="n">
-        <v>692.8186793653459</v>
+        <v>694.886258227275</v>
       </c>
       <c r="E43" t="n">
-        <v>1995.78394901981</v>
+        <v>1988.887786380091</v>
       </c>
       <c r="F43" t="n">
-        <v>15.92755685240707</v>
+        <v>15.95782128746103</v>
       </c>
     </row>
     <row r="44">
@@ -1326,19 +1326,19 @@
         <v>45658.50462962963</v>
       </c>
       <c r="B44" t="n">
-        <v>6.777224394068136</v>
+        <v>6.999644690260281</v>
       </c>
       <c r="C44" t="n">
-        <v>79.7546762473887</v>
+        <v>79.97962965940579</v>
       </c>
       <c r="D44" t="n">
-        <v>698.3122109920037</v>
+        <v>692.9439056658044</v>
       </c>
       <c r="E44" t="n">
-        <v>1980.087211845839</v>
+        <v>1986.966624242103</v>
       </c>
       <c r="F44" t="n">
-        <v>15.91025255083441</v>
+        <v>15.89121917051532</v>
       </c>
     </row>
     <row r="45">
@@ -1346,19 +1346,19 @@
         <v>45658.50474537037</v>
       </c>
       <c r="B45" t="n">
-        <v>6.995697853197271</v>
+        <v>6.721362555285929</v>
       </c>
       <c r="C45" t="n">
-        <v>79.69139287742875</v>
+        <v>80.45238040747529</v>
       </c>
       <c r="D45" t="n">
-        <v>705.262568220783</v>
+        <v>698.8759354126374</v>
       </c>
       <c r="E45" t="n">
-        <v>2006.438184140932</v>
+        <v>1998.228685976318</v>
       </c>
       <c r="F45" t="n">
-        <v>15.9583649193714</v>
+        <v>15.95271040172761</v>
       </c>
     </row>
     <row r="46">
@@ -1366,19 +1366,19 @@
         <v>45658.50486111111</v>
       </c>
       <c r="B46" t="n">
-        <v>7.219922062362548</v>
+        <v>6.765719443260267</v>
       </c>
       <c r="C46" t="n">
-        <v>79.24813112384378</v>
+        <v>79.92593000762211</v>
       </c>
       <c r="D46" t="n">
-        <v>706.4492804040426</v>
+        <v>696.322901160219</v>
       </c>
       <c r="E46" t="n">
-        <v>1979.62559489459</v>
+        <v>1982.704702327969</v>
       </c>
       <c r="F46" t="n">
-        <v>15.90626320619236</v>
+        <v>15.91844838118505</v>
       </c>
     </row>
     <row r="47">
@@ -1386,19 +1386,19 @@
         <v>45658.50497685185</v>
       </c>
       <c r="B47" t="n">
-        <v>7.132044288161169</v>
+        <v>6.94670522298423</v>
       </c>
       <c r="C47" t="n">
-        <v>79.85659933734472</v>
+        <v>80.16899844840616</v>
       </c>
       <c r="D47" t="n">
-        <v>699.2478703506688</v>
+        <v>701.0621674492177</v>
       </c>
       <c r="E47" t="n">
-        <v>2001.433772105144</v>
+        <v>2009.623378246115</v>
       </c>
       <c r="F47" t="n">
-        <v>15.97546429422686</v>
+        <v>16.00651080274749</v>
       </c>
     </row>
     <row r="48">
@@ -1406,19 +1406,19 @@
         <v>45658.50509259259</v>
       </c>
       <c r="B48" t="n">
-        <v>6.985507215356662</v>
+        <v>7.135859734643373</v>
       </c>
       <c r="C48" t="n">
-        <v>80.72656082004656</v>
+        <v>79.58040648621569</v>
       </c>
       <c r="D48" t="n">
-        <v>703.747501986144</v>
+        <v>701.4021652972613</v>
       </c>
       <c r="E48" t="n">
-        <v>1995.341767399853</v>
+        <v>1971.295670942425</v>
       </c>
       <c r="F48" t="n">
-        <v>15.98130297609346</v>
+        <v>15.99041863428343</v>
       </c>
     </row>
     <row r="49">
@@ -1426,19 +1426,19 @@
         <v>45658.50520833334</v>
       </c>
       <c r="B49" t="n">
-        <v>7.093484111390231</v>
+        <v>7.072672129530647</v>
       </c>
       <c r="C49" t="n">
-        <v>81.20414272190287</v>
+        <v>79.26557431311937</v>
       </c>
       <c r="D49" t="n">
-        <v>692.841640822773</v>
+        <v>707.0057884843945</v>
       </c>
       <c r="E49" t="n">
-        <v>1987.585181520088</v>
+        <v>1997.507391040329</v>
       </c>
       <c r="F49" t="n">
-        <v>15.99032335316805</v>
+        <v>16.01987444428184</v>
       </c>
     </row>
     <row r="50">
@@ -1446,19 +1446,19 @@
         <v>45658.50532407407</v>
       </c>
       <c r="B50" t="n">
-        <v>7.119951418428732</v>
+        <v>6.943348236230497</v>
       </c>
       <c r="C50" t="n">
-        <v>79.14601700224591</v>
+        <v>79.56656318971608</v>
       </c>
       <c r="D50" t="n">
-        <v>704.6597386133217</v>
+        <v>701.3154038923865</v>
       </c>
       <c r="E50" t="n">
-        <v>1992.549302611106</v>
+        <v>1990.968746195819</v>
       </c>
       <c r="F50" t="n">
-        <v>15.95494175594502</v>
+        <v>15.95007067425926</v>
       </c>
     </row>
     <row r="51">
@@ -1466,19 +1466,19 @@
         <v>45658.50543981481</v>
       </c>
       <c r="B51" t="n">
-        <v>7.194330021587087</v>
+        <v>6.965849906792286</v>
       </c>
       <c r="C51" t="n">
-        <v>79.77845099390842</v>
+        <v>79.08492863215392</v>
       </c>
       <c r="D51" t="n">
-        <v>703.3518599651015</v>
+        <v>703.3220313949342</v>
       </c>
       <c r="E51" t="n">
-        <v>1998.02068342643</v>
+        <v>2017.899823812127</v>
       </c>
       <c r="F51" t="n">
-        <v>16.06692814426852</v>
+        <v>15.97949344949045</v>
       </c>
     </row>
     <row r="52">
@@ -1486,19 +1486,19 @@
         <v>45658.50555555556</v>
       </c>
       <c r="B52" t="n">
-        <v>7.096569173816269</v>
+        <v>7.130440855364705</v>
       </c>
       <c r="C52" t="n">
-        <v>79.44545752026271</v>
+        <v>79.78554806803496</v>
       </c>
       <c r="D52" t="n">
-        <v>693.622717154268</v>
+        <v>699.4912527006477</v>
       </c>
       <c r="E52" t="n">
-        <v>2008.165256351176</v>
+        <v>1988.045097917632</v>
       </c>
       <c r="F52" t="n">
-        <v>15.92993555588148</v>
+        <v>15.90115778661694</v>
       </c>
     </row>
     <row r="53">
@@ -1506,19 +1506,19 @@
         <v>45658.5056712963</v>
       </c>
       <c r="B53" t="n">
-        <v>6.987280987353511</v>
+        <v>6.909430886088371</v>
       </c>
       <c r="C53" t="n">
-        <v>79.42354011488544</v>
+        <v>79.66508763672816</v>
       </c>
       <c r="D53" t="n">
-        <v>697.8620797442046</v>
+        <v>693.9914312463479</v>
       </c>
       <c r="E53" t="n">
-        <v>1971.76017299312</v>
+        <v>1986.219388252071</v>
       </c>
       <c r="F53" t="n">
-        <v>15.88827312766088</v>
+        <v>15.93734578567407</v>
       </c>
     </row>
     <row r="54">
@@ -1526,19 +1526,19 @@
         <v>45658.50578703704</v>
       </c>
       <c r="B54" t="n">
-        <v>6.948491635672561</v>
+        <v>6.880951071717402</v>
       </c>
       <c r="C54" t="n">
-        <v>79.35978018121143</v>
+        <v>80.067848726105</v>
       </c>
       <c r="D54" t="n">
-        <v>698.8359582645011</v>
+        <v>694.0822254180388</v>
       </c>
       <c r="E54" t="n">
-        <v>1988.352852973397</v>
+        <v>2003.566981649024</v>
       </c>
       <c r="F54" t="n">
-        <v>16.02797278634559</v>
+        <v>15.88530571068764</v>
       </c>
     </row>
     <row r="55">
@@ -1546,19 +1546,19 @@
         <v>45658.50590277778</v>
       </c>
       <c r="B55" t="n">
-        <v>6.946653537425577</v>
+        <v>6.829055209137068</v>
       </c>
       <c r="C55" t="n">
-        <v>79.49442028338818</v>
+        <v>78.98218549706681</v>
       </c>
       <c r="D55" t="n">
-        <v>694.4223878075221</v>
+        <v>701.0794347434331</v>
       </c>
       <c r="E55" t="n">
-        <v>1993.176448807508</v>
+        <v>1980.107396879627</v>
       </c>
       <c r="F55" t="n">
-        <v>15.9809202922614</v>
+        <v>15.81833156718611</v>
       </c>
     </row>
     <row r="56">
@@ -1566,19 +1566,19 @@
         <v>45658.50601851852</v>
       </c>
       <c r="B56" t="n">
-        <v>6.844646900789673</v>
+        <v>6.90608520003013</v>
       </c>
       <c r="C56" t="n">
-        <v>79.7737813426702</v>
+        <v>79.46479223507646</v>
       </c>
       <c r="D56" t="n">
-        <v>699.0158279732599</v>
+        <v>699.5183881395177</v>
       </c>
       <c r="E56" t="n">
-        <v>2001.464519224764</v>
+        <v>1981.057905929627</v>
       </c>
       <c r="F56" t="n">
-        <v>15.94141359345206</v>
+        <v>15.95072901370984</v>
       </c>
     </row>
     <row r="57">
@@ -1586,19 +1586,19 @@
         <v>45658.50613425926</v>
       </c>
       <c r="B57" t="n">
-        <v>6.721395186119302</v>
+        <v>7.025012921153905</v>
       </c>
       <c r="C57" t="n">
-        <v>79.88226312654415</v>
+        <v>80.22163450020902</v>
       </c>
       <c r="D57" t="n">
-        <v>698.1992243392936</v>
+        <v>698.0084229430574</v>
       </c>
       <c r="E57" t="n">
-        <v>1982.88611711791</v>
+        <v>1993.565713040588</v>
       </c>
       <c r="F57" t="n">
-        <v>15.90277028130581</v>
+        <v>15.82460831949538</v>
       </c>
     </row>
     <row r="58">
@@ -1606,19 +1606,19 @@
         <v>45658.50625</v>
       </c>
       <c r="B58" t="n">
-        <v>6.786936555697197</v>
+        <v>7.007404186902217</v>
       </c>
       <c r="C58" t="n">
-        <v>79.29782003592399</v>
+        <v>79.27687016707715</v>
       </c>
       <c r="D58" t="n">
-        <v>688.8189829719512</v>
+        <v>690.4250012899737</v>
       </c>
       <c r="E58" t="n">
-        <v>1964.059542564552</v>
+        <v>2004.142098080018</v>
       </c>
       <c r="F58" t="n">
-        <v>15.65197110682974</v>
+        <v>15.79198930234991</v>
       </c>
     </row>
     <row r="59">
@@ -1626,19 +1626,19 @@
         <v>45658.50636574074</v>
       </c>
       <c r="B59" t="n">
-        <v>6.776988201373278</v>
+        <v>7.12739766805592</v>
       </c>
       <c r="C59" t="n">
-        <v>79.10891284955832</v>
+        <v>79.41761836664138</v>
       </c>
       <c r="D59" t="n">
-        <v>678.5856385276194</v>
+        <v>690.9394831430377</v>
       </c>
       <c r="E59" t="n">
-        <v>1965.083928580313</v>
+        <v>1968.280666102976</v>
       </c>
       <c r="F59" t="n">
-        <v>15.73522274224647</v>
+        <v>15.74087095190609</v>
       </c>
     </row>
     <row r="60">
@@ -1646,19 +1646,19 @@
         <v>45658.50648148148</v>
       </c>
       <c r="B60" t="n">
-        <v>6.874662041673294</v>
+        <v>7.034621127189325</v>
       </c>
       <c r="C60" t="n">
-        <v>77.98082977749698</v>
+        <v>78.13641025159471</v>
       </c>
       <c r="D60" t="n">
-        <v>682.962100827076</v>
+        <v>684.247715754478</v>
       </c>
       <c r="E60" t="n">
-        <v>1958.884275043452</v>
+        <v>1951.364897744546</v>
       </c>
       <c r="F60" t="n">
-        <v>15.62186187602288</v>
+        <v>15.70214025670641</v>
       </c>
     </row>
     <row r="61">
@@ -1666,19 +1666,19 @@
         <v>45658.50659722222</v>
       </c>
       <c r="B61" t="n">
-        <v>6.951772508759475</v>
+        <v>6.719102799249524</v>
       </c>
       <c r="C61" t="n">
-        <v>78.53378124670971</v>
+        <v>77.96562566749259</v>
       </c>
       <c r="D61" t="n">
-        <v>682.991123878898</v>
+        <v>685.4780233061724</v>
       </c>
       <c r="E61" t="n">
-        <v>1955.152244858399</v>
+        <v>1957.097120570855</v>
       </c>
       <c r="F61" t="n">
-        <v>15.59030126106016</v>
+        <v>15.69007711870069</v>
       </c>
     </row>
     <row r="62">
@@ -1686,19 +1686,19 @@
         <v>45658.50671296296</v>
       </c>
       <c r="B62" t="n">
-        <v>6.717881938738267</v>
+        <v>6.589289070031644</v>
       </c>
       <c r="C62" t="n">
-        <v>77.88061838531338</v>
+        <v>77.50975767029414</v>
       </c>
       <c r="D62" t="n">
-        <v>676.9962687229611</v>
+        <v>686.1193667813208</v>
       </c>
       <c r="E62" t="n">
-        <v>1960.217330117777</v>
+        <v>1945.965060373884</v>
       </c>
       <c r="F62" t="n">
-        <v>15.63780381160403</v>
+        <v>15.49983274487058</v>
       </c>
     </row>
     <row r="63">
@@ -1706,19 +1706,19 @@
         <v>45658.50682870371</v>
       </c>
       <c r="B63" t="n">
-        <v>6.926744547038363</v>
+        <v>6.829366970929876</v>
       </c>
       <c r="C63" t="n">
-        <v>78.63310269870433</v>
+        <v>77.89960812623237</v>
       </c>
       <c r="D63" t="n">
-        <v>662.9181124520221</v>
+        <v>665.5923319661133</v>
       </c>
       <c r="E63" t="n">
-        <v>1928.887087205004</v>
+        <v>1949.091679691139</v>
       </c>
       <c r="F63" t="n">
-        <v>15.49246665182624</v>
+        <v>15.54190309428132</v>
       </c>
     </row>
     <row r="64">
@@ -1726,19 +1726,19 @@
         <v>45658.50694444445</v>
       </c>
       <c r="B64" t="n">
-        <v>6.79153055847585</v>
+        <v>6.772001761200446</v>
       </c>
       <c r="C64" t="n">
-        <v>77.09903623408697</v>
+        <v>77.17848924979909</v>
       </c>
       <c r="D64" t="n">
-        <v>666.90488568442</v>
+        <v>667.2794466698236</v>
       </c>
       <c r="E64" t="n">
-        <v>1929.855717861938</v>
+        <v>1926.681375545175</v>
       </c>
       <c r="F64" t="n">
-        <v>15.41055985203143</v>
+        <v>15.45279520080123</v>
       </c>
     </row>
     <row r="65">
@@ -1746,19 +1746,19 @@
         <v>45658.50706018518</v>
       </c>
       <c r="B65" t="n">
-        <v>6.74472877628294</v>
+        <v>6.766500050105249</v>
       </c>
       <c r="C65" t="n">
-        <v>76.23690308374506</v>
+        <v>77.62116580751338</v>
       </c>
       <c r="D65" t="n">
-        <v>676.0916428347097</v>
+        <v>666.4025647528665</v>
       </c>
       <c r="E65" t="n">
-        <v>1925.070395535247</v>
+        <v>1931.221741370318</v>
       </c>
       <c r="F65" t="n">
-        <v>15.34748258206382</v>
+        <v>15.34356469221293</v>
       </c>
     </row>
     <row r="66">
@@ -1766,19 +1766,19 @@
         <v>45658.50717592592</v>
       </c>
       <c r="B66" t="n">
-        <v>6.523034006844487</v>
+        <v>6.377965950285165</v>
       </c>
       <c r="C66" t="n">
-        <v>76.10400604055376</v>
+        <v>76.30912777849383</v>
       </c>
       <c r="D66" t="n">
-        <v>658.3887062789776</v>
+        <v>658.3268418962323</v>
       </c>
       <c r="E66" t="n">
-        <v>1924.339528556314</v>
+        <v>1927.349899668789</v>
       </c>
       <c r="F66" t="n">
-        <v>15.27456369007529</v>
+        <v>15.27241139117222</v>
       </c>
     </row>
     <row r="67">
@@ -1786,19 +1786,19 @@
         <v>45658.50729166667</v>
       </c>
       <c r="B67" t="n">
-        <v>6.402097760791897</v>
+        <v>6.647633858476304</v>
       </c>
       <c r="C67" t="n">
-        <v>75.82290213666873</v>
+        <v>76.20505195443768</v>
       </c>
       <c r="D67" t="n">
-        <v>653.2855198247141</v>
+        <v>668.0262083922364</v>
       </c>
       <c r="E67" t="n">
-        <v>1927.010415429914</v>
+        <v>1909.499318936599</v>
       </c>
       <c r="F67" t="n">
-        <v>15.20379828287131</v>
+        <v>15.1989888458768</v>
       </c>
     </row>
     <row r="68">
@@ -1806,19 +1806,19 @@
         <v>45658.50740740741</v>
       </c>
       <c r="B68" t="n">
-        <v>6.70555010437144</v>
+        <v>6.419675214539012</v>
       </c>
       <c r="C68" t="n">
-        <v>76.33428379129897</v>
+        <v>76.11629321496461</v>
       </c>
       <c r="D68" t="n">
-        <v>657.0596861075569</v>
+        <v>651.9144906797335</v>
       </c>
       <c r="E68" t="n">
-        <v>1898.657029256946</v>
+        <v>1898.064029036368</v>
       </c>
       <c r="F68" t="n">
-        <v>15.13153432511048</v>
+        <v>15.24220298680204</v>
       </c>
     </row>
     <row r="69">
@@ -1826,19 +1826,19 @@
         <v>45658.50752314815</v>
       </c>
       <c r="B69" t="n">
-        <v>6.616971174520769</v>
+        <v>6.50502515078402</v>
       </c>
       <c r="C69" t="n">
-        <v>76.28524029531937</v>
+        <v>75.19241376524921</v>
       </c>
       <c r="D69" t="n">
-        <v>658.9445483423842</v>
+        <v>653.041429939155</v>
       </c>
       <c r="E69" t="n">
-        <v>1897.341094756634</v>
+        <v>1865.888698107631</v>
       </c>
       <c r="F69" t="n">
-        <v>15.02529538392503</v>
+        <v>15.0781901653541</v>
       </c>
     </row>
     <row r="70">
@@ -1846,19 +1846,19 @@
         <v>45658.50763888889</v>
       </c>
       <c r="B70" t="n">
-        <v>6.248982329668289</v>
+        <v>6.404675490359737</v>
       </c>
       <c r="C70" t="n">
-        <v>74.74367635938886</v>
+        <v>74.18809700250586</v>
       </c>
       <c r="D70" t="n">
-        <v>646.7910716526728</v>
+        <v>659.5071205057685</v>
       </c>
       <c r="E70" t="n">
-        <v>1867.821969264609</v>
+        <v>1881.520833988774</v>
       </c>
       <c r="F70" t="n">
-        <v>14.91033008118483</v>
+        <v>14.95408070394349</v>
       </c>
     </row>
     <row r="71">
@@ -1866,19 +1866,19 @@
         <v>45658.50775462963</v>
       </c>
       <c r="B71" t="n">
-        <v>6.384207505531662</v>
+        <v>6.479355081671588</v>
       </c>
       <c r="C71" t="n">
-        <v>74.62559965067332</v>
+        <v>73.69451658418814</v>
       </c>
       <c r="D71" t="n">
-        <v>637.5616933541571</v>
+        <v>636.6789211995305</v>
       </c>
       <c r="E71" t="n">
-        <v>1867.495219546029</v>
+        <v>1850.724643282396</v>
       </c>
       <c r="F71" t="n">
-        <v>14.94319530039965</v>
+        <v>14.86276273811721</v>
       </c>
     </row>
     <row r="72">
@@ -1886,19 +1886,19 @@
         <v>45658.50787037037</v>
       </c>
       <c r="B72" t="n">
-        <v>6.309721732097674</v>
+        <v>6.174343609802284</v>
       </c>
       <c r="C72" t="n">
-        <v>73.98890587802676</v>
+        <v>73.95112406026114</v>
       </c>
       <c r="D72" t="n">
-        <v>633.197920898405</v>
+        <v>635.7272618362746</v>
       </c>
       <c r="E72" t="n">
-        <v>1844.457531530629</v>
+        <v>1854.040747859515</v>
       </c>
       <c r="F72" t="n">
-        <v>14.85193970498853</v>
+        <v>14.65367713929549</v>
       </c>
     </row>
     <row r="73">
@@ -1906,19 +1906,19 @@
         <v>45658.50798611111</v>
       </c>
       <c r="B73" t="n">
-        <v>6.287877786456117</v>
+        <v>6.335427356676961</v>
       </c>
       <c r="C73" t="n">
-        <v>73.21266996222489</v>
+        <v>72.54599265895042</v>
       </c>
       <c r="D73" t="n">
-        <v>635.889308527749</v>
+        <v>637.0631318892443</v>
       </c>
       <c r="E73" t="n">
-        <v>1835.695458546142</v>
+        <v>1837.028429038483</v>
       </c>
       <c r="F73" t="n">
-        <v>14.67405972314622</v>
+        <v>14.63058759503431</v>
       </c>
     </row>
     <row r="74">
@@ -1926,19 +1926,19 @@
         <v>45658.50810185185</v>
       </c>
       <c r="B74" t="n">
-        <v>6.278366325268761</v>
+        <v>6.394309655238425</v>
       </c>
       <c r="C74" t="n">
-        <v>72.6158797740927</v>
+        <v>73.48366961409054</v>
       </c>
       <c r="D74" t="n">
-        <v>631.4764297749508</v>
+        <v>628.4190075098645</v>
       </c>
       <c r="E74" t="n">
-        <v>1819.193269210102</v>
+        <v>1805.357719837221</v>
       </c>
       <c r="F74" t="n">
-        <v>14.57803852968476</v>
+        <v>14.50745557752975</v>
       </c>
     </row>
     <row r="75">
@@ -1946,19 +1946,19 @@
         <v>45658.50821759259</v>
       </c>
       <c r="B75" t="n">
-        <v>6.209713507650755</v>
+        <v>6.256132629073857</v>
       </c>
       <c r="C75" t="n">
-        <v>71.6554365556529</v>
+        <v>72.003270500806</v>
       </c>
       <c r="D75" t="n">
-        <v>616.7913906550433</v>
+        <v>625.3665304754863</v>
       </c>
       <c r="E75" t="n">
-        <v>1801.851991169479</v>
+        <v>1795.860589773032</v>
       </c>
       <c r="F75" t="n">
-        <v>14.42852757035126</v>
+        <v>14.48780225457898</v>
       </c>
     </row>
     <row r="76">
@@ -1966,19 +1966,19 @@
         <v>45658.50833333333</v>
       </c>
       <c r="B76" t="n">
-        <v>6.236336801500295</v>
+        <v>6.179556259753739</v>
       </c>
       <c r="C76" t="n">
-        <v>71.43556289029249</v>
+        <v>70.93517118856546</v>
       </c>
       <c r="D76" t="n">
-        <v>611.181029777498</v>
+        <v>610.8700124855312</v>
       </c>
       <c r="E76" t="n">
-        <v>1793.280991711923</v>
+        <v>1791.73442092501</v>
       </c>
       <c r="F76" t="n">
-        <v>14.24776465955104</v>
+        <v>14.18626136046019</v>
       </c>
     </row>
     <row r="77">
@@ -1986,19 +1986,19 @@
         <v>45658.50844907408</v>
       </c>
       <c r="B77" t="n">
-        <v>6.07318565082527</v>
+        <v>6.223617715522149</v>
       </c>
       <c r="C77" t="n">
-        <v>71.12005264625174</v>
+        <v>71.91736951724663</v>
       </c>
       <c r="D77" t="n">
-        <v>617.4973299986819</v>
+        <v>604.227121296145</v>
       </c>
       <c r="E77" t="n">
-        <v>1768.574501039494</v>
+        <v>1770.356506177246</v>
       </c>
       <c r="F77" t="n">
-        <v>14.25253345010293</v>
+        <v>14.24056469267818</v>
       </c>
     </row>
     <row r="78">
@@ -2006,19 +2006,19 @@
         <v>45658.50856481482</v>
       </c>
       <c r="B78" t="n">
-        <v>5.988880086375181</v>
+        <v>6.163527136817267</v>
       </c>
       <c r="C78" t="n">
-        <v>70.98866074237174</v>
+        <v>70.27354077987137</v>
       </c>
       <c r="D78" t="n">
-        <v>608.5728582101824</v>
+        <v>606.2653262837131</v>
       </c>
       <c r="E78" t="n">
-        <v>1765.527538662705</v>
+        <v>1767.90223464198</v>
       </c>
       <c r="F78" t="n">
-        <v>14.11927026176808</v>
+        <v>14.13370327477384</v>
       </c>
     </row>
     <row r="79">
@@ -2026,19 +2026,19 @@
         <v>45658.50868055555</v>
       </c>
       <c r="B79" t="n">
-        <v>5.974072502296204</v>
+        <v>6.089714472162575</v>
       </c>
       <c r="C79" t="n">
-        <v>70.39615626461804</v>
+        <v>69.32326048840306</v>
       </c>
       <c r="D79" t="n">
-        <v>604.707450859458</v>
+        <v>598.9673521008496</v>
       </c>
       <c r="E79" t="n">
-        <v>1744.577986600112</v>
+        <v>1759.316099174611</v>
       </c>
       <c r="F79" t="n">
-        <v>13.98016953071335</v>
+        <v>13.85922652689209</v>
       </c>
     </row>
     <row r="80">
@@ -2046,19 +2046,19 @@
         <v>45658.50879629629</v>
       </c>
       <c r="B80" t="n">
-        <v>5.755984399077144</v>
+        <v>6.079195590662912</v>
       </c>
       <c r="C80" t="n">
-        <v>68.66094000701349</v>
+        <v>68.93738329387347</v>
       </c>
       <c r="D80" t="n">
-        <v>588.6105290032768</v>
+        <v>596.7666016372988</v>
       </c>
       <c r="E80" t="n">
-        <v>1736.982505313651</v>
+        <v>1723.750930907747</v>
       </c>
       <c r="F80" t="n">
-        <v>13.81407442850219</v>
+        <v>13.90795346096395</v>
       </c>
     </row>
     <row r="81">
@@ -2066,19 +2066,19 @@
         <v>45658.50891203704</v>
       </c>
       <c r="B81" t="n">
-        <v>5.877635474872611</v>
+        <v>5.867105784168004</v>
       </c>
       <c r="C81" t="n">
-        <v>68.51384535397338</v>
+        <v>69.34831210334218</v>
       </c>
       <c r="D81" t="n">
-        <v>584.4621492053121</v>
+        <v>589.3993778036433</v>
       </c>
       <c r="E81" t="n">
-        <v>1713.530917449897</v>
+        <v>1708.188326059466</v>
       </c>
       <c r="F81" t="n">
-        <v>13.73496917601514</v>
+        <v>13.69504387516095</v>
       </c>
     </row>
     <row r="82">
@@ -2086,19 +2086,19 @@
         <v>45658.50902777778</v>
       </c>
       <c r="B82" t="n">
-        <v>5.807418197887695</v>
+        <v>5.820134976553852</v>
       </c>
       <c r="C82" t="n">
-        <v>68.20944668728568</v>
+        <v>67.54573930550342</v>
       </c>
       <c r="D82" t="n">
-        <v>574.5957519910343</v>
+        <v>575.2486949549556</v>
       </c>
       <c r="E82" t="n">
-        <v>1712.876156258443</v>
+        <v>1714.28307418751</v>
       </c>
       <c r="F82" t="n">
-        <v>13.58761115527766</v>
+        <v>13.52674166572551</v>
       </c>
     </row>
     <row r="83">
@@ -2106,19 +2106,19 @@
         <v>45658.50914351852</v>
       </c>
       <c r="B83" t="n">
-        <v>5.704793078853663</v>
+        <v>5.441538440462435</v>
       </c>
       <c r="C83" t="n">
-        <v>67.63211026889266</v>
+        <v>67.90252135993464</v>
       </c>
       <c r="D83" t="n">
-        <v>569.8823306960143</v>
+        <v>573.7773213834903</v>
       </c>
       <c r="E83" t="n">
-        <v>1675.627340472694</v>
+        <v>1678.236648521815</v>
       </c>
       <c r="F83" t="n">
-        <v>13.51205594186138</v>
+        <v>13.54969444975755</v>
       </c>
     </row>
     <row r="84">
@@ -2126,19 +2126,19 @@
         <v>45658.50925925926</v>
       </c>
       <c r="B84" t="n">
-        <v>5.623709792214096</v>
+        <v>5.695470984375678</v>
       </c>
       <c r="C84" t="n">
-        <v>66.75781788168804</v>
+        <v>67.45964128540747</v>
       </c>
       <c r="D84" t="n">
-        <v>562.0478883666267</v>
+        <v>573.6927199416762</v>
       </c>
       <c r="E84" t="n">
-        <v>1658.314063664597</v>
+        <v>1665.836191601536</v>
       </c>
       <c r="F84" t="n">
-        <v>13.3461728296095</v>
+        <v>13.30319637643505</v>
       </c>
     </row>
     <row r="85">
@@ -2146,19 +2146,19 @@
         <v>45658.509375</v>
       </c>
       <c r="B85" t="n">
-        <v>5.565107566771434</v>
+        <v>5.631026694853821</v>
       </c>
       <c r="C85" t="n">
-        <v>66.38583942929768</v>
+        <v>66.57441785167333</v>
       </c>
       <c r="D85" t="n">
-        <v>562.5533133559957</v>
+        <v>558.9423687581418</v>
       </c>
       <c r="E85" t="n">
-        <v>1656.039475820612</v>
+        <v>1642.546316495729</v>
       </c>
       <c r="F85" t="n">
-        <v>13.22972062267998</v>
+        <v>13.20784162655348</v>
       </c>
     </row>
     <row r="86">
@@ -2166,19 +2166,19 @@
         <v>45658.50949074074</v>
       </c>
       <c r="B86" t="n">
-        <v>5.542424407181657</v>
+        <v>5.540172309327067</v>
       </c>
       <c r="C86" t="n">
-        <v>65.45723180170195</v>
+        <v>66.35740470794958</v>
       </c>
       <c r="D86" t="n">
-        <v>554.4840451207226</v>
+        <v>558.1778393463115</v>
       </c>
       <c r="E86" t="n">
-        <v>1636.691934526818</v>
+        <v>1640.341737362889</v>
       </c>
       <c r="F86" t="n">
-        <v>13.13476891403539</v>
+        <v>13.08474386400878</v>
       </c>
     </row>
     <row r="87">
@@ -2186,19 +2186,19 @@
         <v>45658.50960648148</v>
       </c>
       <c r="B87" t="n">
-        <v>5.407914099670371</v>
+        <v>5.451380142029186</v>
       </c>
       <c r="C87" t="n">
-        <v>65.31243088177273</v>
+        <v>65.24059693980534</v>
       </c>
       <c r="D87" t="n">
-        <v>555.6547817343931</v>
+        <v>545.24887222277</v>
       </c>
       <c r="E87" t="n">
-        <v>1629.898244278254</v>
+        <v>1609.010295552004</v>
       </c>
       <c r="F87" t="n">
-        <v>12.97849460794036</v>
+        <v>12.89211931187567</v>
       </c>
     </row>
     <row r="88">
@@ -2206,19 +2206,19 @@
         <v>45658.50972222222</v>
       </c>
       <c r="B88" t="n">
-        <v>5.288867523934304</v>
+        <v>5.461598590349179</v>
       </c>
       <c r="C88" t="n">
-        <v>64.39150028523686</v>
+        <v>63.31032186818113</v>
       </c>
       <c r="D88" t="n">
-        <v>539.5269267602138</v>
+        <v>538.9675753586957</v>
       </c>
       <c r="E88" t="n">
-        <v>1580.758622341434</v>
+        <v>1602.271165209281</v>
       </c>
       <c r="F88" t="n">
-        <v>12.76319338560256</v>
+        <v>12.81561585185061</v>
       </c>
     </row>
     <row r="89">
@@ -2226,19 +2226,19 @@
         <v>45658.50983796296</v>
       </c>
       <c r="B89" t="n">
-        <v>5.317877727346656</v>
+        <v>5.389129099288881</v>
       </c>
       <c r="C89" t="n">
-        <v>62.54206681609135</v>
+        <v>62.73388531919298</v>
       </c>
       <c r="D89" t="n">
-        <v>531.5220619634202</v>
+        <v>522.8615665050002</v>
       </c>
       <c r="E89" t="n">
-        <v>1568.110852153767</v>
+        <v>1574.042103128874</v>
       </c>
       <c r="F89" t="n">
-        <v>12.75158191280203</v>
+        <v>12.73394131985985</v>
       </c>
     </row>
     <row r="90">
@@ -2246,19 +2246,19 @@
         <v>45658.5099537037</v>
       </c>
       <c r="B90" t="n">
-        <v>5.271521148703522</v>
+        <v>5.401853912252564</v>
       </c>
       <c r="C90" t="n">
-        <v>63.10985203355479</v>
+        <v>62.46885368168701</v>
       </c>
       <c r="D90" t="n">
-        <v>528.3531858838321</v>
+        <v>526.074869145324</v>
       </c>
       <c r="E90" t="n">
-        <v>1564.440765263709</v>
+        <v>1552.581490945109</v>
       </c>
       <c r="F90" t="n">
-        <v>12.56324995199783</v>
+        <v>12.45578596962568</v>
       </c>
     </row>
     <row r="91">
@@ -2266,19 +2266,19 @@
         <v>45658.51006944444</v>
       </c>
       <c r="B91" t="n">
-        <v>5.148763726877104</v>
+        <v>5.291414254777151</v>
       </c>
       <c r="C91" t="n">
-        <v>62.14851954721752</v>
+        <v>61.40898692001441</v>
       </c>
       <c r="D91" t="n">
-        <v>517.9568687591062</v>
+        <v>514.81048318053</v>
       </c>
       <c r="E91" t="n">
-        <v>1550.320528498988</v>
+        <v>1539.023414244475</v>
       </c>
       <c r="F91" t="n">
-        <v>12.32716876950381</v>
+        <v>12.41056491761343</v>
       </c>
     </row>
     <row r="92">
@@ -2286,19 +2286,19 @@
         <v>45658.51018518519</v>
       </c>
       <c r="B92" t="n">
-        <v>5.217919976091257</v>
+        <v>5.321074112016808</v>
       </c>
       <c r="C92" t="n">
-        <v>60.78899008844304</v>
+        <v>60.48117792578266</v>
       </c>
       <c r="D92" t="n">
-        <v>509.0655576796356</v>
+        <v>510.0803022293397</v>
       </c>
       <c r="E92" t="n">
-        <v>1536.390564181581</v>
+        <v>1512.589780266106</v>
       </c>
       <c r="F92" t="n">
-        <v>12.2300200177313</v>
+        <v>12.18795266560319</v>
       </c>
     </row>
     <row r="93">
@@ -2306,19 +2306,19 @@
         <v>45658.51030092593</v>
       </c>
       <c r="B93" t="n">
-        <v>4.976373218708939</v>
+        <v>5.169757995660143</v>
       </c>
       <c r="C93" t="n">
-        <v>61.17142588813225</v>
+        <v>61.17858625301917</v>
       </c>
       <c r="D93" t="n">
-        <v>495.4239317858709</v>
+        <v>503.1802576444976</v>
       </c>
       <c r="E93" t="n">
-        <v>1513.145082891269</v>
+        <v>1493.478423205063</v>
       </c>
       <c r="F93" t="n">
-        <v>12.04007041963639</v>
+        <v>12.03593482767036</v>
       </c>
     </row>
     <row r="94">
@@ -2326,19 +2326,19 @@
         <v>45658.51041666666</v>
       </c>
       <c r="B94" t="n">
-        <v>4.978568665294001</v>
+        <v>4.931963448379821</v>
       </c>
       <c r="C94" t="n">
-        <v>60.56941069868073</v>
+        <v>59.1951130241756</v>
       </c>
       <c r="D94" t="n">
-        <v>498.2662203528974</v>
+        <v>496.908440242063</v>
       </c>
       <c r="E94" t="n">
-        <v>1490.787274892548</v>
+        <v>1499.702330735589</v>
       </c>
       <c r="F94" t="n">
-        <v>12.05147716476955</v>
+        <v>12.05307289732394</v>
       </c>
     </row>
     <row r="95">
@@ -2346,19 +2346,19 @@
         <v>45658.51053240741</v>
       </c>
       <c r="B95" t="n">
-        <v>4.877867994952933</v>
+        <v>5.090095089165257</v>
       </c>
       <c r="C95" t="n">
-        <v>58.63342922619242</v>
+        <v>60.37208580098198</v>
       </c>
       <c r="D95" t="n">
-        <v>492.8116913429628</v>
+        <v>489.1107262997302</v>
       </c>
       <c r="E95" t="n">
-        <v>1469.942306351779</v>
+        <v>1455.774248181168</v>
       </c>
       <c r="F95" t="n">
-        <v>11.91695761096476</v>
+        <v>11.7777724749062</v>
       </c>
     </row>
     <row r="96">
@@ -2366,19 +2366,19 @@
         <v>45658.51064814815</v>
       </c>
       <c r="B96" t="n">
-        <v>4.588607555587273</v>
+        <v>4.871724595229307</v>
       </c>
       <c r="C96" t="n">
-        <v>57.97742413449961</v>
+        <v>58.20368522400244</v>
       </c>
       <c r="D96" t="n">
-        <v>473.2829582496042</v>
+        <v>480.7731075831816</v>
       </c>
       <c r="E96" t="n">
-        <v>1449.755233653766</v>
+        <v>1462.395078765074</v>
       </c>
       <c r="F96" t="n">
-        <v>11.78387840691957</v>
+        <v>11.70511291779947</v>
       </c>
     </row>
     <row r="97">
@@ -2386,19 +2386,19 @@
         <v>45658.51076388889</v>
       </c>
       <c r="B97" t="n">
-        <v>4.717808074556141</v>
+        <v>5.013148418307587</v>
       </c>
       <c r="C97" t="n">
-        <v>56.68718156932913</v>
+        <v>57.62743864602133</v>
       </c>
       <c r="D97" t="n">
-        <v>479.0902153880514</v>
+        <v>482.8716809097017</v>
       </c>
       <c r="E97" t="n">
-        <v>1441.412628026389</v>
+        <v>1433.407881908887</v>
       </c>
       <c r="F97" t="n">
-        <v>11.6322932369452</v>
+        <v>11.52704688049334</v>
       </c>
     </row>
     <row r="98">
@@ -2406,19 +2406,19 @@
         <v>45658.51087962963</v>
       </c>
       <c r="B98" t="n">
-        <v>4.637219025971204</v>
+        <v>4.685741482877321</v>
       </c>
       <c r="C98" t="n">
-        <v>57.0027943842548</v>
+        <v>57.09987449936068</v>
       </c>
       <c r="D98" t="n">
-        <v>463.8555134377873</v>
+        <v>475.7280299770881</v>
       </c>
       <c r="E98" t="n">
-        <v>1433.477464665234</v>
+        <v>1417.241249923152</v>
       </c>
       <c r="F98" t="n">
-        <v>11.37322949002247</v>
+        <v>11.48761835778977</v>
       </c>
     </row>
     <row r="99">
@@ -2426,19 +2426,19 @@
         <v>45658.51099537037</v>
       </c>
       <c r="B99" t="n">
-        <v>4.605678850239031</v>
+        <v>4.731354088863629</v>
       </c>
       <c r="C99" t="n">
-        <v>56.137444337212</v>
+        <v>56.15922619341434</v>
       </c>
       <c r="D99" t="n">
-        <v>464.6342548987724</v>
+        <v>469.2565186435299</v>
       </c>
       <c r="E99" t="n">
-        <v>1423.888903518311</v>
+        <v>1399.419663238857</v>
       </c>
       <c r="F99" t="n">
-        <v>11.239929738821</v>
+        <v>11.32370789858289</v>
       </c>
     </row>
     <row r="100">
@@ -2446,19 +2446,19 @@
         <v>45658.51111111111</v>
       </c>
       <c r="B100" t="n">
-        <v>4.664769714377802</v>
+        <v>4.571871206763013</v>
       </c>
       <c r="C100" t="n">
-        <v>55.14763621527185</v>
+        <v>55.49061261691863</v>
       </c>
       <c r="D100" t="n">
-        <v>459.8556708237964</v>
+        <v>458.1194136762535</v>
       </c>
       <c r="E100" t="n">
-        <v>1397.004613423377</v>
+        <v>1390.047015772955</v>
       </c>
       <c r="F100" t="n">
-        <v>11.23044958687973</v>
+        <v>11.19122236615904</v>
       </c>
     </row>
     <row r="101">
@@ -2466,19 +2466,19 @@
         <v>45658.51122685185</v>
       </c>
       <c r="B101" t="n">
-        <v>4.521066673818757</v>
+        <v>4.463786883674722</v>
       </c>
       <c r="C101" t="n">
-        <v>54.99352451042776</v>
+        <v>54.61102351465242</v>
       </c>
       <c r="D101" t="n">
-        <v>447.5833592702965</v>
+        <v>452.0549288895569</v>
       </c>
       <c r="E101" t="n">
-        <v>1361.151286015642</v>
+        <v>1381.50347854627</v>
       </c>
       <c r="F101" t="n">
-        <v>11.00591983550514</v>
+        <v>10.98088770828502</v>
       </c>
     </row>
     <row r="102">
@@ -2486,19 +2486,19 @@
         <v>45658.5113425926</v>
       </c>
       <c r="B102" t="n">
-        <v>4.348272771598856</v>
+        <v>4.451976669431175</v>
       </c>
       <c r="C102" t="n">
-        <v>53.72534279654899</v>
+        <v>54.13363827942334</v>
       </c>
       <c r="D102" t="n">
-        <v>437.8895643224764</v>
+        <v>438.8387763028097</v>
       </c>
       <c r="E102" t="n">
-        <v>1374.375961372215</v>
+        <v>1357.754151212555</v>
       </c>
       <c r="F102" t="n">
-        <v>10.85265696209003</v>
+        <v>10.91719414643554</v>
       </c>
     </row>
     <row r="103">
@@ -2506,19 +2506,19 @@
         <v>45658.51145833333</v>
       </c>
       <c r="B103" t="n">
-        <v>4.37603300791374</v>
+        <v>4.23802773561917</v>
       </c>
       <c r="C103" t="n">
-        <v>53.96527912102691</v>
+        <v>54.07237323397009</v>
       </c>
       <c r="D103" t="n">
-        <v>434.1412926810352</v>
+        <v>435.3526541361675</v>
       </c>
       <c r="E103" t="n">
-        <v>1338.568725740803</v>
+        <v>1330.985196640154</v>
       </c>
       <c r="F103" t="n">
-        <v>10.70613227030119</v>
+        <v>10.76633853236707</v>
       </c>
     </row>
     <row r="104">
@@ -2526,19 +2526,19 @@
         <v>45658.51157407407</v>
       </c>
       <c r="B104" t="n">
-        <v>4.278119882542245</v>
+        <v>4.213027659208452</v>
       </c>
       <c r="C104" t="n">
-        <v>52.95701281552717</v>
+        <v>52.74103232007614</v>
       </c>
       <c r="D104" t="n">
-        <v>429.9485818523391</v>
+        <v>428.6976510555875</v>
       </c>
       <c r="E104" t="n">
-        <v>1337.19589888067</v>
+        <v>1309.19861384686</v>
       </c>
       <c r="F104" t="n">
-        <v>10.57252021010195</v>
+        <v>10.61041160451692</v>
       </c>
     </row>
     <row r="105">
@@ -2546,19 +2546,19 @@
         <v>45658.51168981481</v>
       </c>
       <c r="B105" t="n">
-        <v>4.258556879750741</v>
+        <v>4.198002751648248</v>
       </c>
       <c r="C105" t="n">
-        <v>52.48947623590055</v>
+        <v>52.68634878257014</v>
       </c>
       <c r="D105" t="n">
-        <v>415.0113748731066</v>
+        <v>420.816399165533</v>
       </c>
       <c r="E105" t="n">
-        <v>1312.343930201203</v>
+        <v>1306.534752817112</v>
       </c>
       <c r="F105" t="n">
-        <v>10.41191811153998</v>
+        <v>10.40947056307316</v>
       </c>
     </row>
     <row r="106">
@@ -2566,19 +2566,19 @@
         <v>45658.51180555556</v>
       </c>
       <c r="B106" t="n">
-        <v>4.334115892437761</v>
+        <v>4.14719787843121</v>
       </c>
       <c r="C106" t="n">
-        <v>52.27634893281278</v>
+        <v>51.16183687121216</v>
       </c>
       <c r="D106" t="n">
-        <v>415.8247013708913</v>
+        <v>410.0740903848099</v>
       </c>
       <c r="E106" t="n">
-        <v>1290.291337991946</v>
+        <v>1286.301249140085</v>
       </c>
       <c r="F106" t="n">
-        <v>10.36546941662387</v>
+        <v>10.31979575427145</v>
       </c>
     </row>
     <row r="107">
@@ -2586,19 +2586,19 @@
         <v>45658.5119212963</v>
       </c>
       <c r="B107" t="n">
-        <v>3.946001668951469</v>
+        <v>4.213719378774316</v>
       </c>
       <c r="C107" t="n">
-        <v>50.93479642059575</v>
+        <v>50.59811135928454</v>
       </c>
       <c r="D107" t="n">
-        <v>398.9027414760722</v>
+        <v>404.4169759449803</v>
       </c>
       <c r="E107" t="n">
-        <v>1270.164187892718</v>
+        <v>1280.465457627435</v>
       </c>
       <c r="F107" t="n">
-        <v>10.15682589124592</v>
+        <v>10.1853357434866</v>
       </c>
     </row>
     <row r="108">
@@ -2606,19 +2606,19 @@
         <v>45658.51203703704</v>
       </c>
       <c r="B108" t="n">
-        <v>4.053825915855269</v>
+        <v>4.068489296696597</v>
       </c>
       <c r="C108" t="n">
-        <v>50.34831933270384</v>
+        <v>50.06040016977855</v>
       </c>
       <c r="D108" t="n">
-        <v>398.5610307694446</v>
+        <v>408.5938190657619</v>
       </c>
       <c r="E108" t="n">
-        <v>1277.820831105173</v>
+        <v>1265.992221233871</v>
       </c>
       <c r="F108" t="n">
-        <v>10.10081409977233</v>
+        <v>10.09238466427593</v>
       </c>
     </row>
     <row r="109">
@@ -2626,19 +2626,19 @@
         <v>45658.51215277778</v>
       </c>
       <c r="B109" t="n">
-        <v>4.094315529830836</v>
+        <v>4.12726371029726</v>
       </c>
       <c r="C109" t="n">
-        <v>50.31995049229969</v>
+        <v>49.15779456121619</v>
       </c>
       <c r="D109" t="n">
-        <v>396.5042997175124</v>
+        <v>389.8451047206478</v>
       </c>
       <c r="E109" t="n">
-        <v>1254.387752047511</v>
+        <v>1259.462916944505</v>
       </c>
       <c r="F109" t="n">
-        <v>9.93814485383907</v>
+        <v>9.890240438308709</v>
       </c>
     </row>
     <row r="110">
@@ -2646,19 +2646,19 @@
         <v>45658.51226851852</v>
       </c>
       <c r="B110" t="n">
-        <v>4.023583250120058</v>
+        <v>3.86733517028833</v>
       </c>
       <c r="C110" t="n">
-        <v>48.9453691998452</v>
+        <v>49.95289694036752</v>
       </c>
       <c r="D110" t="n">
-        <v>390.5410430922155</v>
+        <v>399.0680183332245</v>
       </c>
       <c r="E110" t="n">
-        <v>1238.396383309436</v>
+        <v>1235.454548686671</v>
       </c>
       <c r="F110" t="n">
-        <v>9.902955475718969</v>
+        <v>9.742961157041243</v>
       </c>
     </row>
     <row r="111">
@@ -2666,19 +2666,19 @@
         <v>45658.51238425926</v>
       </c>
       <c r="B111" t="n">
-        <v>3.906246047158962</v>
+        <v>3.890890158556679</v>
       </c>
       <c r="C111" t="n">
-        <v>48.61662163502265</v>
+        <v>48.51902682528003</v>
       </c>
       <c r="D111" t="n">
-        <v>393.0783899174513</v>
+        <v>382.913604449761</v>
       </c>
       <c r="E111" t="n">
-        <v>1226.05103091279</v>
+        <v>1205.906542810148</v>
       </c>
       <c r="F111" t="n">
-        <v>9.714107205830773</v>
+        <v>9.701143308690428</v>
       </c>
     </row>
     <row r="112">
@@ -2686,19 +2686,19 @@
         <v>45658.5125</v>
       </c>
       <c r="B112" t="n">
-        <v>3.678073841784307</v>
+        <v>3.824155469500318</v>
       </c>
       <c r="C112" t="n">
-        <v>48.44770713557256</v>
+        <v>47.03860680168859</v>
       </c>
       <c r="D112" t="n">
-        <v>379.762908707724</v>
+        <v>378.9650392852924</v>
       </c>
       <c r="E112" t="n">
-        <v>1214.017910888694</v>
+        <v>1213.361689312837</v>
       </c>
       <c r="F112" t="n">
-        <v>9.651653651621325</v>
+        <v>9.547202196046056</v>
       </c>
     </row>
     <row r="113">
@@ -2706,19 +2706,19 @@
         <v>45658.51261574074</v>
       </c>
       <c r="B113" t="n">
-        <v>3.819091463640032</v>
+        <v>3.873422469701504</v>
       </c>
       <c r="C113" t="n">
-        <v>47.68030494362493</v>
+        <v>47.64088892996633</v>
       </c>
       <c r="D113" t="n">
-        <v>373.6140709865613</v>
+        <v>371.0691558440735</v>
       </c>
       <c r="E113" t="n">
-        <v>1193.336648297008</v>
+        <v>1188.838580846399</v>
       </c>
       <c r="F113" t="n">
-        <v>9.405640943600934</v>
+        <v>9.526148522267752</v>
       </c>
     </row>
     <row r="114">
@@ -2726,19 +2726,19 @@
         <v>45658.51273148148</v>
       </c>
       <c r="B114" t="n">
-        <v>3.585684056220342</v>
+        <v>3.742956201727643</v>
       </c>
       <c r="C114" t="n">
-        <v>46.94491956656598</v>
+        <v>46.94952553844583</v>
       </c>
       <c r="D114" t="n">
-        <v>371.6897683611639</v>
+        <v>373.1306354068579</v>
       </c>
       <c r="E114" t="n">
-        <v>1166.724326661678</v>
+        <v>1177.449775474521</v>
       </c>
       <c r="F114" t="n">
-        <v>9.451476505173028</v>
+        <v>9.420942799421844</v>
       </c>
     </row>
     <row r="115">
@@ -2746,19 +2746,19 @@
         <v>45658.51284722222</v>
       </c>
       <c r="B115" t="n">
-        <v>3.599598205845387</v>
+        <v>3.817117385577719</v>
       </c>
       <c r="C115" t="n">
-        <v>46.57123227574488</v>
+        <v>46.96797654008974</v>
       </c>
       <c r="D115" t="n">
-        <v>362.8238237724256</v>
+        <v>363.1481928835732</v>
       </c>
       <c r="E115" t="n">
-        <v>1155.996037688928</v>
+        <v>1163.48820594892</v>
       </c>
       <c r="F115" t="n">
-        <v>9.232276540939564</v>
+        <v>9.289796422410118</v>
       </c>
     </row>
     <row r="116">
@@ -2766,19 +2766,19 @@
         <v>45658.51296296297</v>
       </c>
       <c r="B116" t="n">
-        <v>3.552661463278325</v>
+        <v>3.785601773284791</v>
       </c>
       <c r="C116" t="n">
-        <v>45.95160212299191</v>
+        <v>45.69363396270762</v>
       </c>
       <c r="D116" t="n">
-        <v>355.2710321413697</v>
+        <v>360.2616249631006</v>
       </c>
       <c r="E116" t="n">
-        <v>1144.033054899061</v>
+        <v>1142.782978342709</v>
       </c>
       <c r="F116" t="n">
-        <v>9.24069748025598</v>
+        <v>9.259227522887892</v>
       </c>
     </row>
     <row r="117">
@@ -2786,19 +2786,19 @@
         <v>45658.51307870371</v>
       </c>
       <c r="B117" t="n">
-        <v>3.438892781274628</v>
+        <v>3.683186961929496</v>
       </c>
       <c r="C117" t="n">
-        <v>44.88456327909422</v>
+        <v>44.875620761442</v>
       </c>
       <c r="D117" t="n">
-        <v>357.6321291885207</v>
+        <v>359.5847221268245</v>
       </c>
       <c r="E117" t="n">
-        <v>1133.231961182922</v>
+        <v>1128.890215655095</v>
       </c>
       <c r="F117" t="n">
-        <v>9.051319895714904</v>
+        <v>9.075574204843367</v>
       </c>
     </row>
     <row r="118">
@@ -2806,19 +2806,19 @@
         <v>45658.51319444444</v>
       </c>
       <c r="B118" t="n">
-        <v>3.513494838668665</v>
+        <v>3.616591030655459</v>
       </c>
       <c r="C118" t="n">
-        <v>45.22305424025465</v>
+        <v>45.43272848320213</v>
       </c>
       <c r="D118" t="n">
-        <v>344.7485815672517</v>
+        <v>352.5531492562631</v>
       </c>
       <c r="E118" t="n">
-        <v>1111.951800669171</v>
+        <v>1117.544587695125</v>
       </c>
       <c r="F118" t="n">
-        <v>8.949968750690735</v>
+        <v>8.972580917395671</v>
       </c>
     </row>
     <row r="119">
@@ -2826,19 +2826,19 @@
         <v>45658.51331018518</v>
       </c>
       <c r="B119" t="n">
-        <v>3.438825289535748</v>
+        <v>3.402949518088124</v>
       </c>
       <c r="C119" t="n">
-        <v>44.64607882687995</v>
+        <v>44.90319896157171</v>
       </c>
       <c r="D119" t="n">
-        <v>343.0693938230753</v>
+        <v>342.5804744418816</v>
       </c>
       <c r="E119" t="n">
-        <v>1117.052377905831</v>
+        <v>1112.28837729156</v>
       </c>
       <c r="F119" t="n">
-        <v>8.939521477188125</v>
+        <v>8.893512053252268</v>
       </c>
     </row>
     <row r="120">
@@ -2846,19 +2846,19 @@
         <v>45658.51342592593</v>
       </c>
       <c r="B120" t="n">
-        <v>3.227992087679518</v>
+        <v>3.335623099492639</v>
       </c>
       <c r="C120" t="n">
-        <v>42.93688653737217</v>
+        <v>44.25095433962347</v>
       </c>
       <c r="D120" t="n">
-        <v>341.417419509901</v>
+        <v>344.6561521899908</v>
       </c>
       <c r="E120" t="n">
-        <v>1109.084849140025</v>
+        <v>1098.632133213978</v>
       </c>
       <c r="F120" t="n">
-        <v>8.779080575076247</v>
+        <v>8.786428425304981</v>
       </c>
     </row>
     <row r="121">
@@ -2866,19 +2866,19 @@
         <v>45658.51354166667</v>
       </c>
       <c r="B121" t="n">
-        <v>3.238423828247155</v>
+        <v>3.301564764877535</v>
       </c>
       <c r="C121" t="n">
-        <v>43.21289109617642</v>
+        <v>43.13605019210185</v>
       </c>
       <c r="D121" t="n">
-        <v>340.0142688429423</v>
+        <v>333.155698192299</v>
       </c>
       <c r="E121" t="n">
-        <v>1079.896629056453</v>
+        <v>1098.447094174419</v>
       </c>
       <c r="F121" t="n">
-        <v>8.801395077581455</v>
+        <v>8.716891742406871</v>
       </c>
     </row>
     <row r="122">
@@ -2886,19 +2886,19 @@
         <v>45658.51365740741</v>
       </c>
       <c r="B122" t="n">
-        <v>3.350700031109127</v>
+        <v>3.235941028730356</v>
       </c>
       <c r="C122" t="n">
-        <v>43.14203730198064</v>
+        <v>43.82659026048542</v>
       </c>
       <c r="D122" t="n">
-        <v>332.9345382807335</v>
+        <v>339.5763944820022</v>
       </c>
       <c r="E122" t="n">
-        <v>1075.131620130379</v>
+        <v>1083.369984699121</v>
       </c>
       <c r="F122" t="n">
-        <v>8.600252028567407</v>
+        <v>8.678763804400969</v>
       </c>
     </row>
     <row r="123">
@@ -2906,19 +2906,19 @@
         <v>45658.51377314814</v>
       </c>
       <c r="B123" t="n">
-        <v>3.167837852170637</v>
+        <v>3.292577487211236</v>
       </c>
       <c r="C123" t="n">
-        <v>42.95835876503541</v>
+        <v>43.41058257143268</v>
       </c>
       <c r="D123" t="n">
-        <v>326.3407569700186</v>
+        <v>323.4855756194934</v>
       </c>
       <c r="E123" t="n">
-        <v>1070.085606943726</v>
+        <v>1081.196162121375</v>
       </c>
       <c r="F123" t="n">
-        <v>8.522660481854803</v>
+        <v>8.651400966134686</v>
       </c>
     </row>
     <row r="124">
@@ -2926,19 +2926,19 @@
         <v>45658.51388888889</v>
       </c>
       <c r="B124" t="n">
-        <v>3.219624609479402</v>
+        <v>3.220775616373203</v>
       </c>
       <c r="C124" t="n">
-        <v>42.71037987641781</v>
+        <v>42.72337360541832</v>
       </c>
       <c r="D124" t="n">
-        <v>324.2104958975268</v>
+        <v>327.8798628175271</v>
       </c>
       <c r="E124" t="n">
-        <v>1058.942203836952</v>
+        <v>1069.790552456503</v>
       </c>
       <c r="F124" t="n">
-        <v>8.493130833498668</v>
+        <v>8.559575713679104</v>
       </c>
     </row>
     <row r="125">
@@ -2946,19 +2946,19 @@
         <v>45658.51400462963</v>
       </c>
       <c r="B125" t="n">
-        <v>3.245395595149434</v>
+        <v>3.378138120983303</v>
       </c>
       <c r="C125" t="n">
-        <v>42.79858847998169</v>
+        <v>42.35565675594316</v>
       </c>
       <c r="D125" t="n">
-        <v>325.4257419383379</v>
+        <v>325.4181871124449</v>
       </c>
       <c r="E125" t="n">
-        <v>1039.916810935405</v>
+        <v>1059.291711564404</v>
       </c>
       <c r="F125" t="n">
-        <v>8.390772564275357</v>
+        <v>8.420688064841963</v>
       </c>
     </row>
     <row r="126">
@@ -2966,19 +2966,19 @@
         <v>45658.51412037037</v>
       </c>
       <c r="B126" t="n">
-        <v>3.202443532213476</v>
+        <v>3.246524128640318</v>
       </c>
       <c r="C126" t="n">
-        <v>42.10519037729664</v>
+        <v>41.95266276129901</v>
       </c>
       <c r="D126" t="n">
-        <v>324.7685788638537</v>
+        <v>323.1179967424914</v>
       </c>
       <c r="E126" t="n">
-        <v>1051.733550085634</v>
+        <v>1048.131288670508</v>
       </c>
       <c r="F126" t="n">
-        <v>8.356359195311676</v>
+        <v>8.43285665647845</v>
       </c>
     </row>
     <row r="127">
@@ -2986,19 +2986,19 @@
         <v>45658.51423611111</v>
       </c>
       <c r="B127" t="n">
-        <v>3.040855564243657</v>
+        <v>3.173541441737244</v>
       </c>
       <c r="C127" t="n">
-        <v>42.20910274703686</v>
+        <v>41.34853150187509</v>
       </c>
       <c r="D127" t="n">
-        <v>311.9140950405712</v>
+        <v>313.7164858420248</v>
       </c>
       <c r="E127" t="n">
-        <v>1055.540174437041</v>
+        <v>1042.152257759814</v>
       </c>
       <c r="F127" t="n">
-        <v>8.293027621672428</v>
+        <v>8.394777640474359</v>
       </c>
     </row>
     <row r="128">
@@ -3006,19 +3006,19 @@
         <v>45658.51435185185</v>
       </c>
       <c r="B128" t="n">
-        <v>3.225798506419005</v>
+        <v>3.13959951784908</v>
       </c>
       <c r="C128" t="n">
-        <v>41.20849286055908</v>
+        <v>42.42466152826113</v>
       </c>
       <c r="D128" t="n">
-        <v>313.2979595986459</v>
+        <v>319.8948155166852</v>
       </c>
       <c r="E128" t="n">
-        <v>1021.316005929967</v>
+        <v>1011.839809227256</v>
       </c>
       <c r="F128" t="n">
-        <v>8.208162724732492</v>
+        <v>8.251922257505749</v>
       </c>
     </row>
     <row r="129">
@@ -3026,19 +3026,19 @@
         <v>45658.51446759259</v>
       </c>
       <c r="B129" t="n">
-        <v>3.157400050265015</v>
+        <v>3.094289142037701</v>
       </c>
       <c r="C129" t="n">
-        <v>40.35608380077358</v>
+        <v>41.95443129354148</v>
       </c>
       <c r="D129" t="n">
-        <v>311.1705969856871</v>
+        <v>309.0726395935437</v>
       </c>
       <c r="E129" t="n">
-        <v>1037.061582459433</v>
+        <v>1050.143160283475</v>
       </c>
       <c r="F129" t="n">
-        <v>8.198270025477893</v>
+        <v>8.175065973254551</v>
       </c>
     </row>
     <row r="130">
@@ -3046,19 +3046,19 @@
         <v>45658.51458333333</v>
       </c>
       <c r="B130" t="n">
-        <v>3.125591417474816</v>
+        <v>3.241644284002731</v>
       </c>
       <c r="C130" t="n">
-        <v>40.55451005529577</v>
+        <v>40.91200781334653</v>
       </c>
       <c r="D130" t="n">
-        <v>303.6619576720756</v>
+        <v>306.8838266122775</v>
       </c>
       <c r="E130" t="n">
-        <v>1015.29277527283</v>
+        <v>1024.407771539716</v>
       </c>
       <c r="F130" t="n">
-        <v>8.236527251790342</v>
+        <v>8.181892997193186</v>
       </c>
     </row>
     <row r="131">
@@ -3066,19 +3066,19 @@
         <v>45658.51469907408</v>
       </c>
       <c r="B131" t="n">
-        <v>3.146234300283716</v>
+        <v>3.254383739446913</v>
       </c>
       <c r="C131" t="n">
-        <v>40.68108703705128</v>
+        <v>40.6411180036088</v>
       </c>
       <c r="D131" t="n">
-        <v>309.1321369506658</v>
+        <v>309.1296845012837</v>
       </c>
       <c r="E131" t="n">
-        <v>1008.344892214231</v>
+        <v>1008.71207329676</v>
       </c>
       <c r="F131" t="n">
-        <v>8.16643916175507</v>
+        <v>8.144941005704712</v>
       </c>
     </row>
     <row r="132">
@@ -3086,19 +3086,19 @@
         <v>45658.51481481481</v>
       </c>
       <c r="B132" t="n">
-        <v>2.986026011532666</v>
+        <v>2.864324822307598</v>
       </c>
       <c r="C132" t="n">
-        <v>40.36595973519739</v>
+        <v>39.98197145542449</v>
       </c>
       <c r="D132" t="n">
-        <v>300.7213785072714</v>
+        <v>307.9651417458527</v>
       </c>
       <c r="E132" t="n">
-        <v>1004.501311473012</v>
+        <v>1030.353680422026</v>
       </c>
       <c r="F132" t="n">
-        <v>8.063976683871838</v>
+        <v>8.068657006596002</v>
       </c>
     </row>
     <row r="133">
@@ -3106,19 +3106,19 @@
         <v>45658.51493055555</v>
       </c>
       <c r="B133" t="n">
-        <v>3.082293258038717</v>
+        <v>2.90892982250628</v>
       </c>
       <c r="C133" t="n">
-        <v>40.42027069204383</v>
+        <v>39.99389412394965</v>
       </c>
       <c r="D133" t="n">
-        <v>305.856245117497</v>
+        <v>299.523745739505</v>
       </c>
       <c r="E133" t="n">
-        <v>988.3035094087118</v>
+        <v>1000.744745734077</v>
       </c>
       <c r="F133" t="n">
-        <v>8.060370353364609</v>
+        <v>8.109450096847892</v>
       </c>
     </row>
     <row r="134">
@@ -3126,19 +3126,19 @@
         <v>45658.5150462963</v>
       </c>
       <c r="B134" t="n">
-        <v>2.866152827243526</v>
+        <v>3.067345075240829</v>
       </c>
       <c r="C134" t="n">
-        <v>39.79560093582047</v>
+        <v>39.59777367158463</v>
       </c>
       <c r="D134" t="n">
-        <v>304.3900108273327</v>
+        <v>302.0183016490184</v>
       </c>
       <c r="E134" t="n">
-        <v>1014.475167921411</v>
+        <v>1007.316962189973</v>
       </c>
       <c r="F134" t="n">
-        <v>8.030384056170202</v>
+        <v>8.067488607981677</v>
       </c>
     </row>
     <row r="135">
@@ -3146,19 +3146,19 @@
         <v>45658.51516203704</v>
       </c>
       <c r="B135" t="n">
-        <v>3.140159078520215</v>
+        <v>3.178455995385988</v>
       </c>
       <c r="C135" t="n">
-        <v>39.37331723832409</v>
+        <v>40.26907514639086</v>
       </c>
       <c r="D135" t="n">
-        <v>306.1685854492615</v>
+        <v>300.0879309772668</v>
       </c>
       <c r="E135" t="n">
-        <v>1019.8410872032</v>
+        <v>986.3831050279617</v>
       </c>
       <c r="F135" t="n">
-        <v>8.005115602747077</v>
+        <v>8.010751650049627</v>
       </c>
     </row>
     <row r="136">
@@ -3166,19 +3166,19 @@
         <v>45658.51527777778</v>
       </c>
       <c r="B136" t="n">
-        <v>3.138955845971676</v>
+        <v>2.98220964172618</v>
       </c>
       <c r="C136" t="n">
-        <v>40.09044658685406</v>
+        <v>40.60420623675807</v>
       </c>
       <c r="D136" t="n">
-        <v>296.3102610886239</v>
+        <v>307.465731427356</v>
       </c>
       <c r="E136" t="n">
-        <v>1000.49863918114</v>
+        <v>1001.760258881116</v>
       </c>
       <c r="F136" t="n">
-        <v>7.988608834774183</v>
+        <v>8.118314637955132</v>
       </c>
     </row>
     <row r="137">
@@ -3186,19 +3186,19 @@
         <v>45658.51539351852</v>
       </c>
       <c r="B137" t="n">
-        <v>3.007317826867565</v>
+        <v>3.012967190974987</v>
       </c>
       <c r="C137" t="n">
-        <v>40.36536118077099</v>
+        <v>40.17647461274931</v>
       </c>
       <c r="D137" t="n">
-        <v>296.4115987805163</v>
+        <v>293.458897358325</v>
       </c>
       <c r="E137" t="n">
-        <v>1000.69304604239</v>
+        <v>981.1483245811235</v>
       </c>
       <c r="F137" t="n">
-        <v>8.035140176952154</v>
+        <v>7.918822189314003</v>
       </c>
     </row>
     <row r="138">
@@ -3206,19 +3206,19 @@
         <v>45658.51550925926</v>
       </c>
       <c r="B138" t="n">
-        <v>2.917516331523156</v>
+        <v>3.048686615584389</v>
       </c>
       <c r="C138" t="n">
-        <v>40.6205654429749</v>
+        <v>38.92271109228356</v>
       </c>
       <c r="D138" t="n">
-        <v>290.4098518144615</v>
+        <v>302.7663385387557</v>
       </c>
       <c r="E138" t="n">
-        <v>994.3077140153074</v>
+        <v>1006.859213463032</v>
       </c>
       <c r="F138" t="n">
-        <v>7.976769486275174</v>
+        <v>8.12039786292509</v>
       </c>
     </row>
     <row r="139">
@@ -3226,19 +3226,19 @@
         <v>45658.515625</v>
       </c>
       <c r="B139" t="n">
-        <v>2.927924272691734</v>
+        <v>3.001638887306606</v>
       </c>
       <c r="C139" t="n">
-        <v>39.84284997078122</v>
+        <v>40.59235978587345</v>
       </c>
       <c r="D139" t="n">
-        <v>292.9203502844563</v>
+        <v>303.8170586006993</v>
       </c>
       <c r="E139" t="n">
-        <v>992.8583109275392</v>
+        <v>991.3447106262995</v>
       </c>
       <c r="F139" t="n">
-        <v>8.001428730670453</v>
+        <v>8.007816452505638</v>
       </c>
     </row>
     <row r="140">
@@ -3246,19 +3246,19 @@
         <v>45658.51574074074</v>
       </c>
       <c r="B140" t="n">
-        <v>2.937819271125087</v>
+        <v>3.032378350438889</v>
       </c>
       <c r="C140" t="n">
-        <v>38.97007448341618</v>
+        <v>40.48838390179335</v>
       </c>
       <c r="D140" t="n">
-        <v>303.8562043689789</v>
+        <v>299.6549934927899</v>
       </c>
       <c r="E140" t="n">
-        <v>984.0348109744449</v>
+        <v>994.7949960209554</v>
       </c>
       <c r="F140" t="n">
-        <v>7.968466167374411</v>
+        <v>8.058307765546168</v>
       </c>
     </row>
     <row r="141">
@@ -3266,19 +3266,19 @@
         <v>45658.51585648148</v>
       </c>
       <c r="B141" t="n">
-        <v>3.008260557780253</v>
+        <v>3.188622217967896</v>
       </c>
       <c r="C141" t="n">
-        <v>39.5988021986913</v>
+        <v>40.40132578039572</v>
       </c>
       <c r="D141" t="n">
-        <v>301.8353088110095</v>
+        <v>308.3709902734877</v>
       </c>
       <c r="E141" t="n">
-        <v>1011.526285513701</v>
+        <v>1005.231777912007</v>
       </c>
       <c r="F141" t="n">
-        <v>8.130741864062953</v>
+        <v>8.002780439098695</v>
       </c>
     </row>
     <row r="142">
@@ -3286,19 +3286,19 @@
         <v>45658.51597222222</v>
       </c>
       <c r="B142" t="n">
-        <v>3.004248909804423</v>
+        <v>2.898588450353493</v>
       </c>
       <c r="C142" t="n">
-        <v>40.03555127799988</v>
+        <v>41.13624605036646</v>
       </c>
       <c r="D142" t="n">
-        <v>297.7226568731472</v>
+        <v>291.4010850354842</v>
       </c>
       <c r="E142" t="n">
-        <v>1011.844658450372</v>
+        <v>999.6568117282123</v>
       </c>
       <c r="F142" t="n">
-        <v>8.106022798714003</v>
+        <v>8.034897795413817</v>
       </c>
     </row>
     <row r="143">
@@ -3306,19 +3306,19 @@
         <v>45658.51608796296</v>
       </c>
       <c r="B143" t="n">
-        <v>2.834299746808531</v>
+        <v>3.010555707110926</v>
       </c>
       <c r="C143" t="n">
-        <v>39.85089432485414</v>
+        <v>40.42699157035177</v>
       </c>
       <c r="D143" t="n">
-        <v>307.8950529092401</v>
+        <v>309.882317012249</v>
       </c>
       <c r="E143" t="n">
-        <v>1011.450511019036</v>
+        <v>1010.303262726341</v>
       </c>
       <c r="F143" t="n">
-        <v>8.050314289367851</v>
+        <v>7.955072756765242</v>
       </c>
     </row>
     <row r="144">
@@ -3326,19 +3326,19 @@
         <v>45658.5162037037</v>
       </c>
       <c r="B144" t="n">
-        <v>3.102916508300921</v>
+        <v>3.091226784207947</v>
       </c>
       <c r="C144" t="n">
-        <v>40.20631390177704</v>
+        <v>40.58139293903788</v>
       </c>
       <c r="D144" t="n">
-        <v>303.7768882443317</v>
+        <v>301.1498030826329</v>
       </c>
       <c r="E144" t="n">
-        <v>1008.595421414041</v>
+        <v>998.7734489062613</v>
       </c>
       <c r="F144" t="n">
-        <v>8.083991870745578</v>
+        <v>8.032801661198201</v>
       </c>
     </row>
     <row r="145">
@@ -3346,19 +3346,19 @@
         <v>45658.51631944445</v>
       </c>
       <c r="B145" t="n">
-        <v>2.812240219086789</v>
+        <v>2.905020748812475</v>
       </c>
       <c r="C145" t="n">
-        <v>39.3819482975933</v>
+        <v>40.06563491758281</v>
       </c>
       <c r="D145" t="n">
-        <v>311.4668889070652</v>
+        <v>306.0585568103123</v>
       </c>
       <c r="E145" t="n">
-        <v>1018.908560530032</v>
+        <v>1010.564396148893</v>
       </c>
       <c r="F145" t="n">
-        <v>8.146574569653341</v>
+        <v>8.143272600847219</v>
       </c>
     </row>
     <row r="146">
@@ -3366,19 +3366,19 @@
         <v>45658.51643518519</v>
       </c>
       <c r="B146" t="n">
-        <v>3.120083631362566</v>
+        <v>2.982330653947165</v>
       </c>
       <c r="C146" t="n">
-        <v>41.44213604871489</v>
+        <v>40.58114034855949</v>
       </c>
       <c r="D146" t="n">
-        <v>311.7263497457915</v>
+        <v>311.6776831308277</v>
       </c>
       <c r="E146" t="n">
-        <v>1015.623043232397</v>
+        <v>1013.450405027504</v>
       </c>
       <c r="F146" t="n">
-        <v>8.185411556489839</v>
+        <v>8.118718919931448</v>
       </c>
     </row>
     <row r="147">
@@ -3386,19 +3386,19 @@
         <v>45658.51655092592</v>
       </c>
       <c r="B147" t="n">
-        <v>3.023723459546956</v>
+        <v>3.222298980368028</v>
       </c>
       <c r="C147" t="n">
-        <v>40.20593194211039</v>
+        <v>41.23772691912274</v>
       </c>
       <c r="D147" t="n">
-        <v>306.7558209514082</v>
+        <v>307.5778232158872</v>
       </c>
       <c r="E147" t="n">
-        <v>1015.799006155638</v>
+        <v>1019.682587657954</v>
       </c>
       <c r="F147" t="n">
-        <v>8.222863919550063</v>
+        <v>8.183675093385258</v>
       </c>
     </row>
     <row r="148">
@@ -3406,19 +3406,19 @@
         <v>45658.51666666667</v>
       </c>
       <c r="B148" t="n">
-        <v>3.234207517201034</v>
+        <v>3.179280529689333</v>
       </c>
       <c r="C148" t="n">
-        <v>41.17708547428561</v>
+        <v>41.89847720482187</v>
       </c>
       <c r="D148" t="n">
-        <v>311.9100146649324</v>
+        <v>310.1679422257039</v>
       </c>
       <c r="E148" t="n">
-        <v>1025.964970944831</v>
+        <v>1020.546774564229</v>
       </c>
       <c r="F148" t="n">
-        <v>8.193498836595609</v>
+        <v>8.230928120330196</v>
       </c>
     </row>
     <row r="149">
@@ -3426,19 +3426,19 @@
         <v>45658.51678240741</v>
       </c>
       <c r="B149" t="n">
-        <v>3.116862427673132</v>
+        <v>2.972113197817911</v>
       </c>
       <c r="C149" t="n">
-        <v>42.38513371287991</v>
+        <v>41.8638445282007</v>
       </c>
       <c r="D149" t="n">
-        <v>305.7475552004488</v>
+        <v>320.215058676886</v>
       </c>
       <c r="E149" t="n">
-        <v>1044.942612570561</v>
+        <v>1030.662293366943</v>
       </c>
       <c r="F149" t="n">
-        <v>8.276445404265456</v>
+        <v>8.317440905020806</v>
       </c>
     </row>
     <row r="150">
@@ -3446,19 +3446,19 @@
         <v>45658.51689814815</v>
       </c>
       <c r="B150" t="n">
-        <v>3.199467296288401</v>
+        <v>3.262499642902864</v>
       </c>
       <c r="C150" t="n">
-        <v>41.20358349249769</v>
+        <v>41.15042836320043</v>
       </c>
       <c r="D150" t="n">
-        <v>317.9273557383347</v>
+        <v>310.8429825746632</v>
       </c>
       <c r="E150" t="n">
-        <v>1026.062515558147</v>
+        <v>1042.368216220196</v>
       </c>
       <c r="F150" t="n">
-        <v>8.266707467799064</v>
+        <v>8.337627862412667</v>
       </c>
     </row>
     <row r="151">
@@ -3466,19 +3466,19 @@
         <v>45658.51701388889</v>
       </c>
       <c r="B151" t="n">
-        <v>3.298603890201716</v>
+        <v>3.045673931534765</v>
       </c>
       <c r="C151" t="n">
-        <v>41.48001117909412</v>
+        <v>42.17301379811662</v>
       </c>
       <c r="D151" t="n">
-        <v>320.5807794160176</v>
+        <v>324.4993101271882</v>
       </c>
       <c r="E151" t="n">
-        <v>1063.121768084146</v>
+        <v>1036.736915819907</v>
       </c>
       <c r="F151" t="n">
-        <v>8.427251115604202</v>
+        <v>8.382351976978853</v>
       </c>
     </row>
     <row r="152">
@@ -3486,19 +3486,19 @@
         <v>45658.51712962963</v>
       </c>
       <c r="B152" t="n">
-        <v>3.200850025521631</v>
+        <v>3.047585101981998</v>
       </c>
       <c r="C152" t="n">
-        <v>42.27155635096588</v>
+        <v>41.65250418856094</v>
       </c>
       <c r="D152" t="n">
-        <v>329.8688837565363</v>
+        <v>318.3175469944503</v>
       </c>
       <c r="E152" t="n">
-        <v>1048.753541865346</v>
+        <v>1055.963551331037</v>
       </c>
       <c r="F152" t="n">
-        <v>8.426225108027884</v>
+        <v>8.375775949393365</v>
       </c>
     </row>
     <row r="153">
@@ -3506,19 +3506,19 @@
         <v>45658.51724537037</v>
       </c>
       <c r="B153" t="n">
-        <v>3.223681830335765</v>
+        <v>3.306724003303265</v>
       </c>
       <c r="C153" t="n">
-        <v>41.98770024586505</v>
+        <v>42.71295141597685</v>
       </c>
       <c r="D153" t="n">
-        <v>322.3961417799015</v>
+        <v>312.4757094104765</v>
       </c>
       <c r="E153" t="n">
-        <v>1062.868834394271</v>
+        <v>1065.829697934059</v>
       </c>
       <c r="F153" t="n">
-        <v>8.471579633330204</v>
+        <v>8.485175163430974</v>
       </c>
     </row>
     <row r="154">
@@ -3526,19 +3526,19 @@
         <v>45658.51736111111</v>
       </c>
       <c r="B154" t="n">
-        <v>3.379020434046476</v>
+        <v>3.300995221399491</v>
       </c>
       <c r="C154" t="n">
-        <v>42.88158377818605</v>
+        <v>43.78903845884345</v>
       </c>
       <c r="D154" t="n">
-        <v>329.6299453270535</v>
+        <v>340.0215392807294</v>
       </c>
       <c r="E154" t="n">
-        <v>1073.368280841498</v>
+        <v>1073.376899332666</v>
       </c>
       <c r="F154" t="n">
-        <v>8.545220679899417</v>
+        <v>8.522732029463015</v>
       </c>
     </row>
     <row r="155">
@@ -3546,19 +3546,19 @@
         <v>45658.51747685186</v>
       </c>
       <c r="B155" t="n">
-        <v>3.46241383912305</v>
+        <v>3.331658836586479</v>
       </c>
       <c r="C155" t="n">
-        <v>41.90540543572174</v>
+        <v>42.74615183199109</v>
       </c>
       <c r="D155" t="n">
-        <v>333.1517234840632</v>
+        <v>330.6872925669974</v>
       </c>
       <c r="E155" t="n">
-        <v>1057.671557328193</v>
+        <v>1087.839776200852</v>
       </c>
       <c r="F155" t="n">
-        <v>8.614473997685911</v>
+        <v>8.622741266100279</v>
       </c>
     </row>
     <row r="156">
@@ -3566,19 +3566,19 @@
         <v>45658.51759259259</v>
       </c>
       <c r="B156" t="n">
-        <v>3.467662090814398</v>
+        <v>3.343259357102332</v>
       </c>
       <c r="C156" t="n">
-        <v>44.66263477798501</v>
+        <v>43.16719026463115</v>
       </c>
       <c r="D156" t="n">
-        <v>335.5461210947431</v>
+        <v>342.8973283997135</v>
       </c>
       <c r="E156" t="n">
-        <v>1091.48012909256</v>
+        <v>1076.462349063034</v>
       </c>
       <c r="F156" t="n">
-        <v>8.696959985096971</v>
+        <v>8.737093778142624</v>
       </c>
     </row>
     <row r="157">
@@ -3586,19 +3586,19 @@
         <v>45658.51770833333</v>
       </c>
       <c r="B157" t="n">
-        <v>3.490072714634549</v>
+        <v>3.260567530334072</v>
       </c>
       <c r="C157" t="n">
-        <v>43.4594975049853</v>
+        <v>43.72798502824914</v>
       </c>
       <c r="D157" t="n">
-        <v>340.2991381916327</v>
+        <v>343.6816662292104</v>
       </c>
       <c r="E157" t="n">
-        <v>1102.780098953307</v>
+        <v>1087.580963716783</v>
       </c>
       <c r="F157" t="n">
-        <v>8.703381796033439</v>
+        <v>8.800247142481556</v>
       </c>
     </row>
     <row r="158">
@@ -3606,19 +3606,19 @@
         <v>45658.51782407407</v>
       </c>
       <c r="B158" t="n">
-        <v>3.309485957075514</v>
+        <v>3.365359933432401</v>
       </c>
       <c r="C158" t="n">
-        <v>44.58580032664446</v>
+        <v>44.82275916227213</v>
       </c>
       <c r="D158" t="n">
-        <v>344.7040989918157</v>
+        <v>346.40480344754</v>
       </c>
       <c r="E158" t="n">
-        <v>1105.042154547212</v>
+        <v>1099.404635716066</v>
       </c>
       <c r="F158" t="n">
-        <v>8.862654462147637</v>
+        <v>8.935027312054816</v>
       </c>
     </row>
     <row r="159">
@@ -3626,19 +3626,19 @@
         <v>45658.51793981482</v>
       </c>
       <c r="B159" t="n">
-        <v>3.516636121554013</v>
+        <v>3.532182235908474</v>
       </c>
       <c r="C159" t="n">
-        <v>45.32420891949944</v>
+        <v>45.74114091713285</v>
       </c>
       <c r="D159" t="n">
-        <v>347.1427473079736</v>
+        <v>354.9366715801934</v>
       </c>
       <c r="E159" t="n">
-        <v>1126.24075680227</v>
+        <v>1132.23040750349</v>
       </c>
       <c r="F159" t="n">
-        <v>8.97122225507791</v>
+        <v>9.152342241160484</v>
       </c>
     </row>
     <row r="160">
@@ -3646,19 +3646,19 @@
         <v>45658.51805555556</v>
       </c>
       <c r="B160" t="n">
-        <v>3.377761496447045</v>
+        <v>3.409046931616893</v>
       </c>
       <c r="C160" t="n">
-        <v>45.99487254349133</v>
+        <v>44.90644266955726</v>
       </c>
       <c r="D160" t="n">
-        <v>341.7833586790102</v>
+        <v>358.1928773654516</v>
       </c>
       <c r="E160" t="n">
-        <v>1131.303547359295</v>
+        <v>1135.696873292756</v>
       </c>
       <c r="F160" t="n">
-        <v>9.016365115565153</v>
+        <v>9.053153753651044</v>
       </c>
     </row>
     <row r="161">
@@ -3666,19 +3666,19 @@
         <v>45658.51817129629</v>
       </c>
       <c r="B161" t="n">
-        <v>3.39610087815191</v>
+        <v>3.580451744140726</v>
       </c>
       <c r="C161" t="n">
-        <v>44.77934847013993</v>
+        <v>46.1048933211079</v>
       </c>
       <c r="D161" t="n">
-        <v>360.1126978921767</v>
+        <v>351.7803841900717</v>
       </c>
       <c r="E161" t="n">
-        <v>1144.06418811881</v>
+        <v>1133.775797136818</v>
       </c>
       <c r="F161" t="n">
-        <v>9.174761141613308</v>
+        <v>9.098849793598733</v>
       </c>
     </row>
     <row r="162">
@@ -3686,19 +3686,19 @@
         <v>45658.51828703703</v>
       </c>
       <c r="B162" t="n">
-        <v>3.498356461242407</v>
+        <v>3.588654844862434</v>
       </c>
       <c r="C162" t="n">
-        <v>46.56342995481614</v>
+        <v>45.77265627986635</v>
       </c>
       <c r="D162" t="n">
-        <v>360.143097024698</v>
+        <v>365.6248751730582</v>
       </c>
       <c r="E162" t="n">
-        <v>1144.617957723938</v>
+        <v>1149.66521969302</v>
       </c>
       <c r="F162" t="n">
-        <v>9.217893444806602</v>
+        <v>9.281556282687779</v>
       </c>
     </row>
     <row r="163">
@@ -3706,19 +3706,19 @@
         <v>45658.51840277778</v>
       </c>
       <c r="B163" t="n">
-        <v>3.785572511588694</v>
+        <v>3.83074435392464</v>
       </c>
       <c r="C163" t="n">
-        <v>47.38485198964247</v>
+        <v>47.04350175002659</v>
       </c>
       <c r="D163" t="n">
-        <v>369.8912937585463</v>
+        <v>366.7209026962062</v>
       </c>
       <c r="E163" t="n">
-        <v>1173.847600975535</v>
+        <v>1172.683574851308</v>
       </c>
       <c r="F163" t="n">
-        <v>9.298263001818107</v>
+        <v>9.459937271422865</v>
       </c>
     </row>
     <row r="164">
@@ -3726,19 +3726,19 @@
         <v>45658.51851851852</v>
       </c>
       <c r="B164" t="n">
-        <v>3.677892764856187</v>
+        <v>3.840887144899998</v>
       </c>
       <c r="C164" t="n">
-        <v>47.52837995769899</v>
+        <v>47.56206371139982</v>
       </c>
       <c r="D164" t="n">
-        <v>383.1527313612502</v>
+        <v>367.7589801255636</v>
       </c>
       <c r="E164" t="n">
-        <v>1181.732430987591</v>
+        <v>1181.702404625665</v>
       </c>
       <c r="F164" t="n">
-        <v>9.484999715166234</v>
+        <v>9.47423606273148</v>
       </c>
     </row>
     <row r="165">
@@ -3746,19 +3746,19 @@
         <v>45658.51863425926</v>
       </c>
       <c r="B165" t="n">
-        <v>3.922538567419292</v>
+        <v>3.673785213897887</v>
       </c>
       <c r="C165" t="n">
-        <v>48.29501732076168</v>
+        <v>47.17791529893435</v>
       </c>
       <c r="D165" t="n">
-        <v>384.043461711811</v>
+        <v>379.0791942310679</v>
       </c>
       <c r="E165" t="n">
-        <v>1210.933896828881</v>
+        <v>1201.232840382335</v>
       </c>
       <c r="F165" t="n">
-        <v>9.560302662957472</v>
+        <v>9.645534782379881</v>
       </c>
     </row>
     <row r="166">
@@ -3766,19 +3766,19 @@
         <v>45658.51875</v>
       </c>
       <c r="B166" t="n">
-        <v>3.837346852852779</v>
+        <v>3.839441183150529</v>
       </c>
       <c r="C166" t="n">
-        <v>49.5538223702082</v>
+        <v>49.78417505371934</v>
       </c>
       <c r="D166" t="n">
-        <v>383.5458628387299</v>
+        <v>383.1917785954448</v>
       </c>
       <c r="E166" t="n">
-        <v>1199.48233896586</v>
+        <v>1228.24336073388</v>
       </c>
       <c r="F166" t="n">
-        <v>9.75225152342662</v>
+        <v>9.619606090645684</v>
       </c>
     </row>
     <row r="167">
@@ -3786,19 +3786,19 @@
         <v>45658.51886574074</v>
       </c>
       <c r="B167" t="n">
-        <v>3.874605505281245</v>
+        <v>3.801868054343321</v>
       </c>
       <c r="C167" t="n">
-        <v>49.38694169171599</v>
+        <v>49.31872371303493</v>
       </c>
       <c r="D167" t="n">
-        <v>385.6784699834572</v>
+        <v>398.1293783298215</v>
       </c>
       <c r="E167" t="n">
-        <v>1228.256283988591</v>
+        <v>1224.998497100973</v>
       </c>
       <c r="F167" t="n">
-        <v>9.827062784945213</v>
+        <v>9.852981106989841</v>
       </c>
     </row>
     <row r="168">
@@ -3806,19 +3806,19 @@
         <v>45658.51898148148</v>
       </c>
       <c r="B168" t="n">
-        <v>3.838230802401757</v>
+        <v>3.973103832463214</v>
       </c>
       <c r="C168" t="n">
-        <v>49.65864167807418</v>
+        <v>49.15646092072542</v>
       </c>
       <c r="D168" t="n">
-        <v>395.7982668581158</v>
+        <v>400.2417653351813</v>
       </c>
       <c r="E168" t="n">
-        <v>1241.071956963122</v>
+        <v>1245.168207830962</v>
       </c>
       <c r="F168" t="n">
-        <v>9.976289140953988</v>
+        <v>9.865463935403723</v>
       </c>
     </row>
     <row r="169">
@@ -3826,19 +3826,19 @@
         <v>45658.51909722222</v>
       </c>
       <c r="B169" t="n">
-        <v>3.945971181317804</v>
+        <v>4.069553372589728</v>
       </c>
       <c r="C169" t="n">
-        <v>49.88911719196172</v>
+        <v>49.67212466590359</v>
       </c>
       <c r="D169" t="n">
-        <v>393.1005415378719</v>
+        <v>406.5885224017469</v>
       </c>
       <c r="E169" t="n">
-        <v>1252.425232466526</v>
+        <v>1245.600316387414</v>
       </c>
       <c r="F169" t="n">
-        <v>10.02818841516387</v>
+        <v>10.01977346677427</v>
       </c>
     </row>
     <row r="170">
@@ -3846,19 +3846,19 @@
         <v>45658.51921296296</v>
       </c>
       <c r="B170" t="n">
-        <v>4.028500038765851</v>
+        <v>3.790161456089029</v>
       </c>
       <c r="C170" t="n">
-        <v>49.81641570328588</v>
+        <v>50.79657242545304</v>
       </c>
       <c r="D170" t="n">
-        <v>404.4980469269244</v>
+        <v>412.0777876413934</v>
       </c>
       <c r="E170" t="n">
-        <v>1258.855916788575</v>
+        <v>1267.96919469785</v>
       </c>
       <c r="F170" t="n">
-        <v>10.2892817915558</v>
+        <v>10.11156770404905</v>
       </c>
     </row>
     <row r="171">
@@ -3866,19 +3866,19 @@
         <v>45658.5193287037</v>
       </c>
       <c r="B171" t="n">
-        <v>4.092945541184265</v>
+        <v>4.280448101783416</v>
       </c>
       <c r="C171" t="n">
-        <v>51.49691200493282</v>
+        <v>51.46399923421541</v>
       </c>
       <c r="D171" t="n">
-        <v>423.3690597086373</v>
+        <v>403.2267471577559</v>
       </c>
       <c r="E171" t="n">
-        <v>1275.353231250952</v>
+        <v>1288.439608860811</v>
       </c>
       <c r="F171" t="n">
-        <v>10.26162758360068</v>
+        <v>10.3069876714051</v>
       </c>
     </row>
     <row r="172">
@@ -3886,19 +3886,19 @@
         <v>45658.51944444444</v>
       </c>
       <c r="B172" t="n">
-        <v>4.303853994846096</v>
+        <v>4.154862259950346</v>
       </c>
       <c r="C172" t="n">
-        <v>51.36750296385179</v>
+        <v>51.81632801858295</v>
       </c>
       <c r="D172" t="n">
-        <v>417.1087947046474</v>
+        <v>423.2319988668514</v>
       </c>
       <c r="E172" t="n">
-        <v>1294.606695918007</v>
+        <v>1296.724759550581</v>
       </c>
       <c r="F172" t="n">
-        <v>10.42879412966957</v>
+        <v>10.47660006785943</v>
       </c>
     </row>
     <row r="173">
@@ -3906,19 +3906,19 @@
         <v>45658.51956018519</v>
       </c>
       <c r="B173" t="n">
-        <v>4.437051468466374</v>
+        <v>4.284011756729415</v>
       </c>
       <c r="C173" t="n">
-        <v>51.91782319665857</v>
+        <v>52.48132789269333</v>
       </c>
       <c r="D173" t="n">
-        <v>428.9156732356734</v>
+        <v>432.5558535412436</v>
       </c>
       <c r="E173" t="n">
-        <v>1322.120245159055</v>
+        <v>1329.080769524191</v>
       </c>
       <c r="F173" t="n">
-        <v>10.61303909490272</v>
+        <v>10.54651228609415</v>
       </c>
     </row>
     <row r="174">
@@ -3926,19 +3926,19 @@
         <v>45658.51967592593</v>
       </c>
       <c r="B174" t="n">
-        <v>4.517169191185199</v>
+        <v>4.307499055253349</v>
       </c>
       <c r="C174" t="n">
-        <v>52.79519072177354</v>
+        <v>52.52940008359866</v>
       </c>
       <c r="D174" t="n">
-        <v>432.6841065552942</v>
+        <v>438.7190486058681</v>
       </c>
       <c r="E174" t="n">
-        <v>1337.60421189617</v>
+        <v>1338.550521820883</v>
       </c>
       <c r="F174" t="n">
-        <v>10.7374500869794</v>
+        <v>10.62160966905525</v>
       </c>
     </row>
     <row r="175">
@@ -3946,19 +3946,19 @@
         <v>45658.51979166667</v>
       </c>
       <c r="B175" t="n">
-        <v>4.349518437909474</v>
+        <v>4.544319766799408</v>
       </c>
       <c r="C175" t="n">
-        <v>53.55430786055743</v>
+        <v>54.27288688719463</v>
       </c>
       <c r="D175" t="n">
-        <v>442.4072868090092</v>
+        <v>437.8991187816144</v>
       </c>
       <c r="E175" t="n">
-        <v>1356.852752611617</v>
+        <v>1367.939937271996</v>
       </c>
       <c r="F175" t="n">
-        <v>10.8961732582085</v>
+        <v>10.83483201362444</v>
       </c>
     </row>
     <row r="176">
@@ -3966,19 +3966,19 @@
         <v>45658.5199074074</v>
       </c>
       <c r="B176" t="n">
-        <v>4.361537843552214</v>
+        <v>4.591688896466832</v>
       </c>
       <c r="C176" t="n">
-        <v>54.64399754811499</v>
+        <v>54.32866143890914</v>
       </c>
       <c r="D176" t="n">
-        <v>453.3007449328423</v>
+        <v>441.3101706182453</v>
       </c>
       <c r="E176" t="n">
-        <v>1372.851253886749</v>
+        <v>1360.39082682636</v>
       </c>
       <c r="F176" t="n">
-        <v>11.02672690630542</v>
+        <v>11.00039624523656</v>
       </c>
     </row>
     <row r="177">
@@ -3986,19 +3986,19 @@
         <v>45658.52002314815</v>
       </c>
       <c r="B177" t="n">
-        <v>4.384651517389933</v>
+        <v>4.535142170986773</v>
       </c>
       <c r="C177" t="n">
-        <v>55.95320820527477</v>
+        <v>54.34289902685601</v>
       </c>
       <c r="D177" t="n">
-        <v>457.5869484891652</v>
+        <v>458.6696899537949</v>
       </c>
       <c r="E177" t="n">
-        <v>1385.864294251227</v>
+        <v>1373.658193116495</v>
       </c>
       <c r="F177" t="n">
-        <v>11.09407949778223</v>
+        <v>11.1252049791605</v>
       </c>
     </row>
     <row r="178">
@@ -4006,19 +4006,19 @@
         <v>45658.52013888889</v>
       </c>
       <c r="B178" t="n">
-        <v>4.575741738177756</v>
+        <v>4.628160852051386</v>
       </c>
       <c r="C178" t="n">
-        <v>55.78631388779738</v>
+        <v>56.02516223790009</v>
       </c>
       <c r="D178" t="n">
-        <v>457.9023983874637</v>
+        <v>452.1953259109918</v>
       </c>
       <c r="E178" t="n">
-        <v>1400.67004961915</v>
+        <v>1382.974860901301</v>
       </c>
       <c r="F178" t="n">
-        <v>11.30428454836882</v>
+        <v>11.1806116758239</v>
       </c>
     </row>
     <row r="179">
@@ -4026,19 +4026,19 @@
         <v>45658.52025462963</v>
       </c>
       <c r="B179" t="n">
-        <v>4.722992625036877</v>
+        <v>4.701827959115927</v>
       </c>
       <c r="C179" t="n">
-        <v>57.10468769289862</v>
+        <v>56.35116287902805</v>
       </c>
       <c r="D179" t="n">
-        <v>467.7198263575363</v>
+        <v>474.2000833215357</v>
       </c>
       <c r="E179" t="n">
-        <v>1421.18993893743</v>
+        <v>1418.420383736119</v>
       </c>
       <c r="F179" t="n">
-        <v>11.38632192493568</v>
+        <v>11.3837327764544</v>
       </c>
     </row>
     <row r="180">
@@ -4046,19 +4046,19 @@
         <v>45658.52037037037</v>
       </c>
       <c r="B180" t="n">
-        <v>4.796147449475841</v>
+        <v>4.736097515489401</v>
       </c>
       <c r="C180" t="n">
-        <v>57.11907851218661</v>
+        <v>57.68790117334476</v>
       </c>
       <c r="D180" t="n">
-        <v>471.8672059330017</v>
+        <v>484.6478064638706</v>
       </c>
       <c r="E180" t="n">
-        <v>1444.490378666183</v>
+        <v>1423.181571215552</v>
       </c>
       <c r="F180" t="n">
-        <v>11.59467831508563</v>
+        <v>11.49109040646143</v>
       </c>
     </row>
     <row r="181">
@@ -4066,19 +4066,19 @@
         <v>45658.52048611111</v>
       </c>
       <c r="B181" t="n">
-        <v>4.70007985647758</v>
+        <v>4.849501886376937</v>
       </c>
       <c r="C181" t="n">
-        <v>58.12709857507306</v>
+        <v>58.49772635712643</v>
       </c>
       <c r="D181" t="n">
-        <v>477.8631664332205</v>
+        <v>485.7244609242708</v>
       </c>
       <c r="E181" t="n">
-        <v>1474.050354523216</v>
+        <v>1461.098461971628</v>
       </c>
       <c r="F181" t="n">
-        <v>11.64256456560829</v>
+        <v>11.69078107533338</v>
       </c>
     </row>
     <row r="182">
@@ -4086,19 +4086,19 @@
         <v>45658.52060185185</v>
       </c>
       <c r="B182" t="n">
-        <v>4.940970999200387</v>
+        <v>4.810124172806339</v>
       </c>
       <c r="C182" t="n">
-        <v>58.37684048830366</v>
+        <v>58.68519087453029</v>
       </c>
       <c r="D182" t="n">
-        <v>492.7667556954652</v>
+        <v>485.3258602086934</v>
       </c>
       <c r="E182" t="n">
-        <v>1465.767186684857</v>
+        <v>1479.529166309415</v>
       </c>
       <c r="F182" t="n">
-        <v>11.62802083402821</v>
+        <v>11.74729083373238</v>
       </c>
     </row>
     <row r="183">
@@ -4106,19 +4106,19 @@
         <v>45658.52071759259</v>
       </c>
       <c r="B183" t="n">
-        <v>5.13334904959489</v>
+        <v>4.946545894504385</v>
       </c>
       <c r="C183" t="n">
-        <v>58.95202962095259</v>
+        <v>59.48280784617364</v>
       </c>
       <c r="D183" t="n">
-        <v>492.2481050135054</v>
+        <v>490.8267658895334</v>
       </c>
       <c r="E183" t="n">
-        <v>1491.109646559929</v>
+        <v>1485.083757720319</v>
       </c>
       <c r="F183" t="n">
-        <v>11.90856417282884</v>
+        <v>11.92192408266672</v>
       </c>
     </row>
     <row r="184">
@@ -4126,19 +4126,19 @@
         <v>45658.52083333334</v>
       </c>
       <c r="B184" t="n">
-        <v>5.06637236671116</v>
+        <v>4.924285857652331</v>
       </c>
       <c r="C184" t="n">
-        <v>60.69998198274747</v>
+        <v>60.6050392565859</v>
       </c>
       <c r="D184" t="n">
-        <v>502.2888949733708</v>
+        <v>503.6323130987037</v>
       </c>
       <c r="E184" t="n">
-        <v>1505.557839836723</v>
+        <v>1481.339061619845</v>
       </c>
       <c r="F184" t="n">
-        <v>12.10184439819122</v>
+        <v>12.0127782235776</v>
       </c>
     </row>
     <row r="185">
@@ -4146,19 +4146,19 @@
         <v>45658.52094907407</v>
       </c>
       <c r="B185" t="n">
-        <v>5.14876522156193</v>
+        <v>5.171084436982355</v>
       </c>
       <c r="C185" t="n">
-        <v>60.43886606969357</v>
+        <v>61.19513467837921</v>
       </c>
       <c r="D185" t="n">
-        <v>507.7494417448394</v>
+        <v>512.5426144073462</v>
       </c>
       <c r="E185" t="n">
-        <v>1533.856805565032</v>
+        <v>1538.720856621976</v>
       </c>
       <c r="F185" t="n">
-        <v>12.25809741543886</v>
+        <v>12.21155977253674</v>
       </c>
     </row>
     <row r="186">
@@ -4166,19 +4166,19 @@
         <v>45658.52106481481</v>
       </c>
       <c r="B186" t="n">
-        <v>5.178738500457484</v>
+        <v>5.026015331174285</v>
       </c>
       <c r="C186" t="n">
-        <v>61.54572091728182</v>
+        <v>62.10985731218289</v>
       </c>
       <c r="D186" t="n">
-        <v>521.2426306264757</v>
+        <v>512.4772155603207</v>
       </c>
       <c r="E186" t="n">
-        <v>1541.435304453191</v>
+        <v>1543.283864398212</v>
       </c>
       <c r="F186" t="n">
-        <v>12.35698325251004</v>
+        <v>12.3750358381178</v>
       </c>
     </row>
     <row r="187">
@@ -4186,19 +4186,19 @@
         <v>45658.52118055556</v>
       </c>
       <c r="B187" t="n">
-        <v>5.253232048055072</v>
+        <v>5.259518043426164</v>
       </c>
       <c r="C187" t="n">
-        <v>62.09475535865707</v>
+        <v>61.19586888345192</v>
       </c>
       <c r="D187" t="n">
-        <v>530.4943460204672</v>
+        <v>519.8233660607102</v>
       </c>
       <c r="E187" t="n">
-        <v>1573.995158331731</v>
+        <v>1560.520869851975</v>
       </c>
       <c r="F187" t="n">
-        <v>12.51792496202685</v>
+        <v>12.5472789272906</v>
       </c>
     </row>
     <row r="188">
@@ -4206,19 +4206,19 @@
         <v>45658.5212962963</v>
       </c>
       <c r="B188" t="n">
-        <v>5.467320434848688</v>
+        <v>5.270476097457535</v>
       </c>
       <c r="C188" t="n">
-        <v>63.71587519923662</v>
+        <v>63.74607964111174</v>
       </c>
       <c r="D188" t="n">
-        <v>522.9974796620864</v>
+        <v>531.7104790071596</v>
       </c>
       <c r="E188" t="n">
-        <v>1587.591286454619</v>
+        <v>1565.781558412215</v>
       </c>
       <c r="F188" t="n">
-        <v>12.60402013975207</v>
+        <v>12.67514604980519</v>
       </c>
     </row>
     <row r="189">
@@ -4226,19 +4226,19 @@
         <v>45658.52141203704</v>
       </c>
       <c r="B189" t="n">
-        <v>5.271019643078246</v>
+        <v>5.149655078415303</v>
       </c>
       <c r="C189" t="n">
-        <v>63.02619531994971</v>
+        <v>63.42921280004224</v>
       </c>
       <c r="D189" t="n">
-        <v>529.0963871285677</v>
+        <v>533.0964523974601</v>
       </c>
       <c r="E189" t="n">
-        <v>1593.725796638757</v>
+        <v>1603.068706616885</v>
       </c>
       <c r="F189" t="n">
-        <v>12.81045347161231</v>
+        <v>12.77348832681629</v>
       </c>
     </row>
     <row r="190">
@@ -4246,19 +4246,19 @@
         <v>45658.52152777778</v>
       </c>
       <c r="B190" t="n">
-        <v>5.436520665212475</v>
+        <v>5.47266847059748</v>
       </c>
       <c r="C190" t="n">
-        <v>64.28347111122342</v>
+        <v>64.33386926098979</v>
       </c>
       <c r="D190" t="n">
-        <v>537.7179272458957</v>
+        <v>538.1710990088435</v>
       </c>
       <c r="E190" t="n">
-        <v>1607.088098963811</v>
+        <v>1618.342603143724</v>
       </c>
       <c r="F190" t="n">
-        <v>12.96206290511134</v>
+        <v>12.90338061973336</v>
       </c>
     </row>
     <row r="191">
@@ -4266,19 +4266,19 @@
         <v>45658.52164351852</v>
       </c>
       <c r="B191" t="n">
-        <v>5.53315818868886</v>
+        <v>5.720357507279598</v>
       </c>
       <c r="C191" t="n">
-        <v>65.09420087919561</v>
+        <v>65.46157941256534</v>
       </c>
       <c r="D191" t="n">
-        <v>550.38718778192</v>
+        <v>552.756535348311</v>
       </c>
       <c r="E191" t="n">
-        <v>1629.490540366146</v>
+        <v>1637.703970420399</v>
       </c>
       <c r="F191" t="n">
-        <v>13.06448489541863</v>
+        <v>13.05610685892673</v>
       </c>
     </row>
     <row r="192">
@@ -4286,19 +4286,19 @@
         <v>45658.52175925926</v>
       </c>
       <c r="B192" t="n">
-        <v>5.572221800611164</v>
+        <v>5.634483787336515</v>
       </c>
       <c r="C192" t="n">
-        <v>65.60859542921806</v>
+        <v>66.76418174334826</v>
       </c>
       <c r="D192" t="n">
-        <v>563.3735715373613</v>
+        <v>560.6215203619752</v>
       </c>
       <c r="E192" t="n">
-        <v>1634.024253856522</v>
+        <v>1648.792592525509</v>
       </c>
       <c r="F192" t="n">
-        <v>13.16431647292592</v>
+        <v>13.22239386524842</v>
       </c>
     </row>
     <row r="193">
@@ -4306,19 +4306,19 @@
         <v>45658.521875</v>
       </c>
       <c r="B193" t="n">
-        <v>5.5968241301739</v>
+        <v>5.720561266160825</v>
       </c>
       <c r="C193" t="n">
-        <v>66.43664322292841</v>
+        <v>65.68027315796857</v>
       </c>
       <c r="D193" t="n">
-        <v>565.1462528677571</v>
+        <v>559.8499552679891</v>
       </c>
       <c r="E193" t="n">
-        <v>1668.68168593702</v>
+        <v>1662.329879395248</v>
       </c>
       <c r="F193" t="n">
-        <v>13.17852936365065</v>
+        <v>13.29759369520719</v>
       </c>
     </row>
     <row r="194">
@@ -4326,19 +4326,19 @@
         <v>45658.52199074074</v>
       </c>
       <c r="B194" t="n">
-        <v>5.668475707364407</v>
+        <v>5.5430394236225</v>
       </c>
       <c r="C194" t="n">
-        <v>67.10768070338466</v>
+        <v>67.03331034526947</v>
       </c>
       <c r="D194" t="n">
-        <v>581.7798317173288</v>
+        <v>584.1423909588473</v>
       </c>
       <c r="E194" t="n">
-        <v>1683.389066697968</v>
+        <v>1694.624186445379</v>
       </c>
       <c r="F194" t="n">
-        <v>13.47631714510623</v>
+        <v>13.37597353378527</v>
       </c>
     </row>
     <row r="195">
@@ -4346,19 +4346,19 @@
         <v>45658.52210648148</v>
       </c>
       <c r="B195" t="n">
-        <v>5.743491446740754</v>
+        <v>5.812088958525282</v>
       </c>
       <c r="C195" t="n">
-        <v>68.43329861595885</v>
+        <v>67.90366302731667</v>
       </c>
       <c r="D195" t="n">
-        <v>584.0733881248354</v>
+        <v>568.8458898699494</v>
       </c>
       <c r="E195" t="n">
-        <v>1722.343156769889</v>
+        <v>1681.044141996239</v>
       </c>
       <c r="F195" t="n">
-        <v>13.53407877949274</v>
+        <v>13.56975958181074</v>
       </c>
     </row>
     <row r="196">
@@ -4366,19 +4366,19 @@
         <v>45658.52222222222</v>
       </c>
       <c r="B196" t="n">
-        <v>5.965064217818176</v>
+        <v>5.942909497347816</v>
       </c>
       <c r="C196" t="n">
-        <v>69.28686151195225</v>
+        <v>68.89910056918063</v>
       </c>
       <c r="D196" t="n">
-        <v>592.1219046717944</v>
+        <v>583.5276702695513</v>
       </c>
       <c r="E196" t="n">
-        <v>1713.968388213751</v>
+        <v>1693.304214682669</v>
       </c>
       <c r="F196" t="n">
-        <v>13.69544721265469</v>
+        <v>13.73561718644439</v>
       </c>
     </row>
     <row r="197">
@@ -4386,19 +4386,19 @@
         <v>45658.52233796296</v>
       </c>
       <c r="B197" t="n">
-        <v>6.08012288434516</v>
+        <v>5.824159518276684</v>
       </c>
       <c r="C197" t="n">
-        <v>69.37801273550937</v>
+        <v>69.31546556710197</v>
       </c>
       <c r="D197" t="n">
-        <v>591.6921444602631</v>
+        <v>592.3660401387874</v>
       </c>
       <c r="E197" t="n">
-        <v>1729.992769311332</v>
+        <v>1720.907806731488</v>
       </c>
       <c r="F197" t="n">
-        <v>13.85149611811859</v>
+        <v>13.8725612266755</v>
       </c>
     </row>
     <row r="198">
@@ -4406,19 +4406,19 @@
         <v>45658.52245370371</v>
       </c>
       <c r="B198" t="n">
-        <v>5.911594026741412</v>
+        <v>5.907598882679886</v>
       </c>
       <c r="C198" t="n">
-        <v>69.46580680958748</v>
+        <v>70.12813012604674</v>
       </c>
       <c r="D198" t="n">
-        <v>599.3825684753671</v>
+        <v>597.774154230655</v>
       </c>
       <c r="E198" t="n">
-        <v>1746.931662998748</v>
+        <v>1736.529393710453</v>
       </c>
       <c r="F198" t="n">
-        <v>13.94046025043285</v>
+        <v>13.86217649598863</v>
       </c>
     </row>
     <row r="199">
@@ -4426,19 +4426,19 @@
         <v>45658.52256944445</v>
       </c>
       <c r="B199" t="n">
-        <v>5.829310917682398</v>
+        <v>5.972624864707213</v>
       </c>
       <c r="C199" t="n">
-        <v>70.42341792780401</v>
+        <v>71.09771235583493</v>
       </c>
       <c r="D199" t="n">
-        <v>607.6209341503643</v>
+        <v>605.6454308730016</v>
       </c>
       <c r="E199" t="n">
-        <v>1765.516868202356</v>
+        <v>1735.518627409356</v>
       </c>
       <c r="F199" t="n">
-        <v>14.09293896680639</v>
+        <v>14.10831336210518</v>
       </c>
     </row>
     <row r="200">
@@ -4446,19 +4446,19 @@
         <v>45658.52268518518</v>
       </c>
       <c r="B200" t="n">
-        <v>6.117788156678089</v>
+        <v>6.043472667688544</v>
       </c>
       <c r="C200" t="n">
-        <v>71.23817143660118</v>
+        <v>71.10357171535884</v>
       </c>
       <c r="D200" t="n">
-        <v>607.1635516419442</v>
+        <v>602.7985534441907</v>
       </c>
       <c r="E200" t="n">
-        <v>1786.855162193249</v>
+        <v>1770.442325922344</v>
       </c>
       <c r="F200" t="n">
-        <v>14.12652888446201</v>
+        <v>14.17090340222274</v>
       </c>
     </row>
     <row r="201">
@@ -4466,19 +4466,19 @@
         <v>45658.52280092592</v>
       </c>
       <c r="B201" t="n">
-        <v>6.324200946008977</v>
+        <v>6.290011770659182</v>
       </c>
       <c r="C201" t="n">
-        <v>70.99044602714399</v>
+        <v>71.61078765730082</v>
       </c>
       <c r="D201" t="n">
-        <v>614.7483112526696</v>
+        <v>620.3303156801163</v>
       </c>
       <c r="E201" t="n">
-        <v>1764.272119400926</v>
+        <v>1791.523617153809</v>
       </c>
       <c r="F201" t="n">
-        <v>14.34171203570317</v>
+        <v>14.3056909165987</v>
       </c>
     </row>
     <row r="202">
@@ -4486,19 +4486,19 @@
         <v>45658.52291666667</v>
       </c>
       <c r="B202" t="n">
-        <v>6.130792005635536</v>
+        <v>6.357889490512684</v>
       </c>
       <c r="C202" t="n">
-        <v>72.51367284218749</v>
+        <v>72.97707219843147</v>
       </c>
       <c r="D202" t="n">
-        <v>621.2346975634438</v>
+        <v>616.4273367448498</v>
       </c>
       <c r="E202" t="n">
-        <v>1797.807841055491</v>
+        <v>1805.745523773089</v>
       </c>
       <c r="F202" t="n">
-        <v>14.3468036834186</v>
+        <v>14.36931296594156</v>
       </c>
     </row>
     <row r="203">
@@ -4506,19 +4506,19 @@
         <v>45658.52303240741</v>
       </c>
       <c r="B203" t="n">
-        <v>6.239667681425574</v>
+        <v>6.201705865791996</v>
       </c>
       <c r="C203" t="n">
-        <v>73.34693540712018</v>
+        <v>72.61758864766617</v>
       </c>
       <c r="D203" t="n">
-        <v>620.6355259108216</v>
+        <v>614.3170927264085</v>
       </c>
       <c r="E203" t="n">
-        <v>1816.115187223029</v>
+        <v>1816.515236316952</v>
       </c>
       <c r="F203" t="n">
-        <v>14.47003623101727</v>
+        <v>14.45456647484811</v>
       </c>
     </row>
     <row r="204">
@@ -4526,19 +4526,19 @@
         <v>45658.52314814815</v>
       </c>
       <c r="B204" t="n">
-        <v>6.402313011642454</v>
+        <v>6.349006972288</v>
       </c>
       <c r="C204" t="n">
-        <v>72.44994143836227</v>
+        <v>73.52249251615896</v>
       </c>
       <c r="D204" t="n">
-        <v>620.3576443585212</v>
+        <v>620.892743452854</v>
       </c>
       <c r="E204" t="n">
-        <v>1824.520959710291</v>
+        <v>1825.415972224682</v>
       </c>
       <c r="F204" t="n">
-        <v>14.60128745167928</v>
+        <v>14.63069219035787</v>
       </c>
     </row>
     <row r="205">
@@ -4546,19 +4546,19 @@
         <v>45658.52326388889</v>
       </c>
       <c r="B205" t="n">
-        <v>6.301522721752622</v>
+        <v>6.362241490547628</v>
       </c>
       <c r="C205" t="n">
-        <v>73.18068230108564</v>
+        <v>73.40688346013825</v>
       </c>
       <c r="D205" t="n">
-        <v>639.2607823123096</v>
+        <v>642.5398824336728</v>
       </c>
       <c r="E205" t="n">
-        <v>1852.195581201627</v>
+        <v>1863.774195302852</v>
       </c>
       <c r="F205" t="n">
-        <v>14.81937426583467</v>
+        <v>14.67691022976436</v>
       </c>
     </row>
     <row r="206">
@@ -4566,19 +4566,19 @@
         <v>45658.52337962963</v>
       </c>
       <c r="B206" t="n">
-        <v>6.382884555949304</v>
+        <v>6.321864634624665</v>
       </c>
       <c r="C206" t="n">
-        <v>74.60898302789644</v>
+        <v>74.58298230335809</v>
       </c>
       <c r="D206" t="n">
-        <v>644.1181410638411</v>
+        <v>638.6172744574422</v>
       </c>
       <c r="E206" t="n">
-        <v>1844.559476731428</v>
+        <v>1853.136162154803</v>
       </c>
       <c r="F206" t="n">
-        <v>14.79363451918913</v>
+        <v>14.84851942119105</v>
       </c>
     </row>
     <row r="207">
@@ -4586,19 +4586,19 @@
         <v>45658.52349537037</v>
       </c>
       <c r="B207" t="n">
-        <v>6.420277839374582</v>
+        <v>6.446362596700539</v>
       </c>
       <c r="C207" t="n">
-        <v>74.89167803554196</v>
+        <v>74.47184214383148</v>
       </c>
       <c r="D207" t="n">
-        <v>647.7559271120645</v>
+        <v>653.0614769024457</v>
       </c>
       <c r="E207" t="n">
-        <v>1870.35209178189</v>
+        <v>1856.118100055369</v>
       </c>
       <c r="F207" t="n">
-        <v>14.88006859597239</v>
+        <v>14.93845781022045</v>
       </c>
     </row>
     <row r="208">
@@ -4606,19 +4606,19 @@
         <v>45658.52361111111</v>
       </c>
       <c r="B208" t="n">
-        <v>6.582879535156945</v>
+        <v>6.496567685256036</v>
       </c>
       <c r="C208" t="n">
-        <v>74.74915082727865</v>
+        <v>74.6668259035401</v>
       </c>
       <c r="D208" t="n">
-        <v>652.5424866711775</v>
+        <v>658.5749809135357</v>
       </c>
       <c r="E208" t="n">
-        <v>1885.557854889988</v>
+        <v>1884.933993878248</v>
       </c>
       <c r="F208" t="n">
-        <v>15.01236423886498</v>
+        <v>14.98827965177202</v>
       </c>
     </row>
     <row r="209">
@@ -4626,19 +4626,19 @@
         <v>45658.52372685185</v>
       </c>
       <c r="B209" t="n">
-        <v>6.477118373461739</v>
+        <v>6.497996166419229</v>
       </c>
       <c r="C209" t="n">
-        <v>76.11435779554591</v>
+        <v>76.06725039416169</v>
       </c>
       <c r="D209" t="n">
-        <v>658.5985633498145</v>
+        <v>651.7507248683621</v>
       </c>
       <c r="E209" t="n">
-        <v>1889.987245870417</v>
+        <v>1892.915685148358</v>
       </c>
       <c r="F209" t="n">
-        <v>15.10072087738926</v>
+        <v>15.16709181465048</v>
       </c>
     </row>
     <row r="210">
@@ -4646,19 +4646,19 @@
         <v>45658.52384259259</v>
       </c>
       <c r="B210" t="n">
-        <v>6.466425633739043</v>
+        <v>6.540366901010512</v>
       </c>
       <c r="C210" t="n">
-        <v>76.03483175655212</v>
+        <v>76.18205007654278</v>
       </c>
       <c r="D210" t="n">
-        <v>653.7224603733027</v>
+        <v>658.0519533989847</v>
       </c>
       <c r="E210" t="n">
-        <v>1915.441897889068</v>
+        <v>1920.542189444966</v>
       </c>
       <c r="F210" t="n">
-        <v>15.16108756827782</v>
+        <v>15.24326412938244</v>
       </c>
     </row>
     <row r="211">
@@ -4666,19 +4666,19 @@
         <v>45658.52395833333</v>
       </c>
       <c r="B211" t="n">
-        <v>6.589956857314353</v>
+        <v>6.738055458193665</v>
       </c>
       <c r="C211" t="n">
-        <v>76.82229559206155</v>
+        <v>76.25643357541507</v>
       </c>
       <c r="D211" t="n">
-        <v>667.4774591453133</v>
+        <v>668.3627428821427</v>
       </c>
       <c r="E211" t="n">
-        <v>1903.575519307261</v>
+        <v>1894.039548778894</v>
       </c>
       <c r="F211" t="n">
-        <v>15.33401860216366</v>
+        <v>15.27040188365731</v>
       </c>
     </row>
     <row r="212">
@@ -4686,19 +4686,19 @@
         <v>45658.52407407408</v>
       </c>
       <c r="B212" t="n">
-        <v>6.519332453107221</v>
+        <v>6.623032302408062</v>
       </c>
       <c r="C212" t="n">
-        <v>76.77748416123379</v>
+        <v>75.99699869401695</v>
       </c>
       <c r="D212" t="n">
-        <v>661.2651082700411</v>
+        <v>667.4038917940021</v>
       </c>
       <c r="E212" t="n">
-        <v>1917.969644665101</v>
+        <v>1915.665920465228</v>
       </c>
       <c r="F212" t="n">
-        <v>15.35938817393745</v>
+        <v>15.33927922951139</v>
       </c>
     </row>
     <row r="213">
@@ -4706,19 +4706,19 @@
         <v>45658.52418981482</v>
       </c>
       <c r="B213" t="n">
-        <v>6.635638455611192</v>
+        <v>6.663946171272697</v>
       </c>
       <c r="C213" t="n">
-        <v>76.9045588096261</v>
+        <v>77.39983631512021</v>
       </c>
       <c r="D213" t="n">
-        <v>671.3566704875985</v>
+        <v>670.1189417561991</v>
       </c>
       <c r="E213" t="n">
-        <v>1912.098128797839</v>
+        <v>1922.293182823774</v>
       </c>
       <c r="F213" t="n">
-        <v>15.44111959975588</v>
+        <v>15.39621532208331</v>
       </c>
     </row>
     <row r="214">
@@ -4726,19 +4726,19 @@
         <v>45658.52430555555</v>
       </c>
       <c r="B214" t="n">
-        <v>6.848331741783952</v>
+        <v>6.87110640219669</v>
       </c>
       <c r="C214" t="n">
-        <v>77.37314668306648</v>
+        <v>77.50186000729117</v>
       </c>
       <c r="D214" t="n">
-        <v>683.2594411541335</v>
+        <v>672.8816360522259</v>
       </c>
       <c r="E214" t="n">
-        <v>1946.977119706606</v>
+        <v>1946.954458887345</v>
       </c>
       <c r="F214" t="n">
-        <v>15.43919912160425</v>
+        <v>15.52004810557246</v>
       </c>
     </row>
     <row r="215">
@@ -4746,19 +4746,19 @@
         <v>45658.52442129629</v>
       </c>
       <c r="B215" t="n">
-        <v>6.923100798231093</v>
+        <v>6.810895626725173</v>
       </c>
       <c r="C215" t="n">
-        <v>78.10997671042131</v>
+        <v>77.11666038627315</v>
       </c>
       <c r="D215" t="n">
-        <v>679.6894272748978</v>
+        <v>683.8798415230996</v>
       </c>
       <c r="E215" t="n">
-        <v>1954.105656253183</v>
+        <v>1950.163325168371</v>
       </c>
       <c r="F215" t="n">
-        <v>15.51962811695819</v>
+        <v>15.63652580257242</v>
       </c>
     </row>
     <row r="216">
@@ -4766,19 +4766,19 @@
         <v>45658.52453703704</v>
       </c>
       <c r="B216" t="n">
-        <v>6.774744689645634</v>
+        <v>6.867734398458379</v>
       </c>
       <c r="C216" t="n">
-        <v>78.25326392047813</v>
+        <v>77.08470791982002</v>
       </c>
       <c r="D216" t="n">
-        <v>680.5462198336114</v>
+        <v>678.7702706017924</v>
       </c>
       <c r="E216" t="n">
-        <v>1958.457423486679</v>
+        <v>1943.042471165245</v>
       </c>
       <c r="F216" t="n">
-        <v>15.72932178209396</v>
+        <v>15.60916521133136</v>
       </c>
     </row>
     <row r="217">
@@ -4786,19 +4786,19 @@
         <v>45658.52465277778</v>
       </c>
       <c r="B217" t="n">
-        <v>6.878489253009564</v>
+        <v>6.767450430000338</v>
       </c>
       <c r="C217" t="n">
-        <v>77.78571907118314</v>
+        <v>78.04620800618025</v>
       </c>
       <c r="D217" t="n">
-        <v>681.6737318754668</v>
+        <v>686.3692299827638</v>
       </c>
       <c r="E217" t="n">
-        <v>1962.418657187598</v>
+        <v>1965.030560216115</v>
       </c>
       <c r="F217" t="n">
-        <v>15.6281724034275</v>
+        <v>15.70871305885323</v>
       </c>
     </row>
     <row r="218">
@@ -4806,19 +4806,19 @@
         <v>45658.52476851852</v>
       </c>
       <c r="B218" t="n">
-        <v>7.057476593251189</v>
+        <v>6.918787763760924</v>
       </c>
       <c r="C218" t="n">
-        <v>78.12644023262581</v>
+        <v>78.69423620881015</v>
       </c>
       <c r="D218" t="n">
-        <v>689.4532096285942</v>
+        <v>695.9767222655128</v>
       </c>
       <c r="E218" t="n">
-        <v>1972.986519934052</v>
+        <v>1960.322433394832</v>
       </c>
       <c r="F218" t="n">
-        <v>15.76033427712182</v>
+        <v>15.70991658952452</v>
       </c>
     </row>
     <row r="219">
@@ -4826,19 +4826,19 @@
         <v>45658.52488425926</v>
       </c>
       <c r="B219" t="n">
-        <v>6.8283852840609</v>
+        <v>6.77826926219904</v>
       </c>
       <c r="C219" t="n">
-        <v>78.9606731927867</v>
+        <v>79.17980509109323</v>
       </c>
       <c r="D219" t="n">
-        <v>696.3509889543732</v>
+        <v>691.2845910046589</v>
       </c>
       <c r="E219" t="n">
-        <v>1983.128722444096</v>
+        <v>1968.12156864498</v>
       </c>
       <c r="F219" t="n">
-        <v>15.90065544188887</v>
+        <v>15.85908906872622</v>
       </c>
     </row>
     <row r="220">
@@ -4846,19 +4846,19 @@
         <v>45658.525</v>
       </c>
       <c r="B220" t="n">
-        <v>6.925878871708637</v>
+        <v>6.822393126308055</v>
       </c>
       <c r="C220" t="n">
-        <v>79.27260407390854</v>
+        <v>79.39588865716846</v>
       </c>
       <c r="D220" t="n">
-        <v>683.6342748589344</v>
+        <v>693.9091791620477</v>
       </c>
       <c r="E220" t="n">
-        <v>1959.698955906814</v>
+        <v>1978.313052113103</v>
       </c>
       <c r="F220" t="n">
-        <v>15.84393383954982</v>
+        <v>15.742813411266</v>
       </c>
     </row>
     <row r="221">
@@ -4866,19 +4866,19 @@
         <v>45658.52511574074</v>
       </c>
       <c r="B221" t="n">
-        <v>6.966604040386169</v>
+        <v>6.804688465949361</v>
       </c>
       <c r="C221" t="n">
-        <v>79.85061649681845</v>
+        <v>79.61646962798696</v>
       </c>
       <c r="D221" t="n">
-        <v>689.7703201071201</v>
+        <v>694.4003886249953</v>
       </c>
       <c r="E221" t="n">
-        <v>1996.715154334745</v>
+        <v>1980.074950242416</v>
       </c>
       <c r="F221" t="n">
-        <v>15.79884583515544</v>
+        <v>15.87848043137134</v>
       </c>
     </row>
     <row r="222">
@@ -4886,19 +4886,19 @@
         <v>45658.52523148148</v>
       </c>
       <c r="B222" t="n">
-        <v>7.015746248632059</v>
+        <v>7.045828100707215</v>
       </c>
       <c r="C222" t="n">
-        <v>79.57397103997066</v>
+        <v>79.06010273376263</v>
       </c>
       <c r="D222" t="n">
-        <v>695.9070646954112</v>
+        <v>691.7039235676395</v>
       </c>
       <c r="E222" t="n">
-        <v>1996.123478303733</v>
+        <v>1979.936033433705</v>
       </c>
       <c r="F222" t="n">
-        <v>15.94355518785695</v>
+        <v>15.92227726158166</v>
       </c>
     </row>
     <row r="223">
@@ -4906,19 +4906,19 @@
         <v>45658.52534722222</v>
       </c>
       <c r="B223" t="n">
-        <v>7.061466383595338</v>
+        <v>6.95769596985862</v>
       </c>
       <c r="C223" t="n">
-        <v>79.48924577006282</v>
+        <v>79.87373287285082</v>
       </c>
       <c r="D223" t="n">
-        <v>698.4239572025139</v>
+        <v>692.7960953681068</v>
       </c>
       <c r="E223" t="n">
-        <v>1981.380228571145</v>
+        <v>1976.724354387249</v>
       </c>
       <c r="F223" t="n">
-        <v>15.93700301852151</v>
+        <v>15.88316363492698</v>
       </c>
     </row>
     <row r="224">
@@ -4926,19 +4926,19 @@
         <v>45658.52546296296</v>
       </c>
       <c r="B224" t="n">
-        <v>7.188259497786708</v>
+        <v>6.93792206556311</v>
       </c>
       <c r="C224" t="n">
-        <v>80.29710842586934</v>
+        <v>80.25693884379555</v>
       </c>
       <c r="D224" t="n">
-        <v>701.3278987824973</v>
+        <v>695.394825725111</v>
       </c>
       <c r="E224" t="n">
-        <v>2006.158376888814</v>
+        <v>1977.737749161881</v>
       </c>
       <c r="F224" t="n">
-        <v>15.99151435755278</v>
+        <v>15.9328830437324</v>
       </c>
     </row>
     <row r="225">
@@ -4946,19 +4946,19 @@
         <v>45658.5255787037</v>
       </c>
       <c r="B225" t="n">
-        <v>6.76797472704672</v>
+        <v>6.982028208008424</v>
       </c>
       <c r="C225" t="n">
-        <v>79.53349534820921</v>
+        <v>80.52055875961052</v>
       </c>
       <c r="D225" t="n">
-        <v>699.3514571426601</v>
+        <v>685.4896907501479</v>
       </c>
       <c r="E225" t="n">
-        <v>1996.425765717827</v>
+        <v>2011.465752615703</v>
       </c>
       <c r="F225" t="n">
-        <v>15.97536951953585</v>
+        <v>16.0040513104941</v>
       </c>
     </row>
     <row r="226">
@@ -4966,19 +4966,19 @@
         <v>45658.52569444444</v>
       </c>
       <c r="B226" t="n">
-        <v>6.870575312864815</v>
+        <v>7.088466752036537</v>
       </c>
       <c r="C226" t="n">
-        <v>80.3680954958529</v>
+        <v>80.40508641397261</v>
       </c>
       <c r="D226" t="n">
-        <v>706.2966360849092</v>
+        <v>711.1856002443254</v>
       </c>
       <c r="E226" t="n">
-        <v>1987.199805343251</v>
+        <v>2008.764882580111</v>
       </c>
       <c r="F226" t="n">
-        <v>15.97687182564659</v>
+        <v>16.02127936863866</v>
       </c>
     </row>
     <row r="227">
@@ -4986,19 +4986,19 @@
         <v>45658.52581018519</v>
       </c>
       <c r="B227" t="n">
-        <v>7.077095564218054</v>
+        <v>7.19678668372311</v>
       </c>
       <c r="C227" t="n">
-        <v>80.10180197642936</v>
+        <v>79.98312423379959</v>
       </c>
       <c r="D227" t="n">
-        <v>690.4161088213511</v>
+        <v>705.2157364970089</v>
       </c>
       <c r="E227" t="n">
-        <v>1990.223253561502</v>
+        <v>1996.446980100264</v>
       </c>
       <c r="F227" t="n">
-        <v>16.00855391785267</v>
+        <v>15.91572557656319</v>
       </c>
     </row>
     <row r="228">
@@ -5006,19 +5006,19 @@
         <v>45658.52592592593</v>
       </c>
       <c r="B228" t="n">
-        <v>7.027289572720808</v>
+        <v>7.034408507513861</v>
       </c>
       <c r="C228" t="n">
-        <v>79.67241236767182</v>
+        <v>80.11482974951197</v>
       </c>
       <c r="D228" t="n">
-        <v>702.9158609459205</v>
+        <v>699.733601950097</v>
       </c>
       <c r="E228" t="n">
-        <v>1996.640863176882</v>
+        <v>2009.516519765729</v>
       </c>
       <c r="F228" t="n">
-        <v>16.07389496291749</v>
+        <v>15.99701453336504</v>
       </c>
     </row>
     <row r="229">
@@ -5026,19 +5026,19 @@
         <v>45658.52604166666</v>
       </c>
       <c r="B229" t="n">
-        <v>6.873502225787147</v>
+        <v>6.813734142382197</v>
       </c>
       <c r="C229" t="n">
-        <v>79.23524822009698</v>
+        <v>80.29637965518613</v>
       </c>
       <c r="D229" t="n">
-        <v>697.2724134993892</v>
+        <v>705.0742831670755</v>
       </c>
       <c r="E229" t="n">
-        <v>2011.139745902801</v>
+        <v>2004.778396418402</v>
       </c>
       <c r="F229" t="n">
-        <v>16.04455001046031</v>
+        <v>15.92234366370917</v>
       </c>
     </row>
     <row r="230">
@@ -5046,19 +5046,19 @@
         <v>45658.52615740741</v>
       </c>
       <c r="B230" t="n">
-        <v>6.869862104366051</v>
+        <v>6.967053918566396</v>
       </c>
       <c r="C230" t="n">
-        <v>79.67895806355894</v>
+        <v>80.25192806288177</v>
       </c>
       <c r="D230" t="n">
-        <v>702.0259773951751</v>
+        <v>692.8841623955666</v>
       </c>
       <c r="E230" t="n">
-        <v>1996.048804001798</v>
+        <v>2013.680407484803</v>
       </c>
       <c r="F230" t="n">
-        <v>15.99214872639414</v>
+        <v>15.91937386251118</v>
       </c>
     </row>
     <row r="231">
@@ -5066,19 +5066,19 @@
         <v>45658.52627314815</v>
       </c>
       <c r="B231" t="n">
-        <v>6.84240780914076</v>
+        <v>7.015832593128944</v>
       </c>
       <c r="C231" t="n">
-        <v>79.71791796411401</v>
+        <v>80.1024301161095</v>
       </c>
       <c r="D231" t="n">
-        <v>693.0704569902414</v>
+        <v>703.7438942116351</v>
       </c>
       <c r="E231" t="n">
-        <v>1989.300964593138</v>
+        <v>2005.934140856695</v>
       </c>
       <c r="F231" t="n">
-        <v>15.98603485204656</v>
+        <v>15.94764643870086</v>
       </c>
     </row>
     <row r="232">
@@ -5086,19 +5086,19 @@
         <v>45658.52638888889</v>
       </c>
       <c r="B232" t="n">
-        <v>6.946134291925876</v>
+        <v>7.202241146693654</v>
       </c>
       <c r="C232" t="n">
-        <v>79.88660392618446</v>
+        <v>80.1671724536713</v>
       </c>
       <c r="D232" t="n">
-        <v>696.8407078808675</v>
+        <v>700.5256319430057</v>
       </c>
       <c r="E232" t="n">
-        <v>1980.935388294636</v>
+        <v>2000.599822317857</v>
       </c>
       <c r="F232" t="n">
-        <v>15.86910603924371</v>
+        <v>15.96007074643262</v>
       </c>
     </row>
     <row r="233">
@@ -5106,19 +5106,19 @@
         <v>45658.52650462963</v>
       </c>
       <c r="B233" t="n">
-        <v>6.910985970846914</v>
+        <v>6.901168719897038</v>
       </c>
       <c r="C233" t="n">
-        <v>79.63724904237019</v>
+        <v>79.77082773513021</v>
       </c>
       <c r="D233" t="n">
-        <v>697.7988573778528</v>
+        <v>689.4466963970787</v>
       </c>
       <c r="E233" t="n">
-        <v>1978.398166610722</v>
+        <v>1985.367740771451</v>
       </c>
       <c r="F233" t="n">
-        <v>15.82497794241271</v>
+        <v>16.05668247508714</v>
       </c>
     </row>
     <row r="234">
@@ -5126,19 +5126,19 @@
         <v>45658.52662037037</v>
       </c>
       <c r="B234" t="n">
-        <v>6.985973857807618</v>
+        <v>7.079443182199836</v>
       </c>
       <c r="C234" t="n">
-        <v>79.79198177633604</v>
+        <v>79.10779461465135</v>
       </c>
       <c r="D234" t="n">
-        <v>694.3748403709142</v>
+        <v>686.2213476466545</v>
       </c>
       <c r="E234" t="n">
-        <v>1995.597584060434</v>
+        <v>1992.308729607777</v>
       </c>
       <c r="F234" t="n">
-        <v>15.88071575105391</v>
+        <v>15.96475580145727</v>
       </c>
     </row>
     <row r="235">
@@ -5146,19 +5146,19 @@
         <v>45658.52673611111</v>
       </c>
       <c r="B235" t="n">
-        <v>6.987544542408967</v>
+        <v>7.109519654177274</v>
       </c>
       <c r="C235" t="n">
-        <v>78.40881124078403</v>
+        <v>79.54938128169904</v>
       </c>
       <c r="D235" t="n">
-        <v>695.8758019490413</v>
+        <v>694.4649097047354</v>
       </c>
       <c r="E235" t="n">
-        <v>1982.935160808307</v>
+        <v>1987.079151272396</v>
       </c>
       <c r="F235" t="n">
-        <v>15.85173246053915</v>
+        <v>15.86442166068736</v>
       </c>
     </row>
     <row r="236">
@@ -5166,19 +5166,19 @@
         <v>45658.52685185185</v>
       </c>
       <c r="B236" t="n">
-        <v>6.953412029786088</v>
+        <v>6.915513649623999</v>
       </c>
       <c r="C236" t="n">
-        <v>79.63400186631604</v>
+        <v>79.48252500060423</v>
       </c>
       <c r="D236" t="n">
-        <v>693.4501622284896</v>
+        <v>696.9047648394135</v>
       </c>
       <c r="E236" t="n">
-        <v>1987.740866108744</v>
+        <v>1985.236932526631</v>
       </c>
       <c r="F236" t="n">
-        <v>15.87218573092422</v>
+        <v>15.87544354121589</v>
       </c>
     </row>
     <row r="237">
@@ -5186,19 +5186,19 @@
         <v>45658.5269675926</v>
       </c>
       <c r="B237" t="n">
-        <v>6.913873661488525</v>
+        <v>6.941902972757928</v>
       </c>
       <c r="C237" t="n">
-        <v>78.94878761347758</v>
+        <v>78.97775269211436</v>
       </c>
       <c r="D237" t="n">
-        <v>697.9024062545119</v>
+        <v>691.070821553279</v>
       </c>
       <c r="E237" t="n">
-        <v>1974.255778116113</v>
+        <v>1993.644773082435</v>
       </c>
       <c r="F237" t="n">
-        <v>15.77741339469267</v>
+        <v>15.87598684248544</v>
       </c>
     </row>
     <row r="238">
@@ -5206,19 +5206,19 @@
         <v>45658.52708333333</v>
       </c>
       <c r="B238" t="n">
-        <v>6.770829834212715</v>
+        <v>6.933894312934044</v>
       </c>
       <c r="C238" t="n">
-        <v>79.68441299071499</v>
+        <v>79.00448492813786</v>
       </c>
       <c r="D238" t="n">
-        <v>688.5007981240673</v>
+        <v>689.6231402209318</v>
       </c>
       <c r="E238" t="n">
-        <v>1986.046000471803</v>
+        <v>1981.326575185141</v>
       </c>
       <c r="F238" t="n">
-        <v>15.81048707977724</v>
+        <v>15.70000131154781</v>
       </c>
     </row>
     <row r="239">
@@ -5226,19 +5226,19 @@
         <v>45658.52719907407</v>
       </c>
       <c r="B239" t="n">
-        <v>6.95757523784955</v>
+        <v>6.686739191698582</v>
       </c>
       <c r="C239" t="n">
-        <v>78.68077343472982</v>
+        <v>78.95351670810695</v>
       </c>
       <c r="D239" t="n">
-        <v>696.9976842166939</v>
+        <v>687.6183365947817</v>
       </c>
       <c r="E239" t="n">
-        <v>1962.072647514512</v>
+        <v>1968.207776938918</v>
       </c>
       <c r="F239" t="n">
-        <v>15.76067183511744</v>
+        <v>15.71813553264108</v>
       </c>
     </row>
     <row r="240">
@@ -5246,19 +5246,19 @@
         <v>45658.52731481481</v>
       </c>
       <c r="B240" t="n">
-        <v>6.912501410342146</v>
+        <v>7.009997910376937</v>
       </c>
       <c r="C240" t="n">
-        <v>77.22954802299483</v>
+        <v>78.95560967268777</v>
       </c>
       <c r="D240" t="n">
-        <v>681.0255679824583</v>
+        <v>688.8548419739313</v>
       </c>
       <c r="E240" t="n">
-        <v>1952.524184349259</v>
+        <v>1964.966199679042</v>
       </c>
       <c r="F240" t="n">
-        <v>15.62556352773094</v>
+        <v>15.63200356991763</v>
       </c>
     </row>
     <row r="241">
@@ -5266,19 +5266,19 @@
         <v>45658.52743055556</v>
       </c>
       <c r="B241" t="n">
-        <v>6.699913420795959</v>
+        <v>6.909055746782655</v>
       </c>
       <c r="C241" t="n">
-        <v>77.86315089178119</v>
+        <v>79.27152638004239</v>
       </c>
       <c r="D241" t="n">
-        <v>675.0219306154127</v>
+        <v>681.0371971432061</v>
       </c>
       <c r="E241" t="n">
-        <v>1951.748799366725</v>
+        <v>1950.985134290156</v>
       </c>
       <c r="F241" t="n">
-        <v>15.71042309404921</v>
+        <v>15.58943274211297</v>
       </c>
     </row>
     <row r="242">
@@ -5286,19 +5286,19 @@
         <v>45658.5275462963</v>
       </c>
       <c r="B242" t="n">
-        <v>6.824230838971704</v>
+        <v>6.709004498473607</v>
       </c>
       <c r="C242" t="n">
-        <v>77.88691143170392</v>
+        <v>77.92957871173782</v>
       </c>
       <c r="D242" t="n">
-        <v>674.9512065546523</v>
+        <v>678.2262146193044</v>
       </c>
       <c r="E242" t="n">
-        <v>1940.584322254648</v>
+        <v>1943.188845337459</v>
       </c>
       <c r="F242" t="n">
-        <v>15.43040970679595</v>
+        <v>15.506846639465</v>
       </c>
     </row>
     <row r="243">
@@ -5306,19 +5306,19 @@
         <v>45658.52766203704</v>
       </c>
       <c r="B243" t="n">
-        <v>6.59201094974405</v>
+        <v>6.788284018732067</v>
       </c>
       <c r="C243" t="n">
-        <v>77.30859930012677</v>
+        <v>77.17296380212038</v>
       </c>
       <c r="D243" t="n">
-        <v>673.7883052176679</v>
+        <v>682.8357631407413</v>
       </c>
       <c r="E243" t="n">
-        <v>1947.327512861766</v>
+        <v>1940.378776196822</v>
       </c>
       <c r="F243" t="n">
-        <v>15.48171217381565</v>
+        <v>15.52254716024015</v>
       </c>
     </row>
     <row r="244">
@@ -5326,19 +5326,19 @@
         <v>45658.52777777778</v>
       </c>
       <c r="B244" t="n">
-        <v>6.675898682108648</v>
+        <v>6.587949287712459</v>
       </c>
       <c r="C244" t="n">
-        <v>77.25354965656885</v>
+        <v>76.86014567701393</v>
       </c>
       <c r="D244" t="n">
-        <v>674.1033807016072</v>
+        <v>668.3845026797425</v>
       </c>
       <c r="E244" t="n">
-        <v>1924.408832083572</v>
+        <v>1950.307721473654</v>
       </c>
       <c r="F244" t="n">
-        <v>15.41067569341378</v>
+        <v>15.39786433187973</v>
       </c>
     </row>
     <row r="245">
@@ -5346,19 +5346,19 @@
         <v>45658.52789351852</v>
       </c>
       <c r="B245" t="n">
-        <v>6.627945520116126</v>
+        <v>6.729113433963261</v>
       </c>
       <c r="C245" t="n">
-        <v>76.70505901731605</v>
+        <v>77.08787712822675</v>
       </c>
       <c r="D245" t="n">
-        <v>665.9677363781975</v>
+        <v>667.5396138882085</v>
       </c>
       <c r="E245" t="n">
-        <v>1937.749186758575</v>
+        <v>1910.769270738395</v>
       </c>
       <c r="F245" t="n">
-        <v>15.34361495886826</v>
+        <v>15.36600430512977</v>
       </c>
     </row>
     <row r="246">
@@ -5366,19 +5366,19 @@
         <v>45658.52800925926</v>
       </c>
       <c r="B246" t="n">
-        <v>6.637265020532949</v>
+        <v>6.592311897548926</v>
       </c>
       <c r="C246" t="n">
-        <v>76.48979827634804</v>
+        <v>75.55702455490191</v>
       </c>
       <c r="D246" t="n">
-        <v>658.4224096557185</v>
+        <v>665.5611883568137</v>
       </c>
       <c r="E246" t="n">
-        <v>1911.883945119489</v>
+        <v>1912.741645107657</v>
       </c>
       <c r="F246" t="n">
-        <v>15.21838082043499</v>
+        <v>15.32998064136297</v>
       </c>
     </row>
     <row r="247">
@@ -5386,19 +5386,19 @@
         <v>45658.528125</v>
       </c>
       <c r="B247" t="n">
-        <v>6.715877109527058</v>
+        <v>6.699724812333745</v>
       </c>
       <c r="C247" t="n">
-        <v>76.66789998270811</v>
+        <v>75.69162457502564</v>
       </c>
       <c r="D247" t="n">
-        <v>653.9633936127035</v>
+        <v>657.2810175742045</v>
       </c>
       <c r="E247" t="n">
-        <v>1884.172100915348</v>
+        <v>1901.877017929575</v>
       </c>
       <c r="F247" t="n">
-        <v>15.15744290746416</v>
+        <v>15.18383973434879</v>
       </c>
     </row>
     <row r="248">
@@ -5406,19 +5406,19 @@
         <v>45658.52824074074</v>
       </c>
       <c r="B248" t="n">
-        <v>6.542176834647473</v>
+        <v>6.554842348832195</v>
       </c>
       <c r="C248" t="n">
-        <v>75.65691150836564</v>
+        <v>75.96001446990857</v>
       </c>
       <c r="D248" t="n">
-        <v>651.6248780556186</v>
+        <v>652.6039251262206</v>
       </c>
       <c r="E248" t="n">
-        <v>1899.202533456141</v>
+        <v>1880.90468515111</v>
       </c>
       <c r="F248" t="n">
-        <v>15.06257235626323</v>
+        <v>15.06720337138623</v>
       </c>
     </row>
     <row r="249">
@@ -5426,19 +5426,19 @@
         <v>45658.52835648148</v>
       </c>
       <c r="B249" t="n">
-        <v>6.608618343324727</v>
+        <v>6.638643372479452</v>
       </c>
       <c r="C249" t="n">
-        <v>74.69830476218411</v>
+        <v>75.96514452027672</v>
       </c>
       <c r="D249" t="n">
-        <v>655.8939281675918</v>
+        <v>647.7777364685121</v>
       </c>
       <c r="E249" t="n">
-        <v>1885.583705734507</v>
+        <v>1874.125875642601</v>
       </c>
       <c r="F249" t="n">
-        <v>14.9669699999215</v>
+        <v>15.02223761609647</v>
       </c>
     </row>
     <row r="250">
@@ -5446,19 +5446,19 @@
         <v>45658.52847222222</v>
       </c>
       <c r="B250" t="n">
-        <v>6.356666619179523</v>
+        <v>6.527348666155413</v>
       </c>
       <c r="C250" t="n">
-        <v>74.12604753914802</v>
+        <v>74.83818119362169</v>
       </c>
       <c r="D250" t="n">
-        <v>651.5962654079865</v>
+        <v>645.3558458248252</v>
       </c>
       <c r="E250" t="n">
-        <v>1858.297177401337</v>
+        <v>1842.603754656361</v>
       </c>
       <c r="F250" t="n">
-        <v>14.86215352744768</v>
+        <v>14.92050280789206</v>
       </c>
     </row>
     <row r="251">
@@ -5466,19 +5466,19 @@
         <v>45658.52858796297</v>
       </c>
       <c r="B251" t="n">
-        <v>6.270302810484499</v>
+        <v>6.414162987440656</v>
       </c>
       <c r="C251" t="n">
-        <v>74.25569243645707</v>
+        <v>74.47322526525635</v>
       </c>
       <c r="D251" t="n">
-        <v>635.6520898712887</v>
+        <v>634.660279672239</v>
       </c>
       <c r="E251" t="n">
-        <v>1838.800034916134</v>
+        <v>1851.923597869384</v>
       </c>
       <c r="F251" t="n">
-        <v>14.78682631834972</v>
+        <v>14.72353203102251</v>
       </c>
     </row>
     <row r="252">
@@ -5486,19 +5486,19 @@
         <v>45658.52870370371</v>
       </c>
       <c r="B252" t="n">
-        <v>6.43193525927414</v>
+        <v>6.357318748440675</v>
       </c>
       <c r="C252" t="n">
-        <v>73.91749844508915</v>
+        <v>73.9352184710155</v>
       </c>
       <c r="D252" t="n">
-        <v>642.1596904823912</v>
+        <v>640.9214377744532</v>
       </c>
       <c r="E252" t="n">
-        <v>1834.999958330334</v>
+        <v>1832.111251696063</v>
       </c>
       <c r="F252" t="n">
-        <v>14.6735476184851</v>
+        <v>14.68447468648038</v>
       </c>
     </row>
     <row r="253">
@@ -5506,19 +5506,19 @@
         <v>45658.52881944444</v>
       </c>
       <c r="B253" t="n">
-        <v>6.27456486963642</v>
+        <v>6.343300291639175</v>
       </c>
       <c r="C253" t="n">
-        <v>72.59611921000911</v>
+        <v>72.99725591375039</v>
       </c>
       <c r="D253" t="n">
-        <v>626.14984111615</v>
+        <v>621.1621693384426</v>
       </c>
       <c r="E253" t="n">
-        <v>1814.66774107835</v>
+        <v>1820.780987754271</v>
       </c>
       <c r="F253" t="n">
-        <v>14.56131815733905</v>
+        <v>14.62032539383933</v>
       </c>
     </row>
     <row r="254">
@@ -5526,19 +5526,19 @@
         <v>45658.52893518518</v>
       </c>
       <c r="B254" t="n">
-        <v>6.229847300414891</v>
+        <v>6.373474479280797</v>
       </c>
       <c r="C254" t="n">
-        <v>72.42334687520267</v>
+        <v>72.85153488489651</v>
       </c>
       <c r="D254" t="n">
-        <v>629.8270894697874</v>
+        <v>615.2647665260562</v>
       </c>
       <c r="E254" t="n">
-        <v>1819.823297771245</v>
+        <v>1799.285275642751</v>
       </c>
       <c r="F254" t="n">
-        <v>14.4500063348516</v>
+        <v>14.53812427539497</v>
       </c>
     </row>
     <row r="255">
@@ -5546,19 +5546,19 @@
         <v>45658.52905092593</v>
       </c>
       <c r="B255" t="n">
-        <v>6.167980481911807</v>
+        <v>6.302656146610415</v>
       </c>
       <c r="C255" t="n">
-        <v>71.72420143184328</v>
+        <v>71.86217662040183</v>
       </c>
       <c r="D255" t="n">
-        <v>632.4144467227397</v>
+        <v>619.3519390840921</v>
       </c>
       <c r="E255" t="n">
-        <v>1795.04608780209</v>
+        <v>1804.512317840241</v>
       </c>
       <c r="F255" t="n">
-        <v>14.38905176969848</v>
+        <v>14.4181082580695</v>
       </c>
     </row>
     <row r="256">
@@ -5566,19 +5566,19 @@
         <v>45658.52916666667</v>
       </c>
       <c r="B256" t="n">
-        <v>6.068285208313792</v>
+        <v>6.153287334194269</v>
       </c>
       <c r="C256" t="n">
-        <v>71.28619259568481</v>
+        <v>71.56303159674364</v>
       </c>
       <c r="D256" t="n">
-        <v>613.4634266358815</v>
+        <v>619.7204809555757</v>
       </c>
       <c r="E256" t="n">
-        <v>1772.477902663279</v>
+        <v>1773.239633415239</v>
       </c>
       <c r="F256" t="n">
-        <v>14.24996490244312</v>
+        <v>14.30169756595404</v>
       </c>
     </row>
     <row r="257">
@@ -5586,19 +5586,19 @@
         <v>45658.52928240741</v>
       </c>
       <c r="B257" t="n">
-        <v>6.132665308376864</v>
+        <v>6.127781347985773</v>
       </c>
       <c r="C257" t="n">
-        <v>70.93075125350325</v>
+        <v>71.20555276987668</v>
       </c>
       <c r="D257" t="n">
-        <v>608.9473877535062</v>
+        <v>607.8967020461232</v>
       </c>
       <c r="E257" t="n">
-        <v>1754.861046177775</v>
+        <v>1755.001545796195</v>
       </c>
       <c r="F257" t="n">
-        <v>14.07669431989548</v>
+        <v>14.16618275249657</v>
       </c>
     </row>
     <row r="258">
@@ -5606,19 +5606,19 @@
         <v>45658.52939814814</v>
       </c>
       <c r="B258" t="n">
-        <v>5.837916245467824</v>
+        <v>5.979562028805939</v>
       </c>
       <c r="C258" t="n">
-        <v>70.82277327339334</v>
+        <v>69.0504819602633</v>
       </c>
       <c r="D258" t="n">
-        <v>606.5540746327976</v>
+        <v>602.9481948381027</v>
       </c>
       <c r="E258" t="n">
-        <v>1762.200059348648</v>
+        <v>1758.585837283667</v>
       </c>
       <c r="F258" t="n">
-        <v>13.99868838320664</v>
+        <v>13.86743176696839</v>
       </c>
     </row>
     <row r="259">
@@ -5626,19 +5626,19 @@
         <v>45658.52951388889</v>
       </c>
       <c r="B259" t="n">
-        <v>5.921289370960524</v>
+        <v>6.020183786166599</v>
       </c>
       <c r="C259" t="n">
-        <v>69.32541107165272</v>
+        <v>69.13814429376866</v>
       </c>
       <c r="D259" t="n">
-        <v>601.8467479847133</v>
+        <v>599.331747319238</v>
       </c>
       <c r="E259" t="n">
-        <v>1749.118395730321</v>
+        <v>1725.732001647185</v>
       </c>
       <c r="F259" t="n">
-        <v>13.84322211511992</v>
+        <v>13.85708811647453</v>
       </c>
     </row>
     <row r="260">
@@ -5646,19 +5646,19 @@
         <v>45658.52962962963</v>
       </c>
       <c r="B260" t="n">
-        <v>6.021868617443891</v>
+        <v>5.922659449623856</v>
       </c>
       <c r="C260" t="n">
-        <v>69.137178700728</v>
+        <v>68.72557815188125</v>
       </c>
       <c r="D260" t="n">
-        <v>598.1794798924527</v>
+        <v>586.8101320271685</v>
       </c>
       <c r="E260" t="n">
-        <v>1715.498467777613</v>
+        <v>1709.94418321278</v>
       </c>
       <c r="F260" t="n">
-        <v>13.80969055291293</v>
+        <v>13.7213410169917</v>
       </c>
     </row>
     <row r="261">
@@ -5666,19 +5666,19 @@
         <v>45658.52974537037</v>
       </c>
       <c r="B261" t="n">
-        <v>5.945703842378013</v>
+        <v>5.777185784571577</v>
       </c>
       <c r="C261" t="n">
-        <v>68.73597162738558</v>
+        <v>67.90863493531707</v>
       </c>
       <c r="D261" t="n">
-        <v>589.7058416641723</v>
+        <v>584.2761837897531</v>
       </c>
       <c r="E261" t="n">
-        <v>1700.452711091094</v>
+        <v>1695.331532715084</v>
       </c>
       <c r="F261" t="n">
-        <v>13.72901784618864</v>
+        <v>13.723302231684</v>
       </c>
     </row>
     <row r="262">
@@ -5686,19 +5686,19 @@
         <v>45658.52986111111</v>
       </c>
       <c r="B262" t="n">
-        <v>5.820613400629079</v>
+        <v>5.741641002373314</v>
       </c>
       <c r="C262" t="n">
-        <v>67.68986861508283</v>
+        <v>68.47505626446271</v>
       </c>
       <c r="D262" t="n">
-        <v>573.9714305036985</v>
+        <v>569.1619903109248</v>
       </c>
       <c r="E262" t="n">
-        <v>1713.144604151155</v>
+        <v>1698.384231280387</v>
       </c>
       <c r="F262" t="n">
-        <v>13.52504152049102</v>
+        <v>13.54167222312513</v>
       </c>
     </row>
     <row r="263">
@@ -5706,19 +5706,19 @@
         <v>45658.52997685185</v>
       </c>
       <c r="B263" t="n">
-        <v>5.660605123053104</v>
+        <v>5.593042474151426</v>
       </c>
       <c r="C263" t="n">
-        <v>67.12088092741521</v>
+        <v>66.81312608290673</v>
       </c>
       <c r="D263" t="n">
-        <v>573.0269844810707</v>
+        <v>567.541848476087</v>
       </c>
       <c r="E263" t="n">
-        <v>1684.601380042225</v>
+        <v>1685.564780276328</v>
       </c>
       <c r="F263" t="n">
-        <v>13.42871816809816</v>
+        <v>13.399502738244</v>
       </c>
     </row>
     <row r="264">
@@ -5726,19 +5726,19 @@
         <v>45658.53009259259</v>
       </c>
       <c r="B264" t="n">
-        <v>5.583889244661238</v>
+        <v>5.610692409175143</v>
       </c>
       <c r="C264" t="n">
-        <v>67.07195798835063</v>
+        <v>67.33247656874862</v>
       </c>
       <c r="D264" t="n">
-        <v>562.4934289146955</v>
+        <v>563.7550132653506</v>
       </c>
       <c r="E264" t="n">
-        <v>1671.452560405442</v>
+        <v>1658.923136702583</v>
       </c>
       <c r="F264" t="n">
-        <v>13.25359663742841</v>
+        <v>13.30036628595995</v>
       </c>
     </row>
     <row r="265">
@@ -5746,19 +5746,19 @@
         <v>45658.53020833333</v>
       </c>
       <c r="B265" t="n">
-        <v>5.555068926724728</v>
+        <v>5.613478338926594</v>
       </c>
       <c r="C265" t="n">
-        <v>66.02211440059251</v>
+        <v>65.39781556488406</v>
       </c>
       <c r="D265" t="n">
-        <v>559.5683569117297</v>
+        <v>562.9803056658079</v>
       </c>
       <c r="E265" t="n">
-        <v>1648.732509597429</v>
+        <v>1663.650550398664</v>
       </c>
       <c r="F265" t="n">
-        <v>13.17610619075584</v>
+        <v>13.13913953016791</v>
       </c>
     </row>
     <row r="266">
@@ -5766,19 +5766,19 @@
         <v>45658.53032407408</v>
       </c>
       <c r="B266" t="n">
-        <v>5.405969561106678</v>
+        <v>5.425029436261988</v>
       </c>
       <c r="C266" t="n">
-        <v>64.39572515283825</v>
+        <v>64.48987504423405</v>
       </c>
       <c r="D266" t="n">
-        <v>546.7216390742242</v>
+        <v>547.5907890947607</v>
       </c>
       <c r="E266" t="n">
-        <v>1630.201599452582</v>
+        <v>1632.087544204993</v>
       </c>
       <c r="F266" t="n">
-        <v>12.96399842038323</v>
+        <v>12.98480913024917</v>
       </c>
     </row>
     <row r="267">
@@ -5786,19 +5786,19 @@
         <v>45658.53043981481</v>
       </c>
       <c r="B267" t="n">
-        <v>5.527970924903025</v>
+        <v>5.577740781473935</v>
       </c>
       <c r="C267" t="n">
-        <v>63.84041021859084</v>
+        <v>64.35785848040842</v>
       </c>
       <c r="D267" t="n">
-        <v>546.6714791102737</v>
+        <v>538.0652277752459</v>
       </c>
       <c r="E267" t="n">
-        <v>1605.371983256304</v>
+        <v>1600.652944409058</v>
       </c>
       <c r="F267" t="n">
-        <v>12.94079519573718</v>
+        <v>12.9201257174842</v>
       </c>
     </row>
     <row r="268">
@@ -5806,19 +5806,19 @@
         <v>45658.53055555555</v>
       </c>
       <c r="B268" t="n">
-        <v>5.362962900939479</v>
+        <v>5.210978921628041</v>
       </c>
       <c r="C268" t="n">
-        <v>63.57429745549922</v>
+        <v>63.56055210557862</v>
       </c>
       <c r="D268" t="n">
-        <v>533.1735315519725</v>
+        <v>530.1224417081103</v>
       </c>
       <c r="E268" t="n">
-        <v>1594.823960508766</v>
+        <v>1575.258633164035</v>
       </c>
       <c r="F268" t="n">
-        <v>12.79552974475605</v>
+        <v>12.70443673316439</v>
       </c>
     </row>
     <row r="269">
@@ -5826,19 +5826,19 @@
         <v>45658.5306712963</v>
       </c>
       <c r="B269" t="n">
-        <v>5.498028047443268</v>
+        <v>5.234733466535335</v>
       </c>
       <c r="C269" t="n">
-        <v>63.46460688067766</v>
+        <v>63.22952494748344</v>
       </c>
       <c r="D269" t="n">
-        <v>532.6894354308156</v>
+        <v>526.2592481973054</v>
       </c>
       <c r="E269" t="n">
-        <v>1572.401422324772</v>
+        <v>1558.040563669304</v>
       </c>
       <c r="F269" t="n">
-        <v>12.69354283823093</v>
+        <v>12.62026763511409</v>
       </c>
     </row>
     <row r="270">
@@ -5846,19 +5846,19 @@
         <v>45658.53078703704</v>
       </c>
       <c r="B270" t="n">
-        <v>5.190899497761227</v>
+        <v>5.342103435075797</v>
       </c>
       <c r="C270" t="n">
-        <v>62.67443946563055</v>
+        <v>63.0243109688186</v>
       </c>
       <c r="D270" t="n">
-        <v>530.4436239375922</v>
+        <v>523.0059446257204</v>
       </c>
       <c r="E270" t="n">
-        <v>1563.291155381662</v>
+        <v>1557.231707062031</v>
       </c>
       <c r="F270" t="n">
-        <v>12.43954583765018</v>
+        <v>12.3590518557356</v>
       </c>
     </row>
     <row r="271">
@@ -5866,19 +5866,19 @@
         <v>45658.53090277778</v>
       </c>
       <c r="B271" t="n">
-        <v>5.187586639637788</v>
+        <v>5.346081646819296</v>
       </c>
       <c r="C271" t="n">
-        <v>61.08351336636188</v>
+        <v>61.75393664379251</v>
       </c>
       <c r="D271" t="n">
-        <v>517.0221768561984</v>
+        <v>514.1642269947858</v>
       </c>
       <c r="E271" t="n">
-        <v>1541.122231572891</v>
+        <v>1551.610337857409</v>
       </c>
       <c r="F271" t="n">
-        <v>12.27033373204468</v>
+        <v>12.30706975490344</v>
       </c>
     </row>
     <row r="272">
@@ -5886,19 +5886,19 @@
         <v>45658.53101851852</v>
       </c>
       <c r="B272" t="n">
-        <v>5.174088925137926</v>
+        <v>5.146424158181499</v>
       </c>
       <c r="C272" t="n">
-        <v>60.05522338676962</v>
+        <v>59.80459490913481</v>
       </c>
       <c r="D272" t="n">
-        <v>507.1574856874897</v>
+        <v>508.6902687686758</v>
       </c>
       <c r="E272" t="n">
-        <v>1520.344986737593</v>
+        <v>1531.402850317176</v>
       </c>
       <c r="F272" t="n">
-        <v>12.16071272935991</v>
+        <v>12.17038509502159</v>
       </c>
     </row>
     <row r="273">
@@ -5906,19 +5906,19 @@
         <v>45658.53113425926</v>
       </c>
       <c r="B273" t="n">
-        <v>4.981846468402234</v>
+        <v>5.11406718915362</v>
       </c>
       <c r="C273" t="n">
-        <v>60.84964410003354</v>
+        <v>59.74108271933353</v>
       </c>
       <c r="D273" t="n">
-        <v>504.0634221713515</v>
+        <v>500.9264276640578</v>
       </c>
       <c r="E273" t="n">
-        <v>1515.289691797418</v>
+        <v>1516.763758341706</v>
       </c>
       <c r="F273" t="n">
-        <v>12.00856831373541</v>
+        <v>12.03565820343211</v>
       </c>
     </row>
     <row r="274">
@@ -5926,19 +5926,19 @@
         <v>45658.53125</v>
       </c>
       <c r="B274" t="n">
-        <v>5.045391502930889</v>
+        <v>4.994415067407659</v>
       </c>
       <c r="C274" t="n">
-        <v>60.04943000565893</v>
+        <v>59.11398553371575</v>
       </c>
       <c r="D274" t="n">
-        <v>492.0898592483892</v>
+        <v>503.9277043404812</v>
       </c>
       <c r="E274" t="n">
-        <v>1496.621536968424</v>
+        <v>1487.333641402418</v>
       </c>
       <c r="F274" t="n">
-        <v>11.85920274100338</v>
+        <v>11.84006213795193</v>
       </c>
     </row>
     <row r="275">
@@ -5946,19 +5946,19 @@
         <v>45658.53136574074</v>
       </c>
       <c r="B275" t="n">
-        <v>4.785437771802699</v>
+        <v>4.962873378404777</v>
       </c>
       <c r="C275" t="n">
-        <v>59.78921100419453</v>
+        <v>58.421659689339</v>
       </c>
       <c r="D275" t="n">
-        <v>479.7643351407496</v>
+        <v>491.4378574012704</v>
       </c>
       <c r="E275" t="n">
-        <v>1468.981060416356</v>
+        <v>1470.919758330565</v>
       </c>
       <c r="F275" t="n">
-        <v>11.76464913932456</v>
+        <v>11.73047183624541</v>
       </c>
     </row>
     <row r="276">
@@ -5966,19 +5966,19 @@
         <v>45658.53148148148</v>
       </c>
       <c r="B276" t="n">
-        <v>4.882021151248461</v>
+        <v>4.757355981857095</v>
       </c>
       <c r="C276" t="n">
-        <v>58.75355065925205</v>
+        <v>57.19161858685142</v>
       </c>
       <c r="D276" t="n">
-        <v>490.1724382123328</v>
+        <v>484.9065678076837</v>
       </c>
       <c r="E276" t="n">
-        <v>1442.551552392157</v>
+        <v>1458.41234157035</v>
       </c>
       <c r="F276" t="n">
-        <v>11.58108858184292</v>
+        <v>11.56921317278535</v>
       </c>
     </row>
     <row r="277">
@@ -5986,19 +5986,19 @@
         <v>45658.53159722222</v>
       </c>
       <c r="B277" t="n">
-        <v>4.823350771692875</v>
+        <v>4.90880778422986</v>
       </c>
       <c r="C277" t="n">
-        <v>57.00849570824523</v>
+        <v>58.12737873743608</v>
       </c>
       <c r="D277" t="n">
-        <v>476.1260681866167</v>
+        <v>477.2558065770197</v>
       </c>
       <c r="E277" t="n">
-        <v>1443.459370183077</v>
+        <v>1426.427183100112</v>
       </c>
       <c r="F277" t="n">
-        <v>11.49279824040696</v>
+        <v>11.52484794872738</v>
       </c>
     </row>
     <row r="278">
@@ -6006,19 +6006,19 @@
         <v>45658.53171296296</v>
       </c>
       <c r="B278" t="n">
-        <v>4.599071147025816</v>
+        <v>4.617959386211211</v>
       </c>
       <c r="C278" t="n">
-        <v>57.08751234997744</v>
+        <v>56.71936468521319</v>
       </c>
       <c r="D278" t="n">
-        <v>474.3695476196148</v>
+        <v>474.8689428708592</v>
       </c>
       <c r="E278" t="n">
-        <v>1410.635298401643</v>
+        <v>1396.643576002887</v>
       </c>
       <c r="F278" t="n">
-        <v>11.36990639838082</v>
+        <v>11.34546705822871</v>
       </c>
     </row>
     <row r="279">
@@ -6026,19 +6026,19 @@
         <v>45658.5318287037</v>
       </c>
       <c r="B279" t="n">
-        <v>4.633953908287317</v>
+        <v>4.593599381922257</v>
       </c>
       <c r="C279" t="n">
-        <v>55.94623151089775</v>
+        <v>56.70935840225837</v>
       </c>
       <c r="D279" t="n">
-        <v>467.2623344808417</v>
+        <v>460.2218124498968</v>
       </c>
       <c r="E279" t="n">
-        <v>1394.775816798531</v>
+        <v>1398.083720491049</v>
       </c>
       <c r="F279" t="n">
-        <v>11.16392205949276</v>
+        <v>11.168576874162</v>
       </c>
     </row>
     <row r="280">
@@ -6046,19 +6046,19 @@
         <v>45658.53194444445</v>
       </c>
       <c r="B280" t="n">
-        <v>4.422190592252845</v>
+        <v>4.428704959209809</v>
       </c>
       <c r="C280" t="n">
-        <v>55.13073441915374</v>
+        <v>55.44852230813697</v>
       </c>
       <c r="D280" t="n">
-        <v>450.4920178820643</v>
+        <v>452.9077648592881</v>
       </c>
       <c r="E280" t="n">
-        <v>1387.886792034292</v>
+        <v>1375.360529384628</v>
       </c>
       <c r="F280" t="n">
-        <v>11.04537514474363</v>
+        <v>11.06383800796179</v>
       </c>
     </row>
     <row r="281">
@@ -6066,19 +6066,19 @@
         <v>45658.53206018519</v>
       </c>
       <c r="B281" t="n">
-        <v>4.544244464413046</v>
+        <v>4.269539417631184</v>
       </c>
       <c r="C281" t="n">
-        <v>53.91829900628808</v>
+        <v>54.20508998373573</v>
       </c>
       <c r="D281" t="n">
-        <v>442.031718870109</v>
+        <v>452.951260842248</v>
       </c>
       <c r="E281" t="n">
-        <v>1379.172098152252</v>
+        <v>1377.314704865411</v>
       </c>
       <c r="F281" t="n">
-        <v>10.89232596108624</v>
+        <v>10.86755435255865</v>
       </c>
     </row>
     <row r="282">
@@ -6086,19 +6086,19 @@
         <v>45658.53217592592</v>
       </c>
       <c r="B282" t="n">
-        <v>4.446992592905123</v>
+        <v>4.643155052937331</v>
       </c>
       <c r="C282" t="n">
-        <v>54.25740857531981</v>
+        <v>53.96371312967322</v>
       </c>
       <c r="D282" t="n">
-        <v>438.5527816208722</v>
+        <v>441.1300359416003</v>
       </c>
       <c r="E282" t="n">
-        <v>1351.61244012004</v>
+        <v>1348.610923278429</v>
       </c>
       <c r="F282" t="n">
-        <v>10.85894626787416</v>
+        <v>10.75961058062002</v>
       </c>
     </row>
     <row r="283">
@@ -6106,19 +6106,19 @@
         <v>45658.53229166667</v>
       </c>
       <c r="B283" t="n">
-        <v>4.336436224573442</v>
+        <v>4.337139101514476</v>
       </c>
       <c r="C283" t="n">
-        <v>53.86862007540083</v>
+        <v>52.64908647017153</v>
       </c>
       <c r="D283" t="n">
-        <v>434.5120082854034</v>
+        <v>433.4866602919753</v>
       </c>
       <c r="E283" t="n">
-        <v>1312.931948224392</v>
+        <v>1314.217056627057</v>
       </c>
       <c r="F283" t="n">
-        <v>10.67560220378986</v>
+        <v>10.60910887012648</v>
       </c>
     </row>
     <row r="284">
@@ -6126,19 +6126,19 @@
         <v>45658.53240740741</v>
       </c>
       <c r="B284" t="n">
-        <v>4.419678247743732</v>
+        <v>4.273231433951707</v>
       </c>
       <c r="C284" t="n">
-        <v>52.15949943290214</v>
+        <v>52.59850007307339</v>
       </c>
       <c r="D284" t="n">
-        <v>427.0974656101498</v>
+        <v>427.8560293588748</v>
       </c>
       <c r="E284" t="n">
-        <v>1311.615628919644</v>
+        <v>1314.8544781909</v>
       </c>
       <c r="F284" t="n">
-        <v>10.45985539502042</v>
+        <v>10.48380114369997</v>
       </c>
     </row>
     <row r="285">
@@ -6146,19 +6146,19 @@
         <v>45658.53252314815</v>
       </c>
       <c r="B285" t="n">
-        <v>4.23282569039652</v>
+        <v>4.374145060821668</v>
       </c>
       <c r="C285" t="n">
-        <v>51.52472723250892</v>
+        <v>51.4639322234836</v>
       </c>
       <c r="D285" t="n">
-        <v>429.4610819625831</v>
+        <v>413.9390128930463</v>
       </c>
       <c r="E285" t="n">
-        <v>1300.253307429826</v>
+        <v>1295.947637773196</v>
       </c>
       <c r="F285" t="n">
-        <v>10.46971956749829</v>
+        <v>10.42933207616504</v>
       </c>
     </row>
     <row r="286">
@@ -6166,19 +6166,19 @@
         <v>45658.53263888889</v>
       </c>
       <c r="B286" t="n">
-        <v>4.153595523520254</v>
+        <v>4.219347768656229</v>
       </c>
       <c r="C286" t="n">
-        <v>52.16270199008697</v>
+        <v>51.59468731367048</v>
       </c>
       <c r="D286" t="n">
-        <v>415.1094301471522</v>
+        <v>416.0396816751853</v>
       </c>
       <c r="E286" t="n">
-        <v>1292.108026015489</v>
+        <v>1291.966805994527</v>
       </c>
       <c r="F286" t="n">
-        <v>10.25958263423338</v>
+        <v>10.34900237955366</v>
       </c>
     </row>
     <row r="287">
@@ -6186,19 +6186,19 @@
         <v>45658.53275462963</v>
       </c>
       <c r="B287" t="n">
-        <v>4.162541603702928</v>
+        <v>4.139187794564852</v>
       </c>
       <c r="C287" t="n">
-        <v>50.68151794506429</v>
+        <v>50.07860610780669</v>
       </c>
       <c r="D287" t="n">
-        <v>400.4416996361506</v>
+        <v>406.45484490095</v>
       </c>
       <c r="E287" t="n">
-        <v>1274.313022108445</v>
+        <v>1278.996532556127</v>
       </c>
       <c r="F287" t="n">
-        <v>10.21331822233542</v>
+        <v>10.08244768192882</v>
       </c>
     </row>
     <row r="288">
@@ -6206,19 +6206,19 @@
         <v>45658.53287037037</v>
       </c>
       <c r="B288" t="n">
-        <v>4.047479028606043</v>
+        <v>3.838960031743632</v>
       </c>
       <c r="C288" t="n">
-        <v>49.26528367623098</v>
+        <v>50.16481206074201</v>
       </c>
       <c r="D288" t="n">
-        <v>402.6837217865992</v>
+        <v>401.9285275844564</v>
       </c>
       <c r="E288" t="n">
-        <v>1253.07995080219</v>
+        <v>1261.881087192786</v>
       </c>
       <c r="F288" t="n">
-        <v>9.979951672503843</v>
+        <v>9.979326908537333</v>
       </c>
     </row>
     <row r="289">
@@ -6226,19 +6226,19 @@
         <v>45658.53298611111</v>
       </c>
       <c r="B289" t="n">
-        <v>4.089002721630599</v>
+        <v>3.993641692353194</v>
       </c>
       <c r="C289" t="n">
-        <v>48.5931314292174</v>
+        <v>49.92626334377424</v>
       </c>
       <c r="D289" t="n">
-        <v>393.3863187569565</v>
+        <v>392.6601098970365</v>
       </c>
       <c r="E289" t="n">
-        <v>1243.245312631044</v>
+        <v>1249.615977732875</v>
       </c>
       <c r="F289" t="n">
-        <v>9.934864013631977</v>
+        <v>9.861132674081672</v>
       </c>
     </row>
     <row r="290">
@@ -6246,19 +6246,19 @@
         <v>45658.53310185186</v>
       </c>
       <c r="B290" t="n">
-        <v>4.049846937334081</v>
+        <v>3.9506718455251</v>
       </c>
       <c r="C290" t="n">
-        <v>48.91757943264712</v>
+        <v>48.57905496444935</v>
       </c>
       <c r="D290" t="n">
-        <v>385.905472099721</v>
+        <v>382.4831791236776</v>
       </c>
       <c r="E290" t="n">
-        <v>1218.12548676094</v>
+        <v>1224.643743307053</v>
       </c>
       <c r="F290" t="n">
-        <v>9.797596316241394</v>
+        <v>9.813610821299209</v>
       </c>
     </row>
     <row r="291">
@@ -6266,19 +6266,19 @@
         <v>45658.53321759259</v>
       </c>
       <c r="B291" t="n">
-        <v>4.020772936893479</v>
+        <v>3.962933336586187</v>
       </c>
       <c r="C291" t="n">
-        <v>49.10686037253029</v>
+        <v>48.92785629030902</v>
       </c>
       <c r="D291" t="n">
-        <v>376.6894879616406</v>
+        <v>380.2362955147858</v>
       </c>
       <c r="E291" t="n">
-        <v>1211.191394701032</v>
+        <v>1214.66006479259</v>
       </c>
       <c r="F291" t="n">
-        <v>9.634525595867251</v>
+        <v>9.730973362694849</v>
       </c>
     </row>
     <row r="292">
@@ -6286,19 +6286,19 @@
         <v>45658.53333333333</v>
       </c>
       <c r="B292" t="n">
-        <v>3.754710213222706</v>
+        <v>3.740961276324937</v>
       </c>
       <c r="C292" t="n">
-        <v>47.63652421586157</v>
+        <v>47.66818544241879</v>
       </c>
       <c r="D292" t="n">
-        <v>377.9143343378456</v>
+        <v>374.145468748627</v>
       </c>
       <c r="E292" t="n">
-        <v>1205.38212307169</v>
+        <v>1193.643481724059</v>
       </c>
       <c r="F292" t="n">
-        <v>9.590947030966245</v>
+        <v>9.605172720421633</v>
       </c>
     </row>
     <row r="293">
@@ -6306,19 +6306,19 @@
         <v>45658.53344907407</v>
       </c>
       <c r="B293" t="n">
-        <v>3.639061699976157</v>
+        <v>3.670758302178031</v>
       </c>
       <c r="C293" t="n">
-        <v>47.53847182917697</v>
+        <v>47.14642520580252</v>
       </c>
       <c r="D293" t="n">
-        <v>374.1807037089574</v>
+        <v>370.613421645636</v>
       </c>
       <c r="E293" t="n">
-        <v>1195.999011406202</v>
+        <v>1167.985778836357</v>
       </c>
       <c r="F293" t="n">
-        <v>9.510783986810354</v>
+        <v>9.397578377459871</v>
       </c>
     </row>
     <row r="294">
@@ -6326,19 +6326,19 @@
         <v>45658.53356481482</v>
       </c>
       <c r="B294" t="n">
-        <v>3.479421733281189</v>
+        <v>3.686972951916912</v>
       </c>
       <c r="C294" t="n">
-        <v>47.35730394314496</v>
+        <v>46.55609568674341</v>
       </c>
       <c r="D294" t="n">
-        <v>377.9710986279484</v>
+        <v>358.3959343059045</v>
       </c>
       <c r="E294" t="n">
-        <v>1151.515070926072</v>
+        <v>1154.600286733976</v>
       </c>
       <c r="F294" t="n">
-        <v>9.383914055166933</v>
+        <v>9.376984486533619</v>
       </c>
     </row>
     <row r="295">
@@ -6346,19 +6346,19 @@
         <v>45658.53368055556</v>
       </c>
       <c r="B295" t="n">
-        <v>3.463019553335589</v>
+        <v>3.580666398352671</v>
       </c>
       <c r="C295" t="n">
-        <v>46.10275707399622</v>
+        <v>46.00987302310489</v>
       </c>
       <c r="D295" t="n">
-        <v>358.2397768133223</v>
+        <v>363.3839651652283</v>
       </c>
       <c r="E295" t="n">
-        <v>1142.041194333787</v>
+        <v>1164.623832573408</v>
       </c>
       <c r="F295" t="n">
-        <v>9.24737469551464</v>
+        <v>9.194180743538894</v>
       </c>
     </row>
     <row r="296">
@@ -6366,19 +6366,19 @@
         <v>45658.53379629629</v>
       </c>
       <c r="B296" t="n">
-        <v>3.460578667473141</v>
+        <v>3.481873683143883</v>
       </c>
       <c r="C296" t="n">
-        <v>44.80483026690376</v>
+        <v>46.724223445112</v>
       </c>
       <c r="D296" t="n">
-        <v>360.3136891105684</v>
+        <v>363.7029635072099</v>
       </c>
       <c r="E296" t="n">
-        <v>1142.799165500689</v>
+        <v>1143.227437380157</v>
       </c>
       <c r="F296" t="n">
-        <v>9.146680763595599</v>
+        <v>9.165165220557382</v>
       </c>
     </row>
     <row r="297">
@@ -6386,19 +6386,19 @@
         <v>45658.53391203703</v>
       </c>
       <c r="B297" t="n">
-        <v>3.534441061176004</v>
+        <v>3.644826549326975</v>
       </c>
       <c r="C297" t="n">
-        <v>45.17402581286088</v>
+        <v>45.56795735040061</v>
       </c>
       <c r="D297" t="n">
-        <v>354.1163492925861</v>
+        <v>344.2949451237458</v>
       </c>
       <c r="E297" t="n">
-        <v>1136.70283586948</v>
+        <v>1136.019939349163</v>
       </c>
       <c r="F297" t="n">
-        <v>9.126867266070509</v>
+        <v>9.016097632423174</v>
       </c>
     </row>
     <row r="298">
@@ -6406,19 +6406,19 @@
         <v>45658.53402777778</v>
       </c>
       <c r="B298" t="n">
-        <v>3.357014997233313</v>
+        <v>3.438532890501484</v>
       </c>
       <c r="C298" t="n">
-        <v>44.84344648203455</v>
+        <v>44.29089824277567</v>
       </c>
       <c r="D298" t="n">
-        <v>349.567349598554</v>
+        <v>352.6694244105103</v>
       </c>
       <c r="E298" t="n">
-        <v>1118.048075828316</v>
+        <v>1103.042128168697</v>
       </c>
       <c r="F298" t="n">
-        <v>8.947579500285006</v>
+        <v>8.908567026683308</v>
       </c>
     </row>
     <row r="299">
@@ -6426,19 +6426,19 @@
         <v>45658.53414351852</v>
       </c>
       <c r="B299" t="n">
-        <v>3.382791250585838</v>
+        <v>3.559469144676542</v>
       </c>
       <c r="C299" t="n">
-        <v>44.4878708728475</v>
+        <v>44.67229116783216</v>
       </c>
       <c r="D299" t="n">
-        <v>335.0010309196219</v>
+        <v>341.2510554578986</v>
       </c>
       <c r="E299" t="n">
-        <v>1094.413990446623</v>
+        <v>1113.789735841612</v>
       </c>
       <c r="F299" t="n">
-        <v>8.769668564239463</v>
+        <v>8.778572276811039</v>
       </c>
     </row>
     <row r="300">
@@ -6446,19 +6446,19 @@
         <v>45658.53425925926</v>
       </c>
       <c r="B300" t="n">
-        <v>3.385168748254872</v>
+        <v>3.476831472600975</v>
       </c>
       <c r="C300" t="n">
-        <v>43.98672120440534</v>
+        <v>44.37851224807014</v>
       </c>
       <c r="D300" t="n">
-        <v>336.9925633496446</v>
+        <v>342.2323628723423</v>
       </c>
       <c r="E300" t="n">
-        <v>1108.325098128853</v>
+        <v>1099.087177495524</v>
       </c>
       <c r="F300" t="n">
-        <v>8.853738771341725</v>
+        <v>8.862319516728133</v>
       </c>
     </row>
     <row r="301">
@@ -6466,19 +6466,19 @@
         <v>45658.534375</v>
       </c>
       <c r="B301" t="n">
-        <v>3.227953716464926</v>
+        <v>3.336374593768898</v>
       </c>
       <c r="C301" t="n">
-        <v>42.63423559572954</v>
+        <v>43.67730699301229</v>
       </c>
       <c r="D301" t="n">
-        <v>340.1400087141037</v>
+        <v>334.8976152829376</v>
       </c>
       <c r="E301" t="n">
-        <v>1079.100541601683</v>
+        <v>1100.963370043848</v>
       </c>
       <c r="F301" t="n">
-        <v>8.585424506616466</v>
+        <v>8.720121339857791</v>
       </c>
     </row>
     <row r="302">
@@ -6486,19 +6486,19 @@
         <v>45658.53449074074</v>
       </c>
       <c r="B302" t="n">
-        <v>3.240357771701313</v>
+        <v>3.398309935980854</v>
       </c>
       <c r="C302" t="n">
-        <v>42.7797277608616</v>
+        <v>42.248305857277</v>
       </c>
       <c r="D302" t="n">
-        <v>330.0478937402476</v>
+        <v>333.7024895310418</v>
       </c>
       <c r="E302" t="n">
-        <v>1064.928247168365</v>
+        <v>1075.665816865482</v>
       </c>
       <c r="F302" t="n">
-        <v>8.549204433382446</v>
+        <v>8.649010078761513</v>
       </c>
     </row>
     <row r="303">
@@ -6506,19 +6506,19 @@
         <v>45658.53460648148</v>
       </c>
       <c r="B303" t="n">
-        <v>3.209412698839441</v>
+        <v>3.27115528067629</v>
       </c>
       <c r="C303" t="n">
-        <v>43.3820207107359</v>
+        <v>42.36316062136433</v>
       </c>
       <c r="D303" t="n">
-        <v>323.8656147588973</v>
+        <v>325.130374149904</v>
       </c>
       <c r="E303" t="n">
-        <v>1079.382093839576</v>
+        <v>1055.709327041026</v>
       </c>
       <c r="F303" t="n">
-        <v>8.485369735065431</v>
+        <v>8.539477905711697</v>
       </c>
     </row>
     <row r="304">
@@ -6526,19 +6526,19 @@
         <v>45658.53472222222</v>
       </c>
       <c r="B304" t="n">
-        <v>3.143040437636129</v>
+        <v>3.297594595021452</v>
       </c>
       <c r="C304" t="n">
-        <v>42.98480484053155</v>
+        <v>43.11164130477876</v>
       </c>
       <c r="D304" t="n">
-        <v>322.6002197575642</v>
+        <v>323.8913183482414</v>
       </c>
       <c r="E304" t="n">
-        <v>1064.602061927075</v>
+        <v>1054.217008335949</v>
       </c>
       <c r="F304" t="n">
-        <v>8.443597424650079</v>
+        <v>8.558780014653747</v>
       </c>
     </row>
     <row r="305">
@@ -6546,19 +6546,19 @@
         <v>45658.53483796296</v>
       </c>
       <c r="B305" t="n">
-        <v>3.296003824783121</v>
+        <v>3.087366066212682</v>
       </c>
       <c r="C305" t="n">
-        <v>41.83461616551114</v>
+        <v>41.6521964692083</v>
       </c>
       <c r="D305" t="n">
-        <v>323.4375643403032</v>
+        <v>324.0611153059448</v>
       </c>
       <c r="E305" t="n">
-        <v>1033.609165212048</v>
+        <v>1050.662980971226</v>
       </c>
       <c r="F305" t="n">
-        <v>8.386209243476202</v>
+        <v>8.359444945250949</v>
       </c>
     </row>
     <row r="306">
@@ -6566,19 +6566,19 @@
         <v>45658.5349537037</v>
       </c>
       <c r="B306" t="n">
-        <v>3.329390190135119</v>
+        <v>3.143988774655684</v>
       </c>
       <c r="C306" t="n">
-        <v>41.90027802081264</v>
+        <v>42.60698482598878</v>
       </c>
       <c r="D306" t="n">
-        <v>313.7120337188178</v>
+        <v>327.4435819500456</v>
       </c>
       <c r="E306" t="n">
-        <v>1043.921059005554</v>
+        <v>1046.000529916925</v>
       </c>
       <c r="F306" t="n">
-        <v>8.366235913771213</v>
+        <v>8.391716282548543</v>
       </c>
     </row>
     <row r="307">
@@ -6586,19 +6586,19 @@
         <v>45658.53506944444</v>
       </c>
       <c r="B307" t="n">
-        <v>3.188464292411236</v>
+        <v>3.31651183960841</v>
       </c>
       <c r="C307" t="n">
-        <v>41.19182828851123</v>
+        <v>41.33502504168052</v>
       </c>
       <c r="D307" t="n">
-        <v>313.3177775815089</v>
+        <v>311.2088006106411</v>
       </c>
       <c r="E307" t="n">
-        <v>1041.370743072468</v>
+        <v>1019.480896650162</v>
       </c>
       <c r="F307" t="n">
-        <v>8.327479371043632</v>
+        <v>8.32183572335247</v>
       </c>
     </row>
     <row r="308">
@@ -6606,19 +6606,19 @@
         <v>45658.53518518519</v>
       </c>
       <c r="B308" t="n">
-        <v>3.015871851043386</v>
+        <v>2.921861245717791</v>
       </c>
       <c r="C308" t="n">
-        <v>41.66016203239167</v>
+        <v>40.8426359789026</v>
       </c>
       <c r="D308" t="n">
-        <v>308.1980072869464</v>
+        <v>308.0150273169693</v>
       </c>
       <c r="E308" t="n">
-        <v>1032.737040458126</v>
+        <v>1027.505355822485</v>
       </c>
       <c r="F308" t="n">
-        <v>8.164461774890301</v>
+        <v>8.214219710695481</v>
       </c>
     </row>
     <row r="309">
@@ -6626,19 +6626,19 @@
         <v>45658.53530092593</v>
       </c>
       <c r="B309" t="n">
-        <v>3.115342777738187</v>
+        <v>3.087821465332435</v>
       </c>
       <c r="C309" t="n">
-        <v>41.09012372290645</v>
+        <v>41.07986487778594</v>
       </c>
       <c r="D309" t="n">
-        <v>311.2770908542736</v>
+        <v>300.8679584600609</v>
       </c>
       <c r="E309" t="n">
-        <v>1019.420557648658</v>
+        <v>1028.810156723203</v>
       </c>
       <c r="F309" t="n">
-        <v>8.20698305883711</v>
+        <v>8.228576007174675</v>
       </c>
     </row>
     <row r="310">
@@ -6646,19 +6646,19 @@
         <v>45658.53541666667</v>
       </c>
       <c r="B310" t="n">
-        <v>3.121778616800624</v>
+        <v>3.110452307382215</v>
       </c>
       <c r="C310" t="n">
-        <v>41.55603278515841</v>
+        <v>40.67794650799075</v>
       </c>
       <c r="D310" t="n">
-        <v>315.0710178660158</v>
+        <v>300.703865330324</v>
       </c>
       <c r="E310" t="n">
-        <v>1009.794526779614</v>
+        <v>1009.208171307468</v>
       </c>
       <c r="F310" t="n">
-        <v>8.178491750680264</v>
+        <v>8.277443088397369</v>
       </c>
     </row>
     <row r="311">
@@ -6666,19 +6666,19 @@
         <v>45658.5355324074</v>
       </c>
       <c r="B311" t="n">
-        <v>2.963241826527493</v>
+        <v>2.968728806552056</v>
       </c>
       <c r="C311" t="n">
-        <v>40.75175767191107</v>
+        <v>40.81512977526987</v>
       </c>
       <c r="D311" t="n">
-        <v>307.6535685024625</v>
+        <v>310.9394939545298</v>
       </c>
       <c r="E311" t="n">
-        <v>1007.992397223555</v>
+        <v>1007.603914290479</v>
       </c>
       <c r="F311" t="n">
-        <v>8.125242222616547</v>
+        <v>8.088298718250698</v>
       </c>
     </row>
     <row r="312">
@@ -6686,19 +6686,19 @@
         <v>45658.53564814815</v>
       </c>
       <c r="B312" t="n">
-        <v>3.080524170964028</v>
+        <v>2.994820208248822</v>
       </c>
       <c r="C312" t="n">
-        <v>40.48355494860387</v>
+        <v>40.47055101282785</v>
       </c>
       <c r="D312" t="n">
-        <v>306.0783588354682</v>
+        <v>311.5688519569088</v>
       </c>
       <c r="E312" t="n">
-        <v>1019.012947073614</v>
+        <v>1000.191305772818</v>
       </c>
       <c r="F312" t="n">
-        <v>8.070947252944226</v>
+        <v>8.197343465844162</v>
       </c>
     </row>
     <row r="313">
@@ -6706,19 +6706,19 @@
         <v>45658.53576388889</v>
       </c>
       <c r="B313" t="n">
-        <v>2.998644880014949</v>
+        <v>3.111658403778078</v>
       </c>
       <c r="C313" t="n">
-        <v>39.91160800865826</v>
+        <v>40.43607669502833</v>
       </c>
       <c r="D313" t="n">
-        <v>305.9850502345898</v>
+        <v>308.2952041654831</v>
       </c>
       <c r="E313" t="n">
-        <v>1004.175625009335</v>
+        <v>1011.972418828697</v>
       </c>
       <c r="F313" t="n">
-        <v>8.078864119357187</v>
+        <v>8.064369896411391</v>
       </c>
     </row>
     <row r="314">
@@ -6726,19 +6726,19 @@
         <v>45658.53587962963</v>
       </c>
       <c r="B314" t="n">
-        <v>3.117516477962788</v>
+        <v>3.038641002097785</v>
       </c>
       <c r="C314" t="n">
-        <v>40.00739729002476</v>
+        <v>39.79750820452948</v>
       </c>
       <c r="D314" t="n">
-        <v>291.5970219696207</v>
+        <v>301.4063458707964</v>
       </c>
       <c r="E314" t="n">
-        <v>994.9571819888718</v>
+        <v>1017.3874962303</v>
       </c>
       <c r="F314" t="n">
-        <v>8.074351684493374</v>
+        <v>8.082882461342232</v>
       </c>
     </row>
     <row r="315">
@@ -6746,19 +6746,19 @@
         <v>45658.53599537037</v>
       </c>
       <c r="B315" t="n">
-        <v>3.049836632948374</v>
+        <v>3.006677258288188</v>
       </c>
       <c r="C315" t="n">
-        <v>40.42782229535943</v>
+        <v>39.66780225572139</v>
       </c>
       <c r="D315" t="n">
-        <v>306.1234528837949</v>
+        <v>302.7676251182523</v>
       </c>
       <c r="E315" t="n">
-        <v>1004.924089394421</v>
+        <v>999.3206588058067</v>
       </c>
       <c r="F315" t="n">
-        <v>8.049428878564573</v>
+        <v>8.115104205754319</v>
       </c>
     </row>
     <row r="316">
@@ -6766,19 +6766,19 @@
         <v>45658.53611111111</v>
       </c>
       <c r="B316" t="n">
-        <v>2.984826553123622</v>
+        <v>2.967994659858109</v>
       </c>
       <c r="C316" t="n">
-        <v>39.79244741463718</v>
+        <v>40.21271698091845</v>
       </c>
       <c r="D316" t="n">
-        <v>291.8930640082961</v>
+        <v>302.3467319642328</v>
       </c>
       <c r="E316" t="n">
-        <v>1000.133953117196</v>
+        <v>1009.894025244035</v>
       </c>
       <c r="F316" t="n">
-        <v>7.998632031136627</v>
+        <v>7.970290434875241</v>
       </c>
     </row>
     <row r="317">
@@ -6786,19 +6786,19 @@
         <v>45658.53622685185</v>
       </c>
       <c r="B317" t="n">
-        <v>2.848381358412632</v>
+        <v>2.985729941485817</v>
       </c>
       <c r="C317" t="n">
-        <v>39.75521348597077</v>
+        <v>39.55979686827087</v>
       </c>
       <c r="D317" t="n">
-        <v>298.7011222490317</v>
+        <v>305.5827511732396</v>
       </c>
       <c r="E317" t="n">
-        <v>1004.990495568999</v>
+        <v>1003.375149463845</v>
       </c>
       <c r="F317" t="n">
-        <v>7.945923281155033</v>
+        <v>8.024548925406986</v>
       </c>
     </row>
     <row r="318">
@@ -6806,19 +6806,19 @@
         <v>45658.53634259259</v>
       </c>
       <c r="B318" t="n">
-        <v>2.949351589410229</v>
+        <v>2.899124324199356</v>
       </c>
       <c r="C318" t="n">
-        <v>39.94111771628969</v>
+        <v>40.2471730902462</v>
       </c>
       <c r="D318" t="n">
-        <v>305.5071351191842</v>
+        <v>295.6512024615679</v>
       </c>
       <c r="E318" t="n">
-        <v>1015.767907706322</v>
+        <v>998.1142707691063</v>
       </c>
       <c r="F318" t="n">
-        <v>7.957452310556095</v>
+        <v>8.04263496607753</v>
       </c>
     </row>
     <row r="319">
@@ -6826,19 +6826,19 @@
         <v>45658.53645833334</v>
       </c>
       <c r="B319" t="n">
-        <v>2.896572607741978</v>
+        <v>2.995598644252607</v>
       </c>
       <c r="C319" t="n">
-        <v>40.03315296977229</v>
+        <v>40.12486650839889</v>
       </c>
       <c r="D319" t="n">
-        <v>303.6363568002504</v>
+        <v>295.9491008904216</v>
       </c>
       <c r="E319" t="n">
-        <v>1000.058656322636</v>
+        <v>1007.454509891112</v>
       </c>
       <c r="F319" t="n">
-        <v>8.029660231036859</v>
+        <v>7.952355293761137</v>
       </c>
     </row>
     <row r="320">
@@ -6846,19 +6846,19 @@
         <v>45658.53657407407</v>
       </c>
       <c r="B320" t="n">
-        <v>3.19008067998816</v>
+        <v>3.015180127658007</v>
       </c>
       <c r="C320" t="n">
-        <v>40.42179588828521</v>
+        <v>40.25947932521805</v>
       </c>
       <c r="D320" t="n">
-        <v>316.0653167118236</v>
+        <v>299.6281791877598</v>
       </c>
       <c r="E320" t="n">
-        <v>992.7540480088093</v>
+        <v>1008.051452136186</v>
       </c>
       <c r="F320" t="n">
-        <v>7.965082724722546</v>
+        <v>7.971641036338811</v>
       </c>
     </row>
     <row r="321">
@@ -6866,19 +6866,19 @@
         <v>45658.53668981481</v>
       </c>
       <c r="B321" t="n">
-        <v>2.872247214664078</v>
+        <v>3.052425909204763</v>
       </c>
       <c r="C321" t="n">
-        <v>39.58072514717013</v>
+        <v>40.48851469907301</v>
       </c>
       <c r="D321" t="n">
-        <v>307.4321945198577</v>
+        <v>302.5590893538998</v>
       </c>
       <c r="E321" t="n">
-        <v>1003.429903402917</v>
+        <v>999.1301034118052</v>
       </c>
       <c r="F321" t="n">
-        <v>8.00541469267784</v>
+        <v>8.008869651424126</v>
       </c>
     </row>
     <row r="322">
@@ -6886,19 +6886,19 @@
         <v>45658.53680555556</v>
       </c>
       <c r="B322" t="n">
-        <v>2.980106919161641</v>
+        <v>2.9942589870889</v>
       </c>
       <c r="C322" t="n">
-        <v>39.97193647633143</v>
+        <v>40.44349124462705</v>
       </c>
       <c r="D322" t="n">
-        <v>301.0930978244885</v>
+        <v>298.3413064978586</v>
       </c>
       <c r="E322" t="n">
-        <v>998.0467812510575</v>
+        <v>1011.829188663085</v>
       </c>
       <c r="F322" t="n">
-        <v>8.007886261527528</v>
+        <v>7.99360861891757</v>
       </c>
     </row>
     <row r="323">
@@ -6906,19 +6906,19 @@
         <v>45658.5369212963</v>
       </c>
       <c r="B323" t="n">
-        <v>3.111482785339305</v>
+        <v>3.092317275395323</v>
       </c>
       <c r="C323" t="n">
-        <v>40.95604736309471</v>
+        <v>40.87226671210489</v>
       </c>
       <c r="D323" t="n">
-        <v>310.404650000008</v>
+        <v>298.444402451528</v>
       </c>
       <c r="E323" t="n">
-        <v>1005.973550531427</v>
+        <v>1028.697977908841</v>
       </c>
       <c r="F323" t="n">
-        <v>8.177757177014183</v>
+        <v>8.041236532196885</v>
       </c>
     </row>
     <row r="324">
@@ -6926,19 +6926,19 @@
         <v>45658.53703703704</v>
       </c>
       <c r="B324" t="n">
-        <v>3.02634817020105</v>
+        <v>2.989911949743306</v>
       </c>
       <c r="C324" t="n">
-        <v>39.93821282104204</v>
+        <v>40.90005585738484</v>
       </c>
       <c r="D324" t="n">
-        <v>306.2946932431859</v>
+        <v>315.7456741874763</v>
       </c>
       <c r="E324" t="n">
-        <v>1002.692170287857</v>
+        <v>991.0173462944971</v>
       </c>
       <c r="F324" t="n">
-        <v>8.064590885475901</v>
+        <v>8.108368679663721</v>
       </c>
     </row>
     <row r="325">
@@ -6946,19 +6946,19 @@
         <v>45658.53715277778</v>
       </c>
       <c r="B325" t="n">
-        <v>2.917215246688358</v>
+        <v>3.181233718088334</v>
       </c>
       <c r="C325" t="n">
-        <v>40.02672840684684</v>
+        <v>39.64126685449114</v>
       </c>
       <c r="D325" t="n">
-        <v>303.2838119412586</v>
+        <v>299.4279231282306</v>
       </c>
       <c r="E325" t="n">
-        <v>1011.925689430304</v>
+        <v>1011.237932533634</v>
       </c>
       <c r="F325" t="n">
-        <v>8.155713277079261</v>
+        <v>8.23176504369671</v>
       </c>
     </row>
     <row r="326">
@@ -6966,19 +6966,19 @@
         <v>45658.53726851852</v>
       </c>
       <c r="B326" t="n">
-        <v>3.038318483583288</v>
+        <v>2.864453365653009</v>
       </c>
       <c r="C326" t="n">
-        <v>41.41577496351088</v>
+        <v>40.6832030316848</v>
       </c>
       <c r="D326" t="n">
-        <v>306.9929013606394</v>
+        <v>299.8501217267757</v>
       </c>
       <c r="E326" t="n">
-        <v>1023.28112896761</v>
+        <v>1030.542195700635</v>
       </c>
       <c r="F326" t="n">
-        <v>8.164893820350631</v>
+        <v>8.19536318966723</v>
       </c>
     </row>
     <row r="327">
@@ -6986,19 +6986,19 @@
         <v>45658.53738425926</v>
       </c>
       <c r="B327" t="n">
-        <v>3.225556486863443</v>
+        <v>3.023168283661189</v>
       </c>
       <c r="C327" t="n">
-        <v>41.06160300529615</v>
+        <v>40.25115852521739</v>
       </c>
       <c r="D327" t="n">
-        <v>299.0883986623793</v>
+        <v>308.8953760152239</v>
       </c>
       <c r="E327" t="n">
-        <v>1016.821510384651</v>
+        <v>1030.306577789836</v>
       </c>
       <c r="F327" t="n">
-        <v>8.105340254933488</v>
+        <v>8.172911823917081</v>
       </c>
     </row>
     <row r="328">
@@ -7006,19 +7006,19 @@
         <v>45658.5375</v>
       </c>
       <c r="B328" t="n">
-        <v>3.134383599013401</v>
+        <v>3.164864434352296</v>
       </c>
       <c r="C328" t="n">
-        <v>41.63857668279673</v>
+        <v>40.75921762794877</v>
       </c>
       <c r="D328" t="n">
-        <v>312.1235506586499</v>
+        <v>307.5399528462348</v>
       </c>
       <c r="E328" t="n">
-        <v>1022.273641669407</v>
+        <v>1042.351474467168</v>
       </c>
       <c r="F328" t="n">
-        <v>8.214648037685645</v>
+        <v>8.159222307605807</v>
       </c>
     </row>
     <row r="329">
@@ -7026,19 +7026,19 @@
         <v>45658.53761574074</v>
       </c>
       <c r="B329" t="n">
-        <v>3.111987290809216</v>
+        <v>3.131146046839543</v>
       </c>
       <c r="C329" t="n">
-        <v>41.83407770306417</v>
+        <v>41.72157229806709</v>
       </c>
       <c r="D329" t="n">
-        <v>316.5649463751097</v>
+        <v>320.101518933607</v>
       </c>
       <c r="E329" t="n">
-        <v>1024.510678084228</v>
+        <v>1020.907667591961</v>
       </c>
       <c r="F329" t="n">
-        <v>8.324089219366407</v>
+        <v>8.312628717339061</v>
       </c>
     </row>
     <row r="330">
@@ -7046,19 +7046,19 @@
         <v>45658.53773148148</v>
       </c>
       <c r="B330" t="n">
-        <v>3.164607384879259</v>
+        <v>3.046224049051955</v>
       </c>
       <c r="C330" t="n">
-        <v>41.74083614070634</v>
+        <v>42.09867872104243</v>
       </c>
       <c r="D330" t="n">
-        <v>317.1108510156656</v>
+        <v>324.5620706461993</v>
       </c>
       <c r="E330" t="n">
-        <v>1033.880342193896</v>
+        <v>1029.633539752797</v>
       </c>
       <c r="F330" t="n">
-        <v>8.380611376746144</v>
+        <v>8.35262332109672</v>
       </c>
     </row>
     <row r="331">
@@ -7066,19 +7066,19 @@
         <v>45658.53784722222</v>
       </c>
       <c r="B331" t="n">
-        <v>3.206812156939954</v>
+        <v>3.026965231226805</v>
       </c>
       <c r="C331" t="n">
-        <v>40.9927086505104</v>
+        <v>40.99536902872622</v>
       </c>
       <c r="D331" t="n">
-        <v>323.5002150552023</v>
+        <v>317.7934062584817</v>
       </c>
       <c r="E331" t="n">
-        <v>1047.372654021134</v>
+        <v>1038.161746646564</v>
       </c>
       <c r="F331" t="n">
-        <v>8.425209913155891</v>
+        <v>8.37175351090927</v>
       </c>
     </row>
     <row r="332">
@@ -7086,19 +7086,19 @@
         <v>45658.53796296296</v>
       </c>
       <c r="B332" t="n">
-        <v>3.280150913053602</v>
+        <v>3.053397939368293</v>
       </c>
       <c r="C332" t="n">
-        <v>42.53674687345071</v>
+        <v>42.57964817837831</v>
       </c>
       <c r="D332" t="n">
-        <v>321.4157123391776</v>
+        <v>319.8913906053453</v>
       </c>
       <c r="E332" t="n">
-        <v>1072.286141862065</v>
+        <v>1061.287164246279</v>
       </c>
       <c r="F332" t="n">
-        <v>8.523733472151317</v>
+        <v>8.429474152770291</v>
       </c>
     </row>
     <row r="333">
@@ -7106,19 +7106,19 @@
         <v>45658.53807870371</v>
       </c>
       <c r="B333" t="n">
-        <v>3.13320243294576</v>
+        <v>3.26703984174014</v>
       </c>
       <c r="C333" t="n">
-        <v>42.16202232832563</v>
+        <v>42.60373369797107</v>
       </c>
       <c r="D333" t="n">
-        <v>327.1776904659197</v>
+        <v>337.622988929037</v>
       </c>
       <c r="E333" t="n">
-        <v>1072.644090185644</v>
+        <v>1067.469487538343</v>
       </c>
       <c r="F333" t="n">
-        <v>8.557568950947939</v>
+        <v>8.524249242254312</v>
       </c>
     </row>
     <row r="334">
@@ -7126,19 +7126,19 @@
         <v>45658.53819444445</v>
       </c>
       <c r="B334" t="n">
-        <v>3.28506385506364</v>
+        <v>3.38601912774159</v>
       </c>
       <c r="C334" t="n">
-        <v>43.52516347145357</v>
+        <v>42.36840365425763</v>
       </c>
       <c r="D334" t="n">
-        <v>326.2548443954659</v>
+        <v>339.0478518182532</v>
       </c>
       <c r="E334" t="n">
-        <v>1072.961314000953</v>
+        <v>1078.101827219373</v>
       </c>
       <c r="F334" t="n">
-        <v>8.601583724954951</v>
+        <v>8.557366436597109</v>
       </c>
     </row>
     <row r="335">
@@ -7146,19 +7146,19 @@
         <v>45658.53831018518</v>
       </c>
       <c r="B335" t="n">
-        <v>3.36477856718547</v>
+        <v>3.526123564578385</v>
       </c>
       <c r="C335" t="n">
-        <v>43.1197505636559</v>
+        <v>42.30357087379359</v>
       </c>
       <c r="D335" t="n">
-        <v>327.8254070312685</v>
+        <v>324.7236669336266</v>
       </c>
       <c r="E335" t="n">
-        <v>1100.88167359446</v>
+        <v>1078.034878190099</v>
       </c>
       <c r="F335" t="n">
-        <v>8.668386006603678</v>
+        <v>8.615061904012485</v>
       </c>
     </row>
     <row r="336">
@@ -7166,19 +7166,19 @@
         <v>45658.53842592592</v>
       </c>
       <c r="B336" t="n">
-        <v>3.315247772945256</v>
+        <v>3.356234325866979</v>
       </c>
       <c r="C336" t="n">
-        <v>43.56955331259172</v>
+        <v>43.87180055476828</v>
       </c>
       <c r="D336" t="n">
-        <v>335.9314596369583</v>
+        <v>343.2571488483844</v>
       </c>
       <c r="E336" t="n">
-        <v>1081.711719928302</v>
+        <v>1095.095452542071</v>
       </c>
       <c r="F336" t="n">
-        <v>8.783102951446981</v>
+        <v>8.815452373860802</v>
       </c>
     </row>
     <row r="337">
@@ -7186,19 +7186,19 @@
         <v>45658.53854166667</v>
       </c>
       <c r="B337" t="n">
-        <v>3.302857879062794</v>
+        <v>3.397736349198429</v>
       </c>
       <c r="C337" t="n">
-        <v>44.00321175422928</v>
+        <v>45.09169701825419</v>
       </c>
       <c r="D337" t="n">
-        <v>340.9141514095642</v>
+        <v>356.5715538306736</v>
       </c>
       <c r="E337" t="n">
-        <v>1095.543882749315</v>
+        <v>1119.222773379532</v>
       </c>
       <c r="F337" t="n">
-        <v>8.862514687157441</v>
+        <v>8.847929661802374</v>
       </c>
     </row>
     <row r="338">
@@ -7206,19 +7206,19 @@
         <v>45658.53865740741</v>
       </c>
       <c r="B338" t="n">
-        <v>3.336350868046802</v>
+        <v>3.325284890108268</v>
       </c>
       <c r="C338" t="n">
-        <v>44.36451310841337</v>
+        <v>45.17682098510605</v>
       </c>
       <c r="D338" t="n">
-        <v>345.6263717932953</v>
+        <v>350.3855317407068</v>
       </c>
       <c r="E338" t="n">
-        <v>1106.443286464006</v>
+        <v>1107.300560809357</v>
       </c>
       <c r="F338" t="n">
-        <v>8.989736716492166</v>
+        <v>8.946468949027389</v>
       </c>
     </row>
     <row r="339">
@@ -7226,19 +7226,19 @@
         <v>45658.53877314815</v>
       </c>
       <c r="B339" t="n">
-        <v>3.650789863526001</v>
+        <v>3.299216808166428</v>
       </c>
       <c r="C339" t="n">
-        <v>45.73588545671514</v>
+        <v>44.10229455992076</v>
       </c>
       <c r="D339" t="n">
-        <v>347.8402522395263</v>
+        <v>359.2833146827152</v>
       </c>
       <c r="E339" t="n">
-        <v>1127.726129049562</v>
+        <v>1145.137347841118</v>
       </c>
       <c r="F339" t="n">
-        <v>8.981419044241344</v>
+        <v>9.041317074093413</v>
       </c>
     </row>
     <row r="340">
@@ -7246,19 +7246,19 @@
         <v>45658.53888888889</v>
       </c>
       <c r="B340" t="n">
-        <v>3.624015929533138</v>
+        <v>3.559569125299744</v>
       </c>
       <c r="C340" t="n">
-        <v>46.34481784069543</v>
+        <v>45.12965897947718</v>
       </c>
       <c r="D340" t="n">
-        <v>356.1901265766236</v>
+        <v>355.180953028049</v>
       </c>
       <c r="E340" t="n">
-        <v>1138.749348492613</v>
+        <v>1145.470301564376</v>
       </c>
       <c r="F340" t="n">
-        <v>8.964671250606891</v>
+        <v>9.075276215575267</v>
       </c>
     </row>
     <row r="341">
@@ -7266,19 +7266,19 @@
         <v>45658.53900462963</v>
       </c>
       <c r="B341" t="n">
-        <v>3.71532145241201</v>
+        <v>3.616738598736838</v>
       </c>
       <c r="C341" t="n">
-        <v>45.94499858421869</v>
+        <v>45.51909323142974</v>
       </c>
       <c r="D341" t="n">
-        <v>366.6772319264135</v>
+        <v>360.6781942984646</v>
       </c>
       <c r="E341" t="n">
-        <v>1150.082487096904</v>
+        <v>1157.014708860843</v>
       </c>
       <c r="F341" t="n">
-        <v>9.144944532586303</v>
+        <v>9.192491187806262</v>
       </c>
     </row>
     <row r="342">
@@ -7286,19 +7286,19 @@
         <v>45658.53912037037</v>
       </c>
       <c r="B342" t="n">
-        <v>3.672294480716517</v>
+        <v>3.738355075109953</v>
       </c>
       <c r="C342" t="n">
-        <v>47.29951934201921</v>
+        <v>46.59400011001015</v>
       </c>
       <c r="D342" t="n">
-        <v>373.0773570290306</v>
+        <v>366.7327001164275</v>
       </c>
       <c r="E342" t="n">
-        <v>1165.536216321925</v>
+        <v>1173.926947188509</v>
       </c>
       <c r="F342" t="n">
-        <v>9.263264923788878</v>
+        <v>9.410678373435427</v>
       </c>
     </row>
     <row r="343">
@@ -7306,19 +7306,19 @@
         <v>45658.53923611111</v>
       </c>
       <c r="B343" t="n">
-        <v>3.678026950094629</v>
+        <v>3.735332635865599</v>
       </c>
       <c r="C343" t="n">
-        <v>47.83717200124482</v>
+        <v>46.64518389297134</v>
       </c>
       <c r="D343" t="n">
-        <v>374.243784435675</v>
+        <v>367.41242683653</v>
       </c>
       <c r="E343" t="n">
-        <v>1174.129590265367</v>
+        <v>1182.548107810557</v>
       </c>
       <c r="F343" t="n">
-        <v>9.421622763908461</v>
+        <v>9.406490606504779</v>
       </c>
     </row>
     <row r="344">
@@ -7326,19 +7326,19 @@
         <v>45658.53935185185</v>
       </c>
       <c r="B344" t="n">
-        <v>3.7689235065282</v>
+        <v>3.709730828316339</v>
       </c>
       <c r="C344" t="n">
-        <v>47.55738251515233</v>
+        <v>48.32635650266088</v>
       </c>
       <c r="D344" t="n">
-        <v>377.5661302219639</v>
+        <v>376.0684494357621</v>
       </c>
       <c r="E344" t="n">
-        <v>1177.627012450529</v>
+        <v>1175.342364225494</v>
       </c>
       <c r="F344" t="n">
-        <v>9.533087456673467</v>
+        <v>9.543049371205463</v>
       </c>
     </row>
     <row r="345">
@@ -7346,19 +7346,19 @@
         <v>45658.53946759259</v>
       </c>
       <c r="B345" t="n">
-        <v>3.866920631900743</v>
+        <v>3.782271155510767</v>
       </c>
       <c r="C345" t="n">
-        <v>47.67716503022633</v>
+        <v>47.64610978099735</v>
       </c>
       <c r="D345" t="n">
-        <v>388.99940091766</v>
+        <v>376.1678919957447</v>
       </c>
       <c r="E345" t="n">
-        <v>1195.752995235553</v>
+        <v>1223.359992088168</v>
       </c>
       <c r="F345" t="n">
-        <v>9.635377810914891</v>
+        <v>9.737689870666845</v>
       </c>
     </row>
     <row r="346">
@@ -7366,19 +7366,19 @@
         <v>45658.53958333333</v>
       </c>
       <c r="B346" t="n">
-        <v>3.784863488256964</v>
+        <v>3.938852730763026</v>
       </c>
       <c r="C346" t="n">
-        <v>47.9120165042569</v>
+        <v>49.67762546156747</v>
       </c>
       <c r="D346" t="n">
-        <v>380.0998829814358</v>
+        <v>384.1004565522538</v>
       </c>
       <c r="E346" t="n">
-        <v>1228.15333503306</v>
+        <v>1228.539517036565</v>
       </c>
       <c r="F346" t="n">
-        <v>9.715259387290013</v>
+        <v>9.723514422626577</v>
       </c>
     </row>
     <row r="347">
@@ -7386,19 +7386,19 @@
         <v>45658.53969907408</v>
       </c>
       <c r="B347" t="n">
-        <v>4.004967010196787</v>
+        <v>3.885338217554061</v>
       </c>
       <c r="C347" t="n">
-        <v>50.16976951915058</v>
+        <v>49.47225963671006</v>
       </c>
       <c r="D347" t="n">
-        <v>381.0324651136523</v>
+        <v>394.3926533823013</v>
       </c>
       <c r="E347" t="n">
-        <v>1228.733924024069</v>
+        <v>1230.355102180847</v>
       </c>
       <c r="F347" t="n">
-        <v>9.934373365319045</v>
+        <v>9.821950823318156</v>
       </c>
     </row>
     <row r="348">
@@ -7406,19 +7406,19 @@
         <v>45658.53981481482</v>
       </c>
       <c r="B348" t="n">
-        <v>4.000052712427859</v>
+        <v>3.875830138919172</v>
       </c>
       <c r="C348" t="n">
-        <v>49.97841089680658</v>
+        <v>50.53117657146056</v>
       </c>
       <c r="D348" t="n">
-        <v>408.1037937245002</v>
+        <v>404.9724034480257</v>
       </c>
       <c r="E348" t="n">
-        <v>1256.251830828776</v>
+        <v>1241.698094196766</v>
       </c>
       <c r="F348" t="n">
-        <v>9.973212710583038</v>
+        <v>9.910334743559396</v>
       </c>
     </row>
     <row r="349">
@@ -7426,19 +7426,19 @@
         <v>45658.53993055555</v>
       </c>
       <c r="B349" t="n">
-        <v>3.929508068111403</v>
+        <v>3.968795450110858</v>
       </c>
       <c r="C349" t="n">
-        <v>51.30939440491224</v>
+        <v>50.11219173027551</v>
       </c>
       <c r="D349" t="n">
-        <v>400.0394419355794</v>
+        <v>399.9564352346873</v>
       </c>
       <c r="E349" t="n">
-        <v>1269.976079949712</v>
+        <v>1274.340869516282</v>
       </c>
       <c r="F349" t="n">
-        <v>10.15484034413895</v>
+        <v>10.02585052988204</v>
       </c>
     </row>
     <row r="350">
@@ -7446,19 +7446,19 @@
         <v>45658.54004629629</v>
       </c>
       <c r="B350" t="n">
-        <v>4.181411968683265</v>
+        <v>4.135001865621468</v>
       </c>
       <c r="C350" t="n">
-        <v>51.48836318785295</v>
+        <v>51.31012579683924</v>
       </c>
       <c r="D350" t="n">
-        <v>418.5845898425334</v>
+        <v>408.5277867240887</v>
       </c>
       <c r="E350" t="n">
-        <v>1269.816644531758</v>
+        <v>1283.12561238027</v>
       </c>
       <c r="F350" t="n">
-        <v>10.13274670103778</v>
+        <v>10.16653085372287</v>
       </c>
     </row>
     <row r="351">
@@ -7466,19 +7466,19 @@
         <v>45658.54016203704</v>
       </c>
       <c r="B351" t="n">
-        <v>4.155463863681951</v>
+        <v>4.261272162744926</v>
       </c>
       <c r="C351" t="n">
-        <v>51.23394879921711</v>
+        <v>51.86411519528998</v>
       </c>
       <c r="D351" t="n">
-        <v>415.9205371107957</v>
+        <v>421.8434003815601</v>
       </c>
       <c r="E351" t="n">
-        <v>1286.786641424547</v>
+        <v>1295.659412418224</v>
       </c>
       <c r="F351" t="n">
-        <v>10.37704033895078</v>
+        <v>10.31553173622238</v>
       </c>
     </row>
     <row r="352">
@@ -7486,19 +7486,19 @@
         <v>45658.54027777778</v>
       </c>
       <c r="B352" t="n">
-        <v>4.159564540187712</v>
+        <v>4.289317207276847</v>
       </c>
       <c r="C352" t="n">
-        <v>53.62085022010842</v>
+        <v>51.40685850160184</v>
       </c>
       <c r="D352" t="n">
-        <v>420.5570178608052</v>
+        <v>424.0258317716862</v>
       </c>
       <c r="E352" t="n">
-        <v>1296.760262593087</v>
+        <v>1311.954978502715</v>
       </c>
       <c r="F352" t="n">
-        <v>10.55940696193776</v>
+        <v>10.4789300794191</v>
       </c>
     </row>
     <row r="353">
@@ -7506,19 +7506,19 @@
         <v>45658.54039351852</v>
       </c>
       <c r="B353" t="n">
-        <v>4.135231153944345</v>
+        <v>4.280447308738783</v>
       </c>
       <c r="C353" t="n">
-        <v>53.64939797301355</v>
+        <v>53.40638124501992</v>
       </c>
       <c r="D353" t="n">
-        <v>423.2307270415451</v>
+        <v>430.0432085688484</v>
       </c>
       <c r="E353" t="n">
-        <v>1316.574657357617</v>
+        <v>1319.87868294994</v>
       </c>
       <c r="F353" t="n">
-        <v>10.63171802443647</v>
+        <v>10.66698906271789</v>
       </c>
     </row>
     <row r="354">
@@ -7526,19 +7526,19 @@
         <v>45658.54050925926</v>
       </c>
       <c r="B354" t="n">
-        <v>4.288609333317174</v>
+        <v>4.420668074663084</v>
       </c>
       <c r="C354" t="n">
-        <v>54.06972487351023</v>
+        <v>54.04364753613081</v>
       </c>
       <c r="D354" t="n">
-        <v>439.5700993640056</v>
+        <v>433.4128626681884</v>
       </c>
       <c r="E354" t="n">
-        <v>1332.628752780166</v>
+        <v>1330.237469901811</v>
       </c>
       <c r="F354" t="n">
-        <v>10.75600514858375</v>
+        <v>10.67959612212968</v>
       </c>
     </row>
     <row r="355">
@@ -7546,19 +7546,19 @@
         <v>45658.540625</v>
       </c>
       <c r="B355" t="n">
-        <v>4.331736666757286</v>
+        <v>4.452418742125413</v>
       </c>
       <c r="C355" t="n">
-        <v>54.1636118115529</v>
+        <v>54.28940244656287</v>
       </c>
       <c r="D355" t="n">
-        <v>446.2256577619601</v>
+        <v>451.8254408546002</v>
       </c>
       <c r="E355" t="n">
-        <v>1358.117397967578</v>
+        <v>1364.57188745222</v>
       </c>
       <c r="F355" t="n">
-        <v>10.87683696456263</v>
+        <v>10.84601517087251</v>
       </c>
     </row>
     <row r="356">
@@ -7566,19 +7566,19 @@
         <v>45658.54074074074</v>
       </c>
       <c r="B356" t="n">
-        <v>4.397409675931259</v>
+        <v>4.53404384540559</v>
       </c>
       <c r="C356" t="n">
-        <v>54.69059155916712</v>
+        <v>55.52178819554369</v>
       </c>
       <c r="D356" t="n">
-        <v>451.2934024781875</v>
+        <v>455.2425013648356</v>
       </c>
       <c r="E356" t="n">
-        <v>1368.43838840304</v>
+        <v>1389.07942059993</v>
       </c>
       <c r="F356" t="n">
-        <v>11.09082501185692</v>
+        <v>11.03615685059732</v>
       </c>
     </row>
     <row r="357">
@@ -7586,19 +7586,19 @@
         <v>45658.54085648148</v>
       </c>
       <c r="B357" t="n">
-        <v>4.567689721838949</v>
+        <v>4.73002523892658</v>
       </c>
       <c r="C357" t="n">
-        <v>56.06557990932406</v>
+        <v>56.18508849669806</v>
       </c>
       <c r="D357" t="n">
-        <v>460.8304486079805</v>
+        <v>459.1828214970225</v>
       </c>
       <c r="E357" t="n">
-        <v>1366.137041971931</v>
+        <v>1388.097612521844</v>
       </c>
       <c r="F357" t="n">
-        <v>11.1859133505104</v>
+        <v>11.13220269809895</v>
       </c>
     </row>
     <row r="358">
@@ -7606,19 +7606,19 @@
         <v>45658.54097222222</v>
       </c>
       <c r="B358" t="n">
-        <v>4.593591407819637</v>
+        <v>4.734367072489234</v>
       </c>
       <c r="C358" t="n">
-        <v>56.57896145256016</v>
+        <v>56.16929499991298</v>
       </c>
       <c r="D358" t="n">
-        <v>470.5522453354196</v>
+        <v>460.374344571876</v>
       </c>
       <c r="E358" t="n">
-        <v>1411.003508573835</v>
+        <v>1404.3013539294</v>
       </c>
       <c r="F358" t="n">
-        <v>11.318712868913</v>
+        <v>11.28304570039518</v>
       </c>
     </row>
     <row r="359">
@@ -7626,19 +7626,19 @@
         <v>45658.54108796296</v>
       </c>
       <c r="B359" t="n">
-        <v>4.805642486980251</v>
+        <v>4.846325066888113</v>
       </c>
       <c r="C359" t="n">
-        <v>57.48886879576403</v>
+        <v>57.18014645638572</v>
       </c>
       <c r="D359" t="n">
-        <v>472.9391181885086</v>
+        <v>473.274351648641</v>
       </c>
       <c r="E359" t="n">
-        <v>1422.912397962292</v>
+        <v>1414.032478419579</v>
       </c>
       <c r="F359" t="n">
-        <v>11.43466292495388</v>
+        <v>11.45401731547097</v>
       </c>
     </row>
     <row r="360">
@@ -7646,19 +7646,19 @@
         <v>45658.5412037037</v>
       </c>
       <c r="B360" t="n">
-        <v>4.634458578461449</v>
+        <v>4.714662372901532</v>
       </c>
       <c r="C360" t="n">
-        <v>57.98786566964009</v>
+        <v>58.01196803329326</v>
       </c>
       <c r="D360" t="n">
-        <v>480.834658088091</v>
+        <v>476.8503145678143</v>
       </c>
       <c r="E360" t="n">
-        <v>1448.146003516179</v>
+        <v>1426.216545093724</v>
       </c>
       <c r="F360" t="n">
-        <v>11.63961101229323</v>
+        <v>11.56786578071998</v>
       </c>
     </row>
     <row r="361">
@@ -7666,19 +7666,19 @@
         <v>45658.54131944444</v>
       </c>
       <c r="B361" t="n">
-        <v>4.820567705158708</v>
+        <v>4.888008590614563</v>
       </c>
       <c r="C361" t="n">
-        <v>58.90861382621788</v>
+        <v>58.47027974828568</v>
       </c>
       <c r="D361" t="n">
-        <v>487.6621002977131</v>
+        <v>487.1434768706366</v>
       </c>
       <c r="E361" t="n">
-        <v>1484.893480992797</v>
+        <v>1475.211703770424</v>
       </c>
       <c r="F361" t="n">
-        <v>11.75193175334187</v>
+        <v>11.72454114579908</v>
       </c>
     </row>
     <row r="362">
@@ -7686,19 +7686,19 @@
         <v>45658.54143518519</v>
       </c>
       <c r="B362" t="n">
-        <v>4.989256331900671</v>
+        <v>4.91753262558017</v>
       </c>
       <c r="C362" t="n">
-        <v>59.32662565138735</v>
+        <v>59.23226608164214</v>
       </c>
       <c r="D362" t="n">
-        <v>492.6690644822671</v>
+        <v>485.4262197416913</v>
       </c>
       <c r="E362" t="n">
-        <v>1481.64242219905</v>
+        <v>1472.336526459262</v>
       </c>
       <c r="F362" t="n">
-        <v>11.86613096202348</v>
+        <v>11.79825902514487</v>
       </c>
     </row>
     <row r="363">
@@ -7706,19 +7706,19 @@
         <v>45658.54155092593</v>
       </c>
       <c r="B363" t="n">
-        <v>5.088138117960233</v>
+        <v>4.897382658358936</v>
       </c>
       <c r="C363" t="n">
-        <v>59.84633070040696</v>
+        <v>59.66440848150221</v>
       </c>
       <c r="D363" t="n">
-        <v>497.3786253195554</v>
+        <v>497.2282904402359</v>
       </c>
       <c r="E363" t="n">
-        <v>1507.056314410986</v>
+        <v>1494.487542596994</v>
       </c>
       <c r="F363" t="n">
-        <v>11.99230827624863</v>
+        <v>12.05425138526512</v>
       </c>
     </row>
   </sheetData>
